--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="30">
   <si>
     <t>Nome</t>
   </si>
@@ -109,7 +109,7 @@
     <t>Dezembro</t>
   </si>
   <si>
-    <t xml:space="preserve"> R$ 1.819,42 </t>
+    <t xml:space="preserve"> R$ 1.803,10 </t>
   </si>
 </sst>
 </file>
@@ -271,21 +271,6 @@
       <numFmt numFmtId="164" formatCode="0.0000%"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
     </dxf>
     <dxf>
@@ -307,6 +292,33 @@
       <numFmt numFmtId="164" formatCode="0.0000%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -325,6 +337,9 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -361,45 +376,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -441,7 +417,31 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40884.84362349537" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="66">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40885.828647106478" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="70">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -514,7 +514,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="37">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="38">
         <d v="2011-10-19T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
         <d v="2011-10-21T00:00:00"/>
@@ -550,6 +550,7 @@
         <d v="2011-12-05T00:00:00"/>
         <d v="2011-12-06T00:00:00"/>
         <d v="2011-12-07T00:00:00"/>
+        <d v="2011-12-08T00:00:00"/>
         <d v="2011-12-03T00:00:00" u="1"/>
         <d v="2012-12-01T00:00:00" u="1"/>
       </sharedItems>
@@ -558,22 +559,22 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1583.68" maxValue="1670.78"/>
     </cacheField>
     <cacheField name="Valor Base" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1691.2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1691.62"/>
     </cacheField>
     <cacheField name="Valor Bruto" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1691.62"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1692.38"/>
     </cacheField>
     <cacheField name="Rendimento" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-28.230000000000018" maxValue="87.680000000000064"/>
     </cacheField>
     <cacheField name="Rent. Dia" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.0482793147732974E-2" maxValue="5.8609625668449239E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.2902467685076382E-2" maxValue="5.8609625668449239E-2"/>
     </cacheField>
     <cacheField name="Rent. Mês" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.0482793147732936E-2" maxValue="0.17309629629629653"/>
     </cacheField>
     <cacheField name="Rent. Ano" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.6317287033273287E-2" maxValue="0.14906800751688776"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.3994541548109862E-2" maxValue="0.14906800751688776"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -585,7 +586,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="66">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="70">
   <r>
     <m/>
     <x v="0"/>
@@ -598,7 +599,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -612,7 +613,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6684781958125708E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -626,7 +627,7 @@
     <n v="0.74000000000000909"/>
     <n v="4.4270023211850554E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -640,7 +641,7 @@
     <n v="0.74000000000000909"/>
     <n v="4.4250433534653421E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -654,7 +655,7 @@
     <n v="0.82999999999992724"/>
     <n v="4.9610290250079328E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -668,7 +669,7 @@
     <n v="0.79000000000019099"/>
     <n v="4.7196018806728782E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -682,7 +683,7 @@
     <n v="0.81999999999993634"/>
     <n v="4.8965163077874685E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -696,7 +697,7 @@
     <n v="0.65000000000009095"/>
     <n v="3.8794852818302276E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -710,7 +711,7 @@
     <n v="0.72999999999979082"/>
     <n v="4.3552707725521932E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -724,7 +725,7 @@
     <n v="0.63000000000010914"/>
     <n v="3.7570220531237501E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -752,7 +753,7 @@
     <n v="0.61999999999989086"/>
     <n v="3.6959981877679801E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -780,7 +781,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1713594460437368E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -808,7 +809,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6461481644734828E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -836,7 +837,7 @@
     <n v="0.83000000000015461"/>
     <n v="4.9416821962511965E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -864,7 +865,7 @@
     <n v="0.84999999999990905"/>
     <n v="5.0582592447120901E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -892,7 +893,7 @@
     <n v="0.82999999999992724"/>
     <n v="4.9367442469081544E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -920,7 +921,7 @@
     <n v="0.92000000000007276"/>
     <n v="5.4693537839609584E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -948,7 +949,7 @@
     <n v="0.79999999999995453"/>
     <n v="4.7533600313719063E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -976,7 +977,7 @@
     <n v="0.78999999999996362"/>
     <n v="4.6917128909263676E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1004,7 +1005,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1552644232198876E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1032,7 +1033,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6282286344943825E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1060,7 +1061,7 @@
     <n v="0.72000000000002728"/>
     <n v="4.2702346849813905E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1088,7 +1089,7 @@
     <n v="0.78999999999996362"/>
     <n v="4.683396470260217E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1116,7 +1117,7 @@
     <n v="0.76999999999998181"/>
     <n v="4.5626925811802671E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1144,7 +1145,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1460106493247662E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1186,7 +1187,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1442924212735144E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1200,7 +1201,7 @@
     <n v="0.73000000000001819"/>
     <n v="4.3201145718057383E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1228,7 +1229,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1407867494826705E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1284,7 +1285,7 @@
     <n v="-3.1600000000000819"/>
     <n v="-1.8684957426679763E-3"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1298,7 +1299,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1468211653754978E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1312,7 +1313,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="4.039655172413803E-2"/>
+    <n v="3.2948275862069165E-2"/>
   </r>
   <r>
     <m/>
@@ -1339,8 +1340,8 @@
     <n v="1689.49"/>
     <n v="0.75"/>
     <n v="4.4411809988512146E-4"/>
-    <n v="1.7054135035587947E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="2.1554531781091679E-3"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1353,8 +1354,8 @@
     <n v="590.01"/>
     <n v="10.009999999999991"/>
     <n v="1.7258620689655158E-2"/>
-    <n v="4.039655172413803E-2"/>
-    <n v="4.039655172413803E-2"/>
+    <n v="3.2948275862069165E-2"/>
+    <n v="3.2948275862069165E-2"/>
   </r>
   <r>
     <m/>
@@ -1381,8 +1382,8 @@
     <n v="1690.21"/>
     <n v="0.72000000000002728"/>
     <n v="4.2616410869553964E-4"/>
-    <n v="1.7054135035587947E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="2.1554531781091679E-3"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1395,8 +1396,8 @@
     <n v="587.96"/>
     <n v="-2.0499999999999545"/>
     <n v="-3.474517381061261E-3"/>
-    <n v="4.039655172413803E-2"/>
-    <n v="4.039655172413803E-2"/>
+    <n v="3.2948275862069165E-2"/>
+    <n v="3.2948275862069165E-2"/>
   </r>
   <r>
     <m/>
@@ -1423,8 +1424,8 @@
     <n v="1690.92"/>
     <n v="0.71000000000003638"/>
     <n v="4.2006614562689626E-4"/>
-    <n v="1.7054135035587947E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="2.1554531781091679E-3"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1437,8 +1438,8 @@
     <n v="596.89"/>
     <n v="8.92999999999995"/>
     <n v="1.5188108034560088E-2"/>
-    <n v="4.039655172413803E-2"/>
-    <n v="4.039655172413803E-2"/>
+    <n v="3.2948275862069165E-2"/>
+    <n v="3.2948275862069165E-2"/>
   </r>
   <r>
     <m/>
@@ -1462,11 +1463,11 @@
     <x v="33"/>
     <n v="861.05"/>
     <n v="861.05"/>
-    <n v="847"/>
-    <n v="-14.049999999999955"/>
-    <n v="-1.6317287033273276E-2"/>
-    <n v="-1.6317287033273287E-2"/>
-    <n v="-1.6317287033273287E-2"/>
+    <n v="851"/>
+    <n v="-10.049999999999955"/>
+    <n v="-1.1671796062946351E-2"/>
+    <n v="-1.3994541548109862E-2"/>
+    <n v="-1.3994541548109862E-2"/>
   </r>
   <r>
     <m/>
@@ -1479,8 +1480,8 @@
     <n v="1691.62"/>
     <n v="0.6999999999998181"/>
     <n v="4.1397582381178178E-4"/>
-    <n v="1.7054135035587947E-3"/>
-    <n v="1.2473216102658169E-2"/>
+    <n v="2.1554531781091679E-3"/>
+    <n v="1.2928093465327084E-2"/>
   </r>
   <r>
     <m/>
@@ -1493,8 +1494,8 @@
     <n v="603.42999999999995"/>
     <n v="6.5399999999999636"/>
     <n v="1.0956792708874272E-2"/>
-    <n v="4.039655172413803E-2"/>
-    <n v="4.039655172413803E-2"/>
+    <n v="3.2948275862069165E-2"/>
+    <n v="3.2948275862069165E-2"/>
   </r>
   <r>
     <m/>
@@ -1510,11 +1511,67 @@
     <n v="0.17309629629629653"/>
     <n v="0.14906800751688776"/>
   </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="851"/>
+    <n v="823"/>
+    <n v="-28"/>
+    <n v="-3.2902467685076382E-2"/>
+    <n v="-1.3994541548109862E-2"/>
+    <n v="-1.3994541548109862E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="1691.62"/>
+    <n v="1692.38"/>
+    <n v="0.76000000000021828"/>
+    <n v="4.4927347749507476E-4"/>
+    <n v="2.1554531781091679E-3"/>
+    <n v="1.2928093465327084E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="603.42999999999995"/>
+    <n v="599.11"/>
+    <n v="-4.3199999999999363"/>
+    <n v="-7.1590739605255568E-3"/>
+    <n v="3.2948275862069165E-2"/>
+    <n v="3.2948275862069165E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="823"/>
+    <n v="849"/>
+    <n v="26"/>
+    <n v="3.1591737545565005E-2"/>
+    <n v="-1.3994541548109862E-2"/>
+    <n v="-1.3994541548109862E-2"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -1554,7 +1611,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="38">
+      <items count="39">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1587,11 +1644,12 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
-        <item m="1" x="35"/>
         <item m="1" x="36"/>
+        <item m="1" x="37"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
+        <item x="35"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1712,44 +1770,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L69" totalsRowCount="1" headerRowDxfId="19">
-  <autoFilter ref="A1:L68"/>
-  <sortState ref="A2:L67">
-    <sortCondition ref="E1:E64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L72" totalsRowCount="1" headerRowDxfId="19">
+  <autoFilter ref="A1:L71"/>
+  <sortState ref="A2:L71">
+    <sortCondition ref="E1:E71"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="12" name="ID"/>
-    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 1.819,42 " totalsRowDxfId="9"/>
-    <tableColumn id="11" name="Ano" totalsRowFunction="custom" totalsRowDxfId="8">
+    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 1.803,10 " totalsRowDxfId="18"/>
+    <tableColumn id="11" name="Ano" totalsRowFunction="custom" totalsRowDxfId="17">
       <totalsRowFormula>SUBTOTAL(105,Tabela1[Data])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mês" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="7">
+    <tableColumn id="2" name="Mês" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
       <totalsRowFormula>SUBTOTAL(104,Tabela1[Data])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Data" totalsRowFunction="custom" dataDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="3" name="Data" totalsRowFunction="custom" dataDxfId="14" dataCellStyle="Moeda">
       <totalsRowFormula>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Aplicação/Resgate" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="6" dataCellStyle="Moeda">
+    <tableColumn id="9" name="Aplicação/Resgate" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Moeda">
       <totalsRowFormula>SUBTOTAL(109,Tabela1[Aplicação/Resgate])+Tabela1[[#Totals],[Nome]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Valor Base" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="4" name="Valor Base" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Moeda">
       <totalsRowFormula>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Aplicação/Resgate]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Valor Bruto" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="5" name="Valor Bruto" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Moeda">
       <totalsRowFormula>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rendimento" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="3">
+    <tableColumn id="6" name="Rendimento" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Rent. Dia" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="7" name="Rent. Dia" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Rent. Mês" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
+    <tableColumn id="8" name="Rent. Mês" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Rent. Ano" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
+    <tableColumn id="13" name="Rent. Ano" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
@@ -2048,7 +2106,7 @@
   <dimension ref="A3:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,16 +2173,16 @@
         <v>1670.78</v>
       </c>
       <c r="D4" s="10">
-        <v>20.839999999999918</v>
+        <v>21.600000000000136</v>
       </c>
       <c r="E4" s="11">
-        <v>5.5397322773551782E-3</v>
+        <v>5.4944716944681921E-3</v>
       </c>
       <c r="F4" s="11">
-        <v>3.6473586496695671E-4</v>
+        <v>3.6715122532490291E-4</v>
       </c>
       <c r="G4" s="11">
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2158,7 +2216,7 @@
         <v>4.0369363487015189E-4</v>
       </c>
       <c r="G6" s="11">
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2181,7 +2239,7 @@
         <v>3.3635488176313427E-4</v>
       </c>
       <c r="G7" s="11">
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,16 +2253,16 @@
         <v>1688.74</v>
       </c>
       <c r="D8" s="10">
-        <v>2.8799999999998818</v>
+        <v>3.6400000000001</v>
       </c>
       <c r="E8" s="11">
-        <v>1.7054135035587947E-3</v>
+        <v>2.1554531781091679E-3</v>
       </c>
       <c r="F8" s="11">
-        <v>4.260810445048348E-4</v>
+        <v>4.3071953110288274E-4</v>
       </c>
       <c r="G8" s="11">
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2275,16 +2333,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="10">
-        <v>23.42999999999995</v>
+        <v>19.110000000000014</v>
       </c>
       <c r="E12" s="11">
-        <v>3.2317241379310427E-2</v>
+        <v>2.7456896551724303E-2</v>
       </c>
       <c r="F12" s="11">
-        <v>7.9858008104056518E-3</v>
+        <v>5.4616550152504504E-3</v>
       </c>
       <c r="G12" s="11">
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2318,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2332,16 +2390,16 @@
         <v>580</v>
       </c>
       <c r="D15" s="10">
-        <v>23.42999999999995</v>
+        <v>19.110000000000014</v>
       </c>
       <c r="E15" s="11">
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
       <c r="F15" s="11">
-        <v>9.9822510130070652E-3</v>
+        <v>6.5539860183005411E-3</v>
       </c>
       <c r="G15" s="11">
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,19 +2490,19 @@
         <v>861.05</v>
       </c>
       <c r="C20" s="10">
-        <v>861.05</v>
+        <v>823</v>
       </c>
       <c r="D20" s="10">
-        <v>-14.049999999999955</v>
+        <v>-12.049999999999955</v>
       </c>
       <c r="E20" s="11">
-        <v>-1.6317287033273287E-2</v>
+        <v>-1.3994541548109862E-2</v>
       </c>
       <c r="F20" s="11">
-        <v>-1.6317287033273276E-2</v>
+        <v>-4.3275087341525754E-3</v>
       </c>
       <c r="G20" s="11">
-        <v>-1.6317287033273287E-2</v>
+        <v>-1.3994541548109862E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2466,19 +2524,19 @@
         <v>861.05</v>
       </c>
       <c r="C22" s="10">
-        <v>861.05</v>
+        <v>823</v>
       </c>
       <c r="D22" s="10">
-        <v>-14.049999999999955</v>
+        <v>-12.049999999999955</v>
       </c>
       <c r="E22" s="11">
-        <v>-1.6317287033273287E-2</v>
+        <v>-1.3994541548109862E-2</v>
       </c>
       <c r="F22" s="11">
-        <v>-1.6317287033273276E-2</v>
+        <v>-4.3275087341525754E-3</v>
       </c>
       <c r="G22" s="11">
-        <v>-1.6317287033273287E-2</v>
+        <v>-1.3994541548109862E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2492,16 +2550,16 @@
         <v>0</v>
       </c>
       <c r="D23" s="10">
-        <v>238.00999999999993</v>
+        <v>236.45000000000022</v>
       </c>
       <c r="E23" s="11">
-        <v>1.951317960243517E-2</v>
+        <v>1.813306143485385E-2</v>
       </c>
       <c r="F23" s="11">
-        <v>2.8015720631613806E-3</v>
+        <v>2.5932673788062314E-3</v>
       </c>
       <c r="G23" s="11">
-        <v>2.4445669883526328E-2</v>
+        <v>2.3026409929278239E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2512,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,7 +2664,7 @@
       </c>
       <c r="L2" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2645,7 +2703,7 @@
       </c>
       <c r="L3" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2684,7 +2742,7 @@
       </c>
       <c r="L4" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2723,7 +2781,7 @@
       </c>
       <c r="L5" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2762,7 +2820,7 @@
       </c>
       <c r="L6" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2801,7 +2859,7 @@
       </c>
       <c r="L7" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2840,7 +2898,7 @@
       </c>
       <c r="L8" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2879,7 +2937,7 @@
       </c>
       <c r="L9" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2918,7 +2976,7 @@
       </c>
       <c r="L10" s="6">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2940,7 +2998,7 @@
       <c r="G11" s="13">
         <v>1676.86</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="13">
         <v>1677.49</v>
       </c>
       <c r="I11" s="3">
@@ -2957,7 +3015,7 @@
       </c>
       <c r="L11" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3035,7 +3093,7 @@
       </c>
       <c r="L13" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3113,7 +3171,7 @@
       </c>
       <c r="L15" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3191,7 +3249,7 @@
       </c>
       <c r="L17" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -3269,7 +3327,7 @@
       </c>
       <c r="L19" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3347,7 +3405,7 @@
       </c>
       <c r="L21" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -3369,7 +3427,7 @@
       <c r="G22" s="13">
         <v>429.08</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="13">
         <v>429.28</v>
       </c>
       <c r="I22" s="3">
@@ -3425,7 +3483,7 @@
       </c>
       <c r="L23" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -3503,7 +3561,7 @@
       </c>
       <c r="L25" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -3581,7 +3639,7 @@
       </c>
       <c r="L27" s="16">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -3659,7 +3717,7 @@
       </c>
       <c r="L29" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -3737,7 +3795,7 @@
       </c>
       <c r="L31" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -3815,7 +3873,7 @@
       </c>
       <c r="L33" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -3893,7 +3951,7 @@
       </c>
       <c r="L35" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -3971,7 +4029,7 @@
       </c>
       <c r="L37" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -4049,7 +4107,7 @@
       </c>
       <c r="L39" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -4127,7 +4185,7 @@
       </c>
       <c r="L41" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -4244,7 +4302,7 @@
       </c>
       <c r="L44" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -4283,7 +4341,7 @@
       </c>
       <c r="L45" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -4361,7 +4419,7 @@
       </c>
       <c r="L47" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -4517,7 +4575,7 @@
       </c>
       <c r="L51" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -4556,7 +4614,7 @@
       </c>
       <c r="L52" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -4595,7 +4653,7 @@
       </c>
       <c r="L53" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -4669,11 +4727,11 @@
       </c>
       <c r="K55" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.7054135035587947E-3</v>
+        <v>2.1554531781091679E-3</v>
       </c>
       <c r="L55" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -4708,11 +4766,11 @@
       </c>
       <c r="K56" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
       <c r="L56" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -4786,11 +4844,11 @@
       </c>
       <c r="K58" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.7054135035587947E-3</v>
+        <v>2.1554531781091679E-3</v>
       </c>
       <c r="L58" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -4825,11 +4883,11 @@
       </c>
       <c r="K59" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
       <c r="L59" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -4903,11 +4961,11 @@
       </c>
       <c r="K61" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.7054135035587947E-3</v>
+        <v>2.1554531781091679E-3</v>
       </c>
       <c r="L61" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -4942,11 +5000,11 @@
       </c>
       <c r="K62" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
       <c r="L62" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -5020,11 +5078,11 @@
       </c>
       <c r="K64" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.1867487370071399E-2</v>
+        <v>-1.3994541548109862E-2</v>
       </c>
       <c r="L64" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.1867487370071399E-2</v>
+        <v>-1.3994541548109862E-2</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -5059,11 +5117,11 @@
       </c>
       <c r="K65" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.7054135035587947E-3</v>
+        <v>2.1554531781091679E-3</v>
       </c>
       <c r="L65" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2473216102658169E-2</v>
+        <v>1.2928093465327084E-2</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -5098,11 +5156,11 @@
       </c>
       <c r="K66" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
       <c r="L66" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.039655172413803E-2</v>
+        <v>3.2948275862069165E-2</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -5164,72 +5222,186 @@
         <v>851</v>
       </c>
       <c r="H68" s="13">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I68" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="J68" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.0552291421856639E-2</v>
+        <v>-3.2902467685076382E-2</v>
       </c>
       <c r="K68" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.1867487370071399E-2</v>
+        <v>-1.3994541548109862E-2</v>
       </c>
       <c r="L68" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.1867487370071399E-2</v>
+        <v>-1.3994541548109862E-2</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>2011</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="4">
+        <v>40884</v>
+      </c>
+      <c r="F69" s="22">
+        <v>0</v>
+      </c>
+      <c r="G69" s="13">
+        <v>1691.62</v>
+      </c>
+      <c r="H69" s="13">
+        <v>1692.38</v>
+      </c>
+      <c r="I69" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.76000000000021828</v>
+      </c>
+      <c r="J69" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.4927347749507476E-4</v>
+      </c>
+      <c r="K69" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.1554531781091679E-3</v>
+      </c>
+      <c r="L69" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.2928093465327084E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>2011</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="4">
+        <v>40884</v>
+      </c>
+      <c r="F70" s="22">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13">
+        <v>603.42999999999995</v>
+      </c>
+      <c r="H70" s="13">
+        <v>599.11</v>
+      </c>
+      <c r="I70" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-4.3199999999999363</v>
+      </c>
+      <c r="J70" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-7.1590739605255568E-3</v>
+      </c>
+      <c r="K70" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.2948275862069165E-2</v>
+      </c>
+      <c r="L70" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.2948275862069165E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="4">
+        <v>40885</v>
+      </c>
+      <c r="F71" s="22">
+        <v>0</v>
+      </c>
+      <c r="G71" s="13">
+        <v>823</v>
+      </c>
+      <c r="H71" s="13">
+        <v>849</v>
+      </c>
+      <c r="I71" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>26</v>
+      </c>
+      <c r="J71" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.1591737545565005E-2</v>
+      </c>
+      <c r="K71" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.3994541548109862E-2</v>
+      </c>
+      <c r="L71" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.3994541548109862E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C72" s="23">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D72" s="23">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40884</v>
-      </c>
-      <c r="E69">
+        <v>40885</v>
+      </c>
+      <c r="E72">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</f>
-        <v>34</v>
-      </c>
-      <c r="F69" s="26">
+        <v>35</v>
+      </c>
+      <c r="F72" s="26">
         <f>SUBTOTAL(109,Tabela1[Aplicação/Resgate])+Tabela1[[#Totals],[Nome]]</f>
-        <v>4723.46</v>
-      </c>
-      <c r="G69" s="27">
+        <v>4707.1399999999994</v>
+      </c>
+      <c r="G72" s="27">
         <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Aplicação/Resgate]]</f>
-        <v>4.5731307135023887E-2</v>
-      </c>
-      <c r="H69" s="26">
+        <v>5.0232200444431281E-2</v>
+      </c>
+      <c r="H72" s="26">
         <f>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]</f>
-        <v>4939.47</v>
-      </c>
-      <c r="I69" s="10">
+        <v>4943.5899999999992</v>
+      </c>
+      <c r="I72" s="10">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>216.00999999999993</v>
-      </c>
-      <c r="J69" s="27">
+        <v>236.45000000000022</v>
+      </c>
+      <c r="J72" s="27">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.3160551267987763E-3</v>
-      </c>
-      <c r="K69" s="27">
+        <v>1.4013032806465819E-3</v>
+      </c>
+      <c r="K72" s="27">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.800392754155534E-2</v>
-      </c>
-      <c r="L69" s="27">
+        <v>2.9843418489031492E-2</v>
+      </c>
+      <c r="L72" s="27">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.3929556424307874</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H70" s="10"/>
+        <v>0.42316211526134118</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F31">

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Plan4" sheetId="4" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="30">
   <si>
     <t>Nome</t>
   </si>
@@ -271,6 +271,21 @@
       <numFmt numFmtId="164" formatCode="0.0000%"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
     </dxf>
     <dxf>
@@ -292,33 +307,6 @@
       <numFmt numFmtId="164" formatCode="0.0000%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -337,9 +325,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -376,6 +361,45 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -417,31 +441,7 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40885.828647106478" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="70">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40888.886933333335" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="71">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -514,7 +514,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="38">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="39">
         <d v="2011-10-19T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
         <d v="2011-10-21T00:00:00"/>
@@ -551,6 +551,7 @@
         <d v="2011-12-06T00:00:00"/>
         <d v="2011-12-07T00:00:00"/>
         <d v="2011-12-08T00:00:00"/>
+        <d v="2011-12-09T00:00:00"/>
         <d v="2011-12-03T00:00:00" u="1"/>
         <d v="2012-12-01T00:00:00" u="1"/>
       </sharedItems>
@@ -574,7 +575,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.0482793147732936E-2" maxValue="0.17309629629629653"/>
     </cacheField>
     <cacheField name="Rent. Ano" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.3994541548109862E-2" maxValue="0.14906800751688776"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.4625674066808294E-3" maxValue="0.14906800751688776"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -586,7 +587,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="70">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="71">
   <r>
     <m/>
     <x v="0"/>
@@ -1466,8 +1467,8 @@
     <n v="851"/>
     <n v="-10.049999999999955"/>
     <n v="-1.1671796062946351E-2"/>
-    <n v="-1.3994541548109862E-2"/>
-    <n v="-1.3994541548109862E-2"/>
+    <n v="2.084664072934217E-2"/>
+    <n v="2.084664072934217E-2"/>
   </r>
   <r>
     <m/>
@@ -1522,8 +1523,8 @@
     <n v="823"/>
     <n v="-28"/>
     <n v="-3.2902467685076382E-2"/>
-    <n v="-1.3994541548109862E-2"/>
-    <n v="-1.3994541548109862E-2"/>
+    <n v="2.084664072934217E-2"/>
+    <n v="2.084664072934217E-2"/>
   </r>
   <r>
     <m/>
@@ -1564,14 +1565,28 @@
     <n v="849"/>
     <n v="26"/>
     <n v="3.1591737545565005E-2"/>
-    <n v="-1.3994541548109862E-2"/>
-    <n v="-1.3994541548109862E-2"/>
+    <n v="2.084664072934217E-2"/>
+    <n v="2.084664072934217E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="849"/>
+    <n v="879"/>
+    <n v="30"/>
+    <n v="3.5335689045936397E-2"/>
+    <n v="2.084664072934217E-2"/>
+    <n v="2.084664072934217E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -1611,7 +1626,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="39">
+      <items count="40">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1644,12 +1659,13 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
-        <item m="1" x="36"/>
         <item m="1" x="37"/>
+        <item m="1" x="38"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
         <item x="35"/>
+        <item x="36"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1770,44 +1786,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L72" totalsRowCount="1" headerRowDxfId="19">
-  <autoFilter ref="A1:L71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L73" totalsRowCount="1" headerRowDxfId="19">
+  <autoFilter ref="A1:L72"/>
   <sortState ref="A2:L71">
     <sortCondition ref="E1:E71"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="12" name="ID"/>
-    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 1.803,10 " totalsRowDxfId="18"/>
-    <tableColumn id="11" name="Ano" totalsRowFunction="custom" totalsRowDxfId="17">
+    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 1.803,10 " totalsRowDxfId="9"/>
+    <tableColumn id="11" name="Ano" totalsRowFunction="custom" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(105,Tabela1[Data])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mês" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="2" name="Mês" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="7">
       <totalsRowFormula>SUBTOTAL(104,Tabela1[Data])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="Data" totalsRowFunction="custom" dataDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="3" name="Data" totalsRowFunction="custom" dataDxfId="17" dataCellStyle="Moeda">
       <totalsRowFormula>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Aplicação/Resgate" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="9" name="Aplicação/Resgate" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="6" dataCellStyle="Moeda">
       <totalsRowFormula>SUBTOTAL(109,Tabela1[Aplicação/Resgate])+Tabela1[[#Totals],[Nome]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="Valor Base" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Moeda">
+    <tableColumn id="4" name="Valor Base" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="5" dataCellStyle="Moeda">
       <totalsRowFormula>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Aplicação/Resgate]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" name="Valor Bruto" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="5" name="Valor Bruto" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="4" dataCellStyle="Moeda">
       <totalsRowFormula>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rendimento" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="6" name="Rendimento" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Rent. Dia" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="7" name="Rent. Dia" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Rent. Mês" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="8" name="Rent. Mês" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Rent. Ano" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="13" name="Rent. Ano" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
@@ -2105,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,16 +2509,16 @@
         <v>823</v>
       </c>
       <c r="D20" s="10">
-        <v>-12.049999999999955</v>
+        <v>17.950000000000045</v>
       </c>
       <c r="E20" s="11">
-        <v>-1.3994541548109862E-2</v>
+        <v>2.084664072934217E-2</v>
       </c>
       <c r="F20" s="11">
-        <v>-4.3275087341525754E-3</v>
+        <v>5.5882907108696679E-3</v>
       </c>
       <c r="G20" s="11">
-        <v>-1.3994541548109862E-2</v>
+        <v>2.084664072934217E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2527,16 +2543,16 @@
         <v>823</v>
       </c>
       <c r="D22" s="10">
-        <v>-12.049999999999955</v>
+        <v>17.950000000000045</v>
       </c>
       <c r="E22" s="11">
-        <v>-1.3994541548109862E-2</v>
+        <v>2.084664072934217E-2</v>
       </c>
       <c r="F22" s="11">
-        <v>-4.3275087341525754E-3</v>
+        <v>5.5882907108696679E-3</v>
       </c>
       <c r="G22" s="11">
-        <v>-1.3994541548109862E-2</v>
+        <v>2.084664072934217E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2550,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="D23" s="10">
-        <v>236.45000000000022</v>
+        <v>266.45000000000022</v>
       </c>
       <c r="E23" s="11">
-        <v>1.813306143485385E-2</v>
+        <v>1.9643443492978415E-2</v>
       </c>
       <c r="F23" s="11">
-        <v>2.5932673788062314E-3</v>
+        <v>3.0544282473573608E-3</v>
       </c>
       <c r="G23" s="11">
-        <v>2.3026409929278239E-2</v>
+        <v>2.4467871586072883E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2570,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5078,11 +5094,11 @@
       </c>
       <c r="K64" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.3994541548109862E-2</v>
+        <v>2.084664072934217E-2</v>
       </c>
       <c r="L64" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.3994541548109862E-2</v>
+        <v>2.084664072934217E-2</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -5234,11 +5250,11 @@
       </c>
       <c r="K68" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.3994541548109862E-2</v>
+        <v>2.084664072934217E-2</v>
       </c>
       <c r="L68" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.3994541548109862E-2</v>
+        <v>2.084664072934217E-2</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -5351,56 +5367,95 @@
       </c>
       <c r="K71" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.3994541548109862E-2</v>
+        <v>2.084664072934217E-2</v>
       </c>
       <c r="L71" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.3994541548109862E-2</v>
+        <v>2.084664072934217E-2</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="26" t="s">
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>2011</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="4">
+        <v>40886</v>
+      </c>
+      <c r="F72" s="22">
+        <v>0</v>
+      </c>
+      <c r="G72" s="13">
+        <v>849</v>
+      </c>
+      <c r="H72" s="13">
+        <v>879</v>
+      </c>
+      <c r="I72" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>30</v>
+      </c>
+      <c r="J72" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.5335689045936397E-2</v>
+      </c>
+      <c r="K72" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.084664072934217E-2</v>
+      </c>
+      <c r="L72" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.084664072934217E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C73" s="23">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D73" s="23">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40885</v>
-      </c>
-      <c r="E72">
+        <v>40886</v>
+      </c>
+      <c r="E73">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</f>
-        <v>35</v>
-      </c>
-      <c r="F72" s="26">
+        <v>36</v>
+      </c>
+      <c r="F73" s="26">
         <f>SUBTOTAL(109,Tabela1[Aplicação/Resgate])+Tabela1[[#Totals],[Nome]]</f>
         <v>4707.1399999999994</v>
       </c>
-      <c r="G72" s="27">
+      <c r="G73" s="27">
         <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Aplicação/Resgate]]</f>
-        <v>5.0232200444431281E-2</v>
-      </c>
-      <c r="H72" s="26">
+        <v>5.6605497180878463E-2</v>
+      </c>
+      <c r="H73" s="26">
         <f>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]</f>
-        <v>4943.5899999999992</v>
-      </c>
-      <c r="I72" s="10">
+        <v>4973.5899999999992</v>
+      </c>
+      <c r="I73" s="10">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>236.45000000000022</v>
-      </c>
-      <c r="J72" s="27">
+        <v>266.45000000000022</v>
+      </c>
+      <c r="J73" s="27">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.4013032806465819E-3</v>
-      </c>
-      <c r="K72" s="27">
+        <v>1.5306538243835544E-3</v>
+      </c>
+      <c r="K73" s="27">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.9843418489031492E-2</v>
-      </c>
-      <c r="L72" s="27">
+        <v>3.2640542180690346E-2</v>
+      </c>
+      <c r="L73" s="27">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.42316211526134118</v>
+        <v>0.47024618431992238</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan4" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="32">
   <si>
     <t>Nome</t>
   </si>
@@ -109,7 +109,13 @@
     <t>Dezembro</t>
   </si>
   <si>
-    <t xml:space="preserve"> R$ 1.803,10 </t>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R$ 613,93 </t>
+  </si>
+  <si>
+    <t>Custódia</t>
   </si>
 </sst>
 </file>
@@ -234,9 +240,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -245,6 +248,7 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -471,7 +475,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40888.886933333335" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="71">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40890.941253356483" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="81">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -480,12 +484,14 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Nome" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems containsBlank="1" count="9">
         <s v="XP INV FIRF CRED PRI"/>
         <s v="XP Referenciado FIRD"/>
         <s v="GOLL4"/>
         <s v="XP MULT-INV FIC FIA"/>
         <s v="MRFG3"/>
+        <s v="Custódia"/>
+        <s v="JBSS3"/>
         <m u="1"/>
         <s v="CRED" u="1"/>
       </sharedItems>
@@ -514,7 +520,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="39">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="41">
         <d v="2011-10-19T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
         <d v="2011-10-21T00:00:00"/>
@@ -552,6 +558,8 @@
         <d v="2011-12-07T00:00:00"/>
         <d v="2011-12-08T00:00:00"/>
         <d v="2011-12-09T00:00:00"/>
+        <d v="2011-12-12T00:00:00"/>
+        <d v="2011-12-13T00:00:00"/>
         <d v="2011-12-03T00:00:00" u="1"/>
         <d v="2012-12-01T00:00:00" u="1"/>
       </sharedItems>
@@ -560,22 +568,22 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1583.68" maxValue="1670.78"/>
     </cacheField>
     <cacheField name="Valor Base" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1691.62"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1803.1"/>
     </cacheField>
     <cacheField name="Valor Bruto" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1692.38"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1796.2"/>
     </cacheField>
     <cacheField name="Rendimento" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-28.230000000000018" maxValue="87.680000000000064"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-42.269999999999982" maxValue="87.680000000000064"/>
     </cacheField>
     <cacheField name="Rent. Dia" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.2902467685076382E-2" maxValue="5.8609625668449239E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.5753254332766611E-2" maxValue="5.8609625668449239E-2"/>
     </cacheField>
     <cacheField name="Rent. Mês" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.0482793147732936E-2" maxValue="0.17309629629629653"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.575325433276666E-2" maxValue="0.17309629629629653"/>
     </cacheField>
     <cacheField name="Rent. Ano" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.4625674066808294E-3" maxValue="0.14906800751688776"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.575325433276666E-2" maxValue="0.14906800751688776"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -587,7 +595,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="71">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="81">
   <r>
     <m/>
     <x v="0"/>
@@ -600,7 +608,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -614,7 +622,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6684781958125708E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -628,7 +636,7 @@
     <n v="0.74000000000000909"/>
     <n v="4.4270023211850554E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -642,7 +650,7 @@
     <n v="0.74000000000000909"/>
     <n v="4.4250433534653421E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -656,7 +664,7 @@
     <n v="0.82999999999992724"/>
     <n v="4.9610290250079328E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -670,7 +678,7 @@
     <n v="0.79000000000019099"/>
     <n v="4.7196018806728782E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -684,7 +692,7 @@
     <n v="0.81999999999993634"/>
     <n v="4.8965163077874685E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -698,7 +706,7 @@
     <n v="0.65000000000009095"/>
     <n v="3.8794852818302276E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -712,7 +720,7 @@
     <n v="0.72999999999979082"/>
     <n v="4.3552707725521932E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -726,7 +734,7 @@
     <n v="0.63000000000010914"/>
     <n v="3.7570220531237501E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -754,7 +762,7 @@
     <n v="0.61999999999989086"/>
     <n v="3.6959981877679801E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -782,7 +790,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1713594460437368E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -810,7 +818,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6461481644734828E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -838,7 +846,7 @@
     <n v="0.83000000000015461"/>
     <n v="4.9416821962511965E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -866,7 +874,7 @@
     <n v="0.84999999999990905"/>
     <n v="5.0582592447120901E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -894,7 +902,7 @@
     <n v="0.82999999999992724"/>
     <n v="4.9367442469081544E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -922,7 +930,7 @@
     <n v="0.92000000000007276"/>
     <n v="5.4693537839609584E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -950,7 +958,7 @@
     <n v="0.79999999999995453"/>
     <n v="4.7533600313719063E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -978,7 +986,7 @@
     <n v="0.78999999999996362"/>
     <n v="4.6917128909263676E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1006,7 +1014,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1552644232198876E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1034,7 +1042,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6282286344943825E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1062,7 +1070,7 @@
     <n v="0.72000000000002728"/>
     <n v="4.2702346849813905E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1090,7 +1098,7 @@
     <n v="0.78999999999996362"/>
     <n v="4.683396470260217E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1118,7 +1126,7 @@
     <n v="0.76999999999998181"/>
     <n v="4.5626925811802671E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1146,7 +1154,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1460106493247662E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1188,7 +1196,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1442924212735144E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1202,7 +1210,7 @@
     <n v="0.73000000000001819"/>
     <n v="4.3201145718057383E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1230,7 +1238,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1407867494826705E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1286,7 +1294,7 @@
     <n v="-3.1600000000000819"/>
     <n v="-1.8684957426679763E-3"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1300,7 +1308,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1468211653754978E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1314,7 +1322,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="3.2948275862069165E-2"/>
+    <n v="2.7517241379310775E-2"/>
   </r>
   <r>
     <m/>
@@ -1341,8 +1349,8 @@
     <n v="1689.49"/>
     <n v="0.75"/>
     <n v="4.4411809988512146E-4"/>
-    <n v="2.1554531781091679E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="3.5055722017600655E-3"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1355,8 +1363,8 @@
     <n v="590.01"/>
     <n v="10.009999999999991"/>
     <n v="1.7258620689655158E-2"/>
-    <n v="3.2948275862069165E-2"/>
-    <n v="3.2948275862069165E-2"/>
+    <n v="2.7517241379310775E-2"/>
+    <n v="2.7517241379310775E-2"/>
   </r>
   <r>
     <m/>
@@ -1383,8 +1391,8 @@
     <n v="1690.21"/>
     <n v="0.72000000000002728"/>
     <n v="4.2616410869553964E-4"/>
-    <n v="2.1554531781091679E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="3.5055722017600655E-3"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1397,8 +1405,8 @@
     <n v="587.96"/>
     <n v="-2.0499999999999545"/>
     <n v="-3.474517381061261E-3"/>
-    <n v="3.2948275862069165E-2"/>
-    <n v="3.2948275862069165E-2"/>
+    <n v="2.7517241379310775E-2"/>
+    <n v="2.7517241379310775E-2"/>
   </r>
   <r>
     <m/>
@@ -1425,8 +1433,8 @@
     <n v="1690.92"/>
     <n v="0.71000000000003638"/>
     <n v="4.2006614562689626E-4"/>
-    <n v="2.1554531781091679E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="3.5055722017600655E-3"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1439,8 +1447,8 @@
     <n v="596.89"/>
     <n v="8.92999999999995"/>
     <n v="1.5188108034560088E-2"/>
-    <n v="3.2948275862069165E-2"/>
-    <n v="3.2948275862069165E-2"/>
+    <n v="2.7517241379310775E-2"/>
+    <n v="2.7517241379310775E-2"/>
   </r>
   <r>
     <m/>
@@ -1467,8 +1475,8 @@
     <n v="851"/>
     <n v="-10.049999999999955"/>
     <n v="-1.1671796062946351E-2"/>
-    <n v="2.084664072934217E-2"/>
-    <n v="2.084664072934217E-2"/>
+    <n v="2.2008013471923826E-2"/>
+    <n v="2.2008013471923826E-2"/>
   </r>
   <r>
     <m/>
@@ -1481,8 +1489,8 @@
     <n v="1691.62"/>
     <n v="0.6999999999998181"/>
     <n v="4.1397582381178178E-4"/>
-    <n v="2.1554531781091679E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="3.5055722017600655E-3"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1495,8 +1503,8 @@
     <n v="603.42999999999995"/>
     <n v="6.5399999999999636"/>
     <n v="1.0956792708874272E-2"/>
-    <n v="3.2948275862069165E-2"/>
-    <n v="3.2948275862069165E-2"/>
+    <n v="2.7517241379310775E-2"/>
+    <n v="2.7517241379310775E-2"/>
   </r>
   <r>
     <m/>
@@ -1523,8 +1531,8 @@
     <n v="823"/>
     <n v="-28"/>
     <n v="-3.2902467685076382E-2"/>
-    <n v="2.084664072934217E-2"/>
-    <n v="2.084664072934217E-2"/>
+    <n v="2.2008013471923826E-2"/>
+    <n v="2.2008013471923826E-2"/>
   </r>
   <r>
     <m/>
@@ -1537,8 +1545,8 @@
     <n v="1692.38"/>
     <n v="0.76000000000021828"/>
     <n v="4.4927347749507476E-4"/>
-    <n v="2.1554531781091679E-3"/>
-    <n v="1.2928093465327084E-2"/>
+    <n v="3.5055722017600655E-3"/>
+    <n v="1.4292725553333829E-2"/>
   </r>
   <r>
     <m/>
@@ -1551,8 +1559,8 @@
     <n v="599.11"/>
     <n v="-4.3199999999999363"/>
     <n v="-7.1590739605255568E-3"/>
-    <n v="3.2948275862069165E-2"/>
-    <n v="3.2948275862069165E-2"/>
+    <n v="2.7517241379310775E-2"/>
+    <n v="2.7517241379310775E-2"/>
   </r>
   <r>
     <m/>
@@ -1565,8 +1573,50 @@
     <n v="849"/>
     <n v="26"/>
     <n v="3.1591737545565005E-2"/>
-    <n v="2.084664072934217E-2"/>
-    <n v="2.084664072934217E-2"/>
+    <n v="2.2008013471923826E-2"/>
+    <n v="2.2008013471923826E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="1692.38"/>
+    <n v="1693.16"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6088939836205382E-4"/>
+    <n v="3.5055722017600655E-3"/>
+    <n v="1.4292725553333829E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="599.11"/>
+    <n v="592.57000000000005"/>
+    <n v="-6.5399999999999636"/>
+    <n v="-1.0916192351988723E-2"/>
+    <n v="2.7517241379310775E-2"/>
+    <n v="2.7517241379310775E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="1803.1"/>
+    <n v="1796.2"/>
+    <n v="-6.8999999999998636"/>
+    <n v="-3.82674283178962E-3"/>
+    <n v="-3.8267428317896313E-3"/>
+    <n v="-3.8267428317896313E-3"/>
   </r>
   <r>
     <m/>
@@ -1579,32 +1629,132 @@
     <n v="879"/>
     <n v="30"/>
     <n v="3.5335689045936397E-2"/>
-    <n v="2.084664072934217E-2"/>
-    <n v="2.084664072934217E-2"/>
+    <n v="2.2008013471923826E-2"/>
+    <n v="2.2008013471923826E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="1693.16"/>
+    <n v="1693.92"/>
+    <n v="0.75999999999999091"/>
+    <n v="4.4886484443288933E-4"/>
+    <n v="3.5055722017600655E-3"/>
+    <n v="1.4292725553333829E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="592.57000000000005"/>
+    <n v="597.64"/>
+    <n v="5.0699999999999363"/>
+    <n v="8.5559511956392262E-3"/>
+    <n v="2.7517241379310775E-2"/>
+    <n v="2.7517241379310775E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="879"/>
+    <n v="860"/>
+    <n v="-19"/>
+    <n v="-2.1615472127417521E-2"/>
+    <n v="2.2008013471923826E-2"/>
+    <n v="2.2008013471923826E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="1693.92"/>
+    <n v="1694.66"/>
+    <n v="0.74000000000000909"/>
+    <n v="4.3685652214981173E-4"/>
+    <n v="3.5055722017600655E-3"/>
+    <n v="1.4292725553333829E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="597.64"/>
+    <n v="595.96"/>
+    <n v="-1.67999999999995"/>
+    <n v="-2.8110568235057056E-3"/>
+    <n v="2.7517241379310775E-2"/>
+    <n v="2.7517241379310775E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
+    <n v="1182.27"/>
+    <n v="1182.27"/>
+    <n v="1140"/>
+    <n v="-42.269999999999982"/>
+    <n v="-3.5753254332766611E-2"/>
+    <n v="-3.575325433276666E-2"/>
+    <n v="-3.575325433276666E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="860"/>
+    <n v="880"/>
+    <n v="20"/>
+    <n v="2.3255813953488372E-2"/>
+    <n v="2.2008013471923826E-2"/>
+    <n v="2.2008013471923826E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:G18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item m="1" x="6"/>
+      <items count="10">
+        <item m="1" x="8"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="5"/>
+        <item m="1" x="7"/>
         <item x="3"/>
         <item x="2"/>
         <item x="4"/>
+        <item x="6"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="1">
-        <item x="0"/>
+        <item sd="0" x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" numFmtId="165" showAll="0" defaultSubtotal="0">
@@ -1626,7 +1776,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="40">
+      <items count="42">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1659,13 +1809,15 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
-        <item m="1" x="37"/>
-        <item m="1" x="38"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1683,21 +1835,12 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="15">
     <i>
       <x v="1"/>
     </i>
     <i r="1">
       <x/>
-    </i>
-    <i r="2">
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
     </i>
     <i>
       <x v="2"/>
@@ -1705,20 +1848,11 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
     <i>
       <x v="4"/>
     </i>
     <i r="1">
       <x/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
     </i>
     <i>
       <x v="5"/>
@@ -1726,20 +1860,23 @@
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="13"/>
-    </i>
     <i>
       <x v="6"/>
     </i>
     <i r="1">
       <x/>
     </i>
-    <i r="2">
-      <x v="13"/>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -1786,14 +1923,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L73" totalsRowCount="1" headerRowDxfId="19">
-  <autoFilter ref="A1:L72"/>
-  <sortState ref="A2:L71">
-    <sortCondition ref="E1:E71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L83" totalsRowCount="1" headerRowDxfId="19">
+  <autoFilter ref="A1:L82"/>
+  <sortState ref="A2:L82">
+    <sortCondition ref="E1:E82"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="12" name="ID"/>
-    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 1.803,10 " totalsRowDxfId="9"/>
+    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 613,93 " totalsRowDxfId="9"/>
     <tableColumn id="11" name="Ano" totalsRowFunction="custom" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(105,Tabela1[Data])</totalsRowFormula>
     </tableColumn>
@@ -2119,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G23"/>
+  <dimension ref="A3:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,393 +2326,338 @@
         <v>1670.78</v>
       </c>
       <c r="D4" s="10">
-        <v>21.600000000000136</v>
+        <v>23.880000000000109</v>
       </c>
       <c r="E4" s="11">
-        <v>5.4944716944681921E-3</v>
+        <v>5.5151005534189836E-3</v>
       </c>
       <c r="F4" s="11">
-        <v>3.6715122532490291E-4</v>
+        <v>3.7360272766621998E-4</v>
       </c>
       <c r="G4" s="11">
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2011</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="10">
+        <v>1670.78</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1670.78</v>
+      </c>
+      <c r="D5" s="10">
+        <v>23.880000000000109</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5.5151005534189836E-3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>3.7360272766621998E-4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1.4292725553333829E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>15</v>
+      <c r="A6" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="10">
-        <v>1670.78</v>
+        <v>-2.339999999999975</v>
       </c>
       <c r="C6" s="10">
-        <v>1670.78</v>
+        <v>428.37</v>
       </c>
       <c r="D6" s="10">
-        <v>6.0799999999999272</v>
+        <v>2.339999999999975</v>
       </c>
       <c r="E6" s="11">
-        <v>3.6390189013515428E-3</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="F6" s="11">
-        <v>4.0369363487015189E-4</v>
+        <v>2.7256251901130665E-4</v>
       </c>
       <c r="G6" s="11">
-        <v>1.2928093465327084E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>16</v>
+      <c r="A7" s="18">
+        <v>2011</v>
       </c>
       <c r="B7" s="10">
-        <v>0</v>
+        <v>-2.339999999999975</v>
       </c>
       <c r="C7" s="10">
-        <v>1676.86</v>
+        <v>428.37</v>
       </c>
       <c r="D7" s="10">
-        <v>11.880000000000109</v>
+        <v>2.339999999999975</v>
       </c>
       <c r="E7" s="11">
-        <v>7.0846701573179516E-3</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="F7" s="11">
-        <v>3.3635488176313427E-4</v>
+        <v>2.7256251901130665E-4</v>
       </c>
       <c r="G7" s="11">
-        <v>1.2928093465327084E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>28</v>
+      <c r="A8" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="10">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="C8" s="10">
-        <v>1688.74</v>
+        <v>0</v>
       </c>
       <c r="D8" s="10">
-        <v>3.6400000000001</v>
+        <v>15.960000000000036</v>
       </c>
       <c r="E8" s="11">
-        <v>2.1554531781091679E-3</v>
+        <v>2.4459770114942912E-2</v>
       </c>
       <c r="F8" s="11">
-        <v>4.3071953110288274E-4</v>
+        <v>3.0665146790719447E-3</v>
       </c>
       <c r="G8" s="11">
-        <v>1.2928093465327084E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>10</v>
+      <c r="A9" s="18">
+        <v>2011</v>
       </c>
       <c r="B9" s="10">
-        <v>-2.339999999999975</v>
+        <v>580</v>
       </c>
       <c r="C9" s="10">
-        <v>428.37</v>
+        <v>0</v>
       </c>
       <c r="D9" s="10">
-        <v>2.339999999999975</v>
+        <v>15.960000000000036</v>
       </c>
       <c r="E9" s="11">
-        <v>5.4625674066808294E-3</v>
+        <v>2.4459770114942912E-2</v>
       </c>
       <c r="F9" s="11">
-        <v>2.7256251901130665E-4</v>
+        <v>3.0665146790719447E-3</v>
       </c>
       <c r="G9" s="11">
-        <v>5.4625674066808294E-3</v>
+        <v>2.7517241379310775E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="A10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10">
+        <v>-205.45000000000005</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1350</v>
+      </c>
+      <c r="D10" s="10">
+        <v>205.45000000000005</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.14083311472229162</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2.3906628226798916E-2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.14906800751688776</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>16</v>
+      <c r="A11" s="18">
+        <v>2011</v>
       </c>
       <c r="B11" s="10">
-        <v>-2.339999999999975</v>
+        <v>-205.45000000000005</v>
       </c>
       <c r="C11" s="10">
-        <v>428.37</v>
+        <v>1350</v>
       </c>
       <c r="D11" s="10">
-        <v>2.339999999999975</v>
+        <v>205.45000000000005</v>
       </c>
       <c r="E11" s="11">
-        <v>5.4625674066808294E-3</v>
+        <v>0.14083311472229162</v>
       </c>
       <c r="F11" s="11">
-        <v>2.7256251901130665E-4</v>
+        <v>2.3906628226798916E-2</v>
       </c>
       <c r="G11" s="11">
-        <v>5.4625674066808294E-3</v>
+        <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="10">
-        <v>580</v>
+        <v>861.05</v>
       </c>
       <c r="C12" s="10">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="D12" s="10">
-        <v>19.110000000000014</v>
+        <v>18.950000000000045</v>
       </c>
       <c r="E12" s="11">
-        <v>2.7456896551724303E-2</v>
+        <v>2.2008013471923826E-2</v>
       </c>
       <c r="F12" s="11">
-        <v>5.4616550152504504E-3</v>
+        <v>3.9989174449249201E-3</v>
       </c>
       <c r="G12" s="11">
-        <v>3.2948275862069165E-2</v>
+        <v>2.2008013471923826E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2011</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="10">
+        <v>861.05</v>
+      </c>
+      <c r="C13" s="10">
+        <v>823</v>
+      </c>
+      <c r="D13" s="10">
+        <v>18.950000000000045</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2.2008013471923826E-2</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3.9989174449249201E-3</v>
+      </c>
+      <c r="G13" s="11">
+        <v>2.2008013471923826E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>16</v>
+      <c r="A14" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="10">
-        <v>580</v>
+        <v>1182.27</v>
       </c>
       <c r="C14" s="10">
-        <v>0</v>
+        <v>1182.27</v>
       </c>
       <c r="D14" s="10">
-        <v>0</v>
+        <v>-42.269999999999982</v>
       </c>
       <c r="E14" s="11">
-        <v>0</v>
+        <v>-3.575325433276666E-2</v>
       </c>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>-3.5753254332766611E-2</v>
       </c>
       <c r="G14" s="11">
-        <v>3.2948275862069165E-2</v>
+        <v>-3.575325433276666E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>28</v>
+      <c r="A15" s="18">
+        <v>2011</v>
       </c>
       <c r="B15" s="10">
-        <v>0</v>
+        <v>1182.27</v>
       </c>
       <c r="C15" s="10">
-        <v>580</v>
+        <v>1182.27</v>
       </c>
       <c r="D15" s="10">
-        <v>19.110000000000014</v>
+        <v>-42.269999999999982</v>
       </c>
       <c r="E15" s="11">
-        <v>3.2948275862069165E-2</v>
+        <v>-3.575325433276666E-2</v>
       </c>
       <c r="F15" s="11">
-        <v>6.5539860183005411E-3</v>
+        <v>-3.5753254332766611E-2</v>
       </c>
       <c r="G15" s="11">
-        <v>3.2948275862069165E-2</v>
+        <v>-3.575325433276666E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B16" s="10">
-        <v>-205.45000000000005</v>
+        <v>0</v>
       </c>
       <c r="C16" s="10">
-        <v>1350</v>
+        <v>1803.1</v>
       </c>
       <c r="D16" s="10">
-        <v>205.45000000000005</v>
+        <v>-6.8999999999998636</v>
       </c>
       <c r="E16" s="11">
-        <v>0.14083311472229162</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
       <c r="F16" s="11">
-        <v>2.3906628226798916E-2</v>
+        <v>-3.82674283178962E-3</v>
       </c>
       <c r="G16" s="11">
-        <v>0.14906800751688776</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2011</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1803.1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>-6.8999999999998636</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-3.8267428317896313E-3</v>
+      </c>
+      <c r="F17" s="11">
+        <v>-3.82674283178962E-3</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-3.8267428317896313E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>16</v>
+      <c r="A18" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="B18" s="10">
-        <v>1378.23</v>
+        <v>4086.31</v>
       </c>
       <c r="C18" s="10">
-        <v>1378.23</v>
+        <v>0</v>
       </c>
       <c r="D18" s="10">
-        <v>-28.230000000000018</v>
+        <v>217.41000000000037</v>
       </c>
       <c r="E18" s="11">
-        <v>-2.0482793147732936E-2</v>
+        <v>1.8227529286404455E-2</v>
       </c>
       <c r="F18" s="11">
-        <v>-2.0482793147732974E-2</v>
+        <v>2.1617291729503301E-3</v>
       </c>
       <c r="G18" s="11">
-        <v>0.14906800751688776</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="10">
-        <v>-1583.68</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1350</v>
-      </c>
-      <c r="D19" s="10">
-        <v>233.68000000000006</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.17309629629629653</v>
-      </c>
-      <c r="F19" s="11">
-        <v>3.278451250170529E-2</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0.14906800751688776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="10">
-        <v>861.05</v>
-      </c>
-      <c r="C20" s="10">
-        <v>823</v>
-      </c>
-      <c r="D20" s="10">
-        <v>17.950000000000045</v>
-      </c>
-      <c r="E20" s="11">
-        <v>2.084664072934217E-2</v>
-      </c>
-      <c r="F20" s="11">
-        <v>5.5882907108696679E-3</v>
-      </c>
-      <c r="G20" s="11">
-        <v>2.084664072934217E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="10">
-        <v>861.05</v>
-      </c>
-      <c r="C22" s="10">
-        <v>823</v>
-      </c>
-      <c r="D22" s="10">
-        <v>17.950000000000045</v>
-      </c>
-      <c r="E22" s="11">
-        <v>2.084664072934217E-2</v>
-      </c>
-      <c r="F22" s="11">
-        <v>5.5882907108696679E-3</v>
-      </c>
-      <c r="G22" s="11">
-        <v>2.084664072934217E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="10">
-        <v>2904.04</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>266.45000000000022</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1.9643443492978415E-2</v>
-      </c>
-      <c r="F23" s="11">
-        <v>3.0544282473573608E-3</v>
-      </c>
-      <c r="G23" s="11">
-        <v>2.4467871586072883E-2</v>
+        <v>2.3295138522745833E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2586,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,7 +2762,7 @@
       </c>
       <c r="L2" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2719,7 +2801,7 @@
       </c>
       <c r="L3" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2758,7 +2840,7 @@
       </c>
       <c r="L4" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2797,7 +2879,7 @@
       </c>
       <c r="L5" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2836,7 +2918,7 @@
       </c>
       <c r="L6" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2875,7 +2957,7 @@
       </c>
       <c r="L7" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2914,7 +2996,7 @@
       </c>
       <c r="L8" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2953,7 +3035,7 @@
       </c>
       <c r="L9" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2992,7 +3074,7 @@
       </c>
       <c r="L10" s="6">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3008,7 +3090,7 @@
       <c r="E11" s="4">
         <v>40848</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="9">
         <v>0</v>
       </c>
       <c r="G11" s="13">
@@ -3031,7 +3113,7 @@
       </c>
       <c r="L11" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3109,7 +3191,7 @@
       </c>
       <c r="L13" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3167,7 +3249,7 @@
       <c r="F15" s="9">
         <v>0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="13">
         <v>1678.11</v>
       </c>
       <c r="H15" s="9">
@@ -3187,7 +3269,7 @@
       </c>
       <c r="L15" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3265,7 +3347,7 @@
       </c>
       <c r="L17" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -3343,7 +3425,7 @@
       </c>
       <c r="L19" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3421,7 +3503,7 @@
       </c>
       <c r="L21" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -3499,7 +3581,7 @@
       </c>
       <c r="L23" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -3577,7 +3659,7 @@
       </c>
       <c r="L25" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -3655,7 +3737,7 @@
       </c>
       <c r="L27" s="16">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -3733,7 +3815,7 @@
       </c>
       <c r="L29" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -3811,7 +3893,7 @@
       </c>
       <c r="L31" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -3866,7 +3948,7 @@
       <c r="E33" s="4">
         <v>40865</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="19">
         <v>0</v>
       </c>
       <c r="G33" s="13">
@@ -3889,7 +3971,7 @@
       </c>
       <c r="L33" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -3944,7 +4026,7 @@
       <c r="E35" s="4">
         <v>40868</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="19">
         <v>0</v>
       </c>
       <c r="G35" s="13">
@@ -3967,7 +4049,7 @@
       </c>
       <c r="L35" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -3983,7 +4065,7 @@
       <c r="E36" s="4">
         <v>40868</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="19">
         <v>0</v>
       </c>
       <c r="G36" s="13">
@@ -4045,7 +4127,7 @@
       </c>
       <c r="L37" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -4061,7 +4143,7 @@
       <c r="E38" s="4">
         <v>40869</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="19">
         <v>0</v>
       </c>
       <c r="G38" s="13">
@@ -4100,7 +4182,7 @@
       <c r="E39" s="4">
         <v>40870</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <v>0</v>
       </c>
       <c r="G39" s="13">
@@ -4123,7 +4205,7 @@
       </c>
       <c r="L39" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -4178,7 +4260,7 @@
       <c r="E41" s="4">
         <v>40871</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <v>0</v>
       </c>
       <c r="G41" s="13">
@@ -4201,7 +4283,7 @@
       </c>
       <c r="L41" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -4217,7 +4299,7 @@
       <c r="E42" s="4">
         <v>40871</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>0</v>
       </c>
       <c r="G42" s="13">
@@ -4256,7 +4338,7 @@
       <c r="E43" s="4">
         <v>40872</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <v>0</v>
       </c>
       <c r="G43" s="13">
@@ -4295,7 +4377,7 @@
       <c r="E44" s="4">
         <v>40873</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <v>0</v>
       </c>
       <c r="G44" s="13">
@@ -4318,7 +4400,7 @@
       </c>
       <c r="L44" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -4334,7 +4416,7 @@
       <c r="E45" s="4">
         <v>40875</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <v>0</v>
       </c>
       <c r="G45" s="13">
@@ -4357,7 +4439,7 @@
       </c>
       <c r="L45" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -4373,7 +4455,7 @@
       <c r="E46" s="4">
         <v>40875</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <v>0</v>
       </c>
       <c r="G46" s="13">
@@ -4435,7 +4517,7 @@
       </c>
       <c r="L47" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -4451,7 +4533,7 @@
       <c r="E48" s="4">
         <v>40876</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="20">
         <v>0</v>
       </c>
       <c r="G48" s="13">
@@ -4490,7 +4572,7 @@
       <c r="E49" s="4">
         <v>40876</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="20">
         <v>-430.71</v>
       </c>
       <c r="G49" s="13">
@@ -4568,7 +4650,7 @@
       <c r="E51" s="4">
         <v>40877</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="21">
         <v>0</v>
       </c>
       <c r="G51" s="13">
@@ -4591,7 +4673,7 @@
       </c>
       <c r="L51" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -4607,7 +4689,7 @@
       <c r="E52" s="4">
         <v>40877</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="21">
         <v>0</v>
       </c>
       <c r="G52" s="13">
@@ -4630,7 +4712,7 @@
       </c>
       <c r="L52" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -4669,7 +4751,7 @@
       </c>
       <c r="L53" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -4724,7 +4806,7 @@
       <c r="E55" s="4">
         <v>40878</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="21">
         <v>0</v>
       </c>
       <c r="G55" s="13">
@@ -4743,11 +4825,11 @@
       </c>
       <c r="K55" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.1554531781091679E-3</v>
+        <v>3.5055722017600655E-3</v>
       </c>
       <c r="L55" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -4763,7 +4845,7 @@
       <c r="E56" s="4">
         <v>40878</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="21">
         <v>0</v>
       </c>
       <c r="G56" s="9">
@@ -4782,11 +4864,11 @@
       </c>
       <c r="K56" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
       <c r="L56" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -4841,7 +4923,7 @@
       <c r="E58" s="4">
         <v>40879</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="21">
         <v>0</v>
       </c>
       <c r="G58" s="13">
@@ -4860,11 +4942,11 @@
       </c>
       <c r="K58" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.1554531781091679E-3</v>
+        <v>3.5055722017600655E-3</v>
       </c>
       <c r="L58" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -4880,7 +4962,7 @@
       <c r="E59" s="4">
         <v>40879</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="21">
         <v>0</v>
       </c>
       <c r="G59" s="13">
@@ -4899,11 +4981,11 @@
       </c>
       <c r="K59" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
       <c r="L59" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -4919,7 +5001,7 @@
       <c r="E60" s="4">
         <v>40882</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="21">
         <v>0</v>
       </c>
       <c r="G60" s="13">
@@ -4958,7 +5040,7 @@
       <c r="E61" s="4">
         <v>40882</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="21">
         <v>0</v>
       </c>
       <c r="G61" s="13">
@@ -4977,11 +5059,11 @@
       </c>
       <c r="K61" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.1554531781091679E-3</v>
+        <v>3.5055722017600655E-3</v>
       </c>
       <c r="L61" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -4997,7 +5079,7 @@
       <c r="E62" s="4">
         <v>40882</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="21">
         <v>0</v>
       </c>
       <c r="G62" s="13">
@@ -5016,11 +5098,11 @@
       </c>
       <c r="K62" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
       <c r="L62" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -5036,7 +5118,7 @@
       <c r="E63" s="4">
         <v>40883</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="21">
         <v>0</v>
       </c>
       <c r="G63" s="13">
@@ -5075,10 +5157,10 @@
       <c r="E64" s="4">
         <v>40883</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="21">
         <v>861.05</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G64" s="21">
         <v>861.05</v>
       </c>
       <c r="H64" s="13">
@@ -5094,11 +5176,11 @@
       </c>
       <c r="K64" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.084664072934217E-2</v>
+        <v>2.2008013471923826E-2</v>
       </c>
       <c r="L64" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.084664072934217E-2</v>
+        <v>2.2008013471923826E-2</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -5114,7 +5196,7 @@
       <c r="E65" s="4">
         <v>40883</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="21">
         <v>0</v>
       </c>
       <c r="G65" s="13">
@@ -5133,11 +5215,11 @@
       </c>
       <c r="K65" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.1554531781091679E-3</v>
+        <v>3.5055722017600655E-3</v>
       </c>
       <c r="L65" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -5153,7 +5235,7 @@
       <c r="E66" s="4">
         <v>40883</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="21">
         <v>0</v>
       </c>
       <c r="G66" s="13">
@@ -5172,11 +5254,11 @@
       </c>
       <c r="K66" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
       <c r="L66" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -5192,7 +5274,7 @@
       <c r="E67" s="4">
         <v>40884</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="21">
         <v>-1583.68</v>
       </c>
       <c r="G67" s="13">
@@ -5231,7 +5313,7 @@
       <c r="E68" s="4">
         <v>40884</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="21">
         <v>0</v>
       </c>
       <c r="G68" s="13">
@@ -5250,11 +5332,11 @@
       </c>
       <c r="K68" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.084664072934217E-2</v>
+        <v>2.2008013471923826E-2</v>
       </c>
       <c r="L68" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.084664072934217E-2</v>
+        <v>2.2008013471923826E-2</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -5270,7 +5352,7 @@
       <c r="E69" s="4">
         <v>40884</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="21">
         <v>0</v>
       </c>
       <c r="G69" s="13">
@@ -5289,11 +5371,11 @@
       </c>
       <c r="K69" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.1554531781091679E-3</v>
+        <v>3.5055722017600655E-3</v>
       </c>
       <c r="L69" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.2928093465327084E-2</v>
+        <v>1.4292725553333829E-2</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -5309,7 +5391,7 @@
       <c r="E70" s="4">
         <v>40884</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="21">
         <v>0</v>
       </c>
       <c r="G70" s="13">
@@ -5328,11 +5410,11 @@
       </c>
       <c r="K70" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
       <c r="L70" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.2948275862069165E-2</v>
+        <v>2.7517241379310775E-2</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -5348,7 +5430,7 @@
       <c r="E71" s="4">
         <v>40885</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="21">
         <v>0</v>
       </c>
       <c r="G71" s="13">
@@ -5367,16 +5449,16 @@
       </c>
       <c r="K71" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.084664072934217E-2</v>
+        <v>2.2008013471923826E-2</v>
       </c>
       <c r="L71" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.084664072934217E-2</v>
+        <v>2.2008013471923826E-2</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C72">
         <v>2011</v>
@@ -5385,77 +5467,467 @@
         <v>28</v>
       </c>
       <c r="E72" s="4">
+        <v>40885</v>
+      </c>
+      <c r="F72" s="21">
+        <v>0</v>
+      </c>
+      <c r="G72" s="13">
+        <v>1692.38</v>
+      </c>
+      <c r="H72" s="13">
+        <v>1693.16</v>
+      </c>
+      <c r="I72" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.77999999999997272</v>
+      </c>
+      <c r="J72" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.6088939836205382E-4</v>
+      </c>
+      <c r="K72" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.5055722017600655E-3</v>
+      </c>
+      <c r="L72" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.4292725553333829E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>2011</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="4">
+        <v>40885</v>
+      </c>
+      <c r="F73" s="21">
+        <v>0</v>
+      </c>
+      <c r="G73" s="13">
+        <v>599.11</v>
+      </c>
+      <c r="H73" s="13">
+        <v>592.57000000000005</v>
+      </c>
+      <c r="I73" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-6.5399999999999636</v>
+      </c>
+      <c r="J73" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-1.0916192351988723E-2</v>
+      </c>
+      <c r="K73" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.7517241379310775E-2</v>
+      </c>
+      <c r="L73" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.7517241379310775E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74">
+        <v>2011</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="4">
+        <v>40885</v>
+      </c>
+      <c r="F74" s="21">
+        <v>0</v>
+      </c>
+      <c r="G74" s="27">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
+        <v>-6.9</v>
+      </c>
+      <c r="I74" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-6.9</v>
+      </c>
+      <c r="J74" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="4">
         <v>40886</v>
       </c>
-      <c r="F72" s="22">
-        <v>0</v>
-      </c>
-      <c r="G72" s="13">
+      <c r="F75" s="21">
+        <v>0</v>
+      </c>
+      <c r="G75" s="13">
         <v>849</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H75" s="13">
         <v>879</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I75" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>30</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J75" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.5335689045936397E-2</v>
       </c>
-      <c r="K72" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.084664072934217E-2</v>
-      </c>
-      <c r="L72" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.084664072934217E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="26" t="s">
+      <c r="K75" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.2008013471923826E-2</v>
+      </c>
+      <c r="L75" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.2008013471923826E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="4">
+        <v>40886</v>
+      </c>
+      <c r="F76" s="21">
+        <v>0</v>
+      </c>
+      <c r="G76" s="13">
+        <v>1693.16</v>
+      </c>
+      <c r="H76" s="13">
+        <v>1693.92</v>
+      </c>
+      <c r="I76" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.75999999999999091</v>
+      </c>
+      <c r="J76" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.4886484443288933E-4</v>
+      </c>
+      <c r="K76" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.5055722017600655E-3</v>
+      </c>
+      <c r="L76" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.4292725553333829E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="4">
+        <v>40886</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="13">
+        <v>592.57000000000005</v>
+      </c>
+      <c r="H77" s="13">
+        <v>597.64</v>
+      </c>
+      <c r="I77" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>5.0699999999999363</v>
+      </c>
+      <c r="J77" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>8.5559511956392262E-3</v>
+      </c>
+      <c r="K77" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.7517241379310775E-2</v>
+      </c>
+      <c r="L77" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.7517241379310775E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="4">
+        <v>40889</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0</v>
+      </c>
+      <c r="G78" s="13">
+        <v>879</v>
+      </c>
+      <c r="H78" s="13">
+        <v>860</v>
+      </c>
+      <c r="I78" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-19</v>
+      </c>
+      <c r="J78" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-2.1615472127417521E-2</v>
+      </c>
+      <c r="K78" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.2008013471923826E-2</v>
+      </c>
+      <c r="L78" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.2008013471923826E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="4">
+        <v>40889</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0</v>
+      </c>
+      <c r="G79" s="13">
+        <v>1693.92</v>
+      </c>
+      <c r="H79" s="13">
+        <v>1694.66</v>
+      </c>
+      <c r="I79" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.74000000000000909</v>
+      </c>
+      <c r="J79" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.3685652214981173E-4</v>
+      </c>
+      <c r="K79" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.5055722017600655E-3</v>
+      </c>
+      <c r="L79" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.4292725553333829E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>2011</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="4">
+        <v>40889</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0</v>
+      </c>
+      <c r="G80" s="13">
+        <v>597.64</v>
+      </c>
+      <c r="H80" s="13">
+        <v>595.96</v>
+      </c>
+      <c r="I80" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-1.67999999999995</v>
+      </c>
+      <c r="J80" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-2.8110568235057056E-3</v>
+      </c>
+      <c r="K80" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.7517241379310775E-2</v>
+      </c>
+      <c r="L80" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.7517241379310775E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C81">
+        <v>2011</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="4">
+        <v>40890</v>
+      </c>
+      <c r="F81" s="21">
+        <v>1182.27</v>
+      </c>
+      <c r="G81" s="27">
+        <v>1182.27</v>
+      </c>
+      <c r="H81" s="13">
+        <v>1140</v>
+      </c>
+      <c r="I81" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-42.269999999999982</v>
+      </c>
+      <c r="J81" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-3.5753254332766611E-2</v>
+      </c>
+      <c r="K81" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-3.575325433276666E-2</v>
+      </c>
+      <c r="L81" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-3.575325433276666E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82">
+        <v>2011</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="4">
+        <v>40890</v>
+      </c>
+      <c r="F82" s="21">
+        <v>0</v>
+      </c>
+      <c r="G82" s="13">
+        <v>860</v>
+      </c>
+      <c r="H82" s="13">
+        <v>880</v>
+      </c>
+      <c r="I82" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>20</v>
+      </c>
+      <c r="J82" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="K82" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.2008013471923826E-2</v>
+      </c>
+      <c r="L82" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.2008013471923826E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="22">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D83" s="22">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40886</v>
-      </c>
-      <c r="E73">
+        <v>40890</v>
+      </c>
+      <c r="E83">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</f>
-        <v>36</v>
-      </c>
-      <c r="F73" s="26">
+        <v>38</v>
+      </c>
+      <c r="F83" s="25">
         <f>SUBTOTAL(109,Tabela1[Aplicação/Resgate])+Tabela1[[#Totals],[Nome]]</f>
-        <v>4707.1399999999994</v>
-      </c>
-      <c r="G73" s="27">
+        <v>4700.24</v>
+      </c>
+      <c r="G83" s="26">
         <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Aplicação/Resgate]]</f>
-        <v>5.6605497180878463E-2</v>
-      </c>
-      <c r="H73" s="26">
+        <v>4.6255084846731277E-2</v>
+      </c>
+      <c r="H83" s="25">
         <f>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]</f>
-        <v>4973.5899999999992</v>
-      </c>
-      <c r="I73" s="10">
+        <v>4917.6499999999996</v>
+      </c>
+      <c r="I83" s="10">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>266.45000000000022</v>
-      </c>
-      <c r="J73" s="27">
+        <v>217.4100000000002</v>
+      </c>
+      <c r="J83" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.5306538243835544E-3</v>
-      </c>
-      <c r="K73" s="27">
+        <v>1.1906346348340424E-3</v>
+      </c>
+      <c r="K83" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>3.2640542180690346E-2</v>
-      </c>
-      <c r="L73" s="27">
+        <v>2.5303282532229687E-2</v>
+      </c>
+      <c r="L83" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.47024618431992238</v>
+        <v>0.34967179849333418</v>
       </c>
     </row>
   </sheetData>
@@ -5482,21 +5954,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>40849</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>40862</v>
       </c>
     </row>
@@ -5516,19 +5988,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25"/>
+      <c r="A1" s="24"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>40849</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>40862</v>
       </c>
     </row>

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Plan4" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="32">
   <si>
     <t>Nome</t>
   </si>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40890.941253356483" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="81">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40891.829888773151" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="84">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -520,7 +520,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="41">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="42">
         <d v="2011-10-19T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
         <d v="2011-10-21T00:00:00"/>
@@ -560,6 +560,7 @@
         <d v="2011-12-09T00:00:00"/>
         <d v="2011-12-12T00:00:00"/>
         <d v="2011-12-13T00:00:00"/>
+        <d v="2011-12-14T00:00:00"/>
         <d v="2011-12-03T00:00:00" u="1"/>
         <d v="2012-12-01T00:00:00" u="1"/>
       </sharedItems>
@@ -568,22 +569,22 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1583.68" maxValue="1670.78"/>
     </cacheField>
     <cacheField name="Valor Base" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1803.1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1694.66"/>
     </cacheField>
     <cacheField name="Valor Bruto" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1796.2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-6.9" maxValue="1695.42"/>
     </cacheField>
     <cacheField name="Rendimento" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-42.269999999999982" maxValue="87.680000000000064"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-48.269999999999982" maxValue="87.680000000000064"/>
     </cacheField>
     <cacheField name="Rent. Dia" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.5753254332766611E-2" maxValue="5.8609625668449239E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.082823720469942E-2" maxValue="5.8609625668449239E-2"/>
     </cacheField>
     <cacheField name="Rent. Mês" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.575325433276666E-2" maxValue="0.17309629629629653"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5903220076632278E-2" maxValue="0.17309629629629653"/>
     </cacheField>
     <cacheField name="Rent. Ano" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.575325433276666E-2" maxValue="0.14906800751688776"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5903220076632278E-2" maxValue="0.14906800751688776"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -595,7 +596,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="81">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="84">
   <r>
     <m/>
     <x v="0"/>
@@ -608,7 +609,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -622,7 +623,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6684781958125708E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -636,7 +637,7 @@
     <n v="0.74000000000000909"/>
     <n v="4.4270023211850554E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -650,7 +651,7 @@
     <n v="0.74000000000000909"/>
     <n v="4.4250433534653421E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -664,7 +665,7 @@
     <n v="0.82999999999992724"/>
     <n v="4.9610290250079328E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -678,7 +679,7 @@
     <n v="0.79000000000019099"/>
     <n v="4.7196018806728782E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -692,7 +693,7 @@
     <n v="0.81999999999993634"/>
     <n v="4.8965163077874685E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -706,7 +707,7 @@
     <n v="0.65000000000009095"/>
     <n v="3.8794852818302276E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -720,7 +721,7 @@
     <n v="0.72999999999979082"/>
     <n v="4.3552707725521932E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -734,7 +735,7 @@
     <n v="0.63000000000010914"/>
     <n v="3.7570220531237501E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -762,7 +763,7 @@
     <n v="0.61999999999989086"/>
     <n v="3.6959981877679801E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -790,7 +791,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1713594460437368E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -818,7 +819,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6461481644734828E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -846,7 +847,7 @@
     <n v="0.83000000000015461"/>
     <n v="4.9416821962511965E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -874,7 +875,7 @@
     <n v="0.84999999999990905"/>
     <n v="5.0582592447120901E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -902,7 +903,7 @@
     <n v="0.82999999999992724"/>
     <n v="4.9367442469081544E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -930,7 +931,7 @@
     <n v="0.92000000000007276"/>
     <n v="5.4693537839609584E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -958,7 +959,7 @@
     <n v="0.79999999999995453"/>
     <n v="4.7533600313719063E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -986,7 +987,7 @@
     <n v="0.78999999999996362"/>
     <n v="4.6917128909263676E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1014,7 +1015,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1552644232198876E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1042,7 +1043,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6282286344943825E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1070,7 +1071,7 @@
     <n v="0.72000000000002728"/>
     <n v="4.2702346849813905E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1098,7 +1099,7 @@
     <n v="0.78999999999996362"/>
     <n v="4.683396470260217E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1126,7 +1127,7 @@
     <n v="0.76999999999998181"/>
     <n v="4.5626925811802671E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1154,7 +1155,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1460106493247662E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1196,7 +1197,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1442924212735144E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1210,7 +1211,7 @@
     <n v="0.73000000000001819"/>
     <n v="4.3201145718057383E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1238,21 +1239,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1407867494826705E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="28"/>
-    <n v="0"/>
-    <n v="431.4"/>
-    <n v="431.57"/>
-    <n v="0.17000000000001592"/>
-    <n v="3.9406583217435311E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1261,10 +1248,10 @@
     <x v="1"/>
     <x v="28"/>
     <n v="-430.71"/>
+    <n v="431.4"/>
     <n v="431.57"/>
-    <n v="430.71"/>
-    <n v="-0.86000000000001364"/>
-    <n v="-1.9927242394049949E-3"/>
+    <n v="-0.68999999999999773"/>
+    <n v="-1.5994436717663369E-3"/>
     <n v="5.4625674066808294E-3"/>
     <n v="5.4625674066808294E-3"/>
   </r>
@@ -1294,7 +1281,7 @@
     <n v="-3.1600000000000819"/>
     <n v="-1.8684957426679763E-3"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1308,7 +1295,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1468211653754978E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1322,7 +1309,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="2.7517241379310775E-2"/>
+    <n v="3.6758620689655741E-2"/>
   </r>
   <r>
     <m/>
@@ -1349,8 +1336,8 @@
     <n v="1689.49"/>
     <n v="0.75"/>
     <n v="4.4411809988512146E-4"/>
-    <n v="3.5055722017600655E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="3.9556118763102166E-3"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1363,8 +1350,8 @@
     <n v="590.01"/>
     <n v="10.009999999999991"/>
     <n v="1.7258620689655158E-2"/>
-    <n v="2.7517241379310775E-2"/>
-    <n v="2.7517241379310775E-2"/>
+    <n v="3.6758620689655741E-2"/>
+    <n v="3.6758620689655741E-2"/>
   </r>
   <r>
     <m/>
@@ -1391,8 +1378,8 @@
     <n v="1690.21"/>
     <n v="0.72000000000002728"/>
     <n v="4.2616410869553964E-4"/>
-    <n v="3.5055722017600655E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="3.9556118763102166E-3"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1405,8 +1392,8 @@
     <n v="587.96"/>
     <n v="-2.0499999999999545"/>
     <n v="-3.474517381061261E-3"/>
-    <n v="2.7517241379310775E-2"/>
-    <n v="2.7517241379310775E-2"/>
+    <n v="3.6758620689655741E-2"/>
+    <n v="3.6758620689655741E-2"/>
   </r>
   <r>
     <m/>
@@ -1433,8 +1420,8 @@
     <n v="1690.92"/>
     <n v="0.71000000000003638"/>
     <n v="4.2006614562689626E-4"/>
-    <n v="3.5055722017600655E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="3.9556118763102166E-3"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1447,8 +1434,8 @@
     <n v="596.89"/>
     <n v="8.92999999999995"/>
     <n v="1.5188108034560088E-2"/>
-    <n v="2.7517241379310775E-2"/>
-    <n v="2.7517241379310775E-2"/>
+    <n v="3.6758620689655741E-2"/>
+    <n v="3.6758620689655741E-2"/>
   </r>
   <r>
     <m/>
@@ -1475,8 +1462,8 @@
     <n v="851"/>
     <n v="-10.049999999999955"/>
     <n v="-1.1671796062946351E-2"/>
-    <n v="2.2008013471923826E-2"/>
-    <n v="2.2008013471923826E-2"/>
+    <n v="4.1751350095813322E-2"/>
+    <n v="4.1751350095813322E-2"/>
   </r>
   <r>
     <m/>
@@ -1489,8 +1476,8 @@
     <n v="1691.62"/>
     <n v="0.6999999999998181"/>
     <n v="4.1397582381178178E-4"/>
-    <n v="3.5055722017600655E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="3.9556118763102166E-3"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1503,8 +1490,8 @@
     <n v="603.42999999999995"/>
     <n v="6.5399999999999636"/>
     <n v="1.0956792708874272E-2"/>
-    <n v="2.7517241379310775E-2"/>
-    <n v="2.7517241379310775E-2"/>
+    <n v="3.6758620689655741E-2"/>
+    <n v="3.6758620689655741E-2"/>
   </r>
   <r>
     <m/>
@@ -1531,8 +1518,8 @@
     <n v="823"/>
     <n v="-28"/>
     <n v="-3.2902467685076382E-2"/>
-    <n v="2.2008013471923826E-2"/>
-    <n v="2.2008013471923826E-2"/>
+    <n v="4.1751350095813322E-2"/>
+    <n v="4.1751350095813322E-2"/>
   </r>
   <r>
     <m/>
@@ -1545,8 +1532,8 @@
     <n v="1692.38"/>
     <n v="0.76000000000021828"/>
     <n v="4.4927347749507476E-4"/>
-    <n v="3.5055722017600655E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="3.9556118763102166E-3"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1559,8 +1546,8 @@
     <n v="599.11"/>
     <n v="-4.3199999999999363"/>
     <n v="-7.1590739605255568E-3"/>
-    <n v="2.7517241379310775E-2"/>
-    <n v="2.7517241379310775E-2"/>
+    <n v="3.6758620689655741E-2"/>
+    <n v="3.6758620689655741E-2"/>
   </r>
   <r>
     <m/>
@@ -1573,8 +1560,8 @@
     <n v="849"/>
     <n v="26"/>
     <n v="3.1591737545565005E-2"/>
-    <n v="2.2008013471923826E-2"/>
-    <n v="2.2008013471923826E-2"/>
+    <n v="4.1751350095813322E-2"/>
+    <n v="4.1751350095813322E-2"/>
   </r>
   <r>
     <m/>
@@ -1587,8 +1574,8 @@
     <n v="1693.16"/>
     <n v="0.77999999999997272"/>
     <n v="4.6088939836205382E-4"/>
-    <n v="3.5055722017600655E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="3.9556118763102166E-3"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1601,8 +1588,8 @@
     <n v="592.57000000000005"/>
     <n v="-6.5399999999999636"/>
     <n v="-1.0916192351988723E-2"/>
-    <n v="2.7517241379310775E-2"/>
-    <n v="2.7517241379310775E-2"/>
+    <n v="3.6758620689655741E-2"/>
+    <n v="3.6758620689655741E-2"/>
   </r>
   <r>
     <m/>
@@ -1611,12 +1598,12 @@
     <x v="2"/>
     <x v="35"/>
     <n v="0"/>
-    <n v="1803.1"/>
-    <n v="1796.2"/>
-    <n v="-6.8999999999998636"/>
-    <n v="-3.82674283178962E-3"/>
-    <n v="-3.8267428317896313E-3"/>
-    <n v="-3.8267428317896313E-3"/>
+    <n v="0"/>
+    <n v="-6.9"/>
+    <n v="-6.9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <m/>
@@ -1629,8 +1616,8 @@
     <n v="879"/>
     <n v="30"/>
     <n v="3.5335689045936397E-2"/>
-    <n v="2.2008013471923826E-2"/>
-    <n v="2.2008013471923826E-2"/>
+    <n v="4.1751350095813322E-2"/>
+    <n v="4.1751350095813322E-2"/>
   </r>
   <r>
     <m/>
@@ -1643,8 +1630,8 @@
     <n v="1693.92"/>
     <n v="0.75999999999999091"/>
     <n v="4.4886484443288933E-4"/>
-    <n v="3.5055722017600655E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="3.9556118763102166E-3"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1657,8 +1644,8 @@
     <n v="597.64"/>
     <n v="5.0699999999999363"/>
     <n v="8.5559511956392262E-3"/>
-    <n v="2.7517241379310775E-2"/>
-    <n v="2.7517241379310775E-2"/>
+    <n v="3.6758620689655741E-2"/>
+    <n v="3.6758620689655741E-2"/>
   </r>
   <r>
     <m/>
@@ -1671,8 +1658,8 @@
     <n v="860"/>
     <n v="-19"/>
     <n v="-2.1615472127417521E-2"/>
-    <n v="2.2008013471923826E-2"/>
-    <n v="2.2008013471923826E-2"/>
+    <n v="4.1751350095813322E-2"/>
+    <n v="4.1751350095813322E-2"/>
   </r>
   <r>
     <m/>
@@ -1685,8 +1672,8 @@
     <n v="1694.66"/>
     <n v="0.74000000000000909"/>
     <n v="4.3685652214981173E-4"/>
-    <n v="3.5055722017600655E-3"/>
-    <n v="1.4292725553333829E-2"/>
+    <n v="3.9556118763102166E-3"/>
+    <n v="1.4747602916002744E-2"/>
   </r>
   <r>
     <m/>
@@ -1699,8 +1686,8 @@
     <n v="595.96"/>
     <n v="-1.67999999999995"/>
     <n v="-2.8110568235057056E-3"/>
-    <n v="2.7517241379310775E-2"/>
-    <n v="2.7517241379310775E-2"/>
+    <n v="3.6758620689655741E-2"/>
+    <n v="3.6758620689655741E-2"/>
   </r>
   <r>
     <m/>
@@ -1710,11 +1697,11 @@
     <x v="38"/>
     <n v="1182.27"/>
     <n v="1182.27"/>
-    <n v="1140"/>
-    <n v="-42.269999999999982"/>
-    <n v="-3.5753254332766611E-2"/>
-    <n v="-3.575325433276666E-2"/>
-    <n v="-3.575325433276666E-2"/>
+    <n v="1134"/>
+    <n v="-48.269999999999982"/>
+    <n v="-4.082823720469942E-2"/>
+    <n v="-4.5903220076632278E-2"/>
+    <n v="-4.5903220076632278E-2"/>
   </r>
   <r>
     <m/>
@@ -1724,11 +1711,67 @@
     <x v="38"/>
     <n v="0"/>
     <n v="860"/>
-    <n v="880"/>
-    <n v="20"/>
-    <n v="2.3255813953488372E-2"/>
-    <n v="2.2008013471923826E-2"/>
-    <n v="2.2008013471923826E-2"/>
+    <n v="885"/>
+    <n v="25"/>
+    <n v="2.9069767441860465E-2"/>
+    <n v="4.1751350095813322E-2"/>
+    <n v="4.1751350095813322E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="1694.66"/>
+    <n v="1695.42"/>
+    <n v="0.75999999999999091"/>
+    <n v="4.4846753921139984E-4"/>
+    <n v="3.9556118763102166E-3"/>
+    <n v="1.4747602916002744E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="595.96"/>
+    <n v="601.32000000000005"/>
+    <n v="5.3600000000000136"/>
+    <n v="8.9938922075307286E-3"/>
+    <n v="3.6758620689655741E-2"/>
+    <n v="3.6758620689655741E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="1134"/>
+    <n v="1128"/>
+    <n v="-6"/>
+    <n v="-5.2910052910052907E-3"/>
+    <n v="-4.5903220076632278E-2"/>
+    <n v="-4.5903220076632278E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="885"/>
+    <n v="897"/>
+    <n v="12"/>
+    <n v="1.3559322033898305E-2"/>
+    <n v="4.1751350095813322E-2"/>
+    <n v="4.1751350095813322E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -1776,7 +1819,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="42">
+      <items count="43">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1809,8 +1852,8 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
-        <item m="1" x="39"/>
         <item m="1" x="40"/>
+        <item m="1" x="41"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
@@ -1818,6 +1861,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
+        <item x="39"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1923,8 +1967,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L83" totalsRowCount="1" headerRowDxfId="19">
-  <autoFilter ref="A1:L82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L86" totalsRowCount="1" headerRowDxfId="19">
+  <autoFilter ref="A1:L85"/>
   <sortState ref="A2:L82">
     <sortCondition ref="E1:E82"/>
   </sortState>
@@ -2258,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,16 +2370,16 @@
         <v>1670.78</v>
       </c>
       <c r="D4" s="10">
-        <v>23.880000000000109</v>
+        <v>24.6400000000001</v>
       </c>
       <c r="E4" s="11">
-        <v>5.5151005534189836E-3</v>
+        <v>5.5674294949393027E-3</v>
       </c>
       <c r="F4" s="11">
-        <v>3.7360272766621998E-4</v>
+        <v>3.7552233821866048E-4</v>
       </c>
       <c r="G4" s="11">
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2349,16 +2393,16 @@
         <v>1670.78</v>
       </c>
       <c r="D5" s="10">
-        <v>23.880000000000109</v>
+        <v>24.6400000000001</v>
       </c>
       <c r="E5" s="11">
-        <v>5.5151005534189836E-3</v>
+        <v>5.5674294949393027E-3</v>
       </c>
       <c r="F5" s="11">
-        <v>3.7360272766621998E-4</v>
+        <v>3.7552233821866048E-4</v>
       </c>
       <c r="G5" s="11">
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2378,7 +2422,7 @@
         <v>5.4625674066808294E-3</v>
       </c>
       <c r="F6" s="11">
-        <v>2.7256251901130665E-4</v>
+        <v>2.8686658503633886E-4</v>
       </c>
       <c r="G6" s="11">
         <v>5.4625674066808294E-3</v>
@@ -2401,7 +2445,7 @@
         <v>5.4625674066808294E-3</v>
       </c>
       <c r="F7" s="11">
-        <v>2.7256251901130665E-4</v>
+        <v>2.8686658503633886E-4</v>
       </c>
       <c r="G7" s="11">
         <v>5.4625674066808294E-3</v>
@@ -2418,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="10">
-        <v>15.960000000000036</v>
+        <v>21.32000000000005</v>
       </c>
       <c r="E8" s="11">
-        <v>2.4459770114942912E-2</v>
+        <v>3.308275862069017E-2</v>
       </c>
       <c r="F8" s="11">
-        <v>3.0665146790719447E-3</v>
+        <v>3.6592524319178227E-3</v>
       </c>
       <c r="G8" s="11">
-        <v>2.7517241379310775E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2441,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="D9" s="10">
-        <v>15.960000000000036</v>
+        <v>21.32000000000005</v>
       </c>
       <c r="E9" s="11">
-        <v>2.4459770114942912E-2</v>
+        <v>3.308275862069017E-2</v>
       </c>
       <c r="F9" s="11">
-        <v>3.0665146790719447E-3</v>
+        <v>3.6592524319178227E-3</v>
       </c>
       <c r="G9" s="11">
-        <v>2.7517241379310775E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2510,16 +2554,16 @@
         <v>823</v>
       </c>
       <c r="D12" s="10">
-        <v>18.950000000000045</v>
+        <v>35.950000000000045</v>
       </c>
       <c r="E12" s="11">
-        <v>2.2008013471923826E-2</v>
+        <v>4.1751350095813322E-2</v>
       </c>
       <c r="F12" s="11">
-        <v>3.9989174449249201E-3</v>
+        <v>6.1952543131171319E-3</v>
       </c>
       <c r="G12" s="11">
-        <v>2.2008013471923826E-2</v>
+        <v>4.1751350095813322E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2533,16 +2577,16 @@
         <v>823</v>
       </c>
       <c r="D13" s="10">
-        <v>18.950000000000045</v>
+        <v>35.950000000000045</v>
       </c>
       <c r="E13" s="11">
-        <v>2.2008013471923826E-2</v>
+        <v>4.1751350095813322E-2</v>
       </c>
       <c r="F13" s="11">
-        <v>3.9989174449249201E-3</v>
+        <v>6.1952543131171319E-3</v>
       </c>
       <c r="G13" s="11">
-        <v>2.2008013471923826E-2</v>
+        <v>4.1751350095813322E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2553,19 +2597,19 @@
         <v>1182.27</v>
       </c>
       <c r="C14" s="10">
-        <v>1182.27</v>
+        <v>1134</v>
       </c>
       <c r="D14" s="10">
-        <v>-42.269999999999982</v>
+        <v>-54.269999999999982</v>
       </c>
       <c r="E14" s="11">
-        <v>-3.575325433276666E-2</v>
+        <v>-4.5903220076632278E-2</v>
       </c>
       <c r="F14" s="11">
-        <v>-3.5753254332766611E-2</v>
+        <v>-2.3059621247852356E-2</v>
       </c>
       <c r="G14" s="11">
-        <v>-3.575325433276666E-2</v>
+        <v>-4.5903220076632278E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2576,19 +2620,19 @@
         <v>1182.27</v>
       </c>
       <c r="C15" s="10">
-        <v>1182.27</v>
+        <v>1134</v>
       </c>
       <c r="D15" s="10">
-        <v>-42.269999999999982</v>
+        <v>-54.269999999999982</v>
       </c>
       <c r="E15" s="11">
-        <v>-3.575325433276666E-2</v>
+        <v>-4.5903220076632278E-2</v>
       </c>
       <c r="F15" s="11">
-        <v>-3.5753254332766611E-2</v>
+        <v>-2.3059621247852356E-2</v>
       </c>
       <c r="G15" s="11">
-        <v>-3.575325433276666E-2</v>
+        <v>-4.5903220076632278E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2599,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="C16" s="10">
-        <v>1803.1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="10">
-        <v>-6.8999999999998636</v>
+        <v>-6.9</v>
       </c>
       <c r="E16" s="11">
-        <v>-3.8267428317896313E-3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>-3.82674283178962E-3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>-3.8267428317896313E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2622,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="10">
-        <v>1803.1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="10">
-        <v>-6.8999999999998636</v>
+        <v>-6.9</v>
       </c>
       <c r="E17" s="11">
-        <v>-3.8267428317896313E-3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>-3.82674283178962E-3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>-3.8267428317896313E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2648,16 +2692,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="10">
-        <v>217.41000000000037</v>
+        <v>228.53000000000023</v>
       </c>
       <c r="E18" s="11">
-        <v>1.8227529286404455E-2</v>
+        <v>2.0204735905805342E-2</v>
       </c>
       <c r="F18" s="11">
-        <v>2.1617291729503301E-3</v>
+        <v>2.3497103295512514E-3</v>
       </c>
       <c r="G18" s="11">
-        <v>2.3295138522745833E-2</v>
+        <v>2.5492768535313754E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2668,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView topLeftCell="A69" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,7 +2806,7 @@
       </c>
       <c r="L2" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2801,7 +2845,7 @@
       </c>
       <c r="L3" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2840,7 +2884,7 @@
       </c>
       <c r="L4" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2879,7 +2923,7 @@
       </c>
       <c r="L5" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2918,7 +2962,7 @@
       </c>
       <c r="L6" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2957,7 +3001,7 @@
       </c>
       <c r="L7" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2996,7 +3040,7 @@
       </c>
       <c r="L8" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3035,7 +3079,7 @@
       </c>
       <c r="L9" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3074,7 +3118,7 @@
       </c>
       <c r="L10" s="6">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3113,7 +3157,7 @@
       </c>
       <c r="L11" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3191,7 +3235,7 @@
       </c>
       <c r="L13" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3269,7 +3313,7 @@
       </c>
       <c r="L15" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3347,7 +3391,7 @@
       </c>
       <c r="L17" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -3425,7 +3469,7 @@
       </c>
       <c r="L19" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3503,7 +3547,7 @@
       </c>
       <c r="L21" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -3581,7 +3625,7 @@
       </c>
       <c r="L23" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -3659,7 +3703,7 @@
       </c>
       <c r="L25" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -3737,7 +3781,7 @@
       </c>
       <c r="L27" s="16">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -3815,7 +3859,7 @@
       </c>
       <c r="L29" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -3893,7 +3937,7 @@
       </c>
       <c r="L31" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -3971,7 +4015,7 @@
       </c>
       <c r="L33" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -4049,7 +4093,7 @@
       </c>
       <c r="L35" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -4127,7 +4171,7 @@
       </c>
       <c r="L37" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -4205,7 +4249,7 @@
       </c>
       <c r="L39" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -4283,7 +4327,7 @@
       </c>
       <c r="L41" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -4400,7 +4444,7 @@
       </c>
       <c r="L44" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -4439,7 +4483,7 @@
       </c>
       <c r="L45" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -4517,7 +4561,7 @@
       </c>
       <c r="L47" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -4534,7 +4578,7 @@
         <v>40876</v>
       </c>
       <c r="F48" s="20">
-        <v>0</v>
+        <v>-430.71</v>
       </c>
       <c r="G48" s="13">
         <v>431.4</v>
@@ -4544,11 +4588,11 @@
       </c>
       <c r="I48" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17000000000001592</v>
+        <v>-0.68999999999999773</v>
       </c>
       <c r="J48" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9406583217435311E-4</v>
+        <v>-1.5994436717663369E-3</v>
       </c>
       <c r="K48" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -4561,7 +4605,7 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C49">
         <v>2011</v>
@@ -4570,37 +4614,37 @@
         <v>16</v>
       </c>
       <c r="E49" s="4">
-        <v>40876</v>
-      </c>
-      <c r="F49" s="20">
-        <v>-430.71</v>
-      </c>
-      <c r="G49" s="13">
-        <v>431.57</v>
+        <v>40877</v>
+      </c>
+      <c r="F49" s="9">
+        <v>1378.23</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1378.23</v>
       </c>
       <c r="H49" s="13">
-        <v>430.71</v>
+        <v>1350</v>
       </c>
       <c r="I49" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-0.86000000000001364</v>
+        <v>-28.230000000000018</v>
       </c>
       <c r="J49" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.9927242394049949E-3</v>
+        <v>-2.0482793147732974E-2</v>
       </c>
       <c r="K49" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>-2.0482793147732936E-2</v>
       </c>
       <c r="L49" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>26</v>
+      <c r="B50" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C50">
         <v>2011</v>
@@ -4611,37 +4655,37 @@
       <c r="E50" s="4">
         <v>40877</v>
       </c>
-      <c r="F50" s="9">
-        <v>1378.23</v>
-      </c>
-      <c r="G50" s="9">
-        <v>1378.23</v>
+      <c r="F50" s="21">
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1691.2</v>
       </c>
       <c r="H50" s="13">
-        <v>1350</v>
+        <v>1688.04</v>
       </c>
       <c r="I50" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-28.230000000000018</v>
+        <v>-3.1600000000000819</v>
       </c>
       <c r="J50" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.0482793147732974E-2</v>
+        <v>-1.8684957426679763E-3</v>
       </c>
       <c r="K50" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.0482793147732936E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L50" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.14906800751688776</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="8">
         <v>2011</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -4654,18 +4698,18 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>1691.2</v>
+        <v>1688.04</v>
       </c>
       <c r="H51" s="13">
-        <v>1688.04</v>
+        <v>1688.74</v>
       </c>
       <c r="I51" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-3.1600000000000819</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="J51" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.8684957426679763E-3</v>
+        <v>4.1468211653754978E-4</v>
       </c>
       <c r="K51" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -4673,14 +4717,14 @@
       </c>
       <c r="L51" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52">
         <v>2011</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -4689,74 +4733,74 @@
       <c r="E52" s="4">
         <v>40877</v>
       </c>
-      <c r="F52" s="21">
-        <v>0</v>
+      <c r="F52" s="9">
+        <v>580</v>
       </c>
       <c r="G52" s="13">
-        <v>1688.04</v>
+        <v>0</v>
       </c>
       <c r="H52" s="13">
-        <v>1688.74</v>
+        <v>0</v>
       </c>
       <c r="I52" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
+        <v>0</v>
       </c>
       <c r="J52" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1468211653754978E-4</v>
+        <v>0</v>
       </c>
       <c r="K52" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>0</v>
       </c>
       <c r="L52" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>2011</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E53" s="4">
-        <v>40877</v>
+        <v>40878</v>
       </c>
       <c r="F53" s="9">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="G53" s="13">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="H53" s="13">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="I53" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J53" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K53" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L53" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>26</v>
+      <c r="B54" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C54">
         <v>2011</v>
@@ -4767,37 +4811,37 @@
       <c r="E54" s="4">
         <v>40878</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="21">
         <v>0</v>
       </c>
       <c r="G54" s="13">
-        <v>1350</v>
+        <v>1688.74</v>
       </c>
       <c r="H54" s="13">
-        <v>1425</v>
+        <v>1689.49</v>
       </c>
       <c r="I54" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="J54" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.4411809988512146E-4</v>
       </c>
       <c r="K54" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>3.9556118763102166E-3</v>
       </c>
       <c r="L54" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.14906800751688776</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="C55" s="8">
         <v>2011</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -4809,71 +4853,71 @@
       <c r="F55" s="21">
         <v>0</v>
       </c>
-      <c r="G55" s="13">
-        <v>1688.74</v>
+      <c r="G55" s="9">
+        <v>580</v>
       </c>
       <c r="H55" s="13">
-        <v>1689.49</v>
+        <v>590.01</v>
       </c>
       <c r="I55" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75</v>
+        <v>10.009999999999991</v>
       </c>
       <c r="J55" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4411809988512146E-4</v>
+        <v>1.7258620689655158E-2</v>
       </c>
       <c r="K55" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.5055722017600655E-3</v>
+        <v>3.6758620689655741E-2</v>
       </c>
       <c r="L55" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="8">
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
         <v>2011</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E56" s="4">
-        <v>40878</v>
-      </c>
-      <c r="F56" s="21">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>580</v>
+        <v>40879</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1425</v>
       </c>
       <c r="H56" s="13">
-        <v>590.01</v>
+        <v>1408</v>
       </c>
       <c r="I56" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>10.009999999999991</v>
+        <v>-17</v>
       </c>
       <c r="J56" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.7258620689655158E-2</v>
+        <v>-1.1929824561403509E-2</v>
       </c>
       <c r="K56" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L56" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>26</v>
+      <c r="B57" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C57">
         <v>2011</v>
@@ -4884,35 +4928,35 @@
       <c r="E57" s="4">
         <v>40879</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="21">
         <v>0</v>
       </c>
       <c r="G57" s="13">
-        <v>1425</v>
+        <v>1689.49</v>
       </c>
       <c r="H57" s="13">
-        <v>1408</v>
+        <v>1690.21</v>
       </c>
       <c r="I57" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-17</v>
+        <v>0.72000000000002728</v>
       </c>
       <c r="J57" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.1929824561403509E-2</v>
+        <v>4.2616410869553964E-4</v>
       </c>
       <c r="K57" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>3.9556118763102166E-3</v>
       </c>
       <c r="L57" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.14906800751688776</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C58">
         <v>2011</v>
@@ -4927,31 +4971,31 @@
         <v>0</v>
       </c>
       <c r="G58" s="13">
-        <v>1689.49</v>
+        <v>590.01</v>
       </c>
       <c r="H58" s="13">
-        <v>1690.21</v>
+        <v>587.96</v>
       </c>
       <c r="I58" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.72000000000002728</v>
+        <v>-2.0499999999999545</v>
       </c>
       <c r="J58" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2616410869553964E-4</v>
+        <v>-3.474517381061261E-3</v>
       </c>
       <c r="K58" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.5055722017600655E-3</v>
+        <v>3.6758620689655741E-2</v>
       </c>
       <c r="L58" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C59">
         <v>2011</v>
@@ -4960,37 +5004,37 @@
         <v>28</v>
       </c>
       <c r="E59" s="4">
-        <v>40879</v>
+        <v>40882</v>
       </c>
       <c r="F59" s="21">
         <v>0</v>
       </c>
       <c r="G59" s="13">
-        <v>590.01</v>
+        <v>1408</v>
       </c>
       <c r="H59" s="13">
-        <v>587.96</v>
+        <v>1468</v>
       </c>
       <c r="I59" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-2.0499999999999545</v>
+        <v>60</v>
       </c>
       <c r="J59" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.474517381061261E-3</v>
+        <v>4.261363636363636E-2</v>
       </c>
       <c r="K59" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L59" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
-        <v>26</v>
+      <c r="B60" t="s">
+        <v>8</v>
       </c>
       <c r="C60">
         <v>2011</v>
@@ -5005,31 +5049,31 @@
         <v>0</v>
       </c>
       <c r="G60" s="13">
-        <v>1408</v>
+        <v>1690.21</v>
       </c>
       <c r="H60" s="13">
-        <v>1468</v>
+        <v>1690.92</v>
       </c>
       <c r="I60" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>60</v>
+        <v>0.71000000000003638</v>
       </c>
       <c r="J60" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.261363636363636E-2</v>
+        <v>4.2006614562689626E-4</v>
       </c>
       <c r="K60" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>3.9556118763102166E-3</v>
       </c>
       <c r="L60" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.14906800751688776</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <v>2011</v>
@@ -5044,31 +5088,31 @@
         <v>0</v>
       </c>
       <c r="G61" s="13">
-        <v>1690.21</v>
+        <v>587.96</v>
       </c>
       <c r="H61" s="13">
-        <v>1690.92</v>
+        <v>596.89</v>
       </c>
       <c r="I61" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.71000000000003638</v>
+        <v>8.92999999999995</v>
       </c>
       <c r="J61" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2006614562689626E-4</v>
+        <v>1.5188108034560088E-2</v>
       </c>
       <c r="K61" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.5055722017600655E-3</v>
+        <v>3.6758620689655741E-2</v>
       </c>
       <c r="L61" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>24</v>
+      <c r="B62" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C62">
         <v>2011</v>
@@ -5077,37 +5121,37 @@
         <v>28</v>
       </c>
       <c r="E62" s="4">
-        <v>40882</v>
+        <v>40883</v>
       </c>
       <c r="F62" s="21">
         <v>0</v>
       </c>
       <c r="G62" s="13">
-        <v>587.96</v>
+        <v>1468</v>
       </c>
       <c r="H62" s="13">
-        <v>596.89</v>
+        <v>1496</v>
       </c>
       <c r="I62" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>8.92999999999995</v>
+        <v>28</v>
       </c>
       <c r="J62" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.5188108034560088E-2</v>
+        <v>1.9073569482288829E-2</v>
       </c>
       <c r="K62" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L62" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>2011</v>
@@ -5119,34 +5163,34 @@
         <v>40883</v>
       </c>
       <c r="F63" s="21">
-        <v>0</v>
-      </c>
-      <c r="G63" s="13">
-        <v>1468</v>
+        <v>861.05</v>
+      </c>
+      <c r="G63" s="21">
+        <v>861.05</v>
       </c>
       <c r="H63" s="13">
-        <v>1496</v>
+        <v>851</v>
       </c>
       <c r="I63" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>28</v>
+        <v>-10.049999999999955</v>
       </c>
       <c r="J63" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.9073569482288829E-2</v>
+        <v>-1.1671796062946351E-2</v>
       </c>
       <c r="K63" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>4.1751350095813322E-2</v>
       </c>
       <c r="L63" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.14906800751688776</v>
+        <v>4.1751350095813322E-2</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="8" t="s">
-        <v>27</v>
+      <c r="B64" t="s">
+        <v>8</v>
       </c>
       <c r="C64">
         <v>2011</v>
@@ -5158,34 +5202,34 @@
         <v>40883</v>
       </c>
       <c r="F64" s="21">
-        <v>861.05</v>
-      </c>
-      <c r="G64" s="21">
-        <v>861.05</v>
+        <v>0</v>
+      </c>
+      <c r="G64" s="13">
+        <v>1690.92</v>
       </c>
       <c r="H64" s="13">
-        <v>851</v>
+        <v>1691.62</v>
       </c>
       <c r="I64" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-10.049999999999955</v>
+        <v>0.6999999999998181</v>
       </c>
       <c r="J64" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.1671796062946351E-2</v>
+        <v>4.1397582381178178E-4</v>
       </c>
       <c r="K64" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>3.9556118763102166E-3</v>
       </c>
       <c r="L64" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C65">
         <v>2011</v>
@@ -5200,31 +5244,31 @@
         <v>0</v>
       </c>
       <c r="G65" s="13">
-        <v>1690.92</v>
+        <v>596.89</v>
       </c>
       <c r="H65" s="13">
-        <v>1691.62</v>
+        <v>603.42999999999995</v>
       </c>
       <c r="I65" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.6999999999998181</v>
+        <v>6.5399999999999636</v>
       </c>
       <c r="J65" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1397582381178178E-4</v>
+        <v>1.0956792708874272E-2</v>
       </c>
       <c r="K65" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.5055722017600655E-3</v>
+        <v>3.6758620689655741E-2</v>
       </c>
       <c r="L65" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <v>2011</v>
@@ -5233,37 +5277,37 @@
         <v>28</v>
       </c>
       <c r="E66" s="4">
-        <v>40883</v>
+        <v>40884</v>
       </c>
       <c r="F66" s="21">
-        <v>0</v>
+        <v>-1583.68</v>
       </c>
       <c r="G66" s="13">
-        <v>596.89</v>
+        <v>1496</v>
       </c>
       <c r="H66" s="13">
-        <v>603.42999999999995</v>
+        <v>1600</v>
       </c>
       <c r="I66" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>6.5399999999999636</v>
+        <v>87.680000000000064</v>
       </c>
       <c r="J66" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.0956792708874272E-2</v>
+        <v>5.8609625668449239E-2</v>
       </c>
       <c r="K66" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L66" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67">
         <v>2011</v>
@@ -5275,34 +5319,34 @@
         <v>40884</v>
       </c>
       <c r="F67" s="21">
-        <v>-1583.68</v>
+        <v>0</v>
       </c>
       <c r="G67" s="13">
-        <v>1496</v>
+        <v>851</v>
       </c>
       <c r="H67" s="13">
-        <v>1600</v>
+        <v>823</v>
       </c>
       <c r="I67" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>87.680000000000064</v>
+        <v>-28</v>
       </c>
       <c r="J67" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.8609625668449239E-2</v>
+        <v>-3.2902467685076382E-2</v>
       </c>
       <c r="K67" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>4.1751350095813322E-2</v>
       </c>
       <c r="L67" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.14906800751688776</v>
+        <v>4.1751350095813322E-2</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>27</v>
+      <c r="B68" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C68">
         <v>2011</v>
@@ -5317,31 +5361,31 @@
         <v>0</v>
       </c>
       <c r="G68" s="13">
-        <v>851</v>
+        <v>1691.62</v>
       </c>
       <c r="H68" s="13">
-        <v>823</v>
+        <v>1692.38</v>
       </c>
       <c r="I68" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-28</v>
+        <v>0.76000000000021828</v>
       </c>
       <c r="J68" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.2902467685076382E-2</v>
+        <v>4.4927347749507476E-4</v>
       </c>
       <c r="K68" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>3.9556118763102166E-3</v>
       </c>
       <c r="L68" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C69">
         <v>2011</v>
@@ -5356,72 +5400,72 @@
         <v>0</v>
       </c>
       <c r="G69" s="13">
-        <v>1691.62</v>
+        <v>603.42999999999995</v>
       </c>
       <c r="H69" s="13">
-        <v>1692.38</v>
+        <v>599.11</v>
       </c>
       <c r="I69" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.76000000000021828</v>
+        <v>-4.3199999999999363</v>
       </c>
       <c r="J69" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4927347749507476E-4</v>
+        <v>-7.1590739605255568E-3</v>
       </c>
       <c r="K69" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.5055722017600655E-3</v>
+        <v>3.6758620689655741E-2</v>
       </c>
       <c r="L69" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70">
+        <v>27</v>
+      </c>
+      <c r="C70" s="8">
         <v>2011</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E70" s="4">
-        <v>40884</v>
+        <v>40885</v>
       </c>
       <c r="F70" s="21">
         <v>0</v>
       </c>
       <c r="G70" s="13">
-        <v>603.42999999999995</v>
+        <v>823</v>
       </c>
       <c r="H70" s="13">
-        <v>599.11</v>
+        <v>849</v>
       </c>
       <c r="I70" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-4.3199999999999363</v>
+        <v>26</v>
       </c>
       <c r="J70" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-7.1590739605255568E-3</v>
+        <v>3.1591737545565005E-2</v>
       </c>
       <c r="K70" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>4.1751350095813322E-2</v>
       </c>
       <c r="L70" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>4.1751350095813322E-2</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="8">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
         <v>2011</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -5434,31 +5478,31 @@
         <v>0</v>
       </c>
       <c r="G71" s="13">
-        <v>823</v>
+        <v>1692.38</v>
       </c>
       <c r="H71" s="13">
-        <v>849</v>
+        <v>1693.16</v>
       </c>
       <c r="I71" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>26</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="J71" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.1591737545565005E-2</v>
+        <v>4.6088939836205382E-4</v>
       </c>
       <c r="K71" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>3.9556118763102166E-3</v>
       </c>
       <c r="L71" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>8</v>
+      <c r="B72" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C72">
         <v>2011</v>
@@ -5473,31 +5517,31 @@
         <v>0</v>
       </c>
       <c r="G72" s="13">
-        <v>1692.38</v>
+        <v>599.11</v>
       </c>
       <c r="H72" s="13">
-        <v>1693.16</v>
+        <v>592.57000000000005</v>
       </c>
       <c r="I72" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.77999999999997272</v>
+        <v>-6.5399999999999636</v>
       </c>
       <c r="J72" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6088939836205382E-4</v>
+        <v>-1.0916192351988723E-2</v>
       </c>
       <c r="K72" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.5055722017600655E-3</v>
+        <v>3.6758620689655741E-2</v>
       </c>
       <c r="L72" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>2011</v>
@@ -5511,71 +5555,71 @@
       <c r="F73" s="21">
         <v>0</v>
       </c>
-      <c r="G73" s="13">
-        <v>599.11</v>
+      <c r="G73" s="27">
+        <v>0</v>
       </c>
       <c r="H73" s="13">
-        <v>592.57000000000005</v>
+        <v>-6.9</v>
       </c>
       <c r="I73" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-6.5399999999999636</v>
+        <v>-6.9</v>
       </c>
       <c r="J73" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.0916192351988723E-2</v>
+        <v>0</v>
       </c>
       <c r="K73" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0</v>
       </c>
       <c r="L73" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74">
+        <v>27</v>
+      </c>
+      <c r="C74" s="8">
         <v>2011</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E74" s="4">
-        <v>40885</v>
+        <v>40886</v>
       </c>
       <c r="F74" s="21">
         <v>0</v>
       </c>
-      <c r="G74" s="27">
-        <v>0</v>
+      <c r="G74" s="13">
+        <v>849</v>
       </c>
       <c r="H74" s="13">
-        <v>-6.9</v>
+        <v>879</v>
       </c>
       <c r="I74" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-6.9</v>
+        <v>30</v>
       </c>
       <c r="J74" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>3.5335689045936397E-2</v>
       </c>
       <c r="K74" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0</v>
+        <v>4.1751350095813322E-2</v>
       </c>
       <c r="L74" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0</v>
+        <v>4.1751350095813322E-2</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C75" s="8">
         <v>2011</v>
@@ -5590,31 +5634,31 @@
         <v>0</v>
       </c>
       <c r="G75" s="13">
-        <v>849</v>
+        <v>1693.16</v>
       </c>
       <c r="H75" s="13">
-        <v>879</v>
+        <v>1693.92</v>
       </c>
       <c r="I75" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>30</v>
+        <v>0.75999999999999091</v>
       </c>
       <c r="J75" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.5335689045936397E-2</v>
+        <v>4.4886484443288933E-4</v>
       </c>
       <c r="K75" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>3.9556118763102166E-3</v>
       </c>
       <c r="L75" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C76" s="8">
         <v>2011</v>
@@ -5629,31 +5673,31 @@
         <v>0</v>
       </c>
       <c r="G76" s="13">
-        <v>1693.16</v>
+        <v>592.57000000000005</v>
       </c>
       <c r="H76" s="13">
-        <v>1693.92</v>
+        <v>597.64</v>
       </c>
       <c r="I76" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75999999999999091</v>
+        <v>5.0699999999999363</v>
       </c>
       <c r="J76" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4886484443288933E-4</v>
+        <v>8.5559511956392262E-3</v>
       </c>
       <c r="K76" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.5055722017600655E-3</v>
+        <v>3.6758620689655741E-2</v>
       </c>
       <c r="L76" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C77" s="8">
         <v>2011</v>
@@ -5662,37 +5706,37 @@
         <v>28</v>
       </c>
       <c r="E77" s="4">
-        <v>40886</v>
+        <v>40889</v>
       </c>
       <c r="F77" s="21">
         <v>0</v>
       </c>
       <c r="G77" s="13">
-        <v>592.57000000000005</v>
+        <v>879</v>
       </c>
       <c r="H77" s="13">
-        <v>597.64</v>
+        <v>860</v>
       </c>
       <c r="I77" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>5.0699999999999363</v>
+        <v>-19</v>
       </c>
       <c r="J77" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>8.5559511956392262E-3</v>
+        <v>-2.1615472127417521E-2</v>
       </c>
       <c r="K77" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>4.1751350095813322E-2</v>
       </c>
       <c r="L77" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>4.1751350095813322E-2</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C78" s="8">
         <v>2011</v>
@@ -5707,33 +5751,33 @@
         <v>0</v>
       </c>
       <c r="G78" s="13">
-        <v>879</v>
+        <v>1693.92</v>
       </c>
       <c r="H78" s="13">
-        <v>860</v>
+        <v>1694.66</v>
       </c>
       <c r="I78" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-19</v>
+        <v>0.74000000000000909</v>
       </c>
       <c r="J78" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.1615472127417521E-2</v>
+        <v>4.3685652214981173E-4</v>
       </c>
       <c r="K78" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>3.9556118763102166E-3</v>
       </c>
       <c r="L78" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="8">
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79">
         <v>2011</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -5746,31 +5790,31 @@
         <v>0</v>
       </c>
       <c r="G79" s="13">
-        <v>1693.92</v>
+        <v>597.64</v>
       </c>
       <c r="H79" s="13">
-        <v>1694.66</v>
+        <v>595.96</v>
       </c>
       <c r="I79" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.74000000000000909</v>
+        <v>-1.67999999999995</v>
       </c>
       <c r="J79" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.3685652214981173E-4</v>
+        <v>-2.8110568235057056E-3</v>
       </c>
       <c r="K79" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.5055722017600655E-3</v>
+        <v>3.6758620689655741E-2</v>
       </c>
       <c r="L79" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4292725553333829E-2</v>
+        <v>3.6758620689655741E-2</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C80">
         <v>2011</v>
@@ -5779,37 +5823,37 @@
         <v>28</v>
       </c>
       <c r="E80" s="4">
-        <v>40889</v>
+        <v>40890</v>
       </c>
       <c r="F80" s="21">
-        <v>0</v>
-      </c>
-      <c r="G80" s="13">
-        <v>597.64</v>
+        <v>1182.27</v>
+      </c>
+      <c r="G80" s="27">
+        <v>1182.27</v>
       </c>
       <c r="H80" s="13">
-        <v>595.96</v>
+        <v>1134</v>
       </c>
       <c r="I80" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-1.67999999999995</v>
+        <v>-48.269999999999982</v>
       </c>
       <c r="J80" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.8110568235057056E-3</v>
+        <v>-4.082823720469942E-2</v>
       </c>
       <c r="K80" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>-4.5903220076632278E-2</v>
       </c>
       <c r="L80" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.7517241379310775E-2</v>
+        <v>-4.5903220076632278E-2</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C81">
         <v>2011</v>
@@ -5821,36 +5865,36 @@
         <v>40890</v>
       </c>
       <c r="F81" s="21">
-        <v>1182.27</v>
-      </c>
-      <c r="G81" s="27">
-        <v>1182.27</v>
+        <v>0</v>
+      </c>
+      <c r="G81" s="13">
+        <v>860</v>
       </c>
       <c r="H81" s="13">
-        <v>1140</v>
+        <v>885</v>
       </c>
       <c r="I81" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-42.269999999999982</v>
+        <v>25</v>
       </c>
       <c r="J81" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.5753254332766611E-2</v>
+        <v>2.9069767441860465E-2</v>
       </c>
       <c r="K81" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.575325433276666E-2</v>
+        <v>4.1751350095813322E-2</v>
       </c>
       <c r="L81" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.575325433276666E-2</v>
+        <v>4.1751350095813322E-2</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82">
+      <c r="B82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="8">
         <v>2011</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -5863,71 +5907,188 @@
         <v>0</v>
       </c>
       <c r="G82" s="13">
-        <v>860</v>
+        <v>1694.66</v>
       </c>
       <c r="H82" s="13">
-        <v>880</v>
+        <v>1695.42</v>
       </c>
       <c r="I82" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>20</v>
+        <v>0.75999999999999091</v>
       </c>
       <c r="J82" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.3255813953488372E-2</v>
+        <v>4.4846753921139984E-4</v>
       </c>
       <c r="K82" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>3.9556118763102166E-3</v>
       </c>
       <c r="L82" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.2008013471923826E-2</v>
+        <v>1.4747602916002744E-2</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="4">
+        <v>40890</v>
+      </c>
+      <c r="F83" s="21">
+        <v>0</v>
+      </c>
+      <c r="G83" s="13">
+        <v>595.96</v>
+      </c>
+      <c r="H83" s="13">
+        <v>601.32000000000005</v>
+      </c>
+      <c r="I83" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>5.3600000000000136</v>
+      </c>
+      <c r="J83" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>8.9938922075307286E-3</v>
+      </c>
+      <c r="K83" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.6758620689655741E-2</v>
+      </c>
+      <c r="L83" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.6758620689655741E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="4">
+        <v>40891</v>
+      </c>
+      <c r="F84" s="21">
+        <v>0</v>
+      </c>
+      <c r="G84" s="13">
+        <v>1134</v>
+      </c>
+      <c r="H84" s="13">
+        <v>1128</v>
+      </c>
+      <c r="I84" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-6</v>
+      </c>
+      <c r="J84" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-5.2910052910052907E-3</v>
+      </c>
+      <c r="K84" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.5903220076632278E-2</v>
+      </c>
+      <c r="L84" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.5903220076632278E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="4">
+        <v>40891</v>
+      </c>
+      <c r="F85" s="21">
+        <v>0</v>
+      </c>
+      <c r="G85" s="13">
+        <v>885</v>
+      </c>
+      <c r="H85" s="13">
+        <v>897</v>
+      </c>
+      <c r="I85" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>12</v>
+      </c>
+      <c r="J85" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>1.3559322033898305E-2</v>
+      </c>
+      <c r="K85" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>4.1751350095813322E-2</v>
+      </c>
+      <c r="L85" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>4.1751350095813322E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="22">
+      <c r="C86" s="22">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D86" s="22">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40890</v>
-      </c>
-      <c r="E83">
+        <v>40891</v>
+      </c>
+      <c r="E86">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</f>
-        <v>38</v>
-      </c>
-      <c r="F83" s="25">
+        <v>39</v>
+      </c>
+      <c r="F86" s="25">
         <f>SUBTOTAL(109,Tabela1[Aplicação/Resgate])+Tabela1[[#Totals],[Nome]]</f>
         <v>4700.24</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G86" s="26">
         <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Aplicação/Resgate]]</f>
-        <v>4.6255084846731277E-2</v>
-      </c>
-      <c r="H83" s="25">
+        <v>4.8620921484860392E-2</v>
+      </c>
+      <c r="H86" s="25">
         <f>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]</f>
-        <v>4917.6499999999996</v>
-      </c>
-      <c r="I83" s="10">
+        <v>4928.7700000000004</v>
+      </c>
+      <c r="I86" s="10">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>217.4100000000002</v>
-      </c>
-      <c r="J83" s="26">
+        <v>228.5300000000002</v>
+      </c>
+      <c r="J86" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.1906346348340424E-3</v>
-      </c>
-      <c r="K83" s="26">
+        <v>1.2180718318153261E-3</v>
+      </c>
+      <c r="K86" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.5303282532229687E-2</v>
-      </c>
-      <c r="L83" s="26">
+        <v>2.589350213046937E-2</v>
+      </c>
+      <c r="L86" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.34967179849333418</v>
+        <v>0.35902469603575193</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan4" sheetId="4" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="32">
   <si>
     <t>Nome</t>
   </si>
@@ -112,10 +112,10 @@
     <t>JBSS3</t>
   </si>
   <si>
-    <t xml:space="preserve"> R$ 613,93 </t>
+    <t>Custódia</t>
   </si>
   <si>
-    <t>Custódia</t>
+    <t xml:space="preserve"> R$ 1.212,06 </t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40891.829888773151" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="84">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40895.868600925925" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="92">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -485,13 +485,13 @@
     </cacheField>
     <cacheField name="Nome" numFmtId="0">
       <sharedItems containsBlank="1" count="9">
+        <s v="GOLL4"/>
+        <s v="JBSS3"/>
+        <s v="MRFG3"/>
         <s v="XP INV FIRF CRED PRI"/>
+        <s v="XP MULT-INV FIC FIA"/>
         <s v="XP Referenciado FIRD"/>
-        <s v="GOLL4"/>
-        <s v="XP MULT-INV FIC FIA"/>
-        <s v="MRFG3"/>
         <s v="Custódia"/>
-        <s v="JBSS3"/>
         <m u="1"/>
         <s v="CRED" u="1"/>
       </sharedItems>
@@ -503,9 +503,9 @@
     </cacheField>
     <cacheField name="Mês" numFmtId="49">
       <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2011-10-01T00:00:00" maxDate="2011-11-08T00:00:00" count="14">
-        <s v="Outubro"/>
         <s v="Novembro"/>
         <s v="Dezembro"/>
+        <s v="Outubro"/>
         <m u="1"/>
         <d v="2011-11-02T00:00:00" u="1"/>
         <d v="2011-11-07T00:00:00" u="1"/>
@@ -520,7 +520,20 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="42">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="44">
+        <d v="2011-11-30T00:00:00"/>
+        <d v="2011-12-01T00:00:00"/>
+        <d v="2011-12-02T00:00:00"/>
+        <d v="2011-12-05T00:00:00"/>
+        <d v="2011-12-06T00:00:00"/>
+        <d v="2011-12-07T00:00:00"/>
+        <d v="2011-12-13T00:00:00"/>
+        <d v="2011-12-14T00:00:00"/>
+        <d v="2011-12-15T00:00:00"/>
+        <d v="2011-12-16T00:00:00"/>
+        <d v="2011-12-08T00:00:00"/>
+        <d v="2011-12-09T00:00:00"/>
+        <d v="2011-12-12T00:00:00"/>
         <d v="2011-10-19T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
         <d v="2011-10-21T00:00:00"/>
@@ -546,45 +559,34 @@
         <d v="2011-11-22T00:00:00"/>
         <d v="2011-11-23T00:00:00"/>
         <d v="2011-11-24T00:00:00"/>
-        <d v="2011-11-25T00:00:00"/>
         <d v="2011-11-26T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
         <d v="2011-11-29T00:00:00"/>
-        <d v="2011-11-30T00:00:00"/>
-        <d v="2011-12-01T00:00:00"/>
-        <d v="2011-12-02T00:00:00"/>
-        <d v="2011-12-05T00:00:00"/>
-        <d v="2011-12-06T00:00:00"/>
-        <d v="2011-12-07T00:00:00"/>
-        <d v="2011-12-08T00:00:00"/>
-        <d v="2011-12-09T00:00:00"/>
-        <d v="2011-12-12T00:00:00"/>
-        <d v="2011-12-13T00:00:00"/>
-        <d v="2011-12-14T00:00:00"/>
+        <d v="2011-11-25T00:00:00"/>
         <d v="2011-12-03T00:00:00" u="1"/>
         <d v="2012-12-01T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Aplicação/Resgate" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1583.68" maxValue="1670.78"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1796.2" maxValue="1803.1"/>
     </cacheField>
     <cacheField name="Valor Base" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1694.66"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1803.1"/>
     </cacheField>
     <cacheField name="Valor Bruto" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-6.9" maxValue="1695.42"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1696.85"/>
     </cacheField>
     <cacheField name="Rendimento" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-48.269999999999982" maxValue="87.680000000000064"/>
     </cacheField>
     <cacheField name="Rent. Dia" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.082823720469942E-2" maxValue="5.8609625668449239E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5454545454545456E-2" maxValue="5.8609625668449239E-2"/>
     </cacheField>
     <cacheField name="Rent. Mês" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5903220076632278E-2" maxValue="0.17309629629629653"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.4446896231345439E-2" maxValue="0.17309629629629653"/>
     </cacheField>
     <cacheField name="Rent. Ano" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5903220076632278E-2" maxValue="0.14906800751688776"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.4446896231345439E-2" maxValue="0.14906800751688776"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -596,181 +598,1021 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="84">
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="92">
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1378.23"/>
+    <n v="1378.23"/>
+    <n v="1350"/>
+    <n v="-28.230000000000018"/>
+    <n v="-2.0482793147732974E-2"/>
+    <n v="-2.0482793147732936E-2"/>
+    <n v="0.14906800751688776"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1350"/>
+    <n v="1425"/>
+    <n v="75"/>
+    <n v="5.5555555555555552E-2"/>
+    <n v="0.17309629629629653"/>
+    <n v="0.14906800751688776"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1425"/>
+    <n v="1408"/>
+    <n v="-17"/>
+    <n v="-1.1929824561403509E-2"/>
+    <n v="0.17309629629629653"/>
+    <n v="0.14906800751688776"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="1408"/>
+    <n v="1468"/>
+    <n v="60"/>
+    <n v="4.261363636363636E-2"/>
+    <n v="0.17309629629629653"/>
+    <n v="0.14906800751688776"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="1468"/>
+    <n v="1496"/>
+    <n v="28"/>
+    <n v="1.9073569482288829E-2"/>
+    <n v="0.17309629629629653"/>
+    <n v="0.14906800751688776"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="-1583.68"/>
+    <n v="1496"/>
+    <n v="1600"/>
+    <n v="87.680000000000064"/>
+    <n v="5.8609625668449239E-2"/>
+    <n v="0.17309629629629653"/>
+    <n v="0.14906800751688776"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="1182.27"/>
+    <n v="1182.27"/>
+    <n v="1134"/>
+    <n v="-48.269999999999982"/>
+    <n v="-4.082823720469942E-2"/>
+    <n v="-1.3761661887724319E-2"/>
+    <n v="-1.3761661887724319E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="1134"/>
+    <n v="1134"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-1.3761661887724319E-2"/>
+    <n v="-1.3761661887724319E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="1134"/>
+    <n v="1108"/>
+    <n v="-26"/>
+    <n v="-2.292768959435626E-2"/>
+    <n v="-1.3761661887724319E-2"/>
+    <n v="-1.3761661887724319E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="1108"/>
+    <n v="1166"/>
+    <n v="58"/>
+    <n v="5.2346570397111915E-2"/>
+    <n v="-1.3761661887724319E-2"/>
+    <n v="-1.3761661887724319E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="861.05"/>
+    <n v="861.05"/>
+    <n v="851"/>
+    <n v="-10.049999999999955"/>
+    <n v="-1.1671796062946351E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="851"/>
+    <n v="823"/>
+    <n v="-28"/>
+    <n v="-3.2902467685076382E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="823"/>
+    <n v="849"/>
+    <n v="26"/>
+    <n v="3.1591737545565005E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="849"/>
+    <n v="879"/>
+    <n v="30"/>
+    <n v="3.5335689045936397E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="879"/>
+    <n v="860"/>
+    <n v="-19"/>
+    <n v="-2.1615472127417521E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="860"/>
+    <n v="885"/>
+    <n v="25"/>
+    <n v="2.9069767441860465E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="885"/>
+    <n v="900"/>
+    <n v="15"/>
+    <n v="1.6949152542372881E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="900"/>
+    <n v="880"/>
+    <n v="-20"/>
+    <n v="-2.2222222222222223E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="880"/>
+    <n v="840"/>
+    <n v="-40"/>
+    <n v="-4.5454545454545456E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="13"/>
     <n v="1670.78"/>
     <n v="1670.78"/>
     <n v="1670.78"/>
     <n v="0"/>
     <n v="0"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="14"/>
     <n v="0"/>
     <n v="1670.78"/>
     <n v="1671.56"/>
     <n v="0.77999999999997272"/>
     <n v="4.6684781958125708E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
     <x v="0"/>
     <x v="2"/>
+    <x v="15"/>
     <n v="0"/>
     <n v="1671.56"/>
     <n v="1672.3"/>
     <n v="0.74000000000000909"/>
     <n v="4.4270023211850554E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
     <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="16"/>
     <n v="0"/>
     <n v="1672.3"/>
     <n v="1673.04"/>
     <n v="0.74000000000000909"/>
     <n v="4.4250433534653421E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="17"/>
     <n v="0"/>
     <n v="1673.04"/>
     <n v="1673.87"/>
     <n v="0.82999999999992724"/>
     <n v="4.9610290250079328E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="18"/>
     <n v="0"/>
     <n v="1673.87"/>
     <n v="1674.66"/>
     <n v="0.79000000000019099"/>
     <n v="4.7196018806728782E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="6"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="19"/>
     <n v="0"/>
     <n v="1674.66"/>
     <n v="1675.48"/>
     <n v="0.81999999999993634"/>
     <n v="4.8965163077874685E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="20"/>
     <n v="0"/>
     <n v="1675.48"/>
     <n v="1676.13"/>
     <n v="0.65000000000009095"/>
     <n v="3.8794852818302276E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="21"/>
     <n v="0"/>
     <n v="1676.13"/>
     <n v="1676.86"/>
     <n v="0.72999999999979082"/>
     <n v="4.3552707725521932E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="9"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
     <n v="0"/>
     <n v="1676.86"/>
     <n v="1677.49"/>
     <n v="0.63000000000010914"/>
     <n v="3.7570220531237501E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="9"/>
-    <n v="428.37"/>
-    <n v="428.37"/>
-    <n v="428.37"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="10"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="23"/>
     <n v="0"/>
     <n v="1677.49"/>
     <n v="1678.11"/>
     <n v="0.61999999999989086"/>
     <n v="3.6959981877679801E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="24"/>
+    <n v="0"/>
+    <n v="1678.11"/>
+    <n v="1678.81"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1713594460437368E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="1678.81"/>
+    <n v="1679.59"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6461481644734828E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="1679.59"/>
+    <n v="1680.42"/>
+    <n v="0.83000000000015461"/>
+    <n v="4.9416821962511965E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="1680.42"/>
+    <n v="1681.27"/>
+    <n v="0.84999999999990905"/>
+    <n v="5.0582592447120901E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="1681.27"/>
+    <n v="1682.1"/>
+    <n v="0.82999999999992724"/>
+    <n v="4.9367442469081544E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="1682.1"/>
+    <n v="1683.02"/>
+    <n v="0.92000000000007276"/>
+    <n v="5.4693537839609584E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="1683.02"/>
+    <n v="1683.82"/>
+    <n v="0.79999999999995453"/>
+    <n v="4.7533600313719063E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="31"/>
+    <n v="0"/>
+    <n v="1683.82"/>
+    <n v="1684.61"/>
+    <n v="0.78999999999996362"/>
+    <n v="4.6917128909263676E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="32"/>
+    <n v="0"/>
+    <n v="1684.61"/>
+    <n v="1685.31"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1552644232198876E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="33"/>
+    <n v="0"/>
+    <n v="1685.31"/>
+    <n v="1686.09"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6282286344943825E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="1686.09"/>
+    <n v="1686.81"/>
+    <n v="0.72000000000002728"/>
+    <n v="4.2702346849813905E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="1686.81"/>
+    <n v="1687.6"/>
+    <n v="0.78999999999996362"/>
+    <n v="4.683396470260217E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="1687.6"/>
+    <n v="1688.37"/>
+    <n v="0.76999999999998181"/>
+    <n v="4.5626925811802671E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="1688.37"/>
+    <n v="1689.07"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1460106493247662E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="1689.07"/>
+    <n v="1689.77"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1442924212735144E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="1689.77"/>
+    <n v="1690.5"/>
+    <n v="0.73000000000001819"/>
+    <n v="4.3201145718057383E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="40"/>
+    <n v="0"/>
+    <n v="1690.5"/>
+    <n v="1691.2"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1407867494826705E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="1691.2"/>
+    <n v="1688.04"/>
+    <n v="-3.1600000000000819"/>
+    <n v="-1.8684957426679763E-3"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="1688.04"/>
+    <n v="1688.74"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1468211653754978E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
     <x v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1688.74"/>
+    <n v="1689.49"/>
+    <n v="0.75"/>
+    <n v="4.4411809988512146E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1689.49"/>
+    <n v="1690.21"/>
+    <n v="0.72000000000002728"/>
+    <n v="4.2616410869553964E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="1690.21"/>
+    <n v="1690.92"/>
+    <n v="0.71000000000003638"/>
+    <n v="4.2006614562689626E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="1690.92"/>
+    <n v="1691.62"/>
+    <n v="0.6999999999998181"/>
+    <n v="4.1397582381178178E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="1691.62"/>
+    <n v="1692.38"/>
+    <n v="0.76000000000021828"/>
+    <n v="4.4927347749507476E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
     <x v="0"/>
     <x v="1"/>
     <x v="10"/>
+    <n v="0"/>
+    <n v="1692.38"/>
+    <n v="1693.16"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6088939836205382E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="1693.16"/>
+    <n v="1693.92"/>
+    <n v="0.75999999999999091"/>
+    <n v="4.4886484443288933E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="1693.92"/>
+    <n v="1694.66"/>
+    <n v="0.74000000000000909"/>
+    <n v="4.3685652214981173E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="1694.66"/>
+    <n v="1695.42"/>
+    <n v="0.75999999999999091"/>
+    <n v="4.4846753921139984E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="1695.42"/>
+    <n v="1696.05"/>
+    <n v="0.62999999999988177"/>
+    <n v="3.7158934069427148E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="1696.05"/>
+    <n v="1696.85"/>
+    <n v="0.79999999999995453"/>
+    <n v="4.7168420742310342E-4"/>
+    <n v="4.8023970534245564E-3"/>
+    <n v="1.5603490585234914E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="580"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="580"/>
+    <n v="590.01"/>
+    <n v="10.009999999999991"/>
+    <n v="1.7258620689655158E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="590.01"/>
+    <n v="587.96"/>
+    <n v="-2.0499999999999545"/>
+    <n v="-3.474517381061261E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="587.96"/>
+    <n v="596.89"/>
+    <n v="8.92999999999995"/>
+    <n v="1.5188108034560088E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="596.89"/>
+    <n v="603.42999999999995"/>
+    <n v="6.5399999999999636"/>
+    <n v="1.0956792708874272E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="603.42999999999995"/>
+    <n v="599.11"/>
+    <n v="-4.3199999999999363"/>
+    <n v="-7.1590739605255568E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="599.11"/>
+    <n v="592.57000000000005"/>
+    <n v="-6.5399999999999636"/>
+    <n v="-1.0916192351988723E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="592.57000000000005"/>
+    <n v="597.64"/>
+    <n v="5.0699999999999363"/>
+    <n v="8.5559511956392262E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="597.64"/>
+    <n v="595.96"/>
+    <n v="-1.67999999999995"/>
+    <n v="-2.8110568235057056E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="595.96"/>
+    <n v="601.32000000000005"/>
+    <n v="5.3600000000000136"/>
+    <n v="8.9938922075307286E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="-598.13"/>
+    <n v="601.32000000000005"/>
+    <n v="0"/>
+    <n v="-3.1900000000000546"/>
+    <n v="-5.3049956761791629E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <n v="428.37"/>
+    <n v="428.37"/>
+    <n v="428.37"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="23"/>
     <n v="0"/>
     <n v="428.37"/>
     <n v="428.55"/>
@@ -781,24 +1623,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="1678.11"/>
-    <n v="1678.81"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1713594460437368E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="11"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="24"/>
     <n v="0"/>
     <n v="428.55"/>
     <n v="428.72"/>
@@ -809,24 +1637,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="1678.81"/>
-    <n v="1679.59"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6461481644734828E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="12"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="25"/>
     <n v="0"/>
     <n v="428.72"/>
     <n v="428.9"/>
@@ -837,24 +1651,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="13"/>
-    <n v="0"/>
-    <n v="1679.59"/>
-    <n v="1680.42"/>
-    <n v="0.83000000000015461"/>
-    <n v="4.9416821962511965E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="13"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="428.9"/>
     <n v="429.08"/>
@@ -865,24 +1665,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="1680.42"/>
-    <n v="1681.27"/>
-    <n v="0.84999999999990905"/>
-    <n v="5.0582592447120901E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="14"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="27"/>
     <n v="0"/>
     <n v="429.08"/>
     <n v="429.28"/>
@@ -893,24 +1679,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="1681.27"/>
-    <n v="1682.1"/>
-    <n v="0.82999999999992724"/>
-    <n v="4.9367442469081544E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="15"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="28"/>
     <n v="0"/>
     <n v="429.28"/>
     <n v="429.48"/>
@@ -921,24 +1693,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="1682.1"/>
-    <n v="1683.02"/>
-    <n v="0.92000000000007276"/>
-    <n v="5.4693537839609584E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="16"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
     <n v="0"/>
     <n v="429.48"/>
     <n v="429.69"/>
@@ -949,24 +1707,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="17"/>
-    <n v="0"/>
-    <n v="1683.02"/>
-    <n v="1683.82"/>
-    <n v="0.79999999999995453"/>
-    <n v="4.7533600313719063E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="17"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="30"/>
     <n v="0"/>
     <n v="429.69"/>
     <n v="429.89"/>
@@ -977,24 +1721,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="18"/>
-    <n v="0"/>
-    <n v="1683.82"/>
-    <n v="1684.61"/>
-    <n v="0.78999999999996362"/>
-    <n v="4.6917128909263676E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="18"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="31"/>
     <n v="0"/>
     <n v="429.89"/>
     <n v="430.1"/>
@@ -1005,24 +1735,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="19"/>
-    <n v="0"/>
-    <n v="1684.61"/>
-    <n v="1685.31"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1552644232198876E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="19"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="32"/>
     <n v="0"/>
     <n v="430.1"/>
     <n v="430.27"/>
@@ -1033,24 +1749,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="20"/>
-    <n v="0"/>
-    <n v="1685.31"/>
-    <n v="1686.09"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6282286344943825E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="20"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="33"/>
     <n v="0"/>
     <n v="430.27"/>
     <n v="430.44"/>
@@ -1061,24 +1763,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="21"/>
-    <n v="0"/>
-    <n v="1686.09"/>
-    <n v="1686.81"/>
-    <n v="0.72000000000002728"/>
-    <n v="4.2702346849813905E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="21"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="34"/>
     <n v="0"/>
     <n v="430.44"/>
     <n v="430.6"/>
@@ -1089,24 +1777,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="22"/>
-    <n v="0"/>
-    <n v="1686.81"/>
-    <n v="1687.6"/>
-    <n v="0.78999999999996362"/>
-    <n v="4.683396470260217E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="22"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
     <n v="0"/>
     <n v="430.6"/>
     <n v="430.78"/>
@@ -1117,24 +1791,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="23"/>
-    <n v="0"/>
-    <n v="1687.6"/>
-    <n v="1688.37"/>
-    <n v="0.76999999999998181"/>
-    <n v="4.5626925811802671E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="23"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="36"/>
     <n v="0"/>
     <n v="430.78"/>
     <n v="430.95"/>
@@ -1145,24 +1805,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="24"/>
-    <n v="0"/>
-    <n v="1688.37"/>
-    <n v="1689.07"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1460106493247662E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="24"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="37"/>
     <n v="0"/>
     <n v="430.95"/>
     <n v="431.11"/>
@@ -1173,10 +1819,10 @@
   </r>
   <r>
     <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="25"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="41"/>
     <n v="0"/>
     <n v="431.11"/>
     <n v="431.23"/>
@@ -1187,38 +1833,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="26"/>
-    <n v="0"/>
-    <n v="1689.07"/>
-    <n v="1689.77"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1442924212735144E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="27"/>
-    <n v="0"/>
-    <n v="1689.77"/>
-    <n v="1690.5"/>
-    <n v="0.73000000000001819"/>
-    <n v="4.3201145718057383E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="27"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="39"/>
     <n v="0"/>
     <n v="431.23"/>
     <n v="431.4"/>
@@ -1229,24 +1847,10 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="28"/>
-    <n v="0"/>
-    <n v="1690.5"/>
-    <n v="1691.2"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1407867494826705E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="28"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="40"/>
     <n v="-430.71"/>
     <n v="431.4"/>
     <n v="431.57"/>
@@ -1257,541 +1861,51 @@
   </r>
   <r>
     <m/>
-    <x v="2"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="29"/>
-    <n v="1378.23"/>
-    <n v="1378.23"/>
-    <n v="1350"/>
-    <n v="-28.230000000000018"/>
-    <n v="-2.0482793147732974E-2"/>
-    <n v="-2.0482793147732936E-2"/>
-    <n v="0.14906800751688776"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
+    <x v="10"/>
+    <n v="1803.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-3.8267428317896313E-3"/>
+    <n v="-3.8267428317896313E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="29"/>
-    <n v="0"/>
-    <n v="1691.2"/>
-    <n v="1688.04"/>
-    <n v="-3.1600000000000819"/>
-    <n v="-1.8684957426679763E-3"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="29"/>
-    <n v="0"/>
-    <n v="1688.04"/>
-    <n v="1688.74"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1468211653754978E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="29"/>
-    <n v="580"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3.6758620689655741E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="30"/>
-    <n v="0"/>
-    <n v="1350"/>
-    <n v="1425"/>
-    <n v="75"/>
-    <n v="5.5555555555555552E-2"/>
-    <n v="0.17309629629629653"/>
-    <n v="0.14906800751688776"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="30"/>
-    <n v="0"/>
-    <n v="1688.74"/>
-    <n v="1689.49"/>
-    <n v="0.75"/>
-    <n v="4.4411809988512146E-4"/>
-    <n v="3.9556118763102166E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="30"/>
-    <n v="0"/>
-    <n v="580"/>
-    <n v="590.01"/>
-    <n v="10.009999999999991"/>
-    <n v="1.7258620689655158E-2"/>
-    <n v="3.6758620689655741E-2"/>
-    <n v="3.6758620689655741E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="31"/>
-    <n v="0"/>
-    <n v="1425"/>
-    <n v="1408"/>
-    <n v="-17"/>
-    <n v="-1.1929824561403509E-2"/>
-    <n v="0.17309629629629653"/>
-    <n v="0.14906800751688776"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="31"/>
-    <n v="0"/>
-    <n v="1689.49"/>
-    <n v="1690.21"/>
-    <n v="0.72000000000002728"/>
-    <n v="4.2616410869553964E-4"/>
-    <n v="3.9556118763102166E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="31"/>
-    <n v="0"/>
-    <n v="590.01"/>
-    <n v="587.96"/>
-    <n v="-2.0499999999999545"/>
-    <n v="-3.474517381061261E-3"/>
-    <n v="3.6758620689655741E-2"/>
-    <n v="3.6758620689655741E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="32"/>
-    <n v="0"/>
-    <n v="1408"/>
-    <n v="1468"/>
-    <n v="60"/>
-    <n v="4.261363636363636E-2"/>
-    <n v="0.17309629629629653"/>
-    <n v="0.14906800751688776"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="32"/>
-    <n v="0"/>
-    <n v="1690.21"/>
-    <n v="1690.92"/>
-    <n v="0.71000000000003638"/>
-    <n v="4.2006614562689626E-4"/>
-    <n v="3.9556118763102166E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="32"/>
-    <n v="0"/>
-    <n v="587.96"/>
-    <n v="596.89"/>
-    <n v="8.92999999999995"/>
-    <n v="1.5188108034560088E-2"/>
-    <n v="3.6758620689655741E-2"/>
-    <n v="3.6758620689655741E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="33"/>
-    <n v="0"/>
-    <n v="1468"/>
-    <n v="1496"/>
-    <n v="28"/>
-    <n v="1.9073569482288829E-2"/>
-    <n v="0.17309629629629653"/>
-    <n v="0.14906800751688776"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="33"/>
-    <n v="861.05"/>
-    <n v="861.05"/>
-    <n v="851"/>
-    <n v="-10.049999999999955"/>
-    <n v="-1.1671796062946351E-2"/>
-    <n v="4.1751350095813322E-2"/>
-    <n v="4.1751350095813322E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="33"/>
-    <n v="0"/>
-    <n v="1690.92"/>
-    <n v="1691.62"/>
-    <n v="0.6999999999998181"/>
-    <n v="4.1397582381178178E-4"/>
-    <n v="3.9556118763102166E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="33"/>
-    <n v="0"/>
-    <n v="596.89"/>
-    <n v="603.42999999999995"/>
-    <n v="6.5399999999999636"/>
-    <n v="1.0956792708874272E-2"/>
-    <n v="3.6758620689655741E-2"/>
-    <n v="3.6758620689655741E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="34"/>
-    <n v="-1583.68"/>
-    <n v="1496"/>
-    <n v="1600"/>
-    <n v="87.680000000000064"/>
-    <n v="5.8609625668449239E-2"/>
-    <n v="0.17309629629629653"/>
-    <n v="0.14906800751688776"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="34"/>
-    <n v="0"/>
-    <n v="851"/>
-    <n v="823"/>
-    <n v="-28"/>
-    <n v="-3.2902467685076382E-2"/>
-    <n v="4.1751350095813322E-2"/>
-    <n v="4.1751350095813322E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="34"/>
-    <n v="0"/>
-    <n v="1691.62"/>
-    <n v="1692.38"/>
-    <n v="0.76000000000021828"/>
-    <n v="4.4927347749507476E-4"/>
-    <n v="3.9556118763102166E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="34"/>
-    <n v="0"/>
-    <n v="603.42999999999995"/>
-    <n v="599.11"/>
-    <n v="-4.3199999999999363"/>
-    <n v="-7.1590739605255568E-3"/>
-    <n v="3.6758620689655741E-2"/>
-    <n v="3.6758620689655741E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="35"/>
-    <n v="0"/>
-    <n v="823"/>
-    <n v="849"/>
-    <n v="26"/>
-    <n v="3.1591737545565005E-2"/>
-    <n v="4.1751350095813322E-2"/>
-    <n v="4.1751350095813322E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="35"/>
-    <n v="0"/>
-    <n v="1692.38"/>
-    <n v="1693.16"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6088939836205382E-4"/>
-    <n v="3.9556118763102166E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="35"/>
-    <n v="0"/>
-    <n v="599.11"/>
-    <n v="592.57000000000005"/>
-    <n v="-6.5399999999999636"/>
-    <n v="-1.0916192351988723E-2"/>
-    <n v="3.6758620689655741E-2"/>
-    <n v="3.6758620689655741E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="35"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="-6.9"/>
-    <n v="-6.9"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="36"/>
-    <n v="0"/>
-    <n v="849"/>
-    <n v="879"/>
-    <n v="30"/>
-    <n v="3.5335689045936397E-2"/>
-    <n v="4.1751350095813322E-2"/>
-    <n v="4.1751350095813322E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="36"/>
-    <n v="0"/>
-    <n v="1693.16"/>
-    <n v="1693.92"/>
-    <n v="0.75999999999999091"/>
-    <n v="4.4886484443288933E-4"/>
-    <n v="3.9556118763102166E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="36"/>
-    <n v="0"/>
-    <n v="592.57000000000005"/>
-    <n v="597.64"/>
-    <n v="5.0699999999999363"/>
-    <n v="8.5559511956392262E-3"/>
-    <n v="3.6758620689655741E-2"/>
-    <n v="3.6758620689655741E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="879"/>
-    <n v="860"/>
-    <n v="-19"/>
-    <n v="-2.1615472127417521E-2"/>
-    <n v="4.1751350095813322E-2"/>
-    <n v="4.1751350095813322E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="1693.92"/>
-    <n v="1694.66"/>
-    <n v="0.74000000000000909"/>
-    <n v="4.3685652214981173E-4"/>
-    <n v="3.9556118763102166E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="597.64"/>
-    <n v="595.96"/>
-    <n v="-1.67999999999995"/>
-    <n v="-2.8110568235057056E-3"/>
-    <n v="3.6758620689655741E-2"/>
-    <n v="3.6758620689655741E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="38"/>
-    <n v="1182.27"/>
-    <n v="1182.27"/>
-    <n v="1134"/>
-    <n v="-48.269999999999982"/>
-    <n v="-4.082823720469942E-2"/>
-    <n v="-4.5903220076632278E-2"/>
-    <n v="-4.5903220076632278E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="38"/>
-    <n v="0"/>
-    <n v="860"/>
-    <n v="885"/>
-    <n v="25"/>
-    <n v="2.9069767441860465E-2"/>
-    <n v="4.1751350095813322E-2"/>
-    <n v="4.1751350095813322E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="38"/>
-    <n v="0"/>
-    <n v="1694.66"/>
-    <n v="1695.42"/>
-    <n v="0.75999999999999091"/>
-    <n v="4.4846753921139984E-4"/>
-    <n v="3.9556118763102166E-3"/>
-    <n v="1.4747602916002744E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="38"/>
-    <n v="0"/>
-    <n v="595.96"/>
-    <n v="601.32000000000005"/>
-    <n v="5.3600000000000136"/>
-    <n v="8.9938922075307286E-3"/>
-    <n v="3.6758620689655741E-2"/>
-    <n v="3.6758620689655741E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="39"/>
-    <n v="0"/>
-    <n v="1134"/>
-    <n v="1128"/>
-    <n v="-6"/>
-    <n v="-5.2910052910052907E-3"/>
-    <n v="-4.5903220076632278E-2"/>
-    <n v="-4.5903220076632278E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="39"/>
-    <n v="0"/>
-    <n v="885"/>
-    <n v="897"/>
-    <n v="12"/>
-    <n v="1.3559322033898305E-2"/>
-    <n v="4.1751350095813322E-2"/>
-    <n v="4.1751350095813322E-2"/>
+    <x v="10"/>
+    <n v="-1796.2"/>
+    <n v="1803.1"/>
+    <n v="0"/>
+    <n v="-6.8999999999998636"/>
+    <n v="-3.82674283178962E-3"/>
+    <n v="-3.8267428317896313E-3"/>
+    <n v="-3.8267428317896313E-3"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item m="1" x="8"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item m="1" x="7"/>
+        <item x="4"/>
         <item x="0"/>
+        <item x="2"/>
         <item x="1"/>
-        <item m="1" x="7"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
         <item x="6"/>
-        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1813,26 +1927,13 @@
         <item sd="0" m="1" x="12"/>
         <item sd="0" m="1" x="7"/>
         <item sd="0" m="1" x="3"/>
+        <item sd="0" x="2"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="43">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
+      <items count="45">
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -1852,16 +1953,31 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
         <item x="37"/>
+        <item x="41"/>
         <item x="38"/>
         <item x="39"/>
+        <item x="40"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="42"/>
+        <item m="1" x="43"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1967,14 +2083,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L86" totalsRowCount="1" headerRowDxfId="19">
-  <autoFilter ref="A1:L85"/>
-  <sortState ref="A2:L82">
-    <sortCondition ref="E1:E82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L97" totalsRowCount="1" headerRowDxfId="19">
+  <autoFilter ref="A1:L96"/>
+  <sortState ref="A2:L93">
+    <sortCondition ref="E1:E93"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="12" name="ID"/>
-    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 613,93 " totalsRowDxfId="9"/>
+    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 1.212,06 " totalsRowDxfId="9"/>
     <tableColumn id="11" name="Ano" totalsRowFunction="custom" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(105,Tabela1[Data])</totalsRowFormula>
     </tableColumn>
@@ -1984,14 +2100,12 @@
     <tableColumn id="3" name="Data" totalsRowFunction="custom" dataDxfId="17" dataCellStyle="Moeda">
       <totalsRowFormula>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Aplicação/Resgate" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="6" dataCellStyle="Moeda">
-      <totalsRowFormula>SUBTOTAL(109,Tabela1[Aplicação/Resgate])+Tabela1[[#Totals],[Nome]]</totalsRowFormula>
-    </tableColumn>
+    <tableColumn id="9" name="Aplicação/Resgate" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="6" dataCellStyle="Moeda"/>
     <tableColumn id="4" name="Valor Base" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="5" dataCellStyle="Moeda">
-      <totalsRowFormula>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Aplicação/Resgate]]</totalsRowFormula>
+      <totalsRowFormula>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Valor Bruto]]</totalsRowFormula>
     </tableColumn>
     <tableColumn id="5" name="Valor Bruto" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="4" dataCellStyle="Moeda">
-      <totalsRowFormula>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]</totalsRowFormula>
+      <totalsRowFormula>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]+Tabela1[[#Totals],[Nome]]</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Rendimento" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</calculatedColumnFormula>
@@ -2302,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,16 +2484,16 @@
         <v>1670.78</v>
       </c>
       <c r="D4" s="10">
-        <v>24.6400000000001</v>
+        <v>26.069999999999936</v>
       </c>
       <c r="E4" s="11">
-        <v>5.5674294949393027E-3</v>
+        <v>5.7159905122807558E-3</v>
       </c>
       <c r="F4" s="11">
-        <v>3.7552233821866048E-4</v>
+        <v>3.7777182289378377E-4</v>
       </c>
       <c r="G4" s="11">
-        <v>1.4747602916002744E-2</v>
+        <v>1.5603490585234914E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,16 +2507,16 @@
         <v>1670.78</v>
       </c>
       <c r="D5" s="10">
-        <v>24.6400000000001</v>
+        <v>26.069999999999936</v>
       </c>
       <c r="E5" s="11">
-        <v>5.5674294949393027E-3</v>
+        <v>5.7159905122807558E-3</v>
       </c>
       <c r="F5" s="11">
-        <v>3.7552233821866048E-4</v>
+        <v>3.7777182289378377E-4</v>
       </c>
       <c r="G5" s="11">
-        <v>1.4747602916002744E-2</v>
+        <v>1.5603490585234914E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2456,22 +2570,22 @@
         <v>24</v>
       </c>
       <c r="B8" s="10">
-        <v>580</v>
+        <v>-18.129999999999995</v>
       </c>
       <c r="C8" s="10">
         <v>0</v>
       </c>
       <c r="D8" s="10">
-        <v>21.32000000000005</v>
+        <v>18.129999999999995</v>
       </c>
       <c r="E8" s="11">
-        <v>3.308275862069017E-2</v>
+        <v>2.8416927899686983E-2</v>
       </c>
       <c r="F8" s="11">
-        <v>3.6592524319178227E-3</v>
+        <v>2.8443207857271877E-3</v>
       </c>
       <c r="G8" s="11">
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2479,22 +2593,22 @@
         <v>2011</v>
       </c>
       <c r="B9" s="10">
-        <v>580</v>
+        <v>-18.129999999999995</v>
       </c>
       <c r="C9" s="10">
         <v>0</v>
       </c>
       <c r="D9" s="10">
-        <v>21.32000000000005</v>
+        <v>18.129999999999995</v>
       </c>
       <c r="E9" s="11">
-        <v>3.308275862069017E-2</v>
+        <v>2.8416927899686983E-2</v>
       </c>
       <c r="F9" s="11">
-        <v>3.6592524319178227E-3</v>
+        <v>2.8443207857271877E-3</v>
       </c>
       <c r="G9" s="11">
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2554,16 +2668,16 @@
         <v>823</v>
       </c>
       <c r="D12" s="10">
-        <v>35.950000000000045</v>
+        <v>-21.049999999999955</v>
       </c>
       <c r="E12" s="11">
-        <v>4.1751350095813322E-2</v>
+        <v>-2.4446896231345439E-2</v>
       </c>
       <c r="F12" s="11">
-        <v>6.1952543131171319E-3</v>
+        <v>-2.3244618862747982E-3</v>
       </c>
       <c r="G12" s="11">
-        <v>4.1751350095813322E-2</v>
+        <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2577,16 +2691,16 @@
         <v>823</v>
       </c>
       <c r="D13" s="10">
-        <v>35.950000000000045</v>
+        <v>-21.049999999999955</v>
       </c>
       <c r="E13" s="11">
-        <v>4.1751350095813322E-2</v>
+        <v>-2.4446896231345439E-2</v>
       </c>
       <c r="F13" s="11">
-        <v>6.1952543131171319E-3</v>
+        <v>-2.3244618862747982E-3</v>
       </c>
       <c r="G13" s="11">
-        <v>4.1751350095813322E-2</v>
+        <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2597,19 +2711,19 @@
         <v>1182.27</v>
       </c>
       <c r="C14" s="10">
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="D14" s="10">
-        <v>-54.269999999999982</v>
+        <v>-16.269999999999982</v>
       </c>
       <c r="E14" s="11">
-        <v>-4.5903220076632278E-2</v>
+        <v>-1.3761661887724319E-2</v>
       </c>
       <c r="F14" s="11">
-        <v>-2.3059621247852356E-2</v>
+        <v>-2.8523391004859396E-3</v>
       </c>
       <c r="G14" s="11">
-        <v>-4.5903220076632278E-2</v>
+        <v>-1.3761661887724319E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2620,42 +2734,42 @@
         <v>1182.27</v>
       </c>
       <c r="C15" s="10">
-        <v>1134</v>
+        <v>1108</v>
       </c>
       <c r="D15" s="10">
-        <v>-54.269999999999982</v>
+        <v>-16.269999999999982</v>
       </c>
       <c r="E15" s="11">
-        <v>-4.5903220076632278E-2</v>
+        <v>-1.3761661887724319E-2</v>
       </c>
       <c r="F15" s="11">
-        <v>-2.3059621247852356E-2</v>
+        <v>-2.8523391004859396E-3</v>
       </c>
       <c r="G15" s="11">
-        <v>-4.5903220076632278E-2</v>
+        <v>-1.3761661887724319E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="10">
-        <v>0</v>
+        <v>6.8999999999998636</v>
       </c>
       <c r="C16" s="10">
         <v>0</v>
       </c>
       <c r="D16" s="10">
-        <v>-6.9</v>
+        <v>-6.8999999999998636</v>
       </c>
       <c r="E16" s="11">
-        <v>0</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
       <c r="F16" s="11">
-        <v>0</v>
+        <v>-1.91337141589481E-3</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2663,22 +2777,22 @@
         <v>2011</v>
       </c>
       <c r="B17" s="10">
-        <v>0</v>
+        <v>6.8999999999998636</v>
       </c>
       <c r="C17" s="10">
         <v>0</v>
       </c>
       <c r="D17" s="10">
-        <v>-6.9</v>
+        <v>-6.8999999999998636</v>
       </c>
       <c r="E17" s="11">
-        <v>0</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>-1.91337141589481E-3</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2686,22 +2800,22 @@
         <v>6</v>
       </c>
       <c r="B18" s="10">
-        <v>4086.31</v>
+        <v>3495.08</v>
       </c>
       <c r="C18" s="10">
         <v>0</v>
       </c>
       <c r="D18" s="10">
-        <v>228.53000000000023</v>
+        <v>207.77000000000015</v>
       </c>
       <c r="E18" s="11">
-        <v>2.0204735905805342E-2</v>
+        <v>1.3184859648523575E-2</v>
       </c>
       <c r="F18" s="11">
-        <v>2.3497103295512514E-3</v>
+        <v>1.7338059961730604E-3</v>
       </c>
       <c r="G18" s="11">
-        <v>2.5492768535313754E-2</v>
+        <v>1.8468071392527412E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2712,10 +2826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,7 +2920,7 @@
       </c>
       <c r="L2" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2828,7 +2942,7 @@
       <c r="G3" s="9">
         <v>1670.78</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="13">
         <v>1671.56</v>
       </c>
       <c r="I3" s="3">
@@ -2845,7 +2959,7 @@
       </c>
       <c r="L3" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2861,13 +2975,13 @@
       <c r="E4" s="4">
         <v>40837</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
         <v>1671.56</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="5">
         <v>1672.3</v>
       </c>
       <c r="I4" s="3">
@@ -2884,7 +2998,7 @@
       </c>
       <c r="L4" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2906,7 +3020,7 @@
       <c r="G5" s="13">
         <v>1672.3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="13">
         <v>1673.04</v>
       </c>
       <c r="I5" s="3">
@@ -2923,7 +3037,7 @@
       </c>
       <c r="L5" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2962,7 +3076,7 @@
       </c>
       <c r="L6" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3001,7 +3115,7 @@
       </c>
       <c r="L7" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3040,7 +3154,7 @@
       </c>
       <c r="L8" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3062,7 +3176,7 @@
       <c r="G9" s="13">
         <v>1675.48</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="5">
         <v>1676.13</v>
       </c>
       <c r="I9" s="3">
@@ -3079,7 +3193,7 @@
       </c>
       <c r="L9" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3101,7 +3215,7 @@
       <c r="G10" s="13">
         <v>1676.13</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="13">
         <v>1676.86</v>
       </c>
       <c r="I10" s="3">
@@ -3118,7 +3232,7 @@
       </c>
       <c r="L10" s="6">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3157,7 +3271,7 @@
       </c>
       <c r="L11" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3218,7 +3332,7 @@
       <c r="G13" s="13">
         <v>1677.49</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="5">
         <v>1678.11</v>
       </c>
       <c r="I13" s="3">
@@ -3235,7 +3349,7 @@
       </c>
       <c r="L13" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3257,7 +3371,7 @@
       <c r="G14" s="9">
         <v>428.37</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="13">
         <v>428.55</v>
       </c>
       <c r="I14" s="3">
@@ -3313,7 +3427,7 @@
       </c>
       <c r="L15" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3335,7 +3449,7 @@
       <c r="G16" s="9">
         <v>428.55</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="13">
         <v>428.72</v>
       </c>
       <c r="I16" s="3">
@@ -3391,7 +3505,7 @@
       </c>
       <c r="L17" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -3469,7 +3583,7 @@
       </c>
       <c r="L19" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3491,7 +3605,7 @@
       <c r="G20" s="13">
         <v>428.9</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="5">
         <v>429.08</v>
       </c>
       <c r="I20" s="3">
@@ -3530,7 +3644,7 @@
       <c r="G21" s="13">
         <v>1680.42</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="13">
         <v>1681.27</v>
       </c>
       <c r="I21" s="3">
@@ -3547,7 +3661,7 @@
       </c>
       <c r="L21" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -3569,7 +3683,7 @@
       <c r="G22" s="13">
         <v>429.08</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="5">
         <v>429.28</v>
       </c>
       <c r="I22" s="3">
@@ -3608,7 +3722,7 @@
       <c r="G23" s="13">
         <v>1681.27</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="13">
         <v>1682.1</v>
       </c>
       <c r="I23" s="3">
@@ -3625,7 +3739,7 @@
       </c>
       <c r="L23" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -3703,7 +3817,7 @@
       </c>
       <c r="L25" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -3746,7 +3860,7 @@
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="8">
@@ -3781,14 +3895,14 @@
       </c>
       <c r="L27" s="16">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>2011</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -3806,7 +3920,7 @@
       <c r="H28" s="13">
         <v>429.89</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.19999999999998863</v>
       </c>
@@ -3859,7 +3973,7 @@
       </c>
       <c r="L29" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -3937,11 +4051,11 @@
       </c>
       <c r="L31" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32">
@@ -4015,7 +4129,7 @@
       </c>
       <c r="L33" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -4093,7 +4207,7 @@
       </c>
       <c r="L35" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -4171,7 +4285,7 @@
       </c>
       <c r="L37" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -4249,7 +4363,7 @@
       </c>
       <c r="L39" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -4327,7 +4441,7 @@
       </c>
       <c r="L41" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -4444,11 +4558,11 @@
       </c>
       <c r="L44" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="B45" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C45">
@@ -4483,14 +4597,14 @@
       </c>
       <c r="L45" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="8">
         <v>2011</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -4526,10 +4640,10 @@
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
+      <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47">
         <v>2011</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -4561,7 +4675,7 @@
       </c>
       <c r="L47" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -4604,7 +4718,7 @@
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B49" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C49">
@@ -4646,7 +4760,7 @@
       <c r="B50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="8">
         <v>2011</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -4678,14 +4792,14 @@
       </c>
       <c r="L50" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
+      <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51">
         <v>2011</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -4717,7 +4831,7 @@
       </c>
       <c r="L51" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -4756,11 +4870,11 @@
       </c>
       <c r="L52" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C53">
@@ -4802,7 +4916,7 @@
       <c r="B54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="8">
         <v>2011</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -4830,18 +4944,18 @@
       </c>
       <c r="K54" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.9556118763102166E-3</v>
+        <v>5.1576915333328976E-3</v>
       </c>
       <c r="L54" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
+      <c r="B55" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55">
         <v>2011</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -4869,15 +4983,15 @@
       </c>
       <c r="K55" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L55" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="B56" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C56">
@@ -4947,11 +5061,11 @@
       </c>
       <c r="K57" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.9556118763102166E-3</v>
+        <v>5.1576915333328976E-3</v>
       </c>
       <c r="L57" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -4986,15 +5100,15 @@
       </c>
       <c r="K58" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L58" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="8" t="s">
+      <c r="B59" t="s">
         <v>26</v>
       </c>
       <c r="C59">
@@ -5064,15 +5178,15 @@
       </c>
       <c r="K60" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.9556118763102166E-3</v>
+        <v>5.1576915333328976E-3</v>
       </c>
       <c r="L60" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="B61" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C61">
@@ -5103,11 +5217,11 @@
       </c>
       <c r="K61" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L61" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -5150,7 +5264,7 @@
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
+      <c r="B63" t="s">
         <v>27</v>
       </c>
       <c r="C63">
@@ -5181,11 +5295,11 @@
       </c>
       <c r="K63" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
       <c r="L63" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -5220,11 +5334,11 @@
       </c>
       <c r="K64" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.9556118763102166E-3</v>
+        <v>5.1576915333328976E-3</v>
       </c>
       <c r="L64" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -5259,11 +5373,11 @@
       </c>
       <c r="K65" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L65" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -5306,7 +5420,7 @@
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="B67" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C67">
@@ -5337,11 +5451,11 @@
       </c>
       <c r="K67" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
       <c r="L67" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -5376,18 +5490,18 @@
       </c>
       <c r="K68" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.9556118763102166E-3</v>
+        <v>5.1576915333328976E-3</v>
       </c>
       <c r="L68" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="8">
         <v>2011</v>
       </c>
       <c r="D69" s="7" t="s">
@@ -5415,18 +5529,18 @@
       </c>
       <c r="K69" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L69" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="8" t="s">
+      <c r="B70" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70">
         <v>2011</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -5454,15 +5568,15 @@
       </c>
       <c r="K70" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
       <c r="L70" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="B71" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C71">
@@ -5493,11 +5607,11 @@
       </c>
       <c r="K71" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.9556118763102166E-3</v>
+        <v>5.1576915333328976E-3</v>
       </c>
       <c r="L71" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -5532,18 +5646,18 @@
       </c>
       <c r="K72" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L72" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73">
+        <v>30</v>
+      </c>
+      <c r="C73" s="8">
         <v>2011</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -5553,17 +5667,17 @@
         <v>40885</v>
       </c>
       <c r="F73" s="21">
-        <v>0</v>
+        <v>1803.1</v>
       </c>
       <c r="G73" s="27">
         <v>0</v>
       </c>
       <c r="H73" s="13">
-        <v>-6.9</v>
+        <v>0</v>
       </c>
       <c r="I73" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-6.9</v>
+        <v>0</v>
       </c>
       <c r="J73" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
@@ -5571,16 +5685,16 @@
       </c>
       <c r="K73" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
       <c r="L73" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C74" s="8">
         <v>2011</v>
@@ -5589,37 +5703,37 @@
         <v>28</v>
       </c>
       <c r="E74" s="4">
-        <v>40886</v>
+        <v>40885</v>
       </c>
       <c r="F74" s="21">
-        <v>0</v>
-      </c>
-      <c r="G74" s="13">
-        <v>849</v>
+        <v>-1796.2</v>
+      </c>
+      <c r="G74" s="21">
+        <v>1803.1</v>
       </c>
       <c r="H74" s="13">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="I74" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>30</v>
+        <v>-6.8999999999998636</v>
       </c>
       <c r="J74" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.5335689045936397E-2</v>
+        <v>-3.82674283178962E-3</v>
       </c>
       <c r="K74" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
       <c r="L74" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C75" s="8">
         <v>2011</v>
@@ -5634,31 +5748,31 @@
         <v>0</v>
       </c>
       <c r="G75" s="13">
-        <v>1693.16</v>
+        <v>849</v>
       </c>
       <c r="H75" s="13">
-        <v>1693.92</v>
+        <v>879</v>
       </c>
       <c r="I75" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75999999999999091</v>
+        <v>30</v>
       </c>
       <c r="J75" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4886484443288933E-4</v>
+        <v>3.5335689045936397E-2</v>
       </c>
       <c r="K75" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.9556118763102166E-3</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
       <c r="L75" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C76" s="8">
         <v>2011</v>
@@ -5673,31 +5787,31 @@
         <v>0</v>
       </c>
       <c r="G76" s="13">
-        <v>592.57000000000005</v>
+        <v>1693.16</v>
       </c>
       <c r="H76" s="13">
-        <v>597.64</v>
+        <v>1693.92</v>
       </c>
       <c r="I76" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>5.0699999999999363</v>
+        <v>0.75999999999999091</v>
       </c>
       <c r="J76" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>8.5559511956392262E-3</v>
+        <v>4.4886484443288933E-4</v>
       </c>
       <c r="K76" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>5.1576915333328976E-3</v>
       </c>
       <c r="L76" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C77" s="8">
         <v>2011</v>
@@ -5706,39 +5820,39 @@
         <v>28</v>
       </c>
       <c r="E77" s="4">
-        <v>40889</v>
+        <v>40886</v>
       </c>
       <c r="F77" s="21">
         <v>0</v>
       </c>
       <c r="G77" s="13">
-        <v>879</v>
+        <v>592.57000000000005</v>
       </c>
       <c r="H77" s="13">
-        <v>860</v>
+        <v>597.64</v>
       </c>
       <c r="I77" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-19</v>
+        <v>5.0699999999999363</v>
       </c>
       <c r="J77" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.1615472127417521E-2</v>
+        <v>8.5559511956392262E-3</v>
       </c>
       <c r="K77" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L77" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="8">
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78">
         <v>2011</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -5751,31 +5865,31 @@
         <v>0</v>
       </c>
       <c r="G78" s="13">
-        <v>1693.92</v>
+        <v>879</v>
       </c>
       <c r="H78" s="13">
-        <v>1694.66</v>
+        <v>860</v>
       </c>
       <c r="I78" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.74000000000000909</v>
+        <v>-19</v>
       </c>
       <c r="J78" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.3685652214981173E-4</v>
+        <v>-2.1615472127417521E-2</v>
       </c>
       <c r="K78" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.9556118763102166E-3</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
       <c r="L78" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C79">
         <v>2011</v>
@@ -5790,31 +5904,31 @@
         <v>0</v>
       </c>
       <c r="G79" s="13">
-        <v>597.64</v>
+        <v>1693.92</v>
       </c>
       <c r="H79" s="13">
-        <v>595.96</v>
+        <v>1694.66</v>
       </c>
       <c r="I79" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-1.67999999999995</v>
+        <v>0.74000000000000909</v>
       </c>
       <c r="J79" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.8110568235057056E-3</v>
+        <v>4.3685652214981173E-4</v>
       </c>
       <c r="K79" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>5.1576915333328976E-3</v>
       </c>
       <c r="L79" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C80">
         <v>2011</v>
@@ -5823,39 +5937,39 @@
         <v>28</v>
       </c>
       <c r="E80" s="4">
-        <v>40890</v>
+        <v>40889</v>
       </c>
       <c r="F80" s="21">
-        <v>1182.27</v>
-      </c>
-      <c r="G80" s="27">
-        <v>1182.27</v>
+        <v>0</v>
+      </c>
+      <c r="G80" s="13">
+        <v>597.64</v>
       </c>
       <c r="H80" s="13">
-        <v>1134</v>
+        <v>595.96</v>
       </c>
       <c r="I80" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-48.269999999999982</v>
+        <v>-1.67999999999995</v>
       </c>
       <c r="J80" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-4.082823720469942E-2</v>
+        <v>-2.8110568235057056E-3</v>
       </c>
       <c r="K80" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.5903220076632278E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L80" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.5903220076632278E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C81">
+      <c r="B81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="8">
         <v>2011</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -5865,34 +5979,34 @@
         <v>40890</v>
       </c>
       <c r="F81" s="21">
-        <v>0</v>
-      </c>
-      <c r="G81" s="13">
-        <v>860</v>
+        <v>1182.27</v>
+      </c>
+      <c r="G81" s="27">
+        <v>1182.27</v>
       </c>
       <c r="H81" s="13">
-        <v>885</v>
+        <v>1134</v>
       </c>
       <c r="I81" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>25</v>
+        <v>-48.269999999999982</v>
       </c>
       <c r="J81" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.9069767441860465E-2</v>
+        <v>-4.082823720469942E-2</v>
       </c>
       <c r="K81" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>-1.0378339973102557E-2</v>
       </c>
       <c r="L81" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
+        <v>-1.0378339973102557E-2</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C82" s="8">
         <v>2011</v>
@@ -5907,31 +6021,31 @@
         <v>0</v>
       </c>
       <c r="G82" s="13">
-        <v>1694.66</v>
+        <v>860</v>
       </c>
       <c r="H82" s="13">
-        <v>1695.42</v>
+        <v>885</v>
       </c>
       <c r="I82" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75999999999999091</v>
+        <v>25</v>
       </c>
       <c r="J82" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4846753921139984E-4</v>
+        <v>2.9069767441860465E-2</v>
       </c>
       <c r="K82" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.9556118763102166E-3</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
       <c r="L82" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.4747602916002744E-2</v>
+        <v>-4.8835723825561783E-2</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C83" s="8">
         <v>2011</v>
@@ -5946,31 +6060,31 @@
         <v>0</v>
       </c>
       <c r="G83" s="13">
-        <v>595.96</v>
+        <v>1694.66</v>
       </c>
       <c r="H83" s="13">
-        <v>601.32000000000005</v>
+        <v>1695.42</v>
       </c>
       <c r="I83" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>5.3600000000000136</v>
+        <v>0.75999999999999091</v>
       </c>
       <c r="J83" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>8.9938922075307286E-3</v>
+        <v>4.4846753921139984E-4</v>
       </c>
       <c r="K83" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>5.1576915333328976E-3</v>
       </c>
       <c r="L83" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6758620689655741E-2</v>
+        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C84" s="8">
         <v>2011</v>
@@ -5979,37 +6093,37 @@
         <v>28</v>
       </c>
       <c r="E84" s="4">
-        <v>40891</v>
+        <v>40890</v>
       </c>
       <c r="F84" s="21">
         <v>0</v>
       </c>
       <c r="G84" s="13">
-        <v>1134</v>
+        <v>595.96</v>
       </c>
       <c r="H84" s="13">
-        <v>1128</v>
+        <v>601.32000000000005</v>
       </c>
       <c r="I84" s="10">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-6</v>
+        <v>5.3600000000000136</v>
       </c>
       <c r="J84" s="6">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-5.2910052910052907E-3</v>
+        <v>8.9938922075307286E-3</v>
       </c>
       <c r="K84" s="11">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.5903220076632278E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L84" s="11">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.5903220076632278E-2</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C85" s="8">
         <v>2011</v>
@@ -6024,75 +6138,504 @@
         <v>0</v>
       </c>
       <c r="G85" s="13">
+        <v>1134</v>
+      </c>
+      <c r="H85" s="13">
+        <v>1134</v>
+      </c>
+      <c r="I85" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.0378339973102557E-2</v>
+      </c>
+      <c r="L85" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.0378339973102557E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="4">
+        <v>40891</v>
+      </c>
+      <c r="F86" s="21">
+        <v>0</v>
+      </c>
+      <c r="G86" s="13">
         <v>885</v>
       </c>
-      <c r="H85" s="13">
-        <v>897</v>
-      </c>
-      <c r="I85" s="10">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>12</v>
-      </c>
-      <c r="J85" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.3559322033898305E-2</v>
-      </c>
-      <c r="K85" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
-      </c>
-      <c r="L85" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.1751350095813322E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="22">
+      <c r="H86" s="13">
+        <v>900</v>
+      </c>
+      <c r="I86" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>15</v>
+      </c>
+      <c r="J86" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="K86" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.8835723825561783E-2</v>
+      </c>
+      <c r="L86" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.8835723825561783E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="4">
+        <v>40891</v>
+      </c>
+      <c r="F87" s="21">
+        <v>0</v>
+      </c>
+      <c r="G87" s="13">
+        <v>1695.42</v>
+      </c>
+      <c r="H87" s="13">
+        <v>1696.05</v>
+      </c>
+      <c r="I87" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.62999999999988177</v>
+      </c>
+      <c r="J87" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.7158934069427148E-4</v>
+      </c>
+      <c r="K87" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.1576915333328976E-3</v>
+      </c>
+      <c r="L87" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.596260429260532E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="4">
+        <v>40892</v>
+      </c>
+      <c r="F88" s="21">
+        <v>0</v>
+      </c>
+      <c r="G88" s="13">
+        <v>1134</v>
+      </c>
+      <c r="H88" s="13">
+        <v>1108</v>
+      </c>
+      <c r="I88" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-26</v>
+      </c>
+      <c r="J88" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-2.292768959435626E-2</v>
+      </c>
+      <c r="K88" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.0378339973102557E-2</v>
+      </c>
+      <c r="L88" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.0378339973102557E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="4">
+        <v>40892</v>
+      </c>
+      <c r="F89" s="21">
+        <v>0</v>
+      </c>
+      <c r="G89" s="13">
+        <v>900</v>
+      </c>
+      <c r="H89" s="13">
+        <v>880</v>
+      </c>
+      <c r="I89" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-20</v>
+      </c>
+      <c r="J89" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-2.2222222222222223E-2</v>
+      </c>
+      <c r="K89" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.8835723825561783E-2</v>
+      </c>
+      <c r="L89" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.8835723825561783E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="4">
+        <v>40892</v>
+      </c>
+      <c r="F90" s="21">
+        <v>0</v>
+      </c>
+      <c r="G90" s="13">
+        <v>1696.05</v>
+      </c>
+      <c r="H90" s="13">
+        <v>1696.85</v>
+      </c>
+      <c r="I90" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.79999999999995453</v>
+      </c>
+      <c r="J90" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.7168420742310342E-4</v>
+      </c>
+      <c r="K90" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.1576915333328976E-3</v>
+      </c>
+      <c r="L90" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.596260429260532E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91">
+        <v>2011</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="4">
+        <v>40893</v>
+      </c>
+      <c r="F91" s="21">
+        <v>0</v>
+      </c>
+      <c r="G91" s="13">
+        <v>1108</v>
+      </c>
+      <c r="H91" s="13">
+        <v>1160</v>
+      </c>
+      <c r="I91" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>52</v>
+      </c>
+      <c r="J91" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.6931407942238268E-2</v>
+      </c>
+      <c r="K91" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.0378339973102557E-2</v>
+      </c>
+      <c r="L91" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.0378339973102557E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92">
+        <v>2011</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="4">
+        <v>40893</v>
+      </c>
+      <c r="F92" s="21">
+        <v>0</v>
+      </c>
+      <c r="G92" s="13">
+        <v>880</v>
+      </c>
+      <c r="H92" s="13">
+        <v>840</v>
+      </c>
+      <c r="I92" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-40</v>
+      </c>
+      <c r="J92" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-4.5454545454545456E-2</v>
+      </c>
+      <c r="K92" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.8835723825561783E-2</v>
+      </c>
+      <c r="L92" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.8835723825561783E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>2011</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="4">
+        <v>40893</v>
+      </c>
+      <c r="F93" s="21">
+        <v>-598.13</v>
+      </c>
+      <c r="G93" s="13">
+        <v>601.32000000000005</v>
+      </c>
+      <c r="H93" s="13">
+        <v>0</v>
+      </c>
+      <c r="I93" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-3.1900000000000546</v>
+      </c>
+      <c r="J93" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-5.3049956761791629E-3</v>
+      </c>
+      <c r="K93" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.1258620689655681E-2</v>
+      </c>
+      <c r="L93" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.1258620689655681E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="4">
+        <v>40893</v>
+      </c>
+      <c r="F94" s="21">
+        <v>0</v>
+      </c>
+      <c r="G94" s="13">
+        <v>1696.85</v>
+      </c>
+      <c r="H94" s="13">
+        <v>1697.45</v>
+      </c>
+      <c r="I94" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.60000000000013642</v>
+      </c>
+      <c r="J94" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.535963697440177E-4</v>
+      </c>
+      <c r="K94" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.1576915333328976E-3</v>
+      </c>
+      <c r="L94" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.596260429260532E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95">
+        <v>2011</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="4">
+        <v>40894</v>
+      </c>
+      <c r="F95" s="21">
+        <v>0</v>
+      </c>
+      <c r="G95" s="13">
+        <v>1160</v>
+      </c>
+      <c r="H95" s="13">
+        <v>1170</v>
+      </c>
+      <c r="I95" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>10</v>
+      </c>
+      <c r="J95" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>8.6206896551724137E-3</v>
+      </c>
+      <c r="K95" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.0378339973102557E-2</v>
+      </c>
+      <c r="L95" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.0378339973102557E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="4">
+        <v>40894</v>
+      </c>
+      <c r="F96" s="21">
+        <v>0</v>
+      </c>
+      <c r="G96" s="13">
+        <v>840</v>
+      </c>
+      <c r="H96" s="13">
+        <v>819</v>
+      </c>
+      <c r="I96" s="10">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-21</v>
+      </c>
+      <c r="J96" s="6">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="K96" s="11">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.8835723825561783E-2</v>
+      </c>
+      <c r="L96" s="11">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.8835723825561783E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="22">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D97" s="22">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40891</v>
-      </c>
-      <c r="E86">
+        <v>40894</v>
+      </c>
+      <c r="E97">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</f>
-        <v>39</v>
-      </c>
-      <c r="F86" s="25">
-        <f>SUBTOTAL(109,Tabela1[Aplicação/Resgate])+Tabela1[[#Totals],[Nome]]</f>
-        <v>4700.24</v>
-      </c>
-      <c r="G86" s="26">
-        <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Aplicação/Resgate]]</f>
-        <v>4.8620921484860392E-2</v>
-      </c>
-      <c r="H86" s="25">
-        <f>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]</f>
-        <v>4928.7700000000004</v>
-      </c>
-      <c r="I86" s="10">
+        <v>41</v>
+      </c>
+      <c r="F97" s="25">
+        <f>SUBTOTAL(109,Tabela1[Aplicação/Resgate])</f>
+        <v>3495.0799999999995</v>
+      </c>
+      <c r="G97" s="26">
+        <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Valor Bruto]]</f>
+        <v>3.9066981592361813E-2</v>
+      </c>
+      <c r="H97" s="25">
+        <f>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]+Tabela1[[#Totals],[Nome]]</f>
+        <v>4898.51</v>
+      </c>
+      <c r="I97" s="10">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>228.5300000000002</v>
-      </c>
-      <c r="J86" s="26">
+        <v>191.37000000000029</v>
+      </c>
+      <c r="J97" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.2180718318153261E-3</v>
-      </c>
-      <c r="K86" s="26">
+        <v>9.3514862307486624E-4</v>
+      </c>
+      <c r="K97" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.589350213046937E-2</v>
-      </c>
-      <c r="L86" s="26">
+        <v>1.9822858956142664E-2</v>
+      </c>
+      <c r="L97" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.35902469603575193</v>
+        <v>0.26560128617738066</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F31">
+  <conditionalFormatting sqref="F30">
     <cfRule type="expression" priority="1">
       <formula>"[@ID]=0"</formula>
     </cfRule>

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve"> R$ 1.212,06 </t>
+  </si>
+  <si>
+    <t>GFSA3</t>
   </si>
 </sst>
 </file>
@@ -216,10 +219,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -475,7 +477,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40895.868600925925" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="92">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40897.924652662034" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="100">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -484,14 +486,15 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Nome" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
+        <s v="XP INV FIRF CRED PRI"/>
+        <s v="XP Referenciado FIRD"/>
         <s v="GOLL4"/>
+        <s v="XP MULT-INV FIC FIA"/>
+        <s v="MRFG3"/>
+        <s v="Custódia"/>
         <s v="JBSS3"/>
-        <s v="MRFG3"/>
-        <s v="XP INV FIRF CRED PRI"/>
-        <s v="XP MULT-INV FIC FIA"/>
-        <s v="XP Referenciado FIRD"/>
-        <s v="Custódia"/>
+        <s v="GFSA3"/>
         <m u="1"/>
         <s v="CRED" u="1"/>
       </sharedItems>
@@ -503,9 +506,9 @@
     </cacheField>
     <cacheField name="Mês" numFmtId="49">
       <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2011-10-01T00:00:00" maxDate="2011-11-08T00:00:00" count="14">
+        <s v="Outubro"/>
         <s v="Novembro"/>
         <s v="Dezembro"/>
-        <s v="Outubro"/>
         <m u="1"/>
         <d v="2011-11-02T00:00:00" u="1"/>
         <d v="2011-11-07T00:00:00" u="1"/>
@@ -520,20 +523,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="44">
-        <d v="2011-11-30T00:00:00"/>
-        <d v="2011-12-01T00:00:00"/>
-        <d v="2011-12-02T00:00:00"/>
-        <d v="2011-12-05T00:00:00"/>
-        <d v="2011-12-06T00:00:00"/>
-        <d v="2011-12-07T00:00:00"/>
-        <d v="2011-12-13T00:00:00"/>
-        <d v="2011-12-14T00:00:00"/>
-        <d v="2011-12-15T00:00:00"/>
-        <d v="2011-12-16T00:00:00"/>
-        <d v="2011-12-08T00:00:00"/>
-        <d v="2011-12-09T00:00:00"/>
-        <d v="2011-12-12T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="46">
         <d v="2011-10-19T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
         <d v="2011-10-21T00:00:00"/>
@@ -559,10 +549,25 @@
         <d v="2011-11-22T00:00:00"/>
         <d v="2011-11-23T00:00:00"/>
         <d v="2011-11-24T00:00:00"/>
+        <d v="2011-11-25T00:00:00"/>
         <d v="2011-11-26T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
         <d v="2011-11-29T00:00:00"/>
-        <d v="2011-11-25T00:00:00"/>
+        <d v="2011-11-30T00:00:00"/>
+        <d v="2011-12-01T00:00:00"/>
+        <d v="2011-12-02T00:00:00"/>
+        <d v="2011-12-05T00:00:00"/>
+        <d v="2011-12-06T00:00:00"/>
+        <d v="2011-12-07T00:00:00"/>
+        <d v="2011-12-08T00:00:00"/>
+        <d v="2011-12-09T00:00:00"/>
+        <d v="2011-12-12T00:00:00"/>
+        <d v="2011-12-13T00:00:00"/>
+        <d v="2011-12-14T00:00:00"/>
+        <d v="2011-12-15T00:00:00"/>
+        <d v="2011-12-16T00:00:00"/>
+        <d v="2011-12-19T00:00:00"/>
+        <d v="2011-12-20T00:00:00"/>
         <d v="2011-12-03T00:00:00" u="1"/>
         <d v="2012-12-01T00:00:00" u="1"/>
       </sharedItems>
@@ -574,19 +579,19 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1803.1"/>
     </cacheField>
     <cacheField name="Valor Bruto" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1696.85"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1698.16"/>
     </cacheField>
     <cacheField name="Rendimento" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-48.269999999999982" maxValue="87.680000000000064"/>
     </cacheField>
     <cacheField name="Rent. Dia" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5454545454545456E-2" maxValue="5.8609625668449239E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5615034168564869E-2" maxValue="5.8609625668449239E-2"/>
     </cacheField>
     <cacheField name="Rent. Mês" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.4446896231345439E-2" maxValue="0.17309629629629653"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5615034168564828E-2" maxValue="0.17309629629629653"/>
     </cacheField>
     <cacheField name="Rent. Ano" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.4446896231345439E-2" maxValue="0.14906800751688776"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5615034168564828E-2" maxValue="0.14906800751688776"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -598,13 +603,671 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="92">
-  <r>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="100">
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1670.78"/>
+    <n v="1670.78"/>
+    <n v="1670.78"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1670.78"/>
+    <n v="1671.56"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6684781958125708E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="1671.56"/>
+    <n v="1672.3"/>
+    <n v="0.74000000000000909"/>
+    <n v="4.4270023211850554E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="1672.3"/>
+    <n v="1673.04"/>
+    <n v="0.74000000000000909"/>
+    <n v="4.4250433534653421E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="1673.04"/>
+    <n v="1673.87"/>
+    <n v="0.82999999999992724"/>
+    <n v="4.9610290250079328E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="1673.87"/>
+    <n v="1674.66"/>
+    <n v="0.79000000000019099"/>
+    <n v="4.7196018806728782E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="1674.66"/>
+    <n v="1675.48"/>
+    <n v="0.81999999999993634"/>
+    <n v="4.8965163077874685E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="1675.48"/>
+    <n v="1676.13"/>
+    <n v="0.65000000000009095"/>
+    <n v="3.8794852818302276E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="1676.13"/>
+    <n v="1676.86"/>
+    <n v="0.72999999999979082"/>
+    <n v="4.3552707725521932E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="1676.86"/>
+    <n v="1677.49"/>
+    <n v="0.63000000000010914"/>
+    <n v="3.7570220531237501E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="428.37"/>
+    <n v="428.37"/>
+    <n v="428.37"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="1677.49"/>
+    <n v="1678.11"/>
+    <n v="0.61999999999989086"/>
+    <n v="3.6959981877679801E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="428.37"/>
+    <n v="428.55"/>
+    <n v="0.18000000000000682"/>
+    <n v="4.2019749282164209E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="1678.11"/>
+    <n v="1678.81"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1713594460437368E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="428.55"/>
+    <n v="428.72"/>
+    <n v="0.17000000000001592"/>
+    <n v="3.9668650099175339E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="1678.81"/>
+    <n v="1679.59"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6461481644734828E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="428.72"/>
+    <n v="428.9"/>
+    <n v="0.17999999999994998"/>
+    <n v="4.1985445045705815E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="1679.59"/>
+    <n v="1680.42"/>
+    <n v="0.83000000000015461"/>
+    <n v="4.9416821962511965E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="428.9"/>
+    <n v="429.08"/>
+    <n v="0.18000000000000682"/>
+    <n v="4.1967824667756313E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="1680.42"/>
+    <n v="1681.27"/>
+    <n v="0.84999999999990905"/>
+    <n v="5.0582592447120901E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="429.08"/>
+    <n v="429.28"/>
+    <n v="0.19999999999998863"/>
+    <n v="4.6611354525959874E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="1681.27"/>
+    <n v="1682.1"/>
+    <n v="0.82999999999992724"/>
+    <n v="4.9367442469081544E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="429.28"/>
+    <n v="429.48"/>
+    <n v="0.20000000000004547"/>
+    <n v="4.6589638464416113E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="1682.1"/>
+    <n v="1683.02"/>
+    <n v="0.92000000000007276"/>
+    <n v="5.4693537839609584E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="429.48"/>
+    <n v="429.69"/>
+    <n v="0.20999999999997954"/>
+    <n v="4.8896339759704646E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="1683.02"/>
+    <n v="1683.82"/>
+    <n v="0.79999999999995453"/>
+    <n v="4.7533600313719063E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="429.69"/>
+    <n v="429.89"/>
+    <n v="0.19999999999998863"/>
+    <n v="4.6545183737110158E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="1683.82"/>
+    <n v="1684.61"/>
+    <n v="0.78999999999996362"/>
+    <n v="4.6917128909263676E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="429.89"/>
+    <n v="430.1"/>
+    <n v="0.21000000000003638"/>
+    <n v="4.8849705738685802E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="1684.61"/>
+    <n v="1685.31"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1552644232198876E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="430.1"/>
+    <n v="430.27"/>
+    <n v="0.16999999999995907"/>
+    <n v="3.9525691699595223E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="1685.31"/>
+    <n v="1686.09"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6282286344943825E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="430.27"/>
+    <n v="430.44"/>
+    <n v="0.17000000000001592"/>
+    <n v="3.9510075069146332E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="1686.09"/>
+    <n v="1686.81"/>
+    <n v="0.72000000000002728"/>
+    <n v="4.2702346849813905E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="430.44"/>
+    <n v="430.6"/>
+    <n v="0.16000000000002501"/>
+    <n v="3.717126661091558E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="1686.81"/>
+    <n v="1687.6"/>
+    <n v="0.78999999999996362"/>
+    <n v="4.683396470260217E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="430.6"/>
+    <n v="430.78"/>
+    <n v="0.17999999999994998"/>
+    <n v="4.1802136553634455E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="23"/>
+    <n v="0"/>
+    <n v="1687.6"/>
+    <n v="1688.37"/>
+    <n v="0.76999999999998181"/>
+    <n v="4.5626925811802671E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="23"/>
+    <n v="0"/>
+    <n v="430.78"/>
+    <n v="430.95"/>
+    <n v="0.17000000000001592"/>
+    <n v="3.9463299131811116E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="0"/>
+    <n v="1688.37"/>
+    <n v="1689.07"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1460106493247662E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="0"/>
+    <n v="430.95"/>
+    <n v="431.11"/>
+    <n v="0.16000000000002501"/>
+    <n v="3.7127276946287278E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="431.11"/>
+    <n v="431.23"/>
+    <n v="0.12000000000000455"/>
+    <n v="2.7835123286401277E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="1689.07"/>
+    <n v="1689.77"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1442924212735144E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="1689.77"/>
+    <n v="1690.5"/>
+    <n v="0.73000000000001819"/>
+    <n v="4.3201145718057383E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="431.23"/>
+    <n v="431.4"/>
+    <n v="0.16999999999995907"/>
+    <n v="3.9422118127208002E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="1690.5"/>
+    <n v="1691.2"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1407867494826705E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="28"/>
+    <n v="-430.71"/>
+    <n v="431.4"/>
+    <n v="431.57"/>
+    <n v="-0.68999999999999773"/>
+    <n v="-1.5994436717663369E-3"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="29"/>
     <n v="1378.23"/>
     <n v="1378.23"/>
     <n v="1350"/>
@@ -618,7 +1281,49 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="1691.2"/>
+    <n v="1688.04"/>
+    <n v="-3.1600000000000819"/>
+    <n v="-1.8684957426679763E-3"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="1688.04"/>
+    <n v="1688.74"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1468211653754978E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="29"/>
+    <n v="580"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="30"/>
     <n v="0"/>
     <n v="1350"/>
     <n v="1425"/>
@@ -631,8 +1336,36 @@
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
     <x v="2"/>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="1688.74"/>
+    <n v="1689.49"/>
+    <n v="0.75"/>
+    <n v="4.4411809988512146E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="580"/>
+    <n v="590.01"/>
+    <n v="10.009999999999991"/>
+    <n v="1.7258620689655158E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="31"/>
     <n v="0"/>
     <n v="1425"/>
     <n v="1408"/>
@@ -645,8 +1378,36 @@
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="31"/>
+    <n v="0"/>
+    <n v="1689.49"/>
+    <n v="1690.21"/>
+    <n v="0.72000000000002728"/>
+    <n v="4.2616410869553964E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
     <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="31"/>
+    <n v="0"/>
+    <n v="590.01"/>
+    <n v="587.96"/>
+    <n v="-2.0499999999999545"/>
+    <n v="-3.474517381061261E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="32"/>
     <n v="0"/>
     <n v="1408"/>
     <n v="1468"/>
@@ -659,8 +1420,36 @@
     <m/>
     <x v="0"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
+    <x v="2"/>
+    <x v="32"/>
+    <n v="0"/>
+    <n v="1690.21"/>
+    <n v="1690.92"/>
+    <n v="0.71000000000003638"/>
+    <n v="4.2006614562689626E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="32"/>
+    <n v="0"/>
+    <n v="587.96"/>
+    <n v="596.89"/>
+    <n v="8.92999999999995"/>
+    <n v="1.5188108034560088E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="33"/>
     <n v="0"/>
     <n v="1468"/>
     <n v="1496"/>
@@ -671,10 +1460,52 @@
   </r>
   <r>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="33"/>
+    <n v="861.05"/>
+    <n v="861.05"/>
+    <n v="851"/>
+    <n v="-10.049999999999955"/>
+    <n v="-1.1671796062946351E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="33"/>
+    <n v="0"/>
+    <n v="1690.92"/>
+    <n v="1691.62"/>
+    <n v="0.6999999999998181"/>
+    <n v="4.1397582381178178E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="33"/>
+    <n v="0"/>
+    <n v="596.89"/>
+    <n v="603.42999999999995"/>
+    <n v="6.5399999999999636"/>
+    <n v="1.0956792708874272E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="34"/>
     <n v="-1583.68"/>
     <n v="1496"/>
     <n v="1600"/>
@@ -685,80 +1516,10 @@
   </r>
   <r>
     <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
-    <n v="1182.27"/>
-    <n v="1182.27"/>
-    <n v="1134"/>
-    <n v="-48.269999999999982"/>
-    <n v="-4.082823720469942E-2"/>
-    <n v="-1.3761661887724319E-2"/>
-    <n v="-1.3761661887724319E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="1134"/>
-    <n v="1134"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="-1.3761661887724319E-2"/>
-    <n v="-1.3761661887724319E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="1134"/>
-    <n v="1108"/>
-    <n v="-26"/>
-    <n v="-2.292768959435626E-2"/>
-    <n v="-1.3761661887724319E-2"/>
-    <n v="-1.3761661887724319E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="1108"/>
-    <n v="1166"/>
-    <n v="58"/>
-    <n v="5.2346570397111915E-2"/>
-    <n v="-1.3761661887724319E-2"/>
-    <n v="-1.3761661887724319E-2"/>
-  </r>
-  <r>
-    <m/>
+    <x v="4"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="861.05"/>
-    <n v="861.05"/>
-    <n v="851"/>
-    <n v="-10.049999999999955"/>
-    <n v="-1.1671796062946351E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="34"/>
     <n v="0"/>
     <n v="851"/>
     <n v="823"/>
@@ -769,10 +1530,66 @@
   </r>
   <r>
     <m/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="10"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="1691.62"/>
+    <n v="1692.38"/>
+    <n v="0.76000000000021828"/>
+    <n v="4.4927347749507476E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="603.42999999999995"/>
+    <n v="599.11"/>
+    <n v="-4.3199999999999363"/>
+    <n v="-7.1590739605255568E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="1803.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-3.8267428317896313E-3"/>
+    <n v="-3.8267428317896313E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="-1796.2"/>
+    <n v="1803.1"/>
+    <n v="0"/>
+    <n v="-6.8999999999998636"/>
+    <n v="-3.82674283178962E-3"/>
+    <n v="-3.8267428317896313E-3"/>
+    <n v="-3.8267428317896313E-3"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
     <n v="0"/>
     <n v="823"/>
     <n v="849"/>
@@ -783,10 +1600,38 @@
   </r>
   <r>
     <m/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="11"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="1692.38"/>
+    <n v="1693.16"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6088939836205382E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="599.11"/>
+    <n v="592.57000000000005"/>
+    <n v="-6.5399999999999636"/>
+    <n v="-1.0916192351988723E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="36"/>
     <n v="0"/>
     <n v="849"/>
     <n v="879"/>
@@ -797,10 +1642,38 @@
   </r>
   <r>
     <m/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="12"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="1693.16"/>
+    <n v="1693.92"/>
+    <n v="0.75999999999999091"/>
+    <n v="4.4886484443288933E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="592.57000000000005"/>
+    <n v="597.64"/>
+    <n v="5.0699999999999363"/>
+    <n v="8.5559511956392262E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="37"/>
     <n v="0"/>
     <n v="879"/>
     <n v="860"/>
@@ -811,10 +1684,52 @@
   </r>
   <r>
     <m/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="1693.92"/>
+    <n v="1694.66"/>
+    <n v="0.74000000000000909"/>
+    <n v="4.3685652214981173E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="597.64"/>
+    <n v="595.96"/>
+    <n v="-1.67999999999995"/>
+    <n v="-2.8110568235057056E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
     <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
+    <n v="1182.27"/>
+    <n v="1182.27"/>
+    <n v="1134"/>
+    <n v="-48.269999999999982"/>
+    <n v="-4.082823720469942E-2"/>
+    <n v="5.2213115447402147E-2"/>
+    <n v="5.2213115447402147E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
     <n v="0"/>
     <n v="860"/>
     <n v="885"/>
@@ -825,10 +1740,52 @@
   </r>
   <r>
     <m/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="1694.66"/>
+    <n v="1695.42"/>
+    <n v="0.75999999999999091"/>
+    <n v="4.4846753921139984E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="595.96"/>
+    <n v="601.32000000000005"/>
+    <n v="5.3600000000000136"/>
+    <n v="8.9938922075307286E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="1134"/>
+    <n v="1134"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5.2213115447402147E-2"/>
+    <n v="5.2213115447402147E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="39"/>
     <n v="0"/>
     <n v="885"/>
     <n v="900"/>
@@ -839,10 +1796,38 @@
   </r>
   <r>
     <m/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="8"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="1695.42"/>
+    <n v="1696.05"/>
+    <n v="0.62999999999988177"/>
+    <n v="3.7158934069427148E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="40"/>
+    <n v="0"/>
+    <n v="1134"/>
+    <n v="1108"/>
+    <n v="-26"/>
+    <n v="-2.292768959435626E-2"/>
+    <n v="5.2213115447402147E-2"/>
+    <n v="5.2213115447402147E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="40"/>
     <n v="0"/>
     <n v="900"/>
     <n v="880"/>
@@ -853,10 +1838,38 @@
   </r>
   <r>
     <m/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="9"/>
+    <x v="40"/>
+    <n v="0"/>
+    <n v="1696.05"/>
+    <n v="1696.85"/>
+    <n v="0.79999999999995453"/>
+    <n v="4.7168420742310342E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="41"/>
+    <n v="0"/>
+    <n v="1108"/>
+    <n v="1160"/>
+    <n v="52"/>
+    <n v="4.6931407942238268E-2"/>
+    <n v="5.2213115447402147E-2"/>
+    <n v="5.2213115447402147E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="41"/>
     <n v="0"/>
     <n v="880"/>
     <n v="840"/>
@@ -867,724 +1880,24 @@
   </r>
   <r>
     <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="41"/>
+    <n v="0"/>
+    <n v="1696.85"/>
+    <n v="1697.45"/>
+    <n v="0.60000000000013642"/>
+    <n v="3.535963697440177E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
     <x v="3"/>
     <x v="0"/>
     <x v="2"/>
-    <x v="13"/>
-    <n v="1670.78"/>
-    <n v="1670.78"/>
-    <n v="1670.78"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="1670.78"/>
-    <n v="1671.56"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6684781958125708E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="1671.56"/>
-    <n v="1672.3"/>
-    <n v="0.74000000000000909"/>
-    <n v="4.4270023211850554E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="1672.3"/>
-    <n v="1673.04"/>
-    <n v="0.74000000000000909"/>
-    <n v="4.4250433534653421E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="17"/>
-    <n v="0"/>
-    <n v="1673.04"/>
-    <n v="1673.87"/>
-    <n v="0.82999999999992724"/>
-    <n v="4.9610290250079328E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="18"/>
-    <n v="0"/>
-    <n v="1673.87"/>
-    <n v="1674.66"/>
-    <n v="0.79000000000019099"/>
-    <n v="4.7196018806728782E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="19"/>
-    <n v="0"/>
-    <n v="1674.66"/>
-    <n v="1675.48"/>
-    <n v="0.81999999999993634"/>
-    <n v="4.8965163077874685E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="20"/>
-    <n v="0"/>
-    <n v="1675.48"/>
-    <n v="1676.13"/>
-    <n v="0.65000000000009095"/>
-    <n v="3.8794852818302276E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="21"/>
-    <n v="0"/>
-    <n v="1676.13"/>
-    <n v="1676.86"/>
-    <n v="0.72999999999979082"/>
-    <n v="4.3552707725521932E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="22"/>
-    <n v="0"/>
-    <n v="1676.86"/>
-    <n v="1677.49"/>
-    <n v="0.63000000000010914"/>
-    <n v="3.7570220531237501E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="23"/>
-    <n v="0"/>
-    <n v="1677.49"/>
-    <n v="1678.11"/>
-    <n v="0.61999999999989086"/>
-    <n v="3.6959981877679801E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="24"/>
-    <n v="0"/>
-    <n v="1678.11"/>
-    <n v="1678.81"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1713594460437368E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="25"/>
-    <n v="0"/>
-    <n v="1678.81"/>
-    <n v="1679.59"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6461481644734828E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="26"/>
-    <n v="0"/>
-    <n v="1679.59"/>
-    <n v="1680.42"/>
-    <n v="0.83000000000015461"/>
-    <n v="4.9416821962511965E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="27"/>
-    <n v="0"/>
-    <n v="1680.42"/>
-    <n v="1681.27"/>
-    <n v="0.84999999999990905"/>
-    <n v="5.0582592447120901E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="28"/>
-    <n v="0"/>
-    <n v="1681.27"/>
-    <n v="1682.1"/>
-    <n v="0.82999999999992724"/>
-    <n v="4.9367442469081544E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="29"/>
-    <n v="0"/>
-    <n v="1682.1"/>
-    <n v="1683.02"/>
-    <n v="0.92000000000007276"/>
-    <n v="5.4693537839609584E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="30"/>
-    <n v="0"/>
-    <n v="1683.02"/>
-    <n v="1683.82"/>
-    <n v="0.79999999999995453"/>
-    <n v="4.7533600313719063E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="31"/>
-    <n v="0"/>
-    <n v="1683.82"/>
-    <n v="1684.61"/>
-    <n v="0.78999999999996362"/>
-    <n v="4.6917128909263676E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="32"/>
-    <n v="0"/>
-    <n v="1684.61"/>
-    <n v="1685.31"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1552644232198876E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="33"/>
-    <n v="0"/>
-    <n v="1685.31"/>
-    <n v="1686.09"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6282286344943825E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="34"/>
-    <n v="0"/>
-    <n v="1686.09"/>
-    <n v="1686.81"/>
-    <n v="0.72000000000002728"/>
-    <n v="4.2702346849813905E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="35"/>
-    <n v="0"/>
-    <n v="1686.81"/>
-    <n v="1687.6"/>
-    <n v="0.78999999999996362"/>
-    <n v="4.683396470260217E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="36"/>
-    <n v="0"/>
-    <n v="1687.6"/>
-    <n v="1688.37"/>
-    <n v="0.76999999999998181"/>
-    <n v="4.5626925811802671E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="1688.37"/>
-    <n v="1689.07"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1460106493247662E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="38"/>
-    <n v="0"/>
-    <n v="1689.07"/>
-    <n v="1689.77"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1442924212735144E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="39"/>
-    <n v="0"/>
-    <n v="1689.77"/>
-    <n v="1690.5"/>
-    <n v="0.73000000000001819"/>
-    <n v="4.3201145718057383E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="40"/>
-    <n v="0"/>
-    <n v="1690.5"/>
-    <n v="1691.2"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1407867494826705E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="1691.2"/>
-    <n v="1688.04"/>
-    <n v="-3.1600000000000819"/>
-    <n v="-1.8684957426679763E-3"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="1688.04"/>
-    <n v="1688.74"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1468211653754978E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="1688.74"/>
-    <n v="1689.49"/>
-    <n v="0.75"/>
-    <n v="4.4411809988512146E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="1689.49"/>
-    <n v="1690.21"/>
-    <n v="0.72000000000002728"/>
-    <n v="4.2616410869553964E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="1690.21"/>
-    <n v="1690.92"/>
-    <n v="0.71000000000003638"/>
-    <n v="4.2006614562689626E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="1690.92"/>
-    <n v="1691.62"/>
-    <n v="0.6999999999998181"/>
-    <n v="4.1397582381178178E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="1691.62"/>
-    <n v="1692.38"/>
-    <n v="0.76000000000021828"/>
-    <n v="4.4927347749507476E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="10"/>
-    <n v="0"/>
-    <n v="1692.38"/>
-    <n v="1693.16"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6088939836205382E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="1693.16"/>
-    <n v="1693.92"/>
-    <n v="0.75999999999999091"/>
-    <n v="4.4886484443288933E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="1693.92"/>
-    <n v="1694.66"/>
-    <n v="0.74000000000000909"/>
-    <n v="4.3685652214981173E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="1694.66"/>
-    <n v="1695.42"/>
-    <n v="0.75999999999999091"/>
-    <n v="4.4846753921139984E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="1695.42"/>
-    <n v="1696.05"/>
-    <n v="0.62999999999988177"/>
-    <n v="3.7158934069427148E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="1696.05"/>
-    <n v="1696.85"/>
-    <n v="0.79999999999995453"/>
-    <n v="4.7168420742310342E-4"/>
-    <n v="4.8023970534245564E-3"/>
-    <n v="1.5603490585234914E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="580"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="580"/>
-    <n v="590.01"/>
-    <n v="10.009999999999991"/>
-    <n v="1.7258620689655158E-2"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="590.01"/>
-    <n v="587.96"/>
-    <n v="-2.0499999999999545"/>
-    <n v="-3.474517381061261E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="587.96"/>
-    <n v="596.89"/>
-    <n v="8.92999999999995"/>
-    <n v="1.5188108034560088E-2"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="596.89"/>
-    <n v="603.42999999999995"/>
-    <n v="6.5399999999999636"/>
-    <n v="1.0956792708874272E-2"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="603.42999999999995"/>
-    <n v="599.11"/>
-    <n v="-4.3199999999999363"/>
-    <n v="-7.1590739605255568E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="10"/>
-    <n v="0"/>
-    <n v="599.11"/>
-    <n v="592.57000000000005"/>
-    <n v="-6.5399999999999636"/>
-    <n v="-1.0916192351988723E-2"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="592.57000000000005"/>
-    <n v="597.64"/>
-    <n v="5.0699999999999363"/>
-    <n v="8.5559511956392262E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="597.64"/>
-    <n v="595.96"/>
-    <n v="-1.67999999999995"/>
-    <n v="-2.8110568235057056E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="595.96"/>
-    <n v="601.32000000000005"/>
-    <n v="5.3600000000000136"/>
-    <n v="8.9938922075307286E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="9"/>
+    <x v="41"/>
     <n v="-598.13"/>
     <n v="601.32000000000005"/>
     <n v="0"/>
@@ -1595,317 +1908,122 @@
   </r>
   <r>
     <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="22"/>
-    <n v="428.37"/>
-    <n v="428.37"/>
-    <n v="428.37"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="23"/>
-    <n v="0"/>
-    <n v="428.37"/>
-    <n v="428.55"/>
-    <n v="0.18000000000000682"/>
-    <n v="4.2019749282164209E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="24"/>
-    <n v="0"/>
-    <n v="428.55"/>
-    <n v="428.72"/>
-    <n v="0.17000000000001592"/>
-    <n v="3.9668650099175339E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="25"/>
-    <n v="0"/>
-    <n v="428.72"/>
-    <n v="428.9"/>
-    <n v="0.17999999999994998"/>
-    <n v="4.1985445045705815E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="26"/>
-    <n v="0"/>
-    <n v="428.9"/>
-    <n v="429.08"/>
-    <n v="0.18000000000000682"/>
-    <n v="4.1967824667756313E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="27"/>
-    <n v="0"/>
-    <n v="429.08"/>
-    <n v="429.28"/>
-    <n v="0.19999999999998863"/>
-    <n v="4.6611354525959874E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="28"/>
-    <n v="0"/>
-    <n v="429.28"/>
-    <n v="429.48"/>
-    <n v="0.20000000000004547"/>
-    <n v="4.6589638464416113E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="29"/>
-    <n v="0"/>
-    <n v="429.48"/>
-    <n v="429.69"/>
-    <n v="0.20999999999997954"/>
-    <n v="4.8896339759704646E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="30"/>
-    <n v="0"/>
-    <n v="429.69"/>
-    <n v="429.89"/>
-    <n v="0.19999999999998863"/>
-    <n v="4.6545183737110158E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="31"/>
-    <n v="0"/>
-    <n v="429.89"/>
-    <n v="430.1"/>
-    <n v="0.21000000000003638"/>
-    <n v="4.8849705738685802E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="32"/>
-    <n v="0"/>
-    <n v="430.1"/>
-    <n v="430.27"/>
-    <n v="0.16999999999995907"/>
-    <n v="3.9525691699595223E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="33"/>
-    <n v="0"/>
-    <n v="430.27"/>
-    <n v="430.44"/>
-    <n v="0.17000000000001592"/>
-    <n v="3.9510075069146332E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="34"/>
-    <n v="0"/>
-    <n v="430.44"/>
-    <n v="430.6"/>
-    <n v="0.16000000000002501"/>
-    <n v="3.717126661091558E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="35"/>
-    <n v="0"/>
-    <n v="430.6"/>
-    <n v="430.78"/>
-    <n v="0.17999999999994998"/>
-    <n v="4.1802136553634455E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="36"/>
-    <n v="0"/>
-    <n v="430.78"/>
-    <n v="430.95"/>
-    <n v="0.17000000000001592"/>
-    <n v="3.9463299131811116E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="430.95"/>
-    <n v="431.11"/>
-    <n v="0.16000000000002501"/>
-    <n v="3.7127276946287278E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="41"/>
-    <n v="0"/>
-    <n v="431.11"/>
-    <n v="431.23"/>
-    <n v="0.12000000000000455"/>
-    <n v="2.7835123286401277E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="39"/>
-    <n v="0"/>
-    <n v="431.23"/>
-    <n v="431.4"/>
-    <n v="0.16999999999995907"/>
-    <n v="3.9422118127208002E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="40"/>
-    <n v="-430.71"/>
-    <n v="431.4"/>
-    <n v="431.57"/>
-    <n v="-0.68999999999999773"/>
-    <n v="-1.5994436717663369E-3"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <m/>
     <x v="6"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="10"/>
-    <n v="1803.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="-3.8267428317896313E-3"/>
-    <n v="-3.8267428317896313E-3"/>
+    <x v="2"/>
+    <x v="42"/>
+    <n v="0"/>
+    <n v="1160"/>
+    <n v="1178"/>
+    <n v="18"/>
+    <n v="1.5517241379310345E-2"/>
+    <n v="5.2213115447402147E-2"/>
+    <n v="5.2213115447402147E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="42"/>
+    <n v="0"/>
+    <n v="840"/>
+    <n v="810"/>
+    <n v="-30"/>
+    <n v="-3.5714285714285712E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="42"/>
+    <n v="0"/>
+    <n v="1697.45"/>
+    <n v="1698.16"/>
+    <n v="0.71000000000003638"/>
+    <n v="4.1827447052934482E-4"/>
+    <n v="5.5781233345575387E-3"/>
+    <n v="1.6387555512993535E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="43"/>
+    <n v="837.95"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-4.5615034168564828E-2"/>
+    <n v="-4.5615034168564828E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="43"/>
+    <n v="-837.95"/>
+    <n v="878"/>
+    <n v="0"/>
+    <n v="-40.049999999999955"/>
+    <n v="-4.5615034168564869E-2"/>
+    <n v="-4.5615034168564828E-2"/>
+    <n v="-4.5615034168564828E-2"/>
   </r>
   <r>
     <m/>
     <x v="6"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="10"/>
-    <n v="-1796.2"/>
-    <n v="1803.1"/>
-    <n v="0"/>
-    <n v="-6.8999999999998636"/>
-    <n v="-3.82674283178962E-3"/>
-    <n v="-3.8267428317896313E-3"/>
-    <n v="-3.8267428317896313E-3"/>
+    <x v="2"/>
+    <x v="43"/>
+    <n v="0"/>
+    <n v="1178"/>
+    <n v="1244"/>
+    <n v="66"/>
+    <n v="5.6027164685908321E-2"/>
+    <n v="5.2213115447402147E-2"/>
+    <n v="5.2213115447402147E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="43"/>
+    <n v="0"/>
+    <n v="810"/>
+    <n v="840"/>
+    <n v="30"/>
+    <n v="3.7037037037037035E-2"/>
+    <n v="-2.4446896231345439E-2"/>
+    <n v="-2.4446896231345439E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="10">
+      <items count="11">
+        <item m="1" x="9"/>
+        <item x="0"/>
+        <item x="1"/>
         <item m="1" x="8"/>
         <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
         <item x="5"/>
-        <item m="1" x="7"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1927,13 +2045,26 @@
         <item sd="0" m="1" x="12"/>
         <item sd="0" m="1" x="7"/>
         <item sd="0" m="1" x="3"/>
-        <item sd="0" x="2"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="45">
+      <items count="47">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -1953,31 +2084,20 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item m="1" x="44"/>
+        <item m="1" x="45"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
         <item x="37"/>
-        <item x="41"/>
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1995,7 +2115,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="17">
     <i>
       <x v="1"/>
     </i>
@@ -2034,6 +2154,12 @@
     </i>
     <i>
       <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i r="1">
       <x/>
@@ -2083,10 +2209,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L97" totalsRowCount="1" headerRowDxfId="19">
-  <autoFilter ref="A1:L96"/>
-  <sortState ref="A2:L93">
-    <sortCondition ref="E1:E93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L102" totalsRowCount="1" headerRowDxfId="19">
+  <autoFilter ref="A1:L101"/>
+  <sortState ref="A2:L100">
+    <sortCondition ref="E1:E100"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="12" name="ID"/>
@@ -2414,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G18"/>
+  <dimension ref="A3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,371 +2577,417 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1670.78</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1670.78</v>
       </c>
-      <c r="D4" s="10">
-        <v>26.069999999999936</v>
-      </c>
-      <c r="E4" s="11">
-        <v>5.7159905122807558E-3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>3.7777182289378377E-4</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1.5603490585234914E-2</v>
+      <c r="D4" s="9">
+        <v>27.380000000000109</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5.9080196922113694E-3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3.7815152509112782E-4</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="9">
         <v>1670.78</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1670.78</v>
       </c>
-      <c r="D5" s="10">
-        <v>26.069999999999936</v>
-      </c>
-      <c r="E5" s="11">
-        <v>5.7159905122807558E-3</v>
-      </c>
-      <c r="F5" s="11">
-        <v>3.7777182289378377E-4</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1.5603490585234914E-2</v>
+      <c r="D5" s="9">
+        <v>27.380000000000109</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5.9080196922113694E-3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3.7815152509112782E-4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>-2.339999999999975</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>428.37</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>2.339999999999975</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>2.8686658503633886E-4</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>5.4625674066808294E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="9">
         <v>-2.339999999999975</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>428.37</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>2.339999999999975</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>2.8686658503633886E-4</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>5.4625674066808294E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>-18.129999999999995</v>
       </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
         <v>18.129999999999995</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>2.8416927899686983E-2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>2.8443207857271877E-3</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="9">
         <v>-18.129999999999995</v>
       </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
         <v>18.129999999999995</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>2.8416927899686983E-2</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>2.8443207857271877E-3</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>-205.45000000000005</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>1350</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>205.45000000000005</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0.14083311472229162</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>2.3906628226798916E-2</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="A11" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B11" s="9">
         <v>-205.45000000000005</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>1350</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>205.45000000000005</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0.14083311472229162</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>2.3906628226798916E-2</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>861.05</v>
       </c>
-      <c r="C12" s="10">
-        <v>823</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="9">
+        <v>810</v>
+      </c>
+      <c r="D12" s="9">
         <v>-21.049999999999955</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>-2.4446896231345439E-2</v>
       </c>
-      <c r="F12" s="11">
-        <v>-2.3244618862747982E-3</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F12" s="10">
+        <v>-1.7815823321565333E-3</v>
+      </c>
+      <c r="G12" s="10">
         <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="A13" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="9">
         <v>861.05</v>
       </c>
-      <c r="C13" s="10">
-        <v>823</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C13" s="9">
+        <v>810</v>
+      </c>
+      <c r="D13" s="9">
         <v>-21.049999999999955</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>-2.4446896231345439E-2</v>
       </c>
-      <c r="F13" s="11">
-        <v>-2.3244618862747982E-3</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="F13" s="10">
+        <v>-1.7815823321565333E-3</v>
+      </c>
+      <c r="G13" s="10">
         <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>1182.27</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>1108</v>
       </c>
-      <c r="D14" s="10">
-        <v>-16.269999999999982</v>
-      </c>
-      <c r="E14" s="11">
-        <v>-1.3761661887724319E-2</v>
-      </c>
-      <c r="F14" s="11">
-        <v>-2.8523391004859396E-3</v>
-      </c>
-      <c r="G14" s="11">
-        <v>-1.3761661887724319E-2</v>
+      <c r="D14" s="9">
+        <v>61.730000000000018</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5.2213115447402147E-2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>9.11998120140021E-3</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5.2213115447402147E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="A15" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="9">
         <v>1182.27</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>1108</v>
       </c>
-      <c r="D15" s="10">
-        <v>-16.269999999999982</v>
-      </c>
-      <c r="E15" s="11">
-        <v>-1.3761661887724319E-2</v>
-      </c>
-      <c r="F15" s="11">
-        <v>-2.8523391004859396E-3</v>
-      </c>
-      <c r="G15" s="11">
-        <v>-1.3761661887724319E-2</v>
+      <c r="D15" s="9">
+        <v>61.730000000000018</v>
+      </c>
+      <c r="E15" s="10">
+        <v>5.2213115447402147E-2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>9.11998120140021E-3</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5.2213115447402147E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>6.8999999999998636</v>
       </c>
-      <c r="C16" s="10">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
         <v>-6.8999999999998636</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>-3.8267428317896313E-3</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>-1.91337141589481E-3</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>-3.8267428317896313E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B17" s="10">
+      <c r="A17" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="9">
         <v>6.8999999999998636</v>
       </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
         <v>-6.8999999999998636</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>-3.8267428317896313E-3</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>-1.91337141589481E-3</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>-3.8267428317896313E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>-40.049999999999955</v>
+      </c>
+      <c r="E18" s="10">
+        <v>-4.5615034168564828E-2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>-2.2807517084282435E-2</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-4.5615034168564828E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>-40.049999999999955</v>
+      </c>
+      <c r="E19" s="10">
+        <v>-4.5615034168564828E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>-2.2807517084282435E-2</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-4.5615034168564828E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B20" s="9">
         <v>3495.08</v>
       </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>207.77000000000015</v>
-      </c>
-      <c r="E18" s="11">
-        <v>1.3184859648523575E-2</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1.7338059961730604E-3</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1.8468071392527412E-2</v>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>247.03000000000037</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1.4608978028612368E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1.8211898325272641E-3</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1.9921858206121027E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2826,10 +2998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,7 +3049,7 @@
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -2888,427 +3060,427 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>40835</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <v>1670.78</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1670.78</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>1670.78</v>
       </c>
-      <c r="I2" s="3">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="I2" s="2">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.6390189013515428E-3</v>
       </c>
-      <c r="L2" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L2" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>40836</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
         <v>1670.78</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>1671.56</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.77999999999997272</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.6684781958125708E-4</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.6390189013515428E-3</v>
       </c>
-      <c r="L3" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L3" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>40837</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
         <v>1671.56</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>1672.3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.74000000000000909</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.4270023211850554E-4</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.6390189013515428E-3</v>
       </c>
-      <c r="L4" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L4" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>40840</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
         <v>1672.3</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>1673.04</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.74000000000000909</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.4250433534653421E-4</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.6390189013515428E-3</v>
       </c>
-      <c r="L5" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L5" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>40841</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
         <v>1673.04</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <v>1673.87</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.82999999999992724</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.9610290250079328E-4</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.6390189013515428E-3</v>
       </c>
-      <c r="L6" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L6" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>40842</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
         <v>1673.87</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>1674.66</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.79000000000019099</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.7196018806728782E-4</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.6390189013515428E-3</v>
       </c>
-      <c r="L7" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L7" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>40843</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
         <v>1674.66</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>1675.48</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.81999999999993634</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.8965163077874685E-4</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.6390189013515428E-3</v>
       </c>
-      <c r="L8" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L8" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>40844</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
         <v>1675.48</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>1676.13</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.65000000000009095</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.8794852818302276E-4</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.6390189013515428E-3</v>
       </c>
-      <c r="L9" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L9" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>40847</v>
       </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
         <v>1676.13</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <v>1676.86</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.72999999999979082</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.3552707725521932E-4</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.6390189013515428E-3</v>
       </c>
-      <c r="L10" s="6">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L10" s="5">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>40848</v>
       </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
         <v>1676.86</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>1677.49</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.63000000000010914</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.7570220531237501E-4</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L11" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L11" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>40848</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>428.37</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>428.37</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>428.37</v>
       </c>
-      <c r="I12" s="3">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="I12" s="2">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -3317,76 +3489,76 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>40850</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
         <v>1677.49</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>1678.11</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.61999999999989086</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.6959981877679801E-4</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L13" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L13" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>40850</v>
       </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
         <v>428.37</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>428.55</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.18000000000000682</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.2019749282164209E-4</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -3395,76 +3567,76 @@
       <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>40851</v>
       </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
         <v>1678.11</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>1678.81</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.70000000000004547</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.1713594460437368E-4</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L15" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L15" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>40851</v>
       </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
         <v>428.55</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="12">
         <v>428.72</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.17000000000001592</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.9668650099175339E-4</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -3473,76 +3645,76 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>40854</v>
       </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
         <v>1678.81</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>1679.59</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.77999999999997272</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.6461481644734828E-4</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L17" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L17" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>40854</v>
       </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
         <v>428.72</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>428.9</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.17999999999994998</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.1985445045705815E-4</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -3551,76 +3723,76 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>40855</v>
       </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
         <v>1679.59</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>1680.42</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.83000000000015461</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.9416821962511965E-4</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L19" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L19" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>40855</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
         <v>428.9</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>429.08</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.18000000000000682</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.1967824667756313E-4</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -3629,76 +3801,76 @@
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>40856</v>
       </c>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
         <v>1680.42</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <v>1681.27</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.84999999999990905</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>5.0582592447120901E-4</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L21" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L21" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>40856</v>
       </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
         <v>429.08</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>429.28</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.19999999999998863</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.6611354525959874E-4</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -3707,76 +3879,76 @@
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>40857</v>
       </c>
-      <c r="F23" s="14">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
         <v>1681.27</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>1682.1</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.82999999999992724</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.9367442469081544E-4</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L23" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L23" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>40857</v>
       </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
         <v>429.28</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="12">
         <v>429.48</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.20000000000004547</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.6589638464416113E-4</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -3785,273 +3957,273 @@
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>40858</v>
       </c>
-      <c r="F25" s="14">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13">
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
         <v>1682.1</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>1683.02</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.92000000000007276</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>5.4693537839609584E-4</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L25" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L25" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>40858</v>
       </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
         <v>429.48</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>429.69</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.20999999999997954</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.8896339759704646E-4</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>40861</v>
       </c>
-      <c r="F27" s="14">
-        <v>0</v>
-      </c>
-      <c r="G27" s="13">
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
         <v>1683.02</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <v>1683.82</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.79999999999995453</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.7533600313719063E-4</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L27" s="16">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L27" s="15">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C28">
         <v>2011</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>40861</v>
       </c>
-      <c r="F28" s="14">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13">
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
         <v>429.69</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="12">
         <v>429.89</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.19999999999998863</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.6545183737110158E-4</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C29">
         <v>2011</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>40863</v>
       </c>
-      <c r="F29" s="14">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
         <v>1683.82</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <v>1684.61</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.78999999999996362</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.6917128909263676E-4</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L29" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L29" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C30">
         <v>2011</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>40863</v>
       </c>
-      <c r="F30" s="14">
-        <v>0</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
         <v>429.89</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="12">
         <v>430.1</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.21000000000003638</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.8849705738685802E-4</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31">
         <v>2011</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>40864</v>
       </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12">
         <v>1684.61</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="12">
         <v>1685.31</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.70000000000004547</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.1552644232198876E-4</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L31" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L31" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -4061,34 +4233,34 @@
       <c r="C32">
         <v>2011</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>40864</v>
       </c>
-      <c r="F32" s="14">
-        <v>0</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
         <v>430.1</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <v>430.27</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.16999999999995907</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.9525691699595223E-4</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -4100,36 +4272,36 @@
       <c r="C33">
         <v>2011</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>40865</v>
       </c>
-      <c r="F33" s="19">
-        <v>0</v>
-      </c>
-      <c r="G33" s="13">
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
         <v>1685.31</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <v>1686.09</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.77999999999997272</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.6282286344943825E-4</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L33" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L33" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -4139,34 +4311,34 @@
       <c r="C34">
         <v>2011</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>40865</v>
       </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
         <v>430.27</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="12">
         <v>430.44</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.17000000000001592</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.9510075069146332E-4</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -4178,36 +4350,36 @@
       <c r="C35">
         <v>2011</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>40868</v>
       </c>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13">
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
         <v>1686.09</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <v>1686.81</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.72000000000002728</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.2702346849813905E-4</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L35" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L35" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -4217,34 +4389,34 @@
       <c r="C36">
         <v>2011</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>40868</v>
       </c>
-      <c r="F36" s="19">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
         <v>430.44</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <v>430.6</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.16000000000002501</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.717126661091558E-4</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -4256,36 +4428,36 @@
       <c r="C37">
         <v>2011</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>40869</v>
       </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
         <v>1686.81</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="12">
         <v>1687.6</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.78999999999996362</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.683396470260217E-4</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L37" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L37" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -4295,34 +4467,34 @@
       <c r="C38">
         <v>2011</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>40869</v>
       </c>
-      <c r="F38" s="19">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12">
         <v>430.6</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>430.78</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.17999999999994998</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.1802136553634455E-4</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -4334,36 +4506,36 @@
       <c r="C39">
         <v>2011</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>40870</v>
       </c>
-      <c r="F39" s="20">
-        <v>0</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="F39" s="19">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
         <v>1687.6</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <v>1688.37</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.76999999999998181</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.5626925811802671E-4</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L39" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L39" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -4373,34 +4545,34 @@
       <c r="C40">
         <v>2011</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>40870</v>
       </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="13">
+      <c r="F40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
         <v>430.78</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="12">
         <v>430.95</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.17000000000001592</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.9463299131811116E-4</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -4412,36 +4584,36 @@
       <c r="C41">
         <v>2011</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>40871</v>
       </c>
-      <c r="F41" s="20">
-        <v>0</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12">
         <v>1688.37</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <v>1689.07</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.70000000000004547</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.1460106493247662E-4</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L41" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L41" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -4451,34 +4623,34 @@
       <c r="C42">
         <v>2011</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>40871</v>
       </c>
-      <c r="F42" s="20">
-        <v>0</v>
-      </c>
-      <c r="G42" s="13">
+      <c r="F42" s="19">
+        <v>0</v>
+      </c>
+      <c r="G42" s="12">
         <v>430.95</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>431.11</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.16000000000002501</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.7127276946287278E-4</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -4490,34 +4662,34 @@
       <c r="C43">
         <v>2011</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>40872</v>
       </c>
-      <c r="F43" s="20">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13">
+      <c r="F43" s="19">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
         <v>431.11</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="12">
         <v>431.23</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.12000000000000455</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>2.7835123286401277E-4</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -4529,112 +4701,112 @@
       <c r="C44">
         <v>2011</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>40873</v>
       </c>
-      <c r="F44" s="20">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
+      <c r="F44" s="19">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
         <v>1689.07</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="12">
         <v>1689.77</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.70000000000004547</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.1442924212735144E-4</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L44" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L44" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C45">
         <v>2011</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>40875</v>
       </c>
-      <c r="F45" s="20">
-        <v>0</v>
-      </c>
-      <c r="G45" s="13">
+      <c r="F45" s="19">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12">
         <v>1689.77</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="12">
         <v>1690.5</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.73000000000001819</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.3201145718057383E-4</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L45" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L45" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>40875</v>
       </c>
-      <c r="F46" s="20">
-        <v>0</v>
-      </c>
-      <c r="G46" s="13">
+      <c r="F46" s="19">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12">
         <v>431.23</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="12">
         <v>431.4</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.16999999999995907</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.9422118127208002E-4</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
@@ -4646,36 +4818,36 @@
       <c r="C47">
         <v>2011</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>40876</v>
       </c>
-      <c r="F47" s="9">
-        <v>0</v>
-      </c>
-      <c r="G47" s="13">
+      <c r="F47" s="8">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12">
         <v>1690.5</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="12">
         <v>1691.2</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.70000000000004547</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.1407867494826705E-4</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L47" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L47" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -4685,114 +4857,114 @@
       <c r="C48">
         <v>2011</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>40876</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="19">
         <v>-430.71</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="12">
         <v>431.4</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="12">
         <v>431.57</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-0.68999999999999773</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-1.5994436717663369E-3</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C49">
         <v>2011</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>40877</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <v>1378.23</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <v>1378.23</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="12">
         <v>1350</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-28.230000000000018</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-2.0482793147732974E-2</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>-2.0482793147732936E-2</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>40877</v>
       </c>
-      <c r="F50" s="21">
-        <v>0</v>
-      </c>
-      <c r="G50" s="13">
+      <c r="F50" s="20">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12">
         <v>1691.2</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="12">
         <v>1688.04</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-3.1600000000000819</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-1.8684957426679763E-3</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L50" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L50" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -4802,36 +4974,36 @@
       <c r="C51">
         <v>2011</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>40877</v>
       </c>
-      <c r="F51" s="21">
-        <v>0</v>
-      </c>
-      <c r="G51" s="13">
+      <c r="F51" s="20">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12">
         <v>1688.04</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="12">
         <v>1688.74</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.70000000000004547</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.1468211653754978E-4</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L51" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="L51" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -4841,114 +5013,114 @@
       <c r="C52">
         <v>2011</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>40877</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="8">
         <v>580</v>
       </c>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-      <c r="H52" s="13">
-        <v>0</v>
-      </c>
-      <c r="I52" s="10">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="11">
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C53">
         <v>2011</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>40878</v>
       </c>
-      <c r="F53" s="9">
-        <v>0</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="F53" s="8">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
         <v>1350</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="12">
         <v>1425</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>75</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.17309629629629653</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>40878</v>
       </c>
-      <c r="F54" s="21">
-        <v>0</v>
-      </c>
-      <c r="G54" s="13">
+      <c r="F54" s="20">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
         <v>1688.74</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="12">
         <v>1689.49</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.75</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.4411809988512146E-4</v>
       </c>
-      <c r="K54" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L54" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="K54" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L54" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -4958,151 +5130,151 @@
       <c r="C55">
         <v>2011</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>40878</v>
       </c>
-      <c r="F55" s="21">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
+      <c r="F55" s="20">
+        <v>0</v>
+      </c>
+      <c r="G55" s="8">
         <v>580</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="12">
         <v>590.01</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>10.009999999999991</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>1.7258620689655158E-2</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C56">
         <v>2011</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>40879</v>
       </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
         <v>1425</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="12">
         <v>1408</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-17</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-1.1929824561403509E-2</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.17309629629629653</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C57">
         <v>2011</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>40879</v>
       </c>
-      <c r="F57" s="21">
-        <v>0</v>
-      </c>
-      <c r="G57" s="13">
+      <c r="F57" s="20">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
         <v>1689.49</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="12">
         <v>1690.21</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.72000000000002728</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.2616410869553964E-4</v>
       </c>
-      <c r="K57" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L57" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="K57" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L57" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C58">
         <v>2011</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>40879</v>
       </c>
-      <c r="F58" s="21">
-        <v>0</v>
-      </c>
-      <c r="G58" s="13">
+      <c r="F58" s="20">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12">
         <v>590.01</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="12">
         <v>587.96</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-2.0499999999999545</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-3.474517381061261E-3</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
@@ -5114,34 +5286,34 @@
       <c r="C59">
         <v>2011</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>40882</v>
       </c>
-      <c r="F59" s="21">
-        <v>0</v>
-      </c>
-      <c r="G59" s="13">
+      <c r="F59" s="20">
+        <v>0</v>
+      </c>
+      <c r="G59" s="12">
         <v>1408</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="12">
         <v>1468</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>60</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.261363636363636E-2</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.17309629629629653</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.14906800751688776</v>
       </c>
@@ -5153,112 +5325,112 @@
       <c r="C60">
         <v>2011</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>40882</v>
       </c>
-      <c r="F60" s="21">
-        <v>0</v>
-      </c>
-      <c r="G60" s="13">
+      <c r="F60" s="20">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12">
         <v>1690.21</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="12">
         <v>1690.92</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.71000000000003638</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.2006614562689626E-4</v>
       </c>
-      <c r="K60" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L60" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="K60" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L60" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C61">
         <v>2011</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>40882</v>
       </c>
-      <c r="F61" s="21">
-        <v>0</v>
-      </c>
-      <c r="G61" s="13">
+      <c r="F61" s="20">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12">
         <v>587.96</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="12">
         <v>596.89</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>8.92999999999995</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>1.5188108034560088E-2</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C62">
         <v>2011</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>40883</v>
       </c>
-      <c r="F62" s="21">
-        <v>0</v>
-      </c>
-      <c r="G62" s="13">
+      <c r="F62" s="20">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
         <v>1468</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="12">
         <v>1496</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>28</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>1.9073569482288829E-2</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.17309629629629653</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.14906800751688776</v>
       </c>
@@ -5270,36 +5442,36 @@
       <c r="C63">
         <v>2011</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>40883</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="20">
         <v>861.05</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="20">
         <v>861.05</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="12">
         <v>851</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-10.049999999999955</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-1.1671796062946351E-2</v>
       </c>
-      <c r="K63" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-      <c r="L63" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
+      <c r="K63" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L63" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -5309,36 +5481,36 @@
       <c r="C64">
         <v>2011</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>40883</v>
       </c>
-      <c r="F64" s="21">
-        <v>0</v>
-      </c>
-      <c r="G64" s="13">
+      <c r="F64" s="20">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
         <v>1690.92</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="12">
         <v>1691.62</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.6999999999998181</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.1397582381178178E-4</v>
       </c>
-      <c r="K64" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L64" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="K64" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L64" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -5348,34 +5520,34 @@
       <c r="C65">
         <v>2011</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>40883</v>
       </c>
-      <c r="F65" s="21">
-        <v>0</v>
-      </c>
-      <c r="G65" s="13">
+      <c r="F65" s="20">
+        <v>0</v>
+      </c>
+      <c r="G65" s="12">
         <v>596.89</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="12">
         <v>603.42999999999995</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>6.5399999999999636</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>1.0956792708874272E-2</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
@@ -5387,463 +5559,463 @@
       <c r="C66">
         <v>2011</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>40884</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="20">
         <v>-1583.68</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="12">
         <v>1496</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="12">
         <v>1600</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>87.680000000000064</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>5.8609625668449239E-2</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.17309629629629653</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C67">
         <v>2011</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>40884</v>
       </c>
-      <c r="F67" s="21">
-        <v>0</v>
-      </c>
-      <c r="G67" s="13">
+      <c r="F67" s="20">
+        <v>0</v>
+      </c>
+      <c r="G67" s="12">
         <v>851</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="12">
         <v>823</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-28</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-3.2902467685076382E-2</v>
       </c>
-      <c r="K67" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-      <c r="L67" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
+      <c r="K67" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L67" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C68">
         <v>2011</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>40884</v>
       </c>
-      <c r="F68" s="21">
-        <v>0</v>
-      </c>
-      <c r="G68" s="13">
+      <c r="F68" s="20">
+        <v>0</v>
+      </c>
+      <c r="G68" s="12">
         <v>1691.62</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="12">
         <v>1692.38</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.76000000000021828</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.4927347749507476E-4</v>
       </c>
-      <c r="K68" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L68" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="K68" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L68" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D69" s="7" t="s">
+      <c r="C69" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>40884</v>
       </c>
-      <c r="F69" s="21">
-        <v>0</v>
-      </c>
-      <c r="G69" s="13">
+      <c r="F69" s="20">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12">
         <v>603.42999999999995</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="12">
         <v>599.11</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I69" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-4.3199999999999363</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-7.1590739605255568E-3</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L69" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>2011</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="3">
+        <v>40885</v>
+      </c>
+      <c r="F70" s="20">
+        <v>1803.1</v>
+      </c>
+      <c r="G70" s="26">
+        <v>0</v>
+      </c>
+      <c r="H70" s="12">
+        <v>0</v>
+      </c>
+      <c r="I70" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-3.8267428317896313E-3</v>
+      </c>
+      <c r="L70" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-3.8267428317896313E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>2011</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="3">
+        <v>40885</v>
+      </c>
+      <c r="F71" s="20">
+        <v>-1796.2</v>
+      </c>
+      <c r="G71" s="20">
+        <v>1803.1</v>
+      </c>
+      <c r="H71" s="12">
+        <v>0</v>
+      </c>
+      <c r="I71" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-6.8999999999998636</v>
+      </c>
+      <c r="J71" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-3.82674283178962E-3</v>
+      </c>
+      <c r="K71" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-3.8267428317896313E-3</v>
+      </c>
+      <c r="L71" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-3.8267428317896313E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C70">
-        <v>2011</v>
-      </c>
-      <c r="D70" s="7" t="s">
+      <c r="C72">
+        <v>2011</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E72" s="3">
         <v>40885</v>
       </c>
-      <c r="F70" s="21">
-        <v>0</v>
-      </c>
-      <c r="G70" s="13">
+      <c r="F72" s="20">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
         <v>823</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H72" s="12">
         <v>849</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I72" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>26</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J72" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.1591737545565005E-2</v>
       </c>
-      <c r="K70" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-      <c r="L70" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
+      <c r="K72" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L72" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C71">
-        <v>2011</v>
-      </c>
-      <c r="D71" s="7" t="s">
+      <c r="C73" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E73" s="3">
         <v>40885</v>
       </c>
-      <c r="F71" s="21">
-        <v>0</v>
-      </c>
-      <c r="G71" s="13">
+      <c r="F73" s="20">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
         <v>1692.38</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H73" s="12">
         <v>1693.16</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I73" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.77999999999997272</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J73" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.6088939836205382E-4</v>
       </c>
-      <c r="K71" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L71" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="8" t="s">
+      <c r="K73" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L73" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C72">
-        <v>2011</v>
-      </c>
-      <c r="D72" s="7" t="s">
+      <c r="C74" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E74" s="3">
         <v>40885</v>
       </c>
-      <c r="F72" s="21">
-        <v>0</v>
-      </c>
-      <c r="G72" s="13">
+      <c r="F74" s="20">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12">
         <v>599.11</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H74" s="12">
         <v>592.57000000000005</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I74" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-6.5399999999999636</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J74" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-1.0916192351988723E-2</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K74" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L74" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="3">
+        <v>40886</v>
+      </c>
+      <c r="F75" s="20">
+        <v>0</v>
+      </c>
+      <c r="G75" s="12">
+        <v>849</v>
+      </c>
+      <c r="H75" s="12">
+        <v>879</v>
+      </c>
+      <c r="I75" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>30</v>
       </c>
-      <c r="C73" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D73" s="7" t="s">
+      <c r="J75" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.5335689045936397E-2</v>
+      </c>
+      <c r="K75" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L75" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E73" s="4">
-        <v>40885</v>
-      </c>
-      <c r="F73" s="21">
-        <v>1803.1</v>
-      </c>
-      <c r="G73" s="27">
-        <v>0</v>
-      </c>
-      <c r="H73" s="13">
-        <v>0</v>
-      </c>
-      <c r="I73" s="10">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K73" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.8267428317896313E-3</v>
-      </c>
-      <c r="L73" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.8267428317896313E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="E76" s="3">
+        <v>40886</v>
+      </c>
+      <c r="F76" s="20">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12">
+        <v>1693.16</v>
+      </c>
+      <c r="H76" s="12">
+        <v>1693.92</v>
+      </c>
+      <c r="I76" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.75999999999999091</v>
+      </c>
+      <c r="J76" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.4886484443288933E-4</v>
+      </c>
+      <c r="K76" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L76" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="4">
-        <v>40885</v>
-      </c>
-      <c r="F74" s="21">
-        <v>-1796.2</v>
-      </c>
-      <c r="G74" s="21">
-        <v>1803.1</v>
-      </c>
-      <c r="H74" s="13">
-        <v>0</v>
-      </c>
-      <c r="I74" s="10">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-6.8999999999998636</v>
-      </c>
-      <c r="J74" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.82674283178962E-3</v>
-      </c>
-      <c r="K74" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.8267428317896313E-3</v>
-      </c>
-      <c r="L74" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.8267428317896313E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E75" s="4">
+      <c r="E77" s="3">
         <v>40886</v>
       </c>
-      <c r="F75" s="21">
-        <v>0</v>
-      </c>
-      <c r="G75" s="13">
-        <v>849</v>
-      </c>
-      <c r="H75" s="13">
-        <v>879</v>
-      </c>
-      <c r="I75" s="10">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>30</v>
-      </c>
-      <c r="J75" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.5335689045936397E-2</v>
-      </c>
-      <c r="K75" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-      <c r="L75" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="4">
-        <v>40886</v>
-      </c>
-      <c r="F76" s="21">
-        <v>0</v>
-      </c>
-      <c r="G76" s="13">
-        <v>1693.16</v>
-      </c>
-      <c r="H76" s="13">
-        <v>1693.92</v>
-      </c>
-      <c r="I76" s="10">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75999999999999091</v>
-      </c>
-      <c r="J76" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4886484443288933E-4</v>
-      </c>
-      <c r="K76" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L76" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C77" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="4">
-        <v>40886</v>
-      </c>
-      <c r="F77" s="21">
-        <v>0</v>
-      </c>
-      <c r="G77" s="13">
+      <c r="F77" s="20">
+        <v>0</v>
+      </c>
+      <c r="G77" s="12">
         <v>592.57000000000005</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="12">
         <v>597.64</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>5.0699999999999363</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>8.5559511956392262E-3</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L77" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
@@ -5855,36 +6027,36 @@
       <c r="C78">
         <v>2011</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>40889</v>
       </c>
-      <c r="F78" s="21">
-        <v>0</v>
-      </c>
-      <c r="G78" s="13">
+      <c r="F78" s="20">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12">
         <v>879</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78" s="12">
         <v>860</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I78" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-19</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-2.1615472127417521E-2</v>
       </c>
-      <c r="K78" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-      <c r="L78" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
+      <c r="K78" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L78" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -5894,36 +6066,36 @@
       <c r="C79">
         <v>2011</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>40889</v>
       </c>
-      <c r="F79" s="21">
-        <v>0</v>
-      </c>
-      <c r="G79" s="13">
+      <c r="F79" s="20">
+        <v>0</v>
+      </c>
+      <c r="G79" s="12">
         <v>1693.92</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H79" s="12">
         <v>1694.66</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.74000000000000909</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.3685652214981173E-4</v>
       </c>
-      <c r="K79" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L79" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="K79" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L79" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -5933,465 +6105,465 @@
       <c r="C80">
         <v>2011</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>40889</v>
       </c>
-      <c r="F80" s="21">
-        <v>0</v>
-      </c>
-      <c r="G80" s="13">
+      <c r="F80" s="20">
+        <v>0</v>
+      </c>
+      <c r="G80" s="12">
         <v>597.64</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="12">
         <v>595.96</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I80" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-1.67999999999995</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-2.8110568235057056E-3</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L80" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C81" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D81" s="7" t="s">
+      <c r="C81" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>40890</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="20">
         <v>1182.27</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G81" s="26">
         <v>1182.27</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81" s="12">
         <v>1134</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I81" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-48.269999999999982</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-4.082823720469942E-2</v>
       </c>
-      <c r="K81" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.0378339973102557E-2</v>
-      </c>
-      <c r="L81" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.0378339973102557E-2</v>
+      <c r="K81" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
+      </c>
+      <c r="L81" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D82" s="7" t="s">
+      <c r="C82" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <v>40890</v>
       </c>
-      <c r="F82" s="21">
-        <v>0</v>
-      </c>
-      <c r="G82" s="13">
+      <c r="F82" s="20">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
         <v>860</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="12">
         <v>885</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I82" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>25</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>2.9069767441860465E-2</v>
       </c>
-      <c r="K82" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-      <c r="L82" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
+      <c r="K82" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L82" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C83" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D83" s="7" t="s">
+      <c r="C83" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <v>40890</v>
       </c>
-      <c r="F83" s="21">
-        <v>0</v>
-      </c>
-      <c r="G83" s="13">
+      <c r="F83" s="20">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
         <v>1694.66</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="12">
         <v>1695.42</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.75999999999999091</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.4846753921139984E-4</v>
       </c>
-      <c r="K83" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L83" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="K83" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L83" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D84" s="7" t="s">
+      <c r="C84" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <v>40890</v>
       </c>
-      <c r="F84" s="21">
-        <v>0</v>
-      </c>
-      <c r="G84" s="13">
+      <c r="F84" s="20">
+        <v>0</v>
+      </c>
+      <c r="G84" s="12">
         <v>595.96</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="12">
         <v>601.32000000000005</v>
       </c>
-      <c r="I84" s="10">
+      <c r="I84" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>5.3600000000000136</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>8.9938922075307286E-3</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L84" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C85" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D85" s="7" t="s">
+      <c r="C85" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <v>40891</v>
       </c>
-      <c r="F85" s="21">
-        <v>0</v>
-      </c>
-      <c r="G85" s="13">
+      <c r="F85" s="20">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12">
         <v>1134</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85" s="12">
         <v>1134</v>
       </c>
-      <c r="I85" s="10">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K85" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.0378339973102557E-2</v>
-      </c>
-      <c r="L85" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.0378339973102557E-2</v>
+      <c r="I85" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
+      </c>
+      <c r="L85" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D86" s="7" t="s">
+      <c r="C86" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <v>40891</v>
       </c>
-      <c r="F86" s="21">
-        <v>0</v>
-      </c>
-      <c r="G86" s="13">
+      <c r="F86" s="20">
+        <v>0</v>
+      </c>
+      <c r="G86" s="12">
         <v>885</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="12">
         <v>900</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I86" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>15</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>1.6949152542372881E-2</v>
       </c>
-      <c r="K86" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-      <c r="L86" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
+      <c r="K86" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L86" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D87" s="7" t="s">
+      <c r="C87" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <v>40891</v>
       </c>
-      <c r="F87" s="21">
-        <v>0</v>
-      </c>
-      <c r="G87" s="13">
+      <c r="F87" s="20">
+        <v>0</v>
+      </c>
+      <c r="G87" s="12">
         <v>1695.42</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="12">
         <v>1696.05</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I87" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.62999999999988177</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J87" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>3.7158934069427148E-4</v>
       </c>
-      <c r="K87" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L87" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="K87" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L87" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C88" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D88" s="7" t="s">
+      <c r="C88" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <v>40892</v>
       </c>
-      <c r="F88" s="21">
-        <v>0</v>
-      </c>
-      <c r="G88" s="13">
+      <c r="F88" s="20">
+        <v>0</v>
+      </c>
+      <c r="G88" s="12">
         <v>1134</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="12">
         <v>1108</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I88" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-26</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J88" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-2.292768959435626E-2</v>
       </c>
-      <c r="K88" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.0378339973102557E-2</v>
-      </c>
-      <c r="L88" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.0378339973102557E-2</v>
+      <c r="K88" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
+      </c>
+      <c r="L88" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C89" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D89" s="7" t="s">
+      <c r="C89" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <v>40892</v>
       </c>
-      <c r="F89" s="21">
-        <v>0</v>
-      </c>
-      <c r="G89" s="13">
+      <c r="F89" s="20">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12">
         <v>900</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="12">
         <v>880</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I89" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-20</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J89" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-2.2222222222222223E-2</v>
       </c>
-      <c r="K89" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-      <c r="L89" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
+      <c r="K89" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L89" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D90" s="7" t="s">
+      <c r="C90" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <v>40892</v>
       </c>
-      <c r="F90" s="21">
-        <v>0</v>
-      </c>
-      <c r="G90" s="13">
+      <c r="F90" s="20">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12">
         <v>1696.05</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90" s="12">
         <v>1696.85</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I90" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>0.79999999999995453</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J90" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.7168420742310342E-4</v>
       </c>
-      <c r="K90" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L90" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
+      <c r="K90" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L90" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C91">
         <v>2011</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>40893</v>
       </c>
-      <c r="F91" s="21">
-        <v>0</v>
-      </c>
-      <c r="G91" s="13">
+      <c r="F91" s="20">
+        <v>0</v>
+      </c>
+      <c r="G91" s="12">
         <v>1108</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91" s="12">
         <v>1160</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>52</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>4.6931407942238268E-2</v>
       </c>
-      <c r="K91" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.0378339973102557E-2</v>
-      </c>
-      <c r="L91" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.0378339973102557E-2</v>
+      <c r="K91" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
+      </c>
+      <c r="L91" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -6401,114 +6573,114 @@
       <c r="C92">
         <v>2011</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <v>40893</v>
       </c>
-      <c r="F92" s="21">
-        <v>0</v>
-      </c>
-      <c r="G92" s="13">
+      <c r="F92" s="20">
+        <v>0</v>
+      </c>
+      <c r="G92" s="12">
         <v>880</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H92" s="12">
         <v>840</v>
       </c>
-      <c r="I92" s="10">
+      <c r="I92" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-40</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J92" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-4.5454545454545456E-2</v>
       </c>
-      <c r="K92" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-      <c r="L92" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
+      <c r="K92" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L92" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>2011</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="3">
+        <v>40893</v>
+      </c>
+      <c r="F93" s="20">
+        <v>0</v>
+      </c>
+      <c r="G93" s="12">
+        <v>1696.85</v>
+      </c>
+      <c r="H93" s="12">
+        <v>1697.45</v>
+      </c>
+      <c r="I93" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.60000000000013642</v>
+      </c>
+      <c r="J93" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.535963697440177E-4</v>
+      </c>
+      <c r="K93" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L93" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C93">
-        <v>2011</v>
-      </c>
-      <c r="D93" s="7" t="s">
+      <c r="C94" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E94" s="3">
         <v>40893</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F94" s="20">
         <v>-598.13</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G94" s="12">
         <v>601.32000000000005</v>
       </c>
-      <c r="H93" s="13">
-        <v>0</v>
-      </c>
-      <c r="I93" s="10">
+      <c r="H94" s="12">
+        <v>0</v>
+      </c>
+      <c r="I94" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-3.1900000000000546</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J94" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-5.3049956761791629E-3</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K94" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
       </c>
-      <c r="L93" s="11">
+      <c r="L94" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.1258620689655681E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94" s="4">
-        <v>40893</v>
-      </c>
-      <c r="F94" s="21">
-        <v>0</v>
-      </c>
-      <c r="G94" s="13">
-        <v>1696.85</v>
-      </c>
-      <c r="H94" s="13">
-        <v>1697.45</v>
-      </c>
-      <c r="I94" s="10">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.60000000000013642</v>
-      </c>
-      <c r="J94" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.535963697440177E-4</v>
-      </c>
-      <c r="K94" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.1576915333328976E-3</v>
-      </c>
-      <c r="L94" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.596260429260532E-2</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -6518,120 +6690,315 @@
       <c r="C95">
         <v>2011</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E95" s="4">
-        <v>40894</v>
-      </c>
-      <c r="F95" s="21">
-        <v>0</v>
-      </c>
-      <c r="G95" s="13">
+      <c r="E95" s="3">
+        <v>40896</v>
+      </c>
+      <c r="F95" s="20">
+        <v>0</v>
+      </c>
+      <c r="G95" s="12">
         <v>1160</v>
       </c>
-      <c r="H95" s="13">
-        <v>1170</v>
-      </c>
-      <c r="I95" s="10">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>10</v>
-      </c>
-      <c r="J95" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>8.6206896551724137E-3</v>
-      </c>
-      <c r="K95" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.0378339973102557E-2</v>
-      </c>
-      <c r="L95" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.0378339973102557E-2</v>
+      <c r="H95" s="12">
+        <v>1178</v>
+      </c>
+      <c r="I95" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>18</v>
+      </c>
+      <c r="J95" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>1.5517241379310345E-2</v>
+      </c>
+      <c r="K95" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
+      </c>
+      <c r="L95" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="8">
-        <v>2011</v>
-      </c>
-      <c r="D96" s="7" t="s">
+      <c r="C96" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E96" s="4">
-        <v>40894</v>
-      </c>
-      <c r="F96" s="21">
-        <v>0</v>
-      </c>
-      <c r="G96" s="13">
+      <c r="E96" s="3">
+        <v>40896</v>
+      </c>
+      <c r="F96" s="20">
+        <v>0</v>
+      </c>
+      <c r="G96" s="12">
         <v>840</v>
       </c>
-      <c r="H96" s="13">
-        <v>819</v>
-      </c>
-      <c r="I96" s="10">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-21</v>
-      </c>
-      <c r="J96" s="6">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="K96" s="11">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
-      </c>
-      <c r="L96" s="11">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.8835723825561783E-2</v>
+      <c r="H96" s="12">
+        <v>810</v>
+      </c>
+      <c r="I96" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-30</v>
+      </c>
+      <c r="J96" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-3.5714285714285712E-2</v>
+      </c>
+      <c r="K96" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L96" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="3">
+        <v>40896</v>
+      </c>
+      <c r="F97" s="20">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12">
+        <v>1697.45</v>
+      </c>
+      <c r="H97" s="12">
+        <v>1698.16</v>
+      </c>
+      <c r="I97" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.71000000000003638</v>
+      </c>
+      <c r="J97" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.1827447052934482E-4</v>
+      </c>
+      <c r="K97" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.5781233345575387E-3</v>
+      </c>
+      <c r="L97" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6387555512993535E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98">
+        <v>2011</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="3">
+        <v>40897</v>
+      </c>
+      <c r="F98" s="20">
+        <v>854</v>
+      </c>
+      <c r="G98" s="26">
+        <v>0</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0</v>
+      </c>
+      <c r="I98" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.5615034168564828E-2</v>
+      </c>
+      <c r="L98" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.5615034168564828E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="3">
+        <v>40897</v>
+      </c>
+      <c r="F99" s="20">
+        <v>-837.95</v>
+      </c>
+      <c r="G99" s="26">
+        <v>878</v>
+      </c>
+      <c r="H99" s="12">
+        <v>0</v>
+      </c>
+      <c r="I99" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-40.049999999999955</v>
+      </c>
+      <c r="J99" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-4.5615034168564869E-2</v>
+      </c>
+      <c r="K99" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.5615034168564828E-2</v>
+      </c>
+      <c r="L99" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.5615034168564828E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="3">
+        <v>40897</v>
+      </c>
+      <c r="F100" s="20">
+        <v>0</v>
+      </c>
+      <c r="G100" s="26">
+        <v>1178</v>
+      </c>
+      <c r="H100" s="12">
+        <v>1244</v>
+      </c>
+      <c r="I100" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>66</v>
+      </c>
+      <c r="J100" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>5.6027164685908321E-2</v>
+      </c>
+      <c r="K100" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
+      </c>
+      <c r="L100" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.2213115447402147E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E101" s="3">
+        <v>40897</v>
+      </c>
+      <c r="F101" s="20">
+        <v>0</v>
+      </c>
+      <c r="G101" s="12">
+        <v>810</v>
+      </c>
+      <c r="H101" s="12">
+        <v>840</v>
+      </c>
+      <c r="I101" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>30</v>
+      </c>
+      <c r="J101" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="K101" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+      <c r="L101" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-2.4446896231345439E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C102" s="21">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D102" s="21">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40894</v>
-      </c>
-      <c r="E97">
+        <v>40897</v>
+      </c>
+      <c r="E102">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</f>
-        <v>41</v>
-      </c>
-      <c r="F97" s="25">
+        <v>43</v>
+      </c>
+      <c r="F102" s="24">
         <f>SUBTOTAL(109,Tabela1[Aplicação/Resgate])</f>
-        <v>3495.0799999999995</v>
-      </c>
-      <c r="G97" s="26">
+        <v>3511.13</v>
+      </c>
+      <c r="G102" s="25">
         <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Valor Bruto]]</f>
-        <v>3.9066981592361813E-2</v>
-      </c>
-      <c r="H97" s="25">
+        <v>4.9702025262463305E-2</v>
+      </c>
+      <c r="H102" s="24">
         <f>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]+Tabela1[[#Totals],[Nome]]</f>
-        <v>4898.51</v>
-      </c>
-      <c r="I97" s="10">
+        <v>4970.22</v>
+      </c>
+      <c r="I102" s="9">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>191.37000000000029</v>
-      </c>
-      <c r="J97" s="26">
+        <v>247.03000000000037</v>
+      </c>
+      <c r="J102" s="25">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>9.3514862307486624E-4</v>
-      </c>
-      <c r="K97" s="26">
+        <v>1.1286908747569768E-3</v>
+      </c>
+      <c r="K102" s="25">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.9822858956142664E-2</v>
-      </c>
-      <c r="L97" s="26">
+        <v>2.3971958560548678E-2</v>
+      </c>
+      <c r="L102" s="25">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.26560128617738066</v>
+        <v>0.32879126313260443</v>
       </c>
     </row>
   </sheetData>
@@ -6658,21 +7025,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>40849</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>40862</v>
       </c>
     </row>
@@ -6692,19 +7059,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
+      <c r="A1" s="23"/>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>40849</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>40862</v>
       </c>
     </row>

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="33">
   <si>
     <t>Nome</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Custódia</t>
   </si>
   <si>
-    <t xml:space="preserve"> R$ 1.212,06 </t>
+    <t>GFSA3</t>
   </si>
   <si>
-    <t>GFSA3</t>
+    <t xml:space="preserve"> R$ 3.369,33 </t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40897.924652662034" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="100">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40898.804252199072" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="104">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -523,7 +523,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="46">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="47">
         <d v="2011-10-19T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
         <d v="2011-10-21T00:00:00"/>
@@ -568,6 +568,7 @@
         <d v="2011-12-16T00:00:00"/>
         <d v="2011-12-19T00:00:00"/>
         <d v="2011-12-20T00:00:00"/>
+        <d v="2011-12-21T00:00:00"/>
         <d v="2011-12-03T00:00:00" u="1"/>
         <d v="2012-12-01T00:00:00" u="1"/>
       </sharedItems>
@@ -579,7 +580,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1803.1"/>
     </cacheField>
     <cacheField name="Valor Bruto" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1698.16"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1698.78"/>
     </cacheField>
     <cacheField name="Rendimento" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-48.269999999999982" maxValue="87.680000000000064"/>
@@ -588,10 +589,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5615034168564869E-2" maxValue="5.8609625668449239E-2"/>
     </cacheField>
     <cacheField name="Rent. Mês" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5615034168564828E-2" maxValue="0.17309629629629653"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.0150462962962865E-2" maxValue="0.17309629629629653"/>
     </cacheField>
     <cacheField name="Rent. Ano" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5615034168564828E-2" maxValue="0.14906800751688776"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.0150462962962865E-2" maxValue="0.14906800751688776"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -603,7 +604,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="100">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="104">
   <r>
     <m/>
     <x v="0"/>
@@ -616,7 +617,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -630,7 +631,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6684781958125708E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -644,7 +645,7 @@
     <n v="0.74000000000000909"/>
     <n v="4.4270023211850554E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -658,7 +659,7 @@
     <n v="0.74000000000000909"/>
     <n v="4.4250433534653421E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -672,7 +673,7 @@
     <n v="0.82999999999992724"/>
     <n v="4.9610290250079328E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -686,7 +687,7 @@
     <n v="0.79000000000019099"/>
     <n v="4.7196018806728782E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -700,7 +701,7 @@
     <n v="0.81999999999993634"/>
     <n v="4.8965163077874685E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -714,7 +715,7 @@
     <n v="0.65000000000009095"/>
     <n v="3.8794852818302276E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -728,7 +729,7 @@
     <n v="0.72999999999979082"/>
     <n v="4.3552707725521932E-4"/>
     <n v="3.6390189013515428E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -742,7 +743,7 @@
     <n v="0.63000000000010914"/>
     <n v="3.7570220531237501E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -770,7 +771,7 @@
     <n v="0.61999999999989086"/>
     <n v="3.6959981877679801E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -798,7 +799,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1713594460437368E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -826,7 +827,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6461481644734828E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -854,7 +855,7 @@
     <n v="0.83000000000015461"/>
     <n v="4.9416821962511965E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -882,7 +883,7 @@
     <n v="0.84999999999990905"/>
     <n v="5.0582592447120901E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -910,7 +911,7 @@
     <n v="0.82999999999992724"/>
     <n v="4.9367442469081544E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -938,7 +939,7 @@
     <n v="0.92000000000007276"/>
     <n v="5.4693537839609584E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -966,7 +967,7 @@
     <n v="0.79999999999995453"/>
     <n v="4.7533600313719063E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -994,7 +995,7 @@
     <n v="0.78999999999996362"/>
     <n v="4.6917128909263676E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1022,7 +1023,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1552644232198876E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1050,7 +1051,7 @@
     <n v="0.77999999999997272"/>
     <n v="4.6282286344943825E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1078,7 +1079,7 @@
     <n v="0.72000000000002728"/>
     <n v="4.2702346849813905E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1106,7 +1107,7 @@
     <n v="0.78999999999996362"/>
     <n v="4.683396470260217E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1134,7 +1135,7 @@
     <n v="0.76999999999998181"/>
     <n v="4.5626925811802671E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1162,7 +1163,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1460106493247662E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1204,7 +1205,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1442924212735144E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1218,7 +1219,7 @@
     <n v="0.73000000000001819"/>
     <n v="4.3201145718057383E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1246,7 +1247,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1407867494826705E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1288,7 +1289,7 @@
     <n v="-3.1600000000000819"/>
     <n v="-1.8684957426679763E-3"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1302,7 +1303,7 @@
     <n v="0.70000000000004547"/>
     <n v="4.1468211653754978E-4"/>
     <n v="7.0846701573179516E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1343,8 +1344,8 @@
     <n v="1689.49"/>
     <n v="0.75"/>
     <n v="4.4411809988512146E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1385,8 +1386,8 @@
     <n v="1690.21"/>
     <n v="0.72000000000002728"/>
     <n v="4.2616410869553964E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1427,8 +1428,8 @@
     <n v="1690.92"/>
     <n v="0.71000000000003638"/>
     <n v="4.2006614562689626E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1469,8 +1470,8 @@
     <n v="851"/>
     <n v="-10.049999999999955"/>
     <n v="-1.1671796062946351E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
   <r>
     <m/>
@@ -1483,8 +1484,8 @@
     <n v="1691.62"/>
     <n v="0.6999999999998181"/>
     <n v="4.1397582381178178E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1525,8 +1526,8 @@
     <n v="823"/>
     <n v="-28"/>
     <n v="-3.2902467685076382E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
   <r>
     <m/>
@@ -1539,8 +1540,8 @@
     <n v="1692.38"/>
     <n v="0.76000000000021828"/>
     <n v="4.4927347749507476E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1595,8 +1596,8 @@
     <n v="849"/>
     <n v="26"/>
     <n v="3.1591737545565005E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
   <r>
     <m/>
@@ -1609,8 +1610,8 @@
     <n v="1693.16"/>
     <n v="0.77999999999997272"/>
     <n v="4.6088939836205382E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1637,8 +1638,8 @@
     <n v="879"/>
     <n v="30"/>
     <n v="3.5335689045936397E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
   <r>
     <m/>
@@ -1651,8 +1652,8 @@
     <n v="1693.92"/>
     <n v="0.75999999999999091"/>
     <n v="4.4886484443288933E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1679,8 +1680,8 @@
     <n v="860"/>
     <n v="-19"/>
     <n v="-2.1615472127417521E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
   <r>
     <m/>
@@ -1693,8 +1694,8 @@
     <n v="1694.66"/>
     <n v="0.74000000000000909"/>
     <n v="4.3685652214981173E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1721,8 +1722,8 @@
     <n v="1134"/>
     <n v="-48.269999999999982"/>
     <n v="-4.082823720469942E-2"/>
-    <n v="5.2213115447402147E-2"/>
-    <n v="5.2213115447402147E-2"/>
+    <n v="7.2513046935133385E-2"/>
+    <n v="7.2513046935133385E-2"/>
   </r>
   <r>
     <m/>
@@ -1735,8 +1736,8 @@
     <n v="885"/>
     <n v="25"/>
     <n v="2.9069767441860465E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
   <r>
     <m/>
@@ -1749,8 +1750,8 @@
     <n v="1695.42"/>
     <n v="0.75999999999999091"/>
     <n v="4.4846753921139984E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1777,8 +1778,8 @@
     <n v="1134"/>
     <n v="0"/>
     <n v="0"/>
-    <n v="5.2213115447402147E-2"/>
-    <n v="5.2213115447402147E-2"/>
+    <n v="7.2513046935133385E-2"/>
+    <n v="7.2513046935133385E-2"/>
   </r>
   <r>
     <m/>
@@ -1791,8 +1792,8 @@
     <n v="900"/>
     <n v="15"/>
     <n v="1.6949152542372881E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
   <r>
     <m/>
@@ -1805,8 +1806,8 @@
     <n v="1696.05"/>
     <n v="0.62999999999988177"/>
     <n v="3.7158934069427148E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1819,8 +1820,8 @@
     <n v="1108"/>
     <n v="-26"/>
     <n v="-2.292768959435626E-2"/>
-    <n v="5.2213115447402147E-2"/>
-    <n v="5.2213115447402147E-2"/>
+    <n v="7.2513046935133385E-2"/>
+    <n v="7.2513046935133385E-2"/>
   </r>
   <r>
     <m/>
@@ -1833,8 +1834,8 @@
     <n v="880"/>
     <n v="-20"/>
     <n v="-2.2222222222222223E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
   <r>
     <m/>
@@ -1847,8 +1848,8 @@
     <n v="1696.85"/>
     <n v="0.79999999999995453"/>
     <n v="4.7168420742310342E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1861,8 +1862,8 @@
     <n v="1160"/>
     <n v="52"/>
     <n v="4.6931407942238268E-2"/>
-    <n v="5.2213115447402147E-2"/>
-    <n v="5.2213115447402147E-2"/>
+    <n v="7.2513046935133385E-2"/>
+    <n v="7.2513046935133385E-2"/>
   </r>
   <r>
     <m/>
@@ -1875,8 +1876,8 @@
     <n v="840"/>
     <n v="-40"/>
     <n v="-4.5454545454545456E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
   <r>
     <m/>
@@ -1889,8 +1890,8 @@
     <n v="1697.45"/>
     <n v="0.60000000000013642"/>
     <n v="3.535963697440177E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1917,8 +1918,8 @@
     <n v="1178"/>
     <n v="18"/>
     <n v="1.5517241379310345E-2"/>
-    <n v="5.2213115447402147E-2"/>
-    <n v="5.2213115447402147E-2"/>
+    <n v="7.2513046935133385E-2"/>
+    <n v="7.2513046935133385E-2"/>
   </r>
   <r>
     <m/>
@@ -1931,8 +1932,8 @@
     <n v="810"/>
     <n v="-30"/>
     <n v="-3.5714285714285712E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
   <r>
     <m/>
@@ -1945,8 +1946,8 @@
     <n v="1698.16"/>
     <n v="0.71000000000003638"/>
     <n v="4.1827447052934482E-4"/>
-    <n v="5.5781233345575387E-3"/>
-    <n v="1.6387555512993535E-2"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
   </r>
   <r>
     <m/>
@@ -1954,13 +1955,13 @@
     <x v="0"/>
     <x v="2"/>
     <x v="43"/>
-    <n v="837.95"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="-4.5615034168564828E-2"/>
-    <n v="-4.5615034168564828E-2"/>
+    <n v="854"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-3.0150462962962865E-2"/>
+    <n v="-3.0150462962962865E-2"/>
   </r>
   <r>
     <m/>
@@ -1973,8 +1974,8 @@
     <n v="0"/>
     <n v="-40.049999999999955"/>
     <n v="-4.5615034168564869E-2"/>
-    <n v="-4.5615034168564828E-2"/>
-    <n v="-4.5615034168564828E-2"/>
+    <n v="-3.0150462962962865E-2"/>
+    <n v="-3.0150462962962865E-2"/>
   </r>
   <r>
     <m/>
@@ -1984,11 +1985,11 @@
     <x v="43"/>
     <n v="0"/>
     <n v="1178"/>
-    <n v="1244"/>
-    <n v="66"/>
-    <n v="5.6027164685908321E-2"/>
-    <n v="5.2213115447402147E-2"/>
-    <n v="5.2213115447402147E-2"/>
+    <n v="1246"/>
+    <n v="68"/>
+    <n v="5.7724957555178265E-2"/>
+    <n v="7.2513046935133385E-2"/>
+    <n v="7.2513046935133385E-2"/>
   </r>
   <r>
     <m/>
@@ -2001,14 +2002,70 @@
     <n v="840"/>
     <n v="30"/>
     <n v="3.7037037037037035E-2"/>
-    <n v="-2.4446896231345439E-2"/>
-    <n v="-2.4446896231345439E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="43"/>
+    <n v="0"/>
+    <n v="1698.16"/>
+    <n v="1698.78"/>
+    <n v="0.61999999999989086"/>
+    <n v="3.6510105054876504E-4"/>
+    <n v="5.9452609637957732E-3"/>
+    <n v="1.6758639677276088E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="864"/>
+    <n v="878"/>
+    <n v="14"/>
+    <n v="1.6203703703703703E-2"/>
+    <n v="-3.0150462962962865E-2"/>
+    <n v="-3.0150462962962865E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="1246"/>
+    <n v="1268"/>
+    <n v="22"/>
+    <n v="1.7656500802568219E-2"/>
+    <n v="7.2513046935133385E-2"/>
+    <n v="7.2513046935133385E-2"/>
+  </r>
+  <r>
+    <m/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="840"/>
+    <n v="851"/>
+    <n v="11"/>
+    <n v="1.3095238095238096E-2"/>
+    <n v="-1.1671796062946438E-2"/>
+    <n v="-1.1671796062946438E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -2051,7 +2108,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="47">
+      <items count="48">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2084,8 +2141,8 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
-        <item m="1" x="44"/>
         <item m="1" x="45"/>
+        <item m="1" x="46"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
@@ -2098,6 +2155,7 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
+        <item x="44"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2209,14 +2267,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L102" totalsRowCount="1" headerRowDxfId="19">
-  <autoFilter ref="A1:L101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L105" totalsRowCount="1" headerRowDxfId="19">
+  <autoFilter ref="A1:L104"/>
   <sortState ref="A2:L100">
     <sortCondition ref="E1:E100"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="12" name="ID"/>
-    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 1.212,06 " totalsRowDxfId="9"/>
+    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 3.369,33 " totalsRowDxfId="9"/>
     <tableColumn id="11" name="Ano" totalsRowFunction="custom" totalsRowDxfId="8">
       <totalsRowFormula>SUBTOTAL(105,Tabela1[Data])</totalsRowFormula>
     </tableColumn>
@@ -2543,7 +2601,7 @@
   <dimension ref="A3:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,16 +2668,16 @@
         <v>1670.78</v>
       </c>
       <c r="D4" s="9">
-        <v>27.380000000000109</v>
+        <v>28</v>
       </c>
       <c r="E4" s="10">
-        <v>5.9080196922113694E-3</v>
+        <v>6.0173385661132202E-3</v>
       </c>
       <c r="F4" s="10">
-        <v>3.7815152509112782E-4</v>
+        <v>3.7785492339698323E-4</v>
       </c>
       <c r="G4" s="10">
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2633,16 +2691,16 @@
         <v>1670.78</v>
       </c>
       <c r="D5" s="9">
-        <v>27.380000000000109</v>
+        <v>28</v>
       </c>
       <c r="E5" s="10">
-        <v>5.9080196922113694E-3</v>
+        <v>6.0173385661132202E-3</v>
       </c>
       <c r="F5" s="10">
-        <v>3.7815152509112782E-4</v>
+        <v>3.7785492339698323E-4</v>
       </c>
       <c r="G5" s="10">
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,16 +2852,16 @@
         <v>810</v>
       </c>
       <c r="D12" s="9">
-        <v>-21.049999999999955</v>
+        <v>-10.049999999999955</v>
       </c>
       <c r="E12" s="10">
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="F12" s="10">
-        <v>-1.7815823321565333E-3</v>
+        <v>-5.4184729654031425E-4</v>
       </c>
       <c r="G12" s="10">
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2817,16 +2875,16 @@
         <v>810</v>
       </c>
       <c r="D13" s="9">
-        <v>-21.049999999999955</v>
+        <v>-10.049999999999955</v>
       </c>
       <c r="E13" s="10">
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="F13" s="10">
-        <v>-1.7815823321565333E-3</v>
+        <v>-5.4184729654031425E-4</v>
       </c>
       <c r="G13" s="10">
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2840,16 +2898,16 @@
         <v>1108</v>
       </c>
       <c r="D14" s="9">
-        <v>61.730000000000018</v>
+        <v>85.730000000000018</v>
       </c>
       <c r="E14" s="10">
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
       <c r="F14" s="10">
-        <v>9.11998120140021E-3</v>
+        <v>1.0582025840034204E-2</v>
       </c>
       <c r="G14" s="10">
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2863,16 +2921,16 @@
         <v>1108</v>
       </c>
       <c r="D15" s="9">
-        <v>61.730000000000018</v>
+        <v>85.730000000000018</v>
       </c>
       <c r="E15" s="10">
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
       <c r="F15" s="10">
-        <v>9.11998120140021E-3</v>
+        <v>1.0582025840034204E-2</v>
       </c>
       <c r="G15" s="10">
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2923,25 +2981,25 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="9">
-        <v>0</v>
+        <v>16.049999999999955</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
       </c>
       <c r="D18" s="9">
-        <v>-40.049999999999955</v>
+        <v>-26.049999999999955</v>
       </c>
       <c r="E18" s="10">
-        <v>-4.5615034168564828E-2</v>
+        <v>-3.0150462962962865E-2</v>
       </c>
       <c r="F18" s="10">
-        <v>-2.2807517084282435E-2</v>
+        <v>-9.8037768216203882E-3</v>
       </c>
       <c r="G18" s="10">
-        <v>-4.5615034168564828E-2</v>
+        <v>-3.0150462962962865E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2949,22 +3007,22 @@
         <v>2011</v>
       </c>
       <c r="B19" s="9">
-        <v>0</v>
+        <v>16.049999999999955</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
       </c>
       <c r="D19" s="9">
-        <v>-40.049999999999955</v>
+        <v>-26.049999999999955</v>
       </c>
       <c r="E19" s="10">
-        <v>-4.5615034168564828E-2</v>
+        <v>-3.0150462962962865E-2</v>
       </c>
       <c r="F19" s="10">
-        <v>-2.2807517084282435E-2</v>
+        <v>-9.8037768216203882E-3</v>
       </c>
       <c r="G19" s="10">
-        <v>-4.5615034168564828E-2</v>
+        <v>-3.0150462962962865E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2972,22 +3030,22 @@
         <v>6</v>
       </c>
       <c r="B20" s="9">
-        <v>3495.08</v>
+        <v>3511.13</v>
       </c>
       <c r="C20" s="9">
         <v>0</v>
       </c>
       <c r="D20" s="9">
-        <v>247.03000000000037</v>
+        <v>296.65000000000026</v>
       </c>
       <c r="E20" s="10">
-        <v>1.4608978028612368E-2</v>
+        <v>1.7265014174080121E-2</v>
       </c>
       <c r="F20" s="10">
-        <v>1.8211898325272641E-3</v>
+        <v>2.222474228596684E-3</v>
       </c>
       <c r="G20" s="10">
-        <v>1.9921858206121027E-2</v>
+        <v>2.2585064427430104E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2998,10 +3056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,7 +3150,7 @@
       </c>
       <c r="L2" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3131,7 +3189,7 @@
       </c>
       <c r="L3" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3170,7 +3228,7 @@
       </c>
       <c r="L4" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3209,7 +3267,7 @@
       </c>
       <c r="L5" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3248,7 +3306,7 @@
       </c>
       <c r="L6" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3287,7 +3345,7 @@
       </c>
       <c r="L7" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3326,7 +3384,7 @@
       </c>
       <c r="L8" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3365,7 +3423,7 @@
       </c>
       <c r="L9" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3404,7 +3462,7 @@
       </c>
       <c r="L10" s="5">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3443,7 +3501,7 @@
       </c>
       <c r="L11" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3521,7 +3579,7 @@
       </c>
       <c r="L13" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3599,7 +3657,7 @@
       </c>
       <c r="L15" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3677,7 +3735,7 @@
       </c>
       <c r="L17" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -3755,7 +3813,7 @@
       </c>
       <c r="L19" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3833,7 +3891,7 @@
       </c>
       <c r="L21" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -3911,7 +3969,7 @@
       </c>
       <c r="L23" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -3989,7 +4047,7 @@
       </c>
       <c r="L25" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -4067,7 +4125,7 @@
       </c>
       <c r="L27" s="15">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -4145,7 +4203,7 @@
       </c>
       <c r="L29" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -4223,7 +4281,7 @@
       </c>
       <c r="L31" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -4301,7 +4359,7 @@
       </c>
       <c r="L33" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -4379,7 +4437,7 @@
       </c>
       <c r="L35" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -4457,7 +4515,7 @@
       </c>
       <c r="L37" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -4535,7 +4593,7 @@
       </c>
       <c r="L39" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -4613,7 +4671,7 @@
       </c>
       <c r="L41" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -4730,7 +4788,7 @@
       </c>
       <c r="L44" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -4769,7 +4827,7 @@
       </c>
       <c r="L45" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -4847,7 +4905,7 @@
       </c>
       <c r="L47" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -4964,7 +5022,7 @@
       </c>
       <c r="L50" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -5003,7 +5061,7 @@
       </c>
       <c r="L51" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -5116,11 +5174,11 @@
       </c>
       <c r="K54" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L54" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -5233,11 +5291,11 @@
       </c>
       <c r="K57" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L57" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -5350,11 +5408,11 @@
       </c>
       <c r="K60" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L60" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -5467,11 +5525,11 @@
       </c>
       <c r="K63" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L63" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -5506,11 +5564,11 @@
       </c>
       <c r="K64" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L64" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -5623,11 +5681,11 @@
       </c>
       <c r="K67" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L67" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -5662,11 +5720,11 @@
       </c>
       <c r="K68" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L68" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -5818,11 +5876,11 @@
       </c>
       <c r="K72" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L72" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -5857,11 +5915,11 @@
       </c>
       <c r="K73" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L73" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
@@ -5935,11 +5993,11 @@
       </c>
       <c r="K75" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L75" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
@@ -5974,11 +6032,11 @@
       </c>
       <c r="K76" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L76" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -6052,11 +6110,11 @@
       </c>
       <c r="K78" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L78" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -6091,11 +6149,11 @@
       </c>
       <c r="K79" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L79" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -6169,11 +6227,11 @@
       </c>
       <c r="K81" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
       <c r="L81" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
@@ -6208,11 +6266,11 @@
       </c>
       <c r="K82" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L82" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
@@ -6247,11 +6305,11 @@
       </c>
       <c r="K83" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L83" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
@@ -6325,11 +6383,11 @@
       </c>
       <c r="K85" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
       <c r="L85" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
@@ -6364,11 +6422,11 @@
       </c>
       <c r="K86" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L86" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
@@ -6403,11 +6461,11 @@
       </c>
       <c r="K87" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L87" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
@@ -6442,11 +6500,11 @@
       </c>
       <c r="K88" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
       <c r="L88" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
@@ -6481,11 +6539,11 @@
       </c>
       <c r="K89" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L89" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
@@ -6520,11 +6578,11 @@
       </c>
       <c r="K90" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L90" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
@@ -6559,11 +6617,11 @@
       </c>
       <c r="K91" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
       <c r="L91" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -6598,11 +6656,11 @@
       </c>
       <c r="K92" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L92" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
@@ -6637,11 +6695,11 @@
       </c>
       <c r="K93" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L93" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -6715,11 +6773,11 @@
       </c>
       <c r="K95" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
       <c r="L95" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
@@ -6754,11 +6812,11 @@
       </c>
       <c r="K96" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L96" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
@@ -6793,18 +6851,18 @@
       </c>
       <c r="K97" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.5781233345575387E-3</v>
+        <v>5.9452609637957732E-3</v>
       </c>
       <c r="L97" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6387555512993535E-2</v>
+        <v>1.6758639677276088E-2</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>32</v>
-      </c>
-      <c r="C98">
+      <c r="B98" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="7">
         <v>2011</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -6814,34 +6872,34 @@
         <v>40897</v>
       </c>
       <c r="F98" s="20">
-        <v>854</v>
+        <v>-837.95</v>
       </c>
       <c r="G98" s="26">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="H98" s="12">
         <v>0</v>
       </c>
       <c r="I98" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
+        <v>-40.049999999999955</v>
       </c>
       <c r="J98" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>-4.5615034168564869E-2</v>
       </c>
       <c r="K98" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.5615034168564828E-2</v>
+        <v>-3.0150462962962865E-2</v>
       </c>
       <c r="L98" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.5615034168564828E-2</v>
+        <v>-3.0150462962962865E-2</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C99" s="7">
         <v>2011</v>
@@ -6853,34 +6911,34 @@
         <v>40897</v>
       </c>
       <c r="F99" s="20">
-        <v>-837.95</v>
+        <v>0</v>
       </c>
       <c r="G99" s="26">
-        <v>878</v>
+        <v>1178</v>
       </c>
       <c r="H99" s="12">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="I99" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-40.049999999999955</v>
+        <v>68</v>
       </c>
       <c r="J99" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-4.5615034168564869E-2</v>
+        <v>5.7724957555178265E-2</v>
       </c>
       <c r="K99" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.5615034168564828E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
       <c r="L99" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-4.5615034168564828E-2</v>
+        <v>7.2513046935133385E-2</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
-        <v>29</v>
+      <c r="B100" t="s">
+        <v>27</v>
       </c>
       <c r="C100" s="7">
         <v>2011</v>
@@ -6894,32 +6952,32 @@
       <c r="F100" s="20">
         <v>0</v>
       </c>
-      <c r="G100" s="26">
-        <v>1178</v>
+      <c r="G100" s="12">
+        <v>810</v>
       </c>
       <c r="H100" s="12">
-        <v>1244</v>
+        <v>840</v>
       </c>
       <c r="I100" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="J100" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.6027164685908321E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="K100" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
       <c r="L100" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2213115447402147E-2</v>
+        <v>-1.1671796062946438E-2</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>27</v>
+      <c r="B101" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="C101" s="7">
         <v>2011</v>
@@ -6934,71 +6992,188 @@
         <v>0</v>
       </c>
       <c r="G101" s="12">
-        <v>810</v>
+        <v>1698.16</v>
       </c>
       <c r="H101" s="12">
+        <v>1698.78</v>
+      </c>
+      <c r="I101" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.61999999999989086</v>
+      </c>
+      <c r="J101" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.6510105054876504E-4</v>
+      </c>
+      <c r="K101" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.9452609637957732E-3</v>
+      </c>
+      <c r="L101" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.6758639677276088E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="3">
+        <v>40898</v>
+      </c>
+      <c r="F102" s="20">
+        <v>0</v>
+      </c>
+      <c r="G102" s="26">
+        <v>864</v>
+      </c>
+      <c r="H102" s="12">
+        <v>878</v>
+      </c>
+      <c r="I102" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>14</v>
+      </c>
+      <c r="J102" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>1.6203703703703703E-2</v>
+      </c>
+      <c r="K102" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-3.0150462962962865E-2</v>
+      </c>
+      <c r="L102" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-3.0150462962962865E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="3">
+        <v>40898</v>
+      </c>
+      <c r="F103" s="20">
+        <v>0</v>
+      </c>
+      <c r="G103" s="26">
+        <v>1246</v>
+      </c>
+      <c r="H103" s="12">
+        <v>1268</v>
+      </c>
+      <c r="I103" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>22</v>
+      </c>
+      <c r="J103" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>1.7656500802568219E-2</v>
+      </c>
+      <c r="K103" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>7.2513046935133385E-2</v>
+      </c>
+      <c r="L103" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>7.2513046935133385E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="3">
+        <v>40898</v>
+      </c>
+      <c r="F104" s="20">
+        <v>0</v>
+      </c>
+      <c r="G104" s="26">
         <v>840</v>
       </c>
-      <c r="I101" s="9">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>30</v>
-      </c>
-      <c r="J101" s="5">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="K101" s="10">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
-      </c>
-      <c r="L101" s="10">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.4446896231345439E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" s="21">
+      <c r="H104" s="12">
+        <v>851</v>
+      </c>
+      <c r="I104" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>11</v>
+      </c>
+      <c r="J104" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>1.3095238095238096E-2</v>
+      </c>
+      <c r="K104" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.1671796062946438E-2</v>
+      </c>
+      <c r="L104" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-1.1671796062946438E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="21">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="D102" s="21">
+      <c r="D105" s="21">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40897</v>
-      </c>
-      <c r="E102">
+        <v>40898</v>
+      </c>
+      <c r="E105">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</f>
-        <v>43</v>
-      </c>
-      <c r="F102" s="24">
+        <v>44</v>
+      </c>
+      <c r="F105" s="24">
         <f>SUBTOTAL(109,Tabela1[Aplicação/Resgate])</f>
-        <v>3511.13</v>
-      </c>
-      <c r="G102" s="25">
+        <v>2657.1299999999992</v>
+      </c>
+      <c r="G105" s="25">
         <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Valor Bruto]]</f>
-        <v>4.9702025262463305E-2</v>
-      </c>
-      <c r="H102" s="24">
+        <v>4.691520470148397E-2</v>
+      </c>
+      <c r="H105" s="24">
         <f>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]+Tabela1[[#Totals],[Nome]]</f>
-        <v>4970.22</v>
-      </c>
-      <c r="I102" s="9">
+        <v>6323.1099999999988</v>
+      </c>
+      <c r="I105" s="9">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>247.03000000000037</v>
-      </c>
-      <c r="J102" s="25">
+        <v>296.65000000000026</v>
+      </c>
+      <c r="J105" s="25">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.1286908747569768E-3</v>
-      </c>
-      <c r="K102" s="25">
+        <v>1.0425417006567628E-3</v>
+      </c>
+      <c r="K105" s="25">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.3971958560548678E-2</v>
-      </c>
-      <c r="L102" s="25">
+        <v>2.2123137445595242E-2</v>
+      </c>
+      <c r="L105" s="25">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.32879126313260443</v>
+        <v>0.30028523915121297</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan4" sheetId="4" r:id="rId1"/>
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId5"/>
+    <pivotCache cacheId="21" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="37">
   <si>
     <t>Nome</t>
   </si>
@@ -231,7 +231,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -262,7 +262,8 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -489,30 +490,30 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40903.840040509262" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="118">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40905.803482407406" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="128">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="ID" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
+        <s v="Fundos"/>
+        <s v="Ações"/>
         <s v="Taxas"/>
-        <s v="Ações"/>
-        <s v="Fundos"/>
         <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Nome" numFmtId="0">
       <sharedItems containsBlank="1" count="11">
+        <s v="XP INV FIRF CRED PRI"/>
+        <s v="XP Referenciado FIRD"/>
+        <s v="GOLL4"/>
+        <s v="XP MULT-INV FIC FIA"/>
+        <s v="MRFG3"/>
         <s v="Custódia"/>
+        <s v="JBSS3"/>
         <s v="GFSA3"/>
-        <s v="GOLL4"/>
-        <s v="JBSS3"/>
         <s v="KLBN4"/>
-        <s v="MRFG3"/>
-        <s v="XP INV FIRF CRED PRI"/>
-        <s v="XP MULT-INV FIC FIA"/>
-        <s v="XP Referenciado FIRD"/>
         <m u="1"/>
         <s v="CRED" u="1"/>
       </sharedItems>
@@ -524,9 +525,9 @@
     </cacheField>
     <cacheField name="Mês" numFmtId="49">
       <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2011-10-01T00:00:00" maxDate="2011-11-08T00:00:00" count="14">
+        <s v="Outubro"/>
+        <s v="Novembro"/>
         <s v="Dezembro"/>
-        <s v="Novembro"/>
-        <s v="Outubro"/>
         <m u="1"/>
         <d v="2011-11-02T00:00:00" u="1"/>
         <d v="2011-11-07T00:00:00" u="1"/>
@@ -541,26 +542,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="50">
-        <d v="2011-12-08T00:00:00"/>
-        <d v="2011-12-20T00:00:00"/>
-        <d v="2011-12-21T00:00:00"/>
-        <d v="2011-12-22T00:00:00"/>
-        <d v="2011-12-23T00:00:00"/>
-        <d v="2011-12-24T00:00:00"/>
-        <d v="2011-11-30T00:00:00"/>
-        <d v="2011-12-01T00:00:00"/>
-        <d v="2011-12-02T00:00:00"/>
-        <d v="2011-12-05T00:00:00"/>
-        <d v="2011-12-06T00:00:00"/>
-        <d v="2011-12-07T00:00:00"/>
-        <d v="2011-12-13T00:00:00"/>
-        <d v="2011-12-14T00:00:00"/>
-        <d v="2011-12-15T00:00:00"/>
-        <d v="2011-12-16T00:00:00"/>
-        <d v="2011-12-19T00:00:00"/>
-        <d v="2011-12-09T00:00:00"/>
-        <d v="2011-12-12T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="53">
         <d v="2011-10-19T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
         <d v="2011-10-21T00:00:00"/>
@@ -586,10 +568,32 @@
         <d v="2011-11-22T00:00:00"/>
         <d v="2011-11-23T00:00:00"/>
         <d v="2011-11-24T00:00:00"/>
+        <d v="2011-11-25T00:00:00"/>
         <d v="2011-11-26T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
         <d v="2011-11-29T00:00:00"/>
-        <d v="2011-11-25T00:00:00"/>
+        <d v="2011-11-30T00:00:00"/>
+        <d v="2011-12-01T00:00:00"/>
+        <d v="2011-12-02T00:00:00"/>
+        <d v="2011-12-05T00:00:00"/>
+        <d v="2011-12-06T00:00:00"/>
+        <d v="2011-12-07T00:00:00"/>
+        <d v="2011-12-08T00:00:00"/>
+        <d v="2011-12-09T00:00:00"/>
+        <d v="2011-12-12T00:00:00"/>
+        <d v="2011-12-13T00:00:00"/>
+        <d v="2011-12-14T00:00:00"/>
+        <d v="2011-12-15T00:00:00"/>
+        <d v="2011-12-16T00:00:00"/>
+        <d v="2011-12-19T00:00:00"/>
+        <d v="2011-12-20T00:00:00"/>
+        <d v="2011-12-21T00:00:00"/>
+        <d v="2011-12-22T00:00:00"/>
+        <d v="2011-12-23T00:00:00"/>
+        <d v="2011-12-26T00:00:00"/>
+        <d v="2011-12-27T00:00:00"/>
+        <d v="2011-12-28T00:00:00"/>
+        <d v="2011-12-24T00:00:00" u="1"/>
         <d v="2011-12-03T00:00:00" u="1"/>
         <d v="2012-12-01T00:00:00" u="1"/>
       </sharedItems>
@@ -604,16 +608,16 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2361"/>
     </cacheField>
     <cacheField name="Rendimento" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-48.269999999999982" maxValue="87.680000000000064"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-58" maxValue="87.680000000000064"/>
     </cacheField>
     <cacheField name="Rent. Dia" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-4.5615034168564869E-2" maxValue="5.8609625668449239E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.3453237410071948E-2" maxValue="5.8609625668449239E-2"/>
     </cacheField>
     <cacheField name="Rent. Mês" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.7900232018561066E-2" maxValue="0.18655980974317288"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.2576505429417368E-2" maxValue="0.17309629629629653"/>
     </cacheField>
     <cacheField name="Rent. Ano" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2.7900232018561066E-2" maxValue="0.18655980974317288"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-3.2576505429417368E-2" maxValue="0.14906800751688776"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -625,111 +629,671 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="118">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1803.1"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="-3.8267428317896313E-3"/>
-    <n v="-3.8267428317896313E-3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-1796.2"/>
-    <n v="1803.1"/>
-    <n v="0"/>
-    <n v="-6.8999999999998636"/>
-    <n v="-3.82674283178962E-3"/>
-    <n v="-3.8267428317896313E-3"/>
-    <n v="-3.8267428317896313E-3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="-837.95"/>
-    <n v="878"/>
-    <n v="0"/>
-    <n v="-40.049999999999955"/>
-    <n v="-4.5615034168564869E-2"/>
-    <n v="-2.7900232018561066E-2"/>
-    <n v="-2.7900232018561066E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="128">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1670.78"/>
+    <n v="1670.78"/>
+    <n v="1670.78"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1670.78"/>
+    <n v="1671.56"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6684781958125708E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="862"/>
-    <n v="878"/>
-    <n v="16"/>
-    <n v="1.8561484918793503E-2"/>
-    <n v="-2.7900232018561066E-2"/>
-    <n v="-2.7900232018561066E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="1671.56"/>
+    <n v="1672.3"/>
+    <n v="0.74000000000000909"/>
+    <n v="4.4270023211850554E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
     <n v="0"/>
-    <n v="858"/>
-    <n v="862"/>
-    <n v="4"/>
-    <n v="4.662004662004662E-3"/>
-    <n v="-2.7900232018561066E-2"/>
-    <n v="-2.7900232018561066E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="1672.3"/>
+    <n v="1673.04"/>
+    <n v="0.74000000000000909"/>
+    <n v="4.4250433534653421E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="850"/>
-    <n v="858"/>
-    <n v="8"/>
-    <n v="9.4117647058823521E-3"/>
-    <n v="-2.7900232018561066E-2"/>
-    <n v="-2.7900232018561066E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
+    <n v="1673.04"/>
+    <n v="1673.87"/>
+    <n v="0.82999999999992724"/>
+    <n v="4.9610290250079328E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
     <n v="0"/>
-    <n v="862"/>
-    <n v="850"/>
-    <n v="-12"/>
-    <n v="-1.3921113689095127E-2"/>
-    <n v="-2.7900232018561066E-2"/>
-    <n v="-2.7900232018561066E-2"/>
+    <n v="1673.87"/>
+    <n v="1674.66"/>
+    <n v="0.79000000000019099"/>
+    <n v="4.7196018806728782E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="0"/>
+    <n v="1674.66"/>
+    <n v="1675.48"/>
+    <n v="0.81999999999993634"/>
+    <n v="4.8965163077874685E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="0"/>
+    <n v="1675.48"/>
+    <n v="1676.13"/>
+    <n v="0.65000000000009095"/>
+    <n v="3.8794852818302276E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="1676.13"/>
+    <n v="1676.86"/>
+    <n v="0.72999999999979082"/>
+    <n v="4.3552707725521932E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="1676.86"/>
+    <n v="1677.49"/>
+    <n v="0.63000000000010914"/>
+    <n v="3.7570220531237501E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="428.37"/>
+    <n v="428.37"/>
+    <n v="428.37"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="1677.49"/>
+    <n v="1678.11"/>
+    <n v="0.61999999999989086"/>
+    <n v="3.6959981877679801E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="428.37"/>
+    <n v="428.55"/>
+    <n v="0.18000000000000682"/>
+    <n v="4.2019749282164209E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="1678.11"/>
+    <n v="1678.81"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1713594460437368E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="428.55"/>
+    <n v="428.72"/>
+    <n v="0.17000000000001592"/>
+    <n v="3.9668650099175339E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="1678.81"/>
+    <n v="1679.59"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6461481644734828E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="428.72"/>
+    <n v="428.9"/>
+    <n v="0.17999999999994998"/>
+    <n v="4.1985445045705815E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="1679.59"/>
+    <n v="1680.42"/>
+    <n v="0.83000000000015461"/>
+    <n v="4.9416821962511965E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="428.9"/>
+    <n v="429.08"/>
+    <n v="0.18000000000000682"/>
+    <n v="4.1967824667756313E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="1680.42"/>
+    <n v="1681.27"/>
+    <n v="0.84999999999990905"/>
+    <n v="5.0582592447120901E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="429.08"/>
+    <n v="429.28"/>
+    <n v="0.19999999999998863"/>
+    <n v="4.6611354525959874E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="1681.27"/>
+    <n v="1682.1"/>
+    <n v="0.82999999999992724"/>
+    <n v="4.9367442469081544E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="429.28"/>
+    <n v="429.48"/>
+    <n v="0.20000000000004547"/>
+    <n v="4.6589638464416113E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="1682.1"/>
+    <n v="1683.02"/>
+    <n v="0.92000000000007276"/>
+    <n v="5.4693537839609584E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="429.48"/>
+    <n v="429.69"/>
+    <n v="0.20999999999997954"/>
+    <n v="4.8896339759704646E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="1683.02"/>
+    <n v="1683.82"/>
+    <n v="0.79999999999995453"/>
+    <n v="4.7533600313719063E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="429.69"/>
+    <n v="429.89"/>
+    <n v="0.19999999999998863"/>
+    <n v="4.6545183737110158E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="1683.82"/>
+    <n v="1684.61"/>
+    <n v="0.78999999999996362"/>
+    <n v="4.6917128909263676E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="429.89"/>
+    <n v="430.1"/>
+    <n v="0.21000000000003638"/>
+    <n v="4.8849705738685802E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="1684.61"/>
+    <n v="1685.31"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1552644232198876E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="430.1"/>
+    <n v="430.27"/>
+    <n v="0.16999999999995907"/>
+    <n v="3.9525691699595223E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="1685.31"/>
+    <n v="1686.09"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6282286344943825E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="430.27"/>
+    <n v="430.44"/>
+    <n v="0.17000000000001592"/>
+    <n v="3.9510075069146332E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="1686.09"/>
+    <n v="1686.81"/>
+    <n v="0.72000000000002728"/>
+    <n v="4.2702346849813905E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="430.44"/>
+    <n v="430.6"/>
+    <n v="0.16000000000002501"/>
+    <n v="3.717126661091558E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="1686.81"/>
+    <n v="1687.6"/>
+    <n v="0.78999999999996362"/>
+    <n v="4.683396470260217E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="430.6"/>
+    <n v="430.78"/>
+    <n v="0.17999999999994998"/>
+    <n v="4.1802136553634455E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="23"/>
+    <n v="0"/>
+    <n v="1687.6"/>
+    <n v="1688.37"/>
+    <n v="0.76999999999998181"/>
+    <n v="4.5626925811802671E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="23"/>
+    <n v="0"/>
+    <n v="430.78"/>
+    <n v="430.95"/>
+    <n v="0.17000000000001592"/>
+    <n v="3.9463299131811116E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="0"/>
+    <n v="1688.37"/>
+    <n v="1689.07"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1460106493247662E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="0"/>
+    <n v="430.95"/>
+    <n v="431.11"/>
+    <n v="0.16000000000002501"/>
+    <n v="3.7127276946287278E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="431.11"/>
+    <n v="431.23"/>
+    <n v="0.12000000000000455"/>
+    <n v="2.7835123286401277E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="1689.07"/>
+    <n v="1689.77"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1442924212735144E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="1689.77"/>
+    <n v="1690.5"/>
+    <n v="0.73000000000001819"/>
+    <n v="4.3201145718057383E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="431.23"/>
+    <n v="431.4"/>
+    <n v="0.16999999999995907"/>
+    <n v="3.9422118127208002E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="1690.5"/>
+    <n v="1691.2"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1407867494826705E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="28"/>
+    <n v="-430.71"/>
+    <n v="431.4"/>
+    <n v="431.57"/>
+    <n v="-0.68999999999999773"/>
+    <n v="-1.5994436717663369E-3"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.4625674066808294E-3"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="29"/>
     <n v="1378.23"/>
     <n v="1378.23"/>
     <n v="1350"/>
@@ -739,11 +1303,53 @@
     <n v="0.14906800751688776"/>
   </r>
   <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="1691.2"/>
+    <n v="1688.04"/>
+    <n v="-3.1600000000000819"/>
+    <n v="-1.8684957426679763E-3"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="1688.04"/>
+    <n v="1688.74"/>
+    <n v="0.70000000000004547"/>
+    <n v="4.1468211653754978E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="29"/>
+    <n v="580"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="2"/>
+    <x v="30"/>
     <n v="0"/>
     <n v="1350"/>
     <n v="1425"/>
@@ -753,11 +1359,39 @@
     <n v="0.14906800751688776"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="1688.74"/>
+    <n v="1689.49"/>
+    <n v="0.75"/>
+    <n v="4.4411809988512146E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="580"/>
+    <n v="590.01"/>
+    <n v="10.009999999999991"/>
+    <n v="1.7258620689655158E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="31"/>
     <n v="0"/>
     <n v="1425"/>
     <n v="1408"/>
@@ -767,11 +1401,39 @@
     <n v="0.14906800751688776"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <x v="31"/>
+    <n v="0"/>
+    <n v="1689.49"/>
+    <n v="1690.21"/>
+    <n v="0.72000000000002728"/>
+    <n v="4.2616410869553964E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="31"/>
+    <n v="0"/>
+    <n v="590.01"/>
+    <n v="587.96"/>
+    <n v="-2.0499999999999545"/>
+    <n v="-3.474517381061261E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="32"/>
     <n v="0"/>
     <n v="1408"/>
     <n v="1468"/>
@@ -781,11 +1443,39 @@
     <n v="0.14906800751688776"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
+    <x v="32"/>
+    <n v="0"/>
+    <n v="1690.21"/>
+    <n v="1690.92"/>
+    <n v="0.71000000000003638"/>
+    <n v="4.2006614562689626E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="32"/>
+    <n v="0"/>
+    <n v="587.96"/>
+    <n v="596.89"/>
+    <n v="8.92999999999995"/>
+    <n v="1.5188108034560088E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="3.1258620689655681E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="33"/>
     <n v="0"/>
     <n v="1468"/>
     <n v="1496"/>
@@ -796,1130 +1486,38 @@
   </r>
   <r>
     <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="11"/>
-    <n v="-1583.68"/>
-    <n v="1496"/>
-    <n v="0"/>
-    <n v="87.680000000000064"/>
-    <n v="5.8609625668449239E-2"/>
-    <n v="0.17309629629629653"/>
-    <n v="0.14906800751688776"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="12"/>
-    <n v="1182.27"/>
-    <n v="1182.27"/>
-    <n v="1134"/>
-    <n v="-48.269999999999982"/>
-    <n v="-4.082823720469942E-2"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
-    <n v="0"/>
-    <n v="1134"/>
-    <n v="1134"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="1134"/>
-    <n v="1108"/>
-    <n v="-26"/>
-    <n v="-2.292768959435626E-2"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="1108"/>
-    <n v="1160"/>
-    <n v="52"/>
-    <n v="4.6931407942238268E-2"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="1160"/>
-    <n v="1178"/>
-    <n v="18"/>
-    <n v="1.5517241379310345E-2"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="1178"/>
-    <n v="1246"/>
-    <n v="68"/>
-    <n v="5.7724957555178265E-2"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="1246"/>
-    <n v="1262"/>
-    <n v="16"/>
-    <n v="1.2841091492776886E-2"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="1262"/>
-    <n v="1298"/>
-    <n v="36"/>
-    <n v="2.8526148969889066E-2"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="1298"/>
-    <n v="1328"/>
-    <n v="30"/>
-    <n v="2.3112480739599383E-2"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="664"/>
-    <n v="691"/>
-    <n v="27"/>
-    <n v="4.0662650602409638E-2"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="-674.01"/>
-    <n v="664"/>
-    <n v="0"/>
-    <n v="10.009999999999991"/>
-    <n v="1.5075301204819263E-2"/>
-    <n v="0.18655980974317288"/>
-    <n v="0.18655980974317288"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="2374.5700000000002"/>
-    <n v="2374.5700000000002"/>
-    <n v="2361"/>
-    <n v="-13.570000000000164"/>
-    <n v="-5.7147188754175125E-3"/>
-    <n v="-1.7085198583322581E-2"/>
-    <n v="-1.7085198583322581E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="2361"/>
-    <n v="2334"/>
-    <n v="-27"/>
-    <n v="-1.1435832274459974E-2"/>
-    <n v="-1.7085198583322581E-2"/>
-    <n v="-1.7085198583322581E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
+    <x v="33"/>
     <n v="861.05"/>
     <n v="861.05"/>
     <n v="851"/>
     <n v="-10.049999999999955"/>
     <n v="-1.1671796062946351E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="851"/>
-    <n v="823"/>
-    <n v="-28"/>
-    <n v="-3.2902467685076382E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="823"/>
-    <n v="849"/>
-    <n v="26"/>
-    <n v="3.1591737545565005E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="17"/>
-    <n v="0"/>
-    <n v="849"/>
-    <n v="879"/>
-    <n v="30"/>
-    <n v="3.5335689045936397E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="18"/>
-    <n v="0"/>
-    <n v="879"/>
-    <n v="860"/>
-    <n v="-19"/>
-    <n v="-2.1615472127417521E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="860"/>
-    <n v="885"/>
-    <n v="25"/>
-    <n v="2.9069767441860465E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
-    <n v="0"/>
-    <n v="885"/>
-    <n v="900"/>
-    <n v="15"/>
-    <n v="1.6949152542372881E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="900"/>
-    <n v="880"/>
-    <n v="-20"/>
-    <n v="-2.2222222222222223E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="880"/>
-    <n v="840"/>
-    <n v="-40"/>
-    <n v="-4.5454545454545456E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="840"/>
-    <n v="810"/>
-    <n v="-30"/>
-    <n v="-3.5714285714285712E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="810"/>
-    <n v="840"/>
-    <n v="30"/>
-    <n v="3.7037037037037035E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="0"/>
-    <n v="840"/>
-    <n v="850"/>
-    <n v="10"/>
-    <n v="1.1904761904761904E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="850"/>
-    <n v="874"/>
-    <n v="24"/>
-    <n v="2.823529411764706E-2"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="874"/>
-    <n v="875"/>
-    <n v="1"/>
-    <n v="1.1441647597254005E-3"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="875"/>
-    <n v="874"/>
-    <n v="-1"/>
-    <n v="-1.1428571428571429E-3"/>
-    <n v="1.5039777016433664E-2"/>
-    <n v="1.5039777016433664E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="19"/>
-    <n v="1670.78"/>
-    <n v="1670.78"/>
-    <n v="1670.78"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="20"/>
-    <n v="0"/>
-    <n v="1670.78"/>
-    <n v="1671.56"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6684781958125708E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="21"/>
-    <n v="0"/>
-    <n v="1671.56"/>
-    <n v="1672.3"/>
-    <n v="0.74000000000000909"/>
-    <n v="4.4270023211850554E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="22"/>
-    <n v="0"/>
-    <n v="1672.3"/>
-    <n v="1673.04"/>
-    <n v="0.74000000000000909"/>
-    <n v="4.4250433534653421E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="23"/>
-    <n v="0"/>
-    <n v="1673.04"/>
-    <n v="1673.87"/>
-    <n v="0.82999999999992724"/>
-    <n v="4.9610290250079328E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="24"/>
-    <n v="0"/>
-    <n v="1673.87"/>
-    <n v="1674.66"/>
-    <n v="0.79000000000019099"/>
-    <n v="4.7196018806728782E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="25"/>
-    <n v="0"/>
-    <n v="1674.66"/>
-    <n v="1675.48"/>
-    <n v="0.81999999999993634"/>
-    <n v="4.8965163077874685E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="26"/>
-    <n v="0"/>
-    <n v="1675.48"/>
-    <n v="1676.13"/>
-    <n v="0.65000000000009095"/>
-    <n v="3.8794852818302276E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="27"/>
-    <n v="0"/>
-    <n v="1676.13"/>
-    <n v="1676.86"/>
-    <n v="0.72999999999979082"/>
-    <n v="4.3552707725521932E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="28"/>
-    <n v="0"/>
-    <n v="1676.86"/>
-    <n v="1677.49"/>
-    <n v="0.63000000000010914"/>
-    <n v="3.7570220531237501E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="29"/>
-    <n v="0"/>
-    <n v="1677.49"/>
-    <n v="1678.11"/>
-    <n v="0.61999999999989086"/>
-    <n v="3.6959981877679801E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="30"/>
-    <n v="0"/>
-    <n v="1678.11"/>
-    <n v="1678.81"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1713594460437368E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="31"/>
-    <n v="0"/>
-    <n v="1678.81"/>
-    <n v="1679.59"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6461481644734828E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="32"/>
-    <n v="0"/>
-    <n v="1679.59"/>
-    <n v="1680.42"/>
-    <n v="0.83000000000015461"/>
-    <n v="4.9416821962511965E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
     <x v="33"/>
-    <n v="0"/>
-    <n v="1680.42"/>
-    <n v="1681.27"/>
-    <n v="0.84999999999990905"/>
-    <n v="5.0582592447120901E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="34"/>
-    <n v="0"/>
-    <n v="1681.27"/>
-    <n v="1682.1"/>
-    <n v="0.82999999999992724"/>
-    <n v="4.9367442469081544E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="35"/>
-    <n v="0"/>
-    <n v="1682.1"/>
-    <n v="1683.02"/>
-    <n v="0.92000000000007276"/>
-    <n v="5.4693537839609584E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="36"/>
-    <n v="0"/>
-    <n v="1683.02"/>
-    <n v="1683.82"/>
-    <n v="0.79999999999995453"/>
-    <n v="4.7533600313719063E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="1683.82"/>
-    <n v="1684.61"/>
-    <n v="0.78999999999996362"/>
-    <n v="4.6917128909263676E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="38"/>
-    <n v="0"/>
-    <n v="1684.61"/>
-    <n v="1685.31"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1552644232198876E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="39"/>
-    <n v="0"/>
-    <n v="1685.31"/>
-    <n v="1686.09"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6282286344943825E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="40"/>
-    <n v="0"/>
-    <n v="1686.09"/>
-    <n v="1686.81"/>
-    <n v="0.72000000000002728"/>
-    <n v="4.2702346849813905E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="41"/>
-    <n v="0"/>
-    <n v="1686.81"/>
-    <n v="1687.6"/>
-    <n v="0.78999999999996362"/>
-    <n v="4.683396470260217E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="42"/>
-    <n v="0"/>
-    <n v="1687.6"/>
-    <n v="1688.37"/>
-    <n v="0.76999999999998181"/>
-    <n v="4.5626925811802671E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="43"/>
-    <n v="0"/>
-    <n v="1688.37"/>
-    <n v="1689.07"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1460106493247662E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="44"/>
-    <n v="0"/>
-    <n v="1689.07"/>
-    <n v="1689.77"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1442924212735144E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="45"/>
-    <n v="0"/>
-    <n v="1689.77"/>
-    <n v="1690.5"/>
-    <n v="0.73000000000001819"/>
-    <n v="4.3201145718057383E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="46"/>
-    <n v="0"/>
-    <n v="1690.5"/>
-    <n v="1691.2"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1407867494826705E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="1691.2"/>
-    <n v="1688.04"/>
-    <n v="-3.1600000000000819"/>
-    <n v="-1.8684957426679763E-3"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="1688.04"/>
-    <n v="1688.74"/>
-    <n v="0.70000000000004547"/>
-    <n v="4.1468211653754978E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="1688.74"/>
-    <n v="1689.49"/>
-    <n v="0.75"/>
-    <n v="4.4411809988512146E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="1689.49"/>
-    <n v="1690.21"/>
-    <n v="0.72000000000002728"/>
-    <n v="4.2616410869553964E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="1690.21"/>
-    <n v="1690.92"/>
-    <n v="0.71000000000003638"/>
-    <n v="4.2006614562689626E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
     <n v="0"/>
     <n v="1690.92"/>
     <n v="1691.62"/>
     <n v="0.6999999999998181"/>
     <n v="4.1397582381178178E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="1691.62"/>
-    <n v="1692.38"/>
-    <n v="0.76000000000021828"/>
-    <n v="4.4927347749507476E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="1692.38"/>
-    <n v="1693.16"/>
-    <n v="0.77999999999997272"/>
-    <n v="4.6088939836205382E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="17"/>
-    <n v="0"/>
-    <n v="1693.16"/>
-    <n v="1693.92"/>
-    <n v="0.75999999999999091"/>
-    <n v="4.4886484443288933E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="18"/>
-    <n v="0"/>
-    <n v="1693.92"/>
-    <n v="1694.66"/>
-    <n v="0.74000000000000909"/>
-    <n v="4.3685652214981173E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="1694.66"/>
-    <n v="1695.42"/>
-    <n v="0.75999999999999091"/>
-    <n v="4.4846753921139984E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
-    <n v="0"/>
-    <n v="1695.42"/>
-    <n v="1696.05"/>
-    <n v="0.62999999999988177"/>
-    <n v="3.7158934069427148E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="1696.05"/>
-    <n v="1696.85"/>
-    <n v="0.79999999999995453"/>
-    <n v="4.7168420742310342E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="1696.85"/>
-    <n v="1697.45"/>
-    <n v="0.60000000000013642"/>
-    <n v="3.535963697440177E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="1697.45"/>
-    <n v="1698.16"/>
-    <n v="0.71000000000003638"/>
-    <n v="4.1827447052934482E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="1698.16"/>
-    <n v="1698.78"/>
-    <n v="0.61999999999989086"/>
-    <n v="3.6510105054876504E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="1698.78"/>
-    <n v="1699.46"/>
-    <n v="0.68000000000006366"/>
-    <n v="4.0028726497843376E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="1699.46"/>
-    <n v="1700.17"/>
-    <n v="0.71000000000003638"/>
-    <n v="4.1777976533724617E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="1700.17"/>
-    <n v="1700.94"/>
-    <n v="0.76999999999998181"/>
-    <n v="4.5289588688188931E-4"/>
-    <n v="7.2243210914650913E-3"/>
-    <n v="1.8051449023809063E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
-    <n v="580"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="580"/>
-    <n v="590.01"/>
-    <n v="10.009999999999991"/>
-    <n v="1.7258620689655158E-2"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="590.01"/>
-    <n v="587.96"/>
-    <n v="-2.0499999999999545"/>
-    <n v="-3.474517381061261E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
-    <n v="0"/>
-    <n v="587.96"/>
-    <n v="596.89"/>
-    <n v="8.92999999999995"/>
-    <n v="1.5188108034560088E-2"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="3.1258620689655681E-2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
+    <x v="33"/>
     <n v="0"/>
     <n v="596.89"/>
     <n v="603.42999999999995"/>
@@ -1929,11 +1527,53 @@
     <n v="3.1258620689655681E-2"/>
   </r>
   <r>
+    <x v="1"/>
     <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="11"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="-1583.68"/>
+    <n v="1496"/>
+    <n v="0"/>
+    <n v="87.680000000000064"/>
+    <n v="5.8609625668449239E-2"/>
+    <n v="0.17309629629629653"/>
+    <n v="0.14906800751688776"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="851"/>
+    <n v="823"/>
+    <n v="-28"/>
+    <n v="-3.2902467685076382E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="1691.62"/>
+    <n v="1692.38"/>
+    <n v="0.76000000000021828"/>
+    <n v="4.4927347749507476E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="34"/>
     <n v="0"/>
     <n v="603.42999999999995"/>
     <n v="599.11"/>
@@ -1944,10 +1584,66 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="1803.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-3.8267428317896313E-3"/>
+    <n v="-3.8267428317896313E-3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="-1796.2"/>
+    <n v="1803.1"/>
+    <n v="0"/>
+    <n v="-6.8999999999998636"/>
+    <n v="-3.82674283178962E-3"/>
+    <n v="-3.8267428317896313E-3"/>
+    <n v="-3.8267428317896313E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="823"/>
+    <n v="849"/>
+    <n v="26"/>
+    <n v="3.1591737545565005E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="1692.38"/>
+    <n v="1693.16"/>
+    <n v="0.77999999999997272"/>
+    <n v="4.6088939836205382E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="35"/>
     <n v="0"/>
     <n v="599.11"/>
     <n v="592.57000000000005"/>
@@ -1957,11 +1653,39 @@
     <n v="3.1258620689655681E-2"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="17"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="849"/>
+    <n v="879"/>
+    <n v="30"/>
+    <n v="3.5335689045936397E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="1693.16"/>
+    <n v="1693.92"/>
+    <n v="0.75999999999999091"/>
+    <n v="4.4886484443288933E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="36"/>
     <n v="0"/>
     <n v="592.57000000000005"/>
     <n v="597.64"/>
@@ -1971,11 +1695,39 @@
     <n v="3.1258620689655681E-2"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="18"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="879"/>
+    <n v="860"/>
+    <n v="-19"/>
+    <n v="-2.1615472127417521E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="1693.92"/>
+    <n v="1694.66"/>
+    <n v="0.74000000000000909"/>
+    <n v="4.3685652214981173E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="37"/>
     <n v="0"/>
     <n v="597.64"/>
     <n v="595.96"/>
@@ -1985,11 +1737,53 @@
     <n v="3.1258620689655681E-2"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="12"/>
+    <x v="38"/>
+    <n v="1182.27"/>
+    <n v="1182.27"/>
+    <n v="1134"/>
+    <n v="-48.269999999999982"/>
+    <n v="-4.082823720469942E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="860"/>
+    <n v="885"/>
+    <n v="25"/>
+    <n v="2.9069767441860465E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="1694.66"/>
+    <n v="1695.42"/>
+    <n v="0.75999999999999091"/>
+    <n v="4.4846753921139984E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="38"/>
     <n v="0"/>
     <n v="595.96"/>
     <n v="601.32000000000005"/>
@@ -1999,11 +1793,137 @@
     <n v="3.1258620689655681E-2"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="15"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="1134"/>
+    <n v="1134"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="885"/>
+    <n v="900"/>
+    <n v="15"/>
+    <n v="1.6949152542372881E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="1695.42"/>
+    <n v="1696.05"/>
+    <n v="0.62999999999988177"/>
+    <n v="3.7158934069427148E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="40"/>
+    <n v="0"/>
+    <n v="1134"/>
+    <n v="1108"/>
+    <n v="-26"/>
+    <n v="-2.292768959435626E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="40"/>
+    <n v="0"/>
+    <n v="900"/>
+    <n v="880"/>
+    <n v="-20"/>
+    <n v="-2.2222222222222223E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="40"/>
+    <n v="0"/>
+    <n v="1696.05"/>
+    <n v="1696.85"/>
+    <n v="0.79999999999995453"/>
+    <n v="4.7168420742310342E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="41"/>
+    <n v="0"/>
+    <n v="1108"/>
+    <n v="1160"/>
+    <n v="52"/>
+    <n v="4.6931407942238268E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="41"/>
+    <n v="0"/>
+    <n v="880"/>
+    <n v="840"/>
+    <n v="-40"/>
+    <n v="-4.5454545454545456E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="41"/>
+    <n v="0"/>
+    <n v="1696.85"/>
+    <n v="1697.45"/>
+    <n v="0.60000000000013642"/>
+    <n v="3.535963697440177E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="41"/>
     <n v="-598.13"/>
     <n v="601.32000000000005"/>
     <n v="0"/>
@@ -2013,305 +1933,529 @@
     <n v="3.1258620689655681E-2"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
     <x v="2"/>
+    <x v="42"/>
+    <n v="0"/>
+    <n v="1160"/>
+    <n v="1178"/>
+    <n v="18"/>
+    <n v="1.5517241379310345E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="42"/>
+    <n v="0"/>
+    <n v="840"/>
+    <n v="810"/>
+    <n v="-30"/>
+    <n v="-3.5714285714285712E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="42"/>
+    <n v="0"/>
+    <n v="1697.45"/>
+    <n v="1698.16"/>
+    <n v="0.71000000000003638"/>
+    <n v="4.1827447052934482E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="43"/>
+    <n v="-837.95"/>
+    <n v="878"/>
+    <n v="0"/>
+    <n v="-40.049999999999955"/>
+    <n v="-4.5615034168564869E-2"/>
+    <n v="2.3325358851680189E-3"/>
+    <n v="2.3325358851680189E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="43"/>
+    <n v="0"/>
+    <n v="1178"/>
+    <n v="1246"/>
+    <n v="68"/>
+    <n v="5.7724957555178265E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="43"/>
+    <n v="0"/>
+    <n v="810"/>
+    <n v="840"/>
+    <n v="30"/>
+    <n v="3.7037037037037035E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="43"/>
+    <n v="0"/>
+    <n v="1698.16"/>
+    <n v="1698.78"/>
+    <n v="0.61999999999989086"/>
+    <n v="3.6510105054876504E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="862"/>
+    <n v="878"/>
+    <n v="16"/>
+    <n v="1.8561484918793503E-2"/>
+    <n v="2.3325358851680189E-3"/>
+    <n v="2.3325358851680189E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="1246"/>
+    <n v="1262"/>
+    <n v="16"/>
+    <n v="1.2841091492776886E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="840"/>
+    <n v="850"/>
+    <n v="10"/>
+    <n v="1.1904761904761904E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="1698.78"/>
+    <n v="1699.46"/>
+    <n v="0.68000000000006366"/>
+    <n v="4.0028726497843376E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="45"/>
+    <n v="0"/>
+    <n v="858"/>
+    <n v="862"/>
+    <n v="4"/>
+    <n v="4.662004662004662E-3"/>
+    <n v="2.3325358851680189E-3"/>
+    <n v="2.3325358851680189E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="45"/>
+    <n v="0"/>
+    <n v="1262"/>
+    <n v="1298"/>
+    <n v="36"/>
+    <n v="2.8526148969889066E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="45"/>
+    <n v="0"/>
+    <n v="850"/>
+    <n v="874"/>
+    <n v="24"/>
+    <n v="2.823529411764706E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="45"/>
+    <n v="0"/>
+    <n v="1699.46"/>
+    <n v="1700.17"/>
+    <n v="0.71000000000003638"/>
+    <n v="4.1777976533724617E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="46"/>
+    <n v="0"/>
+    <n v="850"/>
+    <n v="858"/>
+    <n v="8"/>
+    <n v="9.4117647058823521E-3"/>
+    <n v="2.3325358851680189E-3"/>
+    <n v="2.3325358851680189E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="46"/>
+    <n v="0"/>
+    <n v="1298"/>
+    <n v="1328"/>
+    <n v="30"/>
+    <n v="2.3112480739599383E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="28"/>
-    <n v="428.37"/>
-    <n v="428.37"/>
-    <n v="428.37"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
     <x v="2"/>
+    <x v="46"/>
+    <n v="2374.5700000000002"/>
+    <n v="2374.5700000000002"/>
+    <n v="2361"/>
+    <n v="-13.570000000000164"/>
+    <n v="-5.7147188754175125E-3"/>
+    <n v="-2.7192291657015866E-2"/>
+    <n v="-2.7192291657015866E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="46"/>
+    <n v="0"/>
+    <n v="874"/>
+    <n v="875"/>
+    <n v="1"/>
+    <n v="1.1441647597254005E-3"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="46"/>
+    <n v="0"/>
+    <n v="1700.17"/>
+    <n v="1700.94"/>
+    <n v="0.76999999999998181"/>
+    <n v="4.5289588688188931E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="47"/>
+    <n v="0"/>
+    <n v="862"/>
+    <n v="850"/>
+    <n v="-12"/>
+    <n v="-1.3921113689095127E-2"/>
+    <n v="2.3325358851680189E-3"/>
+    <n v="2.3325358851680189E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="47"/>
+    <n v="0"/>
+    <n v="664"/>
+    <n v="690"/>
+    <n v="26"/>
+    <n v="3.9156626506024098E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="47"/>
+    <n v="-674.01"/>
+    <n v="664"/>
+    <n v="0"/>
+    <n v="10.009999999999991"/>
+    <n v="1.5075301204819263E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="29"/>
-    <n v="0"/>
-    <n v="428.37"/>
-    <n v="428.55"/>
-    <n v="0.18000000000000682"/>
-    <n v="4.2019749282164209E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
     <x v="2"/>
+    <x v="47"/>
+    <n v="0"/>
+    <n v="2361"/>
+    <n v="2334"/>
+    <n v="-27"/>
+    <n v="-1.1435832274459974E-2"/>
+    <n v="-2.7192291657015866E-2"/>
+    <n v="-2.7192291657015866E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="47"/>
+    <n v="0"/>
+    <n v="875"/>
+    <n v="870"/>
+    <n v="-5"/>
+    <n v="-5.7142857142857143E-3"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="47"/>
+    <n v="0"/>
+    <n v="1700.94"/>
+    <n v="1701.66"/>
+    <n v="0.72000000000002728"/>
+    <n v="4.2329535433350223E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="48"/>
+    <n v="0"/>
+    <n v="864"/>
+    <n v="862"/>
+    <n v="-2"/>
+    <n v="-2.3148148148148147E-3"/>
+    <n v="2.3325358851680189E-3"/>
+    <n v="2.3325358851680189E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="48"/>
+    <n v="0"/>
+    <n v="690"/>
+    <n v="695"/>
+    <n v="5"/>
+    <n v="7.246376811594203E-3"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="30"/>
-    <n v="0"/>
-    <n v="428.55"/>
-    <n v="428.72"/>
-    <n v="0.17000000000001592"/>
-    <n v="3.9668650099175339E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
     <x v="2"/>
+    <x v="48"/>
+    <n v="0"/>
+    <n v="2334"/>
+    <n v="2361"/>
+    <n v="27"/>
+    <n v="1.1568123393316195E-2"/>
+    <n v="-2.7192291657015866E-2"/>
+    <n v="-2.7192291657015866E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="48"/>
+    <n v="0"/>
+    <n v="870"/>
+    <n v="871"/>
+    <n v="1"/>
+    <n v="1.1494252873563218E-3"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="48"/>
+    <n v="0"/>
+    <n v="1701.66"/>
+    <n v="1702.38"/>
+    <n v="0.72000000000002728"/>
+    <n v="4.2311625119003049E-4"/>
+    <n v="8.0770278432444886E-3"/>
+    <n v="1.8913321921497639E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="49"/>
+    <n v="0"/>
+    <n v="836"/>
+    <n v="864"/>
+    <n v="28"/>
+    <n v="3.3492822966507178E-2"/>
+    <n v="2.3325358851680189E-3"/>
+    <n v="2.3325358851680189E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="49"/>
+    <n v="0"/>
+    <n v="695"/>
+    <n v="637"/>
+    <n v="-58"/>
+    <n v="-8.3453237410071948E-2"/>
+    <n v="9.3832993931115771E-2"/>
+    <n v="9.3832993931115771E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="8"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="31"/>
-    <n v="0"/>
-    <n v="428.72"/>
-    <n v="428.9"/>
-    <n v="0.17999999999994998"/>
-    <n v="4.1985445045705815E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
     <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="32"/>
-    <n v="0"/>
-    <n v="428.9"/>
-    <n v="429.08"/>
-    <n v="0.18000000000000682"/>
-    <n v="4.1967824667756313E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
+    <x v="49"/>
+    <n v="0"/>
+    <n v="2361"/>
+    <n v="2310"/>
+    <n v="-51"/>
+    <n v="-2.1601016518424398E-2"/>
+    <n v="-2.7192291657015866E-2"/>
+    <n v="-2.7192291657015866E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
     <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="33"/>
-    <n v="0"/>
-    <n v="429.08"/>
-    <n v="429.28"/>
-    <n v="0.19999999999998863"/>
-    <n v="4.6611354525959874E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="34"/>
-    <n v="0"/>
-    <n v="429.28"/>
-    <n v="429.48"/>
-    <n v="0.20000000000004547"/>
-    <n v="4.6589638464416113E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="35"/>
-    <n v="0"/>
-    <n v="429.48"/>
-    <n v="429.69"/>
-    <n v="0.20999999999997954"/>
-    <n v="4.8896339759704646E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="36"/>
-    <n v="0"/>
-    <n v="429.69"/>
-    <n v="429.89"/>
-    <n v="0.19999999999998863"/>
-    <n v="4.6545183737110158E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="429.89"/>
-    <n v="430.1"/>
-    <n v="0.21000000000003638"/>
-    <n v="4.8849705738685802E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="38"/>
-    <n v="0"/>
-    <n v="430.1"/>
-    <n v="430.27"/>
-    <n v="0.16999999999995907"/>
-    <n v="3.9525691699595223E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="39"/>
-    <n v="0"/>
-    <n v="430.27"/>
-    <n v="430.44"/>
-    <n v="0.17000000000001592"/>
-    <n v="3.9510075069146332E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="40"/>
-    <n v="0"/>
-    <n v="430.44"/>
-    <n v="430.6"/>
-    <n v="0.16000000000002501"/>
-    <n v="3.717126661091558E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="41"/>
-    <n v="0"/>
-    <n v="430.6"/>
-    <n v="430.78"/>
-    <n v="0.17999999999994998"/>
-    <n v="4.1802136553634455E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="42"/>
-    <n v="0"/>
-    <n v="430.78"/>
-    <n v="430.95"/>
-    <n v="0.17000000000001592"/>
-    <n v="3.9463299131811116E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="43"/>
-    <n v="0"/>
-    <n v="430.95"/>
-    <n v="431.11"/>
-    <n v="0.16000000000002501"/>
-    <n v="3.7127276946287278E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="47"/>
-    <n v="0"/>
-    <n v="431.11"/>
-    <n v="431.23"/>
-    <n v="0.12000000000000455"/>
-    <n v="2.7835123286401277E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="45"/>
-    <n v="0"/>
-    <n v="431.23"/>
-    <n v="431.4"/>
-    <n v="0.16999999999995907"/>
-    <n v="3.9422118127208002E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="46"/>
-    <n v="-430.71"/>
-    <n v="431.4"/>
-    <n v="431.57"/>
-    <n v="-0.68999999999999773"/>
-    <n v="-1.5994436717663369E-3"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.4625674066808294E-3"/>
+    <x v="49"/>
+    <n v="0"/>
+    <n v="871"/>
+    <n v="833"/>
+    <n v="-38"/>
+    <n v="-4.3628013777267508E-2"/>
+    <n v="-3.2576505429417368E-2"/>
+    <n v="-3.2576505429417368E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="4">
         <item m="1" x="3"/>
+        <item x="2"/>
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="12">
         <item m="1" x="10"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="8"/>
-        <item m="1" x="9"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="3"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
+        <item m="1" x="9"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="2"/>
         <item sd="0" x="4"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="1">
-        <item x="0"/>
+        <item sd="0" x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" numFmtId="165" showAll="0" defaultSubtotal="0">
@@ -2327,13 +2471,32 @@
         <item sd="0" m="1" x="12"/>
         <item sd="0" m="1" x="7"/>
         <item sd="0" m="1" x="3"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="2"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="51">
+      <items count="54">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
@@ -2347,6 +2510,8 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item m="1" x="51"/>
+        <item m="1" x="52"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
@@ -2359,31 +2524,13 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
-        <item x="47"/>
         <item x="44"/>
         <item x="45"/>
         <item x="46"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item m="1" x="50"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2484,10 +2631,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L120" totalsRowCount="1" headerRowDxfId="19">
-  <autoFilter ref="A1:L119"/>
-  <sortState ref="A2:L119">
-    <sortCondition ref="B1:B119"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L130" totalsRowCount="1" headerRowDxfId="19">
+  <autoFilter ref="A1:L129"/>
+  <sortState ref="A2:L129">
+    <sortCondition ref="B1:B129"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="12" name="ID"/>
@@ -2817,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,10 +2974,9 @@
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -2953,16 +3099,16 @@
         <v>810</v>
       </c>
       <c r="D8" s="9">
-        <v>12.950000000000045</v>
+        <v>-28.049999999999955</v>
       </c>
       <c r="E8" s="10">
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="F8" s="10">
-        <v>1.3695971990370236E-3</v>
+        <v>-1.5591799456343765E-3</v>
       </c>
       <c r="G8" s="10">
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2976,16 +3122,16 @@
         <v>664</v>
       </c>
       <c r="D9" s="9">
-        <v>182.74</v>
+        <v>128.74</v>
       </c>
       <c r="E9" s="10">
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="F9" s="10">
-        <v>1.6057759371560495E-2</v>
+        <v>7.6094206455617052E-3</v>
       </c>
       <c r="G9" s="10">
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2996,19 +3142,19 @@
         <v>-837.95</v>
       </c>
       <c r="C10" s="9">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="D10" s="9">
-        <v>-24.049999999999955</v>
+        <v>1.9500000000000455</v>
       </c>
       <c r="E10" s="10">
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
       <c r="F10" s="10">
-        <v>-5.3801787141958953E-3</v>
+        <v>6.1101636867326946E-4</v>
       </c>
       <c r="G10" s="10">
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,19 +3165,19 @@
         <v>2374.5700000000002</v>
       </c>
       <c r="C11" s="9">
-        <v>2361</v>
+        <v>2334</v>
       </c>
       <c r="D11" s="9">
-        <v>-40.570000000000164</v>
+        <v>-64.570000000000164</v>
       </c>
       <c r="E11" s="10">
-        <v>-1.7085198583322581E-2</v>
+        <v>-2.7192291657015866E-2</v>
       </c>
       <c r="F11" s="10">
-        <v>-8.5752755749387427E-3</v>
+        <v>-6.795861068746422E-3</v>
       </c>
       <c r="G11" s="10">
-        <v>-1.7085198583322581E-2</v>
+        <v>-2.7192291657015866E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3056,16 +3202,16 @@
         <v>1670.78</v>
       </c>
       <c r="D13" s="9">
-        <v>30.160000000000082</v>
+        <v>31.600000000000136</v>
       </c>
       <c r="E13" s="10">
-        <v>6.4753766376754772E-3</v>
+        <v>6.8365871926017582E-3</v>
       </c>
       <c r="F13" s="10">
-        <v>3.8077828822691127E-4</v>
+        <v>3.8251002351404821E-4</v>
       </c>
       <c r="G13" s="10">
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3125,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="9">
-        <v>380.25000000000017</v>
+        <v>288.69000000000023</v>
       </c>
       <c r="E16" s="10">
-        <v>3.1035134723952262E-2</v>
+        <v>1.6892967782059926E-2</v>
       </c>
       <c r="F16" s="10">
-        <v>2.9438598829340861E-3</v>
+        <v>1.9109694614228639E-3</v>
       </c>
       <c r="G16" s="10">
-        <v>3.6329570144337922E-2</v>
+        <v>2.2146311369350039E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3145,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,11 +3468,11 @@
       </c>
       <c r="K4" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
       <c r="L4" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3364,11 +3510,11 @@
       </c>
       <c r="K5" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
       <c r="L5" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3406,11 +3552,11 @@
       </c>
       <c r="K6" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
       <c r="L6" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3448,11 +3594,11 @@
       </c>
       <c r="K7" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
       <c r="L7" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3469,7 +3615,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="3">
-        <v>40901</v>
+        <v>40903</v>
       </c>
       <c r="F8" s="20">
         <v>0</v>
@@ -3490,11 +3636,11 @@
       </c>
       <c r="K8" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
       <c r="L8" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.7900232018561066E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3502,41 +3648,41 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
         <v>2011</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3">
-        <v>40877</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1378.23</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1378.23</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1350</v>
+        <v>40904</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>864</v>
+      </c>
+      <c r="H9" s="24">
+        <v>862</v>
       </c>
       <c r="I9" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-28.230000000000018</v>
+        <v>-2</v>
       </c>
       <c r="J9" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.0482793147732974E-2</v>
+        <v>-2.3148148148148147E-3</v>
       </c>
       <c r="K9" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.0482793147732936E-2</v>
+        <v>2.3325358851680189E-3</v>
       </c>
       <c r="L9" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.14906800751688776</v>
+        <v>2.3325358851680189E-3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3544,7 +3690,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7">
         <v>2011</v>
@@ -3553,32 +3699,32 @@
         <v>28</v>
       </c>
       <c r="E10" s="3">
-        <v>40878</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1350</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1425</v>
+        <v>40905</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>836</v>
+      </c>
+      <c r="H10" s="24">
+        <v>864</v>
       </c>
       <c r="I10" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="J10" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>3.3492822966507178E-2</v>
       </c>
       <c r="K10" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>2.3325358851680189E-3</v>
       </c>
       <c r="L10" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.14906800751688776</v>
+        <v>2.3325358851680189E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3592,31 +3738,31 @@
         <v>2011</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3">
-        <v>40879</v>
+        <v>40877</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1425</v>
+        <v>1378.23</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1378.23</v>
       </c>
       <c r="H11" s="12">
-        <v>1408</v>
+        <v>1350</v>
       </c>
       <c r="I11" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-17</v>
+        <v>-28.230000000000018</v>
       </c>
       <c r="J11" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.1929824561403509E-2</v>
+        <v>-2.0482793147732974E-2</v>
       </c>
       <c r="K11" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>-2.0482793147732936E-2</v>
       </c>
       <c r="L11" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -3637,24 +3783,24 @@
         <v>28</v>
       </c>
       <c r="E12" s="3">
-        <v>40882</v>
-      </c>
-      <c r="F12" s="20">
+        <v>40878</v>
+      </c>
+      <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="12">
-        <v>1408</v>
+        <v>1350</v>
       </c>
       <c r="H12" s="12">
-        <v>1468</v>
-      </c>
-      <c r="I12" s="2">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>60</v>
+        <v>1425</v>
+      </c>
+      <c r="I12" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>75</v>
       </c>
       <c r="J12" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.261363636363636E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K12" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -3679,24 +3825,24 @@
         <v>28</v>
       </c>
       <c r="E13" s="3">
-        <v>40883</v>
-      </c>
-      <c r="F13" s="20">
+        <v>40879</v>
+      </c>
+      <c r="F13" s="8">
         <v>0</v>
       </c>
       <c r="G13" s="12">
-        <v>1468</v>
+        <v>1425</v>
       </c>
       <c r="H13" s="4">
-        <v>1496</v>
+        <v>1408</v>
       </c>
       <c r="I13" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>28</v>
+        <v>-17</v>
       </c>
       <c r="J13" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.9073569482288829E-2</v>
+        <v>-1.1929824561403509E-2</v>
       </c>
       <c r="K13" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -3721,24 +3867,24 @@
         <v>28</v>
       </c>
       <c r="E14" s="3">
-        <v>40884</v>
+        <v>40882</v>
       </c>
       <c r="F14" s="20">
-        <v>-1583.68</v>
+        <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>1496</v>
+        <v>1408</v>
       </c>
       <c r="H14" s="12">
-        <v>0</v>
+        <v>1468</v>
       </c>
       <c r="I14" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>87.680000000000064</v>
+        <v>60</v>
       </c>
       <c r="J14" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.8609625668449239E-2</v>
+        <v>4.261363636363636E-2</v>
       </c>
       <c r="K14" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -3754,7 +3900,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7">
         <v>2011</v>
@@ -3763,32 +3909,32 @@
         <v>28</v>
       </c>
       <c r="E15" s="3">
-        <v>40890</v>
+        <v>40883</v>
       </c>
       <c r="F15" s="20">
-        <v>1182.27</v>
-      </c>
-      <c r="G15" s="24">
-        <v>1182.27</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1468</v>
       </c>
       <c r="H15" s="12">
-        <v>1134</v>
+        <v>1496</v>
       </c>
       <c r="I15" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-48.269999999999982</v>
+        <v>28</v>
       </c>
       <c r="J15" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-4.082823720469942E-2</v>
+        <v>1.9073569482288829E-2</v>
       </c>
       <c r="K15" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L15" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3796,7 +3942,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>2011</v>
@@ -3805,32 +3951,32 @@
         <v>28</v>
       </c>
       <c r="E16" s="3">
-        <v>40891</v>
+        <v>40884</v>
       </c>
       <c r="F16" s="20">
-        <v>0</v>
+        <v>-1583.68</v>
       </c>
       <c r="G16" s="12">
-        <v>1134</v>
+        <v>1496</v>
       </c>
       <c r="H16" s="12">
-        <v>1134</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
+        <v>87.680000000000064</v>
       </c>
       <c r="J16" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>5.8609625668449239E-2</v>
       </c>
       <c r="K16" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L16" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>0.14906800751688776</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3847,32 +3993,32 @@
         <v>28</v>
       </c>
       <c r="E17" s="3">
-        <v>40892</v>
+        <v>40890</v>
       </c>
       <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
+        <v>1182.27</v>
+      </c>
+      <c r="G17" s="24">
+        <v>1182.27</v>
+      </c>
+      <c r="H17" s="12">
         <v>1134</v>
       </c>
-      <c r="H17" s="12">
-        <v>1108</v>
-      </c>
       <c r="I17" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-26</v>
+        <v>-48.269999999999982</v>
       </c>
       <c r="J17" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.292768959435626E-2</v>
+        <v>-4.082823720469942E-2</v>
       </c>
       <c r="K17" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L17" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3889,32 +4035,32 @@
         <v>28</v>
       </c>
       <c r="E18" s="3">
-        <v>40893</v>
+        <v>40891</v>
       </c>
       <c r="F18" s="20">
         <v>0</v>
       </c>
       <c r="G18" s="12">
-        <v>1108</v>
+        <v>1134</v>
       </c>
       <c r="H18" s="12">
-        <v>1160</v>
+        <v>1134</v>
       </c>
       <c r="I18" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6931407942238268E-2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L18" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3931,32 +4077,32 @@
         <v>28</v>
       </c>
       <c r="E19" s="3">
-        <v>40896</v>
+        <v>40892</v>
       </c>
       <c r="F19" s="20">
         <v>0</v>
       </c>
       <c r="G19" s="12">
-        <v>1160</v>
+        <v>1134</v>
       </c>
       <c r="H19" s="12">
-        <v>1178</v>
+        <v>1108</v>
       </c>
       <c r="I19" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>18</v>
+        <v>-26</v>
       </c>
       <c r="J19" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.5517241379310345E-2</v>
+        <v>-2.292768959435626E-2</v>
       </c>
       <c r="K19" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L19" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3973,32 +4119,32 @@
         <v>28</v>
       </c>
       <c r="E20" s="3">
-        <v>40897</v>
+        <v>40893</v>
       </c>
       <c r="F20" s="20">
         <v>0</v>
       </c>
-      <c r="G20" s="24">
-        <v>1178</v>
+      <c r="G20" s="12">
+        <v>1108</v>
       </c>
       <c r="H20" s="4">
-        <v>1246</v>
+        <v>1160</v>
       </c>
       <c r="I20" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="J20" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.7724957555178265E-2</v>
+        <v>4.6931407942238268E-2</v>
       </c>
       <c r="K20" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L20" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4015,32 +4161,32 @@
         <v>28</v>
       </c>
       <c r="E21" s="3">
-        <v>40898</v>
+        <v>40896</v>
       </c>
       <c r="F21" s="20">
         <v>0</v>
       </c>
-      <c r="G21" s="24">
-        <v>1246</v>
+      <c r="G21" s="12">
+        <v>1160</v>
       </c>
       <c r="H21" s="12">
-        <v>1262</v>
+        <v>1178</v>
       </c>
       <c r="I21" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J21" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.2841091492776886E-2</v>
+        <v>1.5517241379310345E-2</v>
       </c>
       <c r="K21" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L21" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4057,32 +4203,32 @@
         <v>28</v>
       </c>
       <c r="E22" s="3">
-        <v>40899</v>
+        <v>40897</v>
       </c>
       <c r="F22" s="20">
         <v>0</v>
       </c>
-      <c r="G22" s="12">
-        <v>1262</v>
+      <c r="G22" s="24">
+        <v>1178</v>
       </c>
       <c r="H22" s="4">
-        <v>1298</v>
+        <v>1246</v>
       </c>
       <c r="I22" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="J22" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.8526148969889066E-2</v>
+        <v>5.7724957555178265E-2</v>
       </c>
       <c r="K22" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L22" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4099,32 +4245,32 @@
         <v>28</v>
       </c>
       <c r="E23" s="3">
-        <v>40900</v>
+        <v>40898</v>
       </c>
       <c r="F23" s="20">
         <v>0</v>
       </c>
-      <c r="G23" s="12">
-        <v>1298</v>
+      <c r="G23" s="24">
+        <v>1246</v>
       </c>
       <c r="H23" s="12">
-        <v>1328</v>
+        <v>1262</v>
       </c>
       <c r="I23" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J23" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.3112480739599383E-2</v>
+        <v>1.2841091492776886E-2</v>
       </c>
       <c r="K23" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L23" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4141,32 +4287,32 @@
         <v>28</v>
       </c>
       <c r="E24" s="3">
-        <v>40901</v>
+        <v>40899</v>
       </c>
       <c r="F24" s="20">
         <v>0</v>
       </c>
-      <c r="G24" s="24">
-        <v>664</v>
+      <c r="G24" s="12">
+        <v>1262</v>
       </c>
       <c r="H24" s="12">
-        <v>691</v>
+        <v>1298</v>
       </c>
       <c r="I24" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J24" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.0662650602409638E-2</v>
+        <v>2.8526148969889066E-2</v>
       </c>
       <c r="K24" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L24" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4183,32 +4329,32 @@
         <v>28</v>
       </c>
       <c r="E25" s="3">
-        <v>40901</v>
+        <v>40900</v>
       </c>
       <c r="F25" s="20">
-        <v>-674.01</v>
+        <v>0</v>
       </c>
       <c r="G25" s="12">
-        <v>664</v>
+        <v>1298</v>
       </c>
       <c r="H25" s="12">
-        <v>0</v>
+        <v>1328</v>
       </c>
       <c r="I25" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>10.009999999999991</v>
+        <v>30</v>
       </c>
       <c r="J25" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.5075301204819263E-2</v>
+        <v>2.3112480739599383E-2</v>
       </c>
       <c r="K25" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L25" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.18655980974317288</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4216,7 +4362,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>2011</v>
@@ -4225,32 +4371,32 @@
         <v>28</v>
       </c>
       <c r="E26" s="3">
-        <v>40900</v>
+        <v>40903</v>
       </c>
       <c r="F26" s="20">
-        <v>2374.5700000000002</v>
-      </c>
-      <c r="G26" s="20">
-        <v>2374.5700000000002</v>
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <v>664</v>
       </c>
       <c r="H26" s="12">
-        <v>2361</v>
+        <v>690</v>
       </c>
       <c r="I26" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-13.570000000000164</v>
+        <v>26</v>
       </c>
       <c r="J26" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-5.7147188754175125E-3</v>
+        <v>3.9156626506024098E-2</v>
       </c>
       <c r="K26" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.7085198583322581E-2</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L26" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.7085198583322581E-2</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4258,7 +4404,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7">
         <v>2011</v>
@@ -4267,32 +4413,32 @@
         <v>28</v>
       </c>
       <c r="E27" s="3">
-        <v>40901</v>
+        <v>40903</v>
       </c>
       <c r="F27" s="20">
-        <v>0</v>
+        <v>-674.01</v>
       </c>
       <c r="G27" s="12">
-        <v>2361</v>
+        <v>664</v>
       </c>
       <c r="H27" s="12">
-        <v>2334</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-27</v>
+        <v>10.009999999999991</v>
       </c>
       <c r="J27" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.1435832274459974E-2</v>
+        <v>1.5075301204819263E-2</v>
       </c>
       <c r="K27" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.7085198583322581E-2</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L27" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-1.7085198583322581E-2</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4300,7 +4446,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>2011</v>
@@ -4309,32 +4455,32 @@
         <v>28</v>
       </c>
       <c r="E28" s="3">
-        <v>40883</v>
+        <v>40904</v>
       </c>
       <c r="F28" s="20">
-        <v>861.05</v>
-      </c>
-      <c r="G28" s="20">
-        <v>861.05</v>
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>690</v>
       </c>
       <c r="H28" s="12">
-        <v>851</v>
+        <v>695</v>
       </c>
       <c r="I28" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-10.049999999999955</v>
+        <v>5</v>
       </c>
       <c r="J28" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.1671796062946351E-2</v>
+        <v>7.246376811594203E-3</v>
       </c>
       <c r="K28" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L28" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4342,7 +4488,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>2011</v>
@@ -4351,32 +4497,32 @@
         <v>28</v>
       </c>
       <c r="E29" s="3">
-        <v>40884</v>
+        <v>40905</v>
       </c>
       <c r="F29" s="20">
         <v>0</v>
       </c>
-      <c r="G29" s="12">
-        <v>851</v>
+      <c r="G29" s="24">
+        <v>695</v>
       </c>
       <c r="H29" s="12">
-        <v>823</v>
+        <v>637</v>
       </c>
       <c r="I29" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-28</v>
+        <v>-58</v>
       </c>
       <c r="J29" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.2902467685076382E-2</v>
+        <v>-8.3453237410071948E-2</v>
       </c>
       <c r="K29" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>9.3832993931115771E-2</v>
       </c>
       <c r="L29" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>9.3832993931115771E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4384,7 +4530,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>2011</v>
@@ -4393,32 +4539,32 @@
         <v>28</v>
       </c>
       <c r="E30" s="3">
-        <v>40885</v>
+        <v>40900</v>
       </c>
       <c r="F30" s="20">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
-        <v>823</v>
+        <v>2374.5700000000002</v>
+      </c>
+      <c r="G30" s="20">
+        <v>2374.5700000000002</v>
       </c>
       <c r="H30" s="12">
-        <v>849</v>
+        <v>2361</v>
       </c>
       <c r="I30" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>26</v>
+        <v>-13.570000000000164</v>
       </c>
       <c r="J30" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.1591737545565005E-2</v>
+        <v>-5.7147188754175125E-3</v>
       </c>
       <c r="K30" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-2.7192291657015866E-2</v>
       </c>
       <c r="L30" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-2.7192291657015866E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4426,7 +4572,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>2011</v>
@@ -4435,32 +4581,32 @@
         <v>28</v>
       </c>
       <c r="E31" s="3">
-        <v>40886</v>
+        <v>40903</v>
       </c>
       <c r="F31" s="20">
         <v>0</v>
       </c>
       <c r="G31" s="12">
-        <v>849</v>
+        <v>2361</v>
       </c>
       <c r="H31" s="12">
-        <v>879</v>
+        <v>2334</v>
       </c>
       <c r="I31" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>30</v>
+        <v>-27</v>
       </c>
       <c r="J31" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.5335689045936397E-2</v>
+        <v>-1.1435832274459974E-2</v>
       </c>
       <c r="K31" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-2.7192291657015866E-2</v>
       </c>
       <c r="L31" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-2.7192291657015866E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4468,7 +4614,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>2011</v>
@@ -4477,32 +4623,32 @@
         <v>28</v>
       </c>
       <c r="E32" s="3">
-        <v>40889</v>
+        <v>40904</v>
       </c>
       <c r="F32" s="20">
         <v>0</v>
       </c>
       <c r="G32" s="12">
-        <v>879</v>
+        <v>2334</v>
       </c>
       <c r="H32" s="12">
-        <v>860</v>
+        <v>2361</v>
       </c>
       <c r="I32" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-19</v>
+        <v>27</v>
       </c>
       <c r="J32" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.1615472127417521E-2</v>
+        <v>1.1568123393316195E-2</v>
       </c>
       <c r="K32" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-2.7192291657015866E-2</v>
       </c>
       <c r="L32" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-2.7192291657015866E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -4510,7 +4656,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>2011</v>
@@ -4519,32 +4665,32 @@
         <v>28</v>
       </c>
       <c r="E33" s="3">
-        <v>40890</v>
+        <v>40905</v>
       </c>
       <c r="F33" s="20">
         <v>0</v>
       </c>
       <c r="G33" s="12">
-        <v>860</v>
+        <v>2361</v>
       </c>
       <c r="H33" s="12">
-        <v>885</v>
+        <v>2310</v>
       </c>
       <c r="I33" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>25</v>
+        <v>-51</v>
       </c>
       <c r="J33" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.9069767441860465E-2</v>
+        <v>-2.1601016518424398E-2</v>
       </c>
       <c r="K33" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-2.7192291657015866E-2</v>
       </c>
       <c r="L33" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-2.7192291657015866E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -4561,32 +4707,32 @@
         <v>28</v>
       </c>
       <c r="E34" s="3">
-        <v>40891</v>
+        <v>40883</v>
       </c>
       <c r="F34" s="20">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
-        <v>885</v>
+        <v>861.05</v>
+      </c>
+      <c r="G34" s="20">
+        <v>861.05</v>
       </c>
       <c r="H34" s="12">
-        <v>900</v>
+        <v>851</v>
       </c>
       <c r="I34" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>15</v>
+        <v>-10.049999999999955</v>
       </c>
       <c r="J34" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.6949152542372881E-2</v>
+        <v>-1.1671796062946351E-2</v>
       </c>
       <c r="K34" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L34" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -4603,32 +4749,32 @@
         <v>28</v>
       </c>
       <c r="E35" s="3">
-        <v>40892</v>
+        <v>40884</v>
       </c>
       <c r="F35" s="20">
         <v>0</v>
       </c>
       <c r="G35" s="12">
-        <v>900</v>
+        <v>851</v>
       </c>
       <c r="H35" s="12">
-        <v>880</v>
+        <v>823</v>
       </c>
       <c r="I35" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-20</v>
+        <v>-28</v>
       </c>
       <c r="J35" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.2222222222222223E-2</v>
+        <v>-3.2902467685076382E-2</v>
       </c>
       <c r="K35" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L35" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -4645,32 +4791,32 @@
         <v>28</v>
       </c>
       <c r="E36" s="3">
-        <v>40893</v>
+        <v>40885</v>
       </c>
       <c r="F36" s="20">
         <v>0</v>
       </c>
       <c r="G36" s="12">
-        <v>880</v>
+        <v>823</v>
       </c>
       <c r="H36" s="12">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="I36" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-40</v>
+        <v>26</v>
       </c>
       <c r="J36" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-4.5454545454545456E-2</v>
+        <v>3.1591737545565005E-2</v>
       </c>
       <c r="K36" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L36" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4687,32 +4833,32 @@
         <v>28</v>
       </c>
       <c r="E37" s="3">
-        <v>40896</v>
+        <v>40886</v>
       </c>
       <c r="F37" s="20">
         <v>0</v>
       </c>
       <c r="G37" s="12">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="H37" s="12">
-        <v>810</v>
+        <v>879</v>
       </c>
       <c r="I37" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="J37" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.5714285714285712E-2</v>
+        <v>3.5335689045936397E-2</v>
       </c>
       <c r="K37" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L37" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4729,32 +4875,32 @@
         <v>28</v>
       </c>
       <c r="E38" s="3">
-        <v>40897</v>
+        <v>40889</v>
       </c>
       <c r="F38" s="20">
         <v>0</v>
       </c>
       <c r="G38" s="12">
-        <v>810</v>
+        <v>879</v>
       </c>
       <c r="H38" s="12">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="I38" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>30</v>
+        <v>-19</v>
       </c>
       <c r="J38" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.7037037037037035E-2</v>
+        <v>-2.1615472127417521E-2</v>
       </c>
       <c r="K38" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L38" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4771,32 +4917,32 @@
         <v>28</v>
       </c>
       <c r="E39" s="3">
-        <v>40898</v>
+        <v>40890</v>
       </c>
       <c r="F39" s="20">
         <v>0</v>
       </c>
-      <c r="G39" s="24">
-        <v>840</v>
+      <c r="G39" s="12">
+        <v>860</v>
       </c>
       <c r="H39" s="12">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="I39" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J39" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.1904761904761904E-2</v>
+        <v>2.9069767441860465E-2</v>
       </c>
       <c r="K39" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L39" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4813,32 +4959,32 @@
         <v>28</v>
       </c>
       <c r="E40" s="3">
-        <v>40899</v>
+        <v>40891</v>
       </c>
       <c r="F40" s="20">
         <v>0</v>
       </c>
       <c r="G40" s="12">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="H40" s="12">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="I40" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J40" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.823529411764706E-2</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="K40" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L40" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4855,32 +5001,32 @@
         <v>28</v>
       </c>
       <c r="E41" s="3">
-        <v>40900</v>
+        <v>40892</v>
       </c>
       <c r="F41" s="20">
         <v>0</v>
       </c>
       <c r="G41" s="12">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="H41" s="12">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="I41" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>1</v>
+        <v>-20</v>
       </c>
       <c r="J41" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.1441647597254005E-3</v>
+        <v>-2.2222222222222223E-2</v>
       </c>
       <c r="K41" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L41" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4897,368 +5043,368 @@
         <v>28</v>
       </c>
       <c r="E42" s="3">
-        <v>40901</v>
+        <v>40893</v>
       </c>
       <c r="F42" s="20">
         <v>0</v>
       </c>
       <c r="G42" s="12">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="H42" s="12">
-        <v>874</v>
+        <v>840</v>
       </c>
       <c r="I42" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-1</v>
+        <v>-40</v>
       </c>
       <c r="J42" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.1428571428571429E-3</v>
+        <v>-4.5454545454545456E-2</v>
       </c>
       <c r="K42" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L42" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.5039777016433664E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>2011</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E43" s="3">
-        <v>40835</v>
-      </c>
-      <c r="F43" s="8">
-        <v>1670.78</v>
-      </c>
-      <c r="G43" s="8">
-        <v>1670.78</v>
-      </c>
-      <c r="H43" s="8">
-        <v>1670.78</v>
+        <v>40896</v>
+      </c>
+      <c r="F43" s="20">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
+        <v>840</v>
+      </c>
+      <c r="H43" s="12">
+        <v>810</v>
       </c>
       <c r="I43" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="J43" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>-3.5714285714285712E-2</v>
       </c>
       <c r="K43" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L43" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C44">
         <v>2011</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E44" s="3">
-        <v>40836</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
-        <v>1670.78</v>
+        <v>40897</v>
+      </c>
+      <c r="F44" s="20">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <v>810</v>
       </c>
       <c r="H44" s="12">
-        <v>1671.56</v>
+        <v>840</v>
       </c>
       <c r="I44" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.77999999999997272</v>
+        <v>30</v>
       </c>
       <c r="J44" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6684781958125708E-4</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="K44" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L44" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>2011</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E45" s="3">
-        <v>40837</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="12">
-        <v>1671.56</v>
+        <v>40898</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0</v>
+      </c>
+      <c r="G45" s="24">
+        <v>840</v>
       </c>
       <c r="H45" s="12">
-        <v>1672.3</v>
+        <v>850</v>
       </c>
       <c r="I45" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.74000000000000909</v>
+        <v>10</v>
       </c>
       <c r="J45" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4270023211850554E-4</v>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="K45" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L45" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C46" s="7">
         <v>2011</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E46" s="3">
-        <v>40840</v>
-      </c>
-      <c r="F46" s="8">
+        <v>40899</v>
+      </c>
+      <c r="F46" s="20">
         <v>0</v>
       </c>
       <c r="G46" s="12">
-        <v>1672.3</v>
+        <v>850</v>
       </c>
       <c r="H46" s="12">
-        <v>1673.04</v>
+        <v>874</v>
       </c>
       <c r="I46" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.74000000000000909</v>
+        <v>24</v>
       </c>
       <c r="J46" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4250433534653421E-4</v>
+        <v>2.823529411764706E-2</v>
       </c>
       <c r="K46" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L46" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>2011</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E47" s="3">
-        <v>40841</v>
-      </c>
-      <c r="F47" s="8">
+        <v>40900</v>
+      </c>
+      <c r="F47" s="20">
         <v>0</v>
       </c>
       <c r="G47" s="12">
-        <v>1673.04</v>
+        <v>874</v>
       </c>
       <c r="H47" s="12">
-        <v>1673.87</v>
+        <v>875</v>
       </c>
       <c r="I47" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.82999999999992724</v>
+        <v>1</v>
       </c>
       <c r="J47" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.9610290250079328E-4</v>
+        <v>1.1441647597254005E-3</v>
       </c>
       <c r="K47" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L47" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>2011</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E48" s="3">
-        <v>40842</v>
-      </c>
-      <c r="F48" s="8">
+        <v>40903</v>
+      </c>
+      <c r="F48" s="20">
         <v>0</v>
       </c>
       <c r="G48" s="12">
-        <v>1673.87</v>
+        <v>875</v>
       </c>
       <c r="H48" s="12">
-        <v>1674.66</v>
+        <v>870</v>
       </c>
       <c r="I48" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.79000000000019099</v>
+        <v>-5</v>
       </c>
       <c r="J48" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.7196018806728782E-4</v>
+        <v>-5.7142857142857143E-3</v>
       </c>
       <c r="K48" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L48" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C49">
         <v>2011</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E49" s="3">
-        <v>40843</v>
-      </c>
-      <c r="F49" s="8">
+        <v>40904</v>
+      </c>
+      <c r="F49" s="20">
         <v>0</v>
       </c>
       <c r="G49" s="12">
-        <v>1674.66</v>
+        <v>870</v>
       </c>
       <c r="H49" s="12">
-        <v>1675.48</v>
+        <v>871</v>
       </c>
       <c r="I49" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.81999999999993634</v>
+        <v>1</v>
       </c>
       <c r="J49" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.8965163077874685E-4</v>
+        <v>1.1494252873563218E-3</v>
       </c>
       <c r="K49" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L49" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C50" s="7">
         <v>2011</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E50" s="3">
-        <v>40844</v>
-      </c>
-      <c r="F50" s="8">
+        <v>40905</v>
+      </c>
+      <c r="F50" s="20">
         <v>0</v>
       </c>
       <c r="G50" s="12">
-        <v>1675.48</v>
+        <v>871</v>
       </c>
       <c r="H50" s="12">
-        <v>1676.13</v>
+        <v>833</v>
       </c>
       <c r="I50" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.65000000000009095</v>
+        <v>-38</v>
       </c>
       <c r="J50" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.8794852818302276E-4</v>
+        <v>-4.3628013777267508E-2</v>
       </c>
       <c r="K50" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
       <c r="L50" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>-3.2576505429417368E-2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5275,32 +5421,32 @@
         <v>15</v>
       </c>
       <c r="E51" s="3">
-        <v>40847</v>
+        <v>40835</v>
       </c>
       <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="12">
-        <v>1676.13</v>
-      </c>
-      <c r="H51" s="12">
-        <v>1676.86</v>
+        <v>1670.78</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1670.78</v>
+      </c>
+      <c r="H51" s="8">
+        <v>1670.78</v>
       </c>
       <c r="I51" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.72999999999979082</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.3552707725521932E-4</v>
+        <v>0</v>
       </c>
       <c r="K51" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>3.6390189013515428E-3</v>
       </c>
-      <c r="L51" s="5">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+      <c r="L51" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5314,35 +5460,35 @@
         <v>2011</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" s="3">
-        <v>40848</v>
+        <v>40836</v>
       </c>
       <c r="F52" s="8">
         <v>0</v>
       </c>
-      <c r="G52" s="12">
-        <v>1676.86</v>
+      <c r="G52" s="8">
+        <v>1670.78</v>
       </c>
       <c r="H52" s="12">
-        <v>1677.49</v>
+        <v>1671.56</v>
       </c>
       <c r="I52" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.63000000000010914</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="J52" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.7570220531237501E-4</v>
+        <v>4.6684781958125708E-4</v>
       </c>
       <c r="K52" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L52" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -5356,35 +5502,35 @@
         <v>2011</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="3">
-        <v>40850</v>
+        <v>40837</v>
       </c>
       <c r="F53" s="8">
         <v>0</v>
       </c>
       <c r="G53" s="12">
-        <v>1677.49</v>
+        <v>1671.56</v>
       </c>
       <c r="H53" s="12">
-        <v>1678.11</v>
+        <v>1672.3</v>
       </c>
       <c r="I53" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.61999999999989086</v>
+        <v>0.74000000000000909</v>
       </c>
       <c r="J53" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.6959981877679801E-4</v>
+        <v>4.4270023211850554E-4</v>
       </c>
       <c r="K53" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L53" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -5398,35 +5544,35 @@
         <v>2011</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" s="3">
-        <v>40851</v>
+        <v>40840</v>
       </c>
       <c r="F54" s="8">
         <v>0</v>
       </c>
       <c r="G54" s="12">
-        <v>1678.11</v>
-      </c>
-      <c r="H54" s="8">
-        <v>1678.81</v>
+        <v>1672.3</v>
+      </c>
+      <c r="H54" s="12">
+        <v>1673.04</v>
       </c>
       <c r="I54" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
+        <v>0.74000000000000909</v>
       </c>
       <c r="J54" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1713594460437368E-4</v>
+        <v>4.4250433534653421E-4</v>
       </c>
       <c r="K54" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L54" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -5440,35 +5586,35 @@
         <v>2011</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" s="3">
-        <v>40854</v>
+        <v>40841</v>
       </c>
       <c r="F55" s="8">
         <v>0</v>
       </c>
-      <c r="G55" s="8">
-        <v>1678.81</v>
+      <c r="G55" s="12">
+        <v>1673.04</v>
       </c>
       <c r="H55" s="12">
-        <v>1679.59</v>
+        <v>1673.87</v>
       </c>
       <c r="I55" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.77999999999997272</v>
+        <v>0.82999999999992724</v>
       </c>
       <c r="J55" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6461481644734828E-4</v>
+        <v>4.9610290250079328E-4</v>
       </c>
       <c r="K55" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L55" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -5482,35 +5628,35 @@
         <v>2011</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" s="3">
-        <v>40855</v>
+        <v>40842</v>
       </c>
       <c r="F56" s="8">
         <v>0</v>
       </c>
       <c r="G56" s="12">
-        <v>1679.59</v>
+        <v>1673.87</v>
       </c>
       <c r="H56" s="12">
-        <v>1680.42</v>
+        <v>1674.66</v>
       </c>
       <c r="I56" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.83000000000015461</v>
+        <v>0.79000000000019099</v>
       </c>
       <c r="J56" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.9416821962511965E-4</v>
+        <v>4.7196018806728782E-4</v>
       </c>
       <c r="K56" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L56" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -5524,35 +5670,35 @@
         <v>2011</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="3">
-        <v>40856</v>
+        <v>40843</v>
       </c>
       <c r="F57" s="8">
         <v>0</v>
       </c>
       <c r="G57" s="12">
-        <v>1680.42</v>
+        <v>1674.66</v>
       </c>
       <c r="H57" s="12">
-        <v>1681.27</v>
+        <v>1675.48</v>
       </c>
       <c r="I57" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.84999999999990905</v>
+        <v>0.81999999999993634</v>
       </c>
       <c r="J57" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.0582592447120901E-4</v>
+        <v>4.8965163077874685E-4</v>
       </c>
       <c r="K57" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L57" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -5566,35 +5712,35 @@
         <v>2011</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" s="3">
-        <v>40857</v>
-      </c>
-      <c r="F58" s="13">
+        <v>40844</v>
+      </c>
+      <c r="F58" s="8">
         <v>0</v>
       </c>
       <c r="G58" s="12">
-        <v>1681.27</v>
+        <v>1675.48</v>
       </c>
       <c r="H58" s="12">
-        <v>1682.1</v>
+        <v>1676.13</v>
       </c>
       <c r="I58" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.82999999999992724</v>
+        <v>0.65000000000009095</v>
       </c>
       <c r="J58" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.9367442469081544E-4</v>
+        <v>3.8794852818302276E-4</v>
       </c>
       <c r="K58" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L58" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -5608,35 +5754,35 @@
         <v>2011</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" s="3">
-        <v>40858</v>
-      </c>
-      <c r="F59" s="13">
+        <v>40847</v>
+      </c>
+      <c r="F59" s="8">
         <v>0</v>
       </c>
       <c r="G59" s="12">
-        <v>1682.1</v>
+        <v>1676.13</v>
       </c>
       <c r="H59" s="12">
-        <v>1683.02</v>
+        <v>1676.86</v>
       </c>
       <c r="I59" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.92000000000007276</v>
+        <v>0.72999999999979082</v>
       </c>
       <c r="J59" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.4693537839609584E-4</v>
+        <v>4.3552707725521932E-4</v>
       </c>
       <c r="K59" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
-      </c>
-      <c r="L59" s="10">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>3.6390189013515428E-3</v>
+      </c>
+      <c r="L59" s="5">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5653,32 +5799,32 @@
         <v>16</v>
       </c>
       <c r="E60" s="3">
-        <v>40861</v>
-      </c>
-      <c r="F60" s="13">
+        <v>40848</v>
+      </c>
+      <c r="F60" s="8">
         <v>0</v>
       </c>
       <c r="G60" s="12">
-        <v>1683.02</v>
+        <v>1676.86</v>
       </c>
       <c r="H60" s="12">
-        <v>1683.82</v>
+        <v>1677.49</v>
       </c>
       <c r="I60" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.79999999999995453</v>
+        <v>0.63000000000010914</v>
       </c>
       <c r="J60" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.7533600313719063E-4</v>
+        <v>3.7570220531237501E-4</v>
       </c>
       <c r="K60" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L60" s="15">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+      <c r="L60" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -5695,24 +5841,24 @@
         <v>16</v>
       </c>
       <c r="E61" s="3">
-        <v>40863</v>
-      </c>
-      <c r="F61" s="13">
+        <v>40850</v>
+      </c>
+      <c r="F61" s="8">
         <v>0</v>
       </c>
       <c r="G61" s="12">
-        <v>1683.82</v>
+        <v>1677.49</v>
       </c>
       <c r="H61" s="12">
-        <v>1684.61</v>
+        <v>1678.11</v>
       </c>
       <c r="I61" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.78999999999996362</v>
+        <v>0.61999999999989086</v>
       </c>
       <c r="J61" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6917128909263676E-4</v>
+        <v>3.6959981877679801E-4</v>
       </c>
       <c r="K61" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -5720,7 +5866,7 @@
       </c>
       <c r="L61" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -5737,16 +5883,16 @@
         <v>16</v>
       </c>
       <c r="E62" s="3">
-        <v>40864</v>
+        <v>40851</v>
       </c>
       <c r="F62" s="8">
         <v>0</v>
       </c>
       <c r="G62" s="12">
-        <v>1684.61</v>
-      </c>
-      <c r="H62" s="12">
-        <v>1685.31</v>
+        <v>1678.11</v>
+      </c>
+      <c r="H62" s="8">
+        <v>1678.81</v>
       </c>
       <c r="I62" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
@@ -5754,7 +5900,7 @@
       </c>
       <c r="J62" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1552644232198876E-4</v>
+        <v>4.1713594460437368E-4</v>
       </c>
       <c r="K62" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -5762,7 +5908,7 @@
       </c>
       <c r="L62" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -5779,16 +5925,16 @@
         <v>16</v>
       </c>
       <c r="E63" s="3">
-        <v>40865</v>
-      </c>
-      <c r="F63" s="18">
-        <v>0</v>
-      </c>
-      <c r="G63" s="12">
-        <v>1685.31</v>
+        <v>40854</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1678.81</v>
       </c>
       <c r="H63" s="12">
-        <v>1686.09</v>
+        <v>1679.59</v>
       </c>
       <c r="I63" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
@@ -5796,7 +5942,7 @@
       </c>
       <c r="J63" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6282286344943825E-4</v>
+        <v>4.6461481644734828E-4</v>
       </c>
       <c r="K63" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -5804,7 +5950,7 @@
       </c>
       <c r="L63" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -5821,24 +5967,24 @@
         <v>16</v>
       </c>
       <c r="E64" s="3">
-        <v>40868</v>
-      </c>
-      <c r="F64" s="18">
+        <v>40855</v>
+      </c>
+      <c r="F64" s="8">
         <v>0</v>
       </c>
       <c r="G64" s="12">
-        <v>1686.09</v>
+        <v>1679.59</v>
       </c>
       <c r="H64" s="12">
-        <v>1686.81</v>
+        <v>1680.42</v>
       </c>
       <c r="I64" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.72000000000002728</v>
+        <v>0.83000000000015461</v>
       </c>
       <c r="J64" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2702346849813905E-4</v>
+        <v>4.9416821962511965E-4</v>
       </c>
       <c r="K64" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -5846,7 +5992,7 @@
       </c>
       <c r="L64" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -5863,24 +6009,24 @@
         <v>16</v>
       </c>
       <c r="E65" s="3">
-        <v>40869</v>
+        <v>40856</v>
       </c>
       <c r="F65" s="8">
         <v>0</v>
       </c>
       <c r="G65" s="12">
-        <v>1686.81</v>
+        <v>1680.42</v>
       </c>
       <c r="H65" s="12">
-        <v>1687.6</v>
+        <v>1681.27</v>
       </c>
       <c r="I65" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.78999999999996362</v>
+        <v>0.84999999999990905</v>
       </c>
       <c r="J65" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.683396470260217E-4</v>
+        <v>5.0582592447120901E-4</v>
       </c>
       <c r="K65" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -5888,7 +6034,7 @@
       </c>
       <c r="L65" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5905,24 +6051,24 @@
         <v>16</v>
       </c>
       <c r="E66" s="3">
-        <v>40870</v>
-      </c>
-      <c r="F66" s="19">
+        <v>40857</v>
+      </c>
+      <c r="F66" s="13">
         <v>0</v>
       </c>
       <c r="G66" s="12">
-        <v>1687.6</v>
+        <v>1681.27</v>
       </c>
       <c r="H66" s="12">
-        <v>1688.37</v>
+        <v>1682.1</v>
       </c>
       <c r="I66" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.76999999999998181</v>
+        <v>0.82999999999992724</v>
       </c>
       <c r="J66" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.5626925811802671E-4</v>
+        <v>4.9367442469081544E-4</v>
       </c>
       <c r="K66" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -5930,7 +6076,7 @@
       </c>
       <c r="L66" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5947,24 +6093,24 @@
         <v>16</v>
       </c>
       <c r="E67" s="3">
-        <v>40871</v>
-      </c>
-      <c r="F67" s="19">
+        <v>40858</v>
+      </c>
+      <c r="F67" s="13">
         <v>0</v>
       </c>
       <c r="G67" s="12">
-        <v>1688.37</v>
+        <v>1682.1</v>
       </c>
       <c r="H67" s="12">
-        <v>1689.07</v>
+        <v>1683.02</v>
       </c>
       <c r="I67" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
+        <v>0.92000000000007276</v>
       </c>
       <c r="J67" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1460106493247662E-4</v>
+        <v>5.4693537839609584E-4</v>
       </c>
       <c r="K67" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -5972,7 +6118,7 @@
       </c>
       <c r="L67" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5989,32 +6135,32 @@
         <v>16</v>
       </c>
       <c r="E68" s="3">
-        <v>40873</v>
-      </c>
-      <c r="F68" s="19">
+        <v>40861</v>
+      </c>
+      <c r="F68" s="13">
         <v>0</v>
       </c>
       <c r="G68" s="12">
-        <v>1689.07</v>
+        <v>1683.02</v>
       </c>
       <c r="H68" s="12">
-        <v>1689.77</v>
+        <v>1683.82</v>
       </c>
       <c r="I68" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
+        <v>0.79999999999995453</v>
       </c>
       <c r="J68" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1442924212735144E-4</v>
+        <v>4.7533600313719063E-4</v>
       </c>
       <c r="K68" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>7.0846701573179516E-3</v>
       </c>
-      <c r="L68" s="10">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+      <c r="L68" s="15">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -6031,24 +6177,24 @@
         <v>16</v>
       </c>
       <c r="E69" s="3">
-        <v>40875</v>
-      </c>
-      <c r="F69" s="19">
+        <v>40863</v>
+      </c>
+      <c r="F69" s="13">
         <v>0</v>
       </c>
       <c r="G69" s="12">
-        <v>1689.77</v>
+        <v>1683.82</v>
       </c>
       <c r="H69" s="12">
-        <v>1690.5</v>
+        <v>1684.61</v>
       </c>
       <c r="I69" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.73000000000001819</v>
+        <v>0.78999999999996362</v>
       </c>
       <c r="J69" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.3201145718057383E-4</v>
+        <v>4.6917128909263676E-4</v>
       </c>
       <c r="K69" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -6056,7 +6202,7 @@
       </c>
       <c r="L69" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -6073,16 +6219,16 @@
         <v>16</v>
       </c>
       <c r="E70" s="3">
-        <v>40876</v>
+        <v>40864</v>
       </c>
       <c r="F70" s="8">
         <v>0</v>
       </c>
       <c r="G70" s="12">
-        <v>1690.5</v>
+        <v>1684.61</v>
       </c>
       <c r="H70" s="12">
-        <v>1691.2</v>
+        <v>1685.31</v>
       </c>
       <c r="I70" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
@@ -6090,7 +6236,7 @@
       </c>
       <c r="J70" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1407867494826705E-4</v>
+        <v>4.1552644232198876E-4</v>
       </c>
       <c r="K70" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -6098,7 +6244,7 @@
       </c>
       <c r="L70" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -6115,24 +6261,24 @@
         <v>16</v>
       </c>
       <c r="E71" s="3">
-        <v>40877</v>
-      </c>
-      <c r="F71" s="20">
+        <v>40865</v>
+      </c>
+      <c r="F71" s="18">
         <v>0</v>
       </c>
       <c r="G71" s="12">
-        <v>1691.2</v>
+        <v>1685.31</v>
       </c>
       <c r="H71" s="12">
-        <v>1688.04</v>
+        <v>1686.09</v>
       </c>
       <c r="I71" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-3.1600000000000819</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="J71" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.8684957426679763E-3</v>
+        <v>4.6282286344943825E-4</v>
       </c>
       <c r="K71" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -6140,7 +6286,7 @@
       </c>
       <c r="L71" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -6157,24 +6303,24 @@
         <v>16</v>
       </c>
       <c r="E72" s="3">
-        <v>40877</v>
-      </c>
-      <c r="F72" s="20">
+        <v>40868</v>
+      </c>
+      <c r="F72" s="18">
         <v>0</v>
       </c>
       <c r="G72" s="12">
-        <v>1688.04</v>
+        <v>1686.09</v>
       </c>
       <c r="H72" s="12">
-        <v>1688.74</v>
+        <v>1686.81</v>
       </c>
       <c r="I72" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
+        <v>0.72000000000002728</v>
       </c>
       <c r="J72" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1468211653754978E-4</v>
+        <v>4.2702346849813905E-4</v>
       </c>
       <c r="K72" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -6182,7 +6328,7 @@
       </c>
       <c r="L72" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6196,35 +6342,35 @@
         <v>2011</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E73" s="3">
-        <v>40878</v>
-      </c>
-      <c r="F73" s="20">
+        <v>40869</v>
+      </c>
+      <c r="F73" s="8">
         <v>0</v>
       </c>
       <c r="G73" s="12">
-        <v>1688.74</v>
+        <v>1686.81</v>
       </c>
       <c r="H73" s="12">
-        <v>1689.49</v>
+        <v>1687.6</v>
       </c>
       <c r="I73" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75</v>
+        <v>0.78999999999996362</v>
       </c>
       <c r="J73" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4411809988512146E-4</v>
+        <v>4.683396470260217E-4</v>
       </c>
       <c r="K73" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L73" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6238,35 +6384,35 @@
         <v>2011</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E74" s="3">
-        <v>40879</v>
-      </c>
-      <c r="F74" s="20">
+        <v>40870</v>
+      </c>
+      <c r="F74" s="19">
         <v>0</v>
       </c>
       <c r="G74" s="12">
-        <v>1689.49</v>
+        <v>1687.6</v>
       </c>
       <c r="H74" s="12">
-        <v>1690.21</v>
+        <v>1688.37</v>
       </c>
       <c r="I74" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.72000000000002728</v>
+        <v>0.76999999999998181</v>
       </c>
       <c r="J74" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2616410869553964E-4</v>
+        <v>4.5626925811802671E-4</v>
       </c>
       <c r="K74" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L74" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -6280,35 +6426,35 @@
         <v>2011</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E75" s="3">
-        <v>40882</v>
-      </c>
-      <c r="F75" s="20">
+        <v>40871</v>
+      </c>
+      <c r="F75" s="19">
         <v>0</v>
       </c>
       <c r="G75" s="12">
-        <v>1690.21</v>
+        <v>1688.37</v>
       </c>
       <c r="H75" s="12">
-        <v>1690.92</v>
+        <v>1689.07</v>
       </c>
       <c r="I75" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.71000000000003638</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="J75" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2006614562689626E-4</v>
+        <v>4.1460106493247662E-4</v>
       </c>
       <c r="K75" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L75" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -6322,35 +6468,35 @@
         <v>2011</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E76" s="3">
-        <v>40883</v>
-      </c>
-      <c r="F76" s="20">
+        <v>40873</v>
+      </c>
+      <c r="F76" s="19">
         <v>0</v>
       </c>
       <c r="G76" s="12">
-        <v>1690.92</v>
+        <v>1689.07</v>
       </c>
       <c r="H76" s="12">
-        <v>1691.62</v>
+        <v>1689.77</v>
       </c>
       <c r="I76" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.6999999999998181</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="J76" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1397582381178178E-4</v>
+        <v>4.1442924212735144E-4</v>
       </c>
       <c r="K76" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L76" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6364,35 +6510,35 @@
         <v>2011</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E77" s="3">
-        <v>40884</v>
-      </c>
-      <c r="F77" s="20">
+        <v>40875</v>
+      </c>
+      <c r="F77" s="19">
         <v>0</v>
       </c>
       <c r="G77" s="12">
-        <v>1691.62</v>
+        <v>1689.77</v>
       </c>
       <c r="H77" s="12">
-        <v>1692.38</v>
+        <v>1690.5</v>
       </c>
       <c r="I77" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.76000000000021828</v>
+        <v>0.73000000000001819</v>
       </c>
       <c r="J77" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4927347749507476E-4</v>
+        <v>4.3201145718057383E-4</v>
       </c>
       <c r="K77" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L77" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6406,35 +6552,35 @@
         <v>2011</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E78" s="3">
-        <v>40885</v>
-      </c>
-      <c r="F78" s="20">
+        <v>40876</v>
+      </c>
+      <c r="F78" s="8">
         <v>0</v>
       </c>
       <c r="G78" s="12">
-        <v>1692.38</v>
+        <v>1690.5</v>
       </c>
       <c r="H78" s="12">
-        <v>1693.16</v>
+        <v>1691.2</v>
       </c>
       <c r="I78" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.77999999999997272</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="J78" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6088939836205382E-4</v>
+        <v>4.1407867494826705E-4</v>
       </c>
       <c r="K78" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L78" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -6448,35 +6594,35 @@
         <v>2011</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E79" s="3">
-        <v>40886</v>
+        <v>40877</v>
       </c>
       <c r="F79" s="20">
         <v>0</v>
       </c>
       <c r="G79" s="12">
-        <v>1693.16</v>
+        <v>1691.2</v>
       </c>
       <c r="H79" s="12">
-        <v>1693.92</v>
+        <v>1688.04</v>
       </c>
       <c r="I79" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75999999999999091</v>
+        <v>-3.1600000000000819</v>
       </c>
       <c r="J79" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4886484443288933E-4</v>
+        <v>-1.8684957426679763E-3</v>
       </c>
       <c r="K79" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L79" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -6490,35 +6636,35 @@
         <v>2011</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E80" s="3">
-        <v>40889</v>
+        <v>40877</v>
       </c>
       <c r="F80" s="20">
         <v>0</v>
       </c>
       <c r="G80" s="12">
-        <v>1693.92</v>
+        <v>1688.04</v>
       </c>
       <c r="H80" s="12">
-        <v>1694.66</v>
+        <v>1688.74</v>
       </c>
       <c r="I80" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.74000000000000909</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="J80" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.3685652214981173E-4</v>
+        <v>4.1468211653754978E-4</v>
       </c>
       <c r="K80" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L80" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -6535,32 +6681,32 @@
         <v>28</v>
       </c>
       <c r="E81" s="3">
-        <v>40890</v>
+        <v>40878</v>
       </c>
       <c r="F81" s="20">
         <v>0</v>
       </c>
       <c r="G81" s="12">
-        <v>1694.66</v>
+        <v>1688.74</v>
       </c>
       <c r="H81" s="12">
-        <v>1695.42</v>
+        <v>1689.49</v>
       </c>
       <c r="I81" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75999999999999091</v>
+        <v>0.75</v>
       </c>
       <c r="J81" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4846753921139984E-4</v>
+        <v>4.4411809988512146E-4</v>
       </c>
       <c r="K81" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L81" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -6577,32 +6723,32 @@
         <v>28</v>
       </c>
       <c r="E82" s="3">
-        <v>40891</v>
+        <v>40879</v>
       </c>
       <c r="F82" s="20">
         <v>0</v>
       </c>
       <c r="G82" s="12">
-        <v>1695.42</v>
+        <v>1689.49</v>
       </c>
       <c r="H82" s="12">
-        <v>1696.05</v>
+        <v>1690.21</v>
       </c>
       <c r="I82" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.62999999999988177</v>
+        <v>0.72000000000002728</v>
       </c>
       <c r="J82" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.7158934069427148E-4</v>
+        <v>4.2616410869553964E-4</v>
       </c>
       <c r="K82" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L82" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -6619,32 +6765,32 @@
         <v>28</v>
       </c>
       <c r="E83" s="3">
-        <v>40892</v>
+        <v>40882</v>
       </c>
       <c r="F83" s="20">
         <v>0</v>
       </c>
       <c r="G83" s="12">
-        <v>1696.05</v>
+        <v>1690.21</v>
       </c>
       <c r="H83" s="12">
-        <v>1696.85</v>
+        <v>1690.92</v>
       </c>
       <c r="I83" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.79999999999995453</v>
+        <v>0.71000000000003638</v>
       </c>
       <c r="J83" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.7168420742310342E-4</v>
+        <v>4.2006614562689626E-4</v>
       </c>
       <c r="K83" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L83" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -6661,32 +6807,32 @@
         <v>28</v>
       </c>
       <c r="E84" s="3">
-        <v>40893</v>
+        <v>40883</v>
       </c>
       <c r="F84" s="20">
         <v>0</v>
       </c>
       <c r="G84" s="12">
-        <v>1696.85</v>
+        <v>1690.92</v>
       </c>
       <c r="H84" s="12">
-        <v>1697.45</v>
+        <v>1691.62</v>
       </c>
       <c r="I84" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.60000000000013642</v>
+        <v>0.6999999999998181</v>
       </c>
       <c r="J84" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.535963697440177E-4</v>
+        <v>4.1397582381178178E-4</v>
       </c>
       <c r="K84" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L84" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -6703,32 +6849,32 @@
         <v>28</v>
       </c>
       <c r="E85" s="3">
-        <v>40896</v>
+        <v>40884</v>
       </c>
       <c r="F85" s="20">
         <v>0</v>
       </c>
       <c r="G85" s="12">
-        <v>1697.45</v>
+        <v>1691.62</v>
       </c>
       <c r="H85" s="12">
-        <v>1698.16</v>
+        <v>1692.38</v>
       </c>
       <c r="I85" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.71000000000003638</v>
+        <v>0.76000000000021828</v>
       </c>
       <c r="J85" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1827447052934482E-4</v>
+        <v>4.4927347749507476E-4</v>
       </c>
       <c r="K85" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L85" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -6745,32 +6891,32 @@
         <v>28</v>
       </c>
       <c r="E86" s="3">
-        <v>40897</v>
+        <v>40885</v>
       </c>
       <c r="F86" s="20">
         <v>0</v>
       </c>
       <c r="G86" s="12">
-        <v>1698.16</v>
+        <v>1692.38</v>
       </c>
       <c r="H86" s="12">
-        <v>1698.78</v>
+        <v>1693.16</v>
       </c>
       <c r="I86" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.61999999999989086</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="J86" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.6510105054876504E-4</v>
+        <v>4.6088939836205382E-4</v>
       </c>
       <c r="K86" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L86" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -6787,32 +6933,32 @@
         <v>28</v>
       </c>
       <c r="E87" s="3">
-        <v>40898</v>
+        <v>40886</v>
       </c>
       <c r="F87" s="20">
         <v>0</v>
       </c>
       <c r="G87" s="12">
-        <v>1698.78</v>
+        <v>1693.16</v>
       </c>
       <c r="H87" s="12">
-        <v>1699.46</v>
+        <v>1693.92</v>
       </c>
       <c r="I87" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.68000000000006366</v>
+        <v>0.75999999999999091</v>
       </c>
       <c r="J87" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.0028726497843376E-4</v>
+        <v>4.4886484443288933E-4</v>
       </c>
       <c r="K87" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L87" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -6829,32 +6975,32 @@
         <v>28</v>
       </c>
       <c r="E88" s="3">
-        <v>40899</v>
+        <v>40889</v>
       </c>
       <c r="F88" s="20">
         <v>0</v>
       </c>
       <c r="G88" s="12">
-        <v>1699.46</v>
+        <v>1693.92</v>
       </c>
       <c r="H88" s="12">
-        <v>1700.17</v>
+        <v>1694.66</v>
       </c>
       <c r="I88" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.71000000000003638</v>
+        <v>0.74000000000000909</v>
       </c>
       <c r="J88" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1777976533724617E-4</v>
+        <v>4.3685652214981173E-4</v>
       </c>
       <c r="K88" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L88" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -6871,32 +7017,32 @@
         <v>28</v>
       </c>
       <c r="E89" s="3">
-        <v>40900</v>
+        <v>40890</v>
       </c>
       <c r="F89" s="20">
         <v>0</v>
       </c>
       <c r="G89" s="12">
-        <v>1700.17</v>
+        <v>1694.66</v>
       </c>
       <c r="H89" s="12">
-        <v>1700.94</v>
+        <v>1695.42</v>
       </c>
       <c r="I89" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.76999999999998181</v>
+        <v>0.75999999999999091</v>
       </c>
       <c r="J89" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.5289588688188931E-4</v>
+        <v>4.4846753921139984E-4</v>
       </c>
       <c r="K89" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.2243210914650913E-3</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L89" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.8051449023809063E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -6904,41 +7050,41 @@
         <v>36</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C90" s="7">
         <v>2011</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E90" s="3">
-        <v>40877</v>
-      </c>
-      <c r="F90" s="8">
-        <v>580</v>
+        <v>40891</v>
+      </c>
+      <c r="F90" s="20">
+        <v>0</v>
       </c>
       <c r="G90" s="12">
-        <v>0</v>
+        <v>1695.42</v>
       </c>
       <c r="H90" s="12">
-        <v>0</v>
+        <v>1696.05</v>
       </c>
       <c r="I90" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
+        <v>0.62999999999988177</v>
       </c>
       <c r="J90" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>3.7158934069427148E-4</v>
       </c>
       <c r="K90" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L90" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -6946,7 +7092,7 @@
         <v>36</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C91">
         <v>2011</v>
@@ -6955,32 +7101,32 @@
         <v>28</v>
       </c>
       <c r="E91" s="3">
-        <v>40878</v>
+        <v>40892</v>
       </c>
       <c r="F91" s="20">
         <v>0</v>
       </c>
-      <c r="G91" s="8">
-        <v>580</v>
+      <c r="G91" s="12">
+        <v>1696.05</v>
       </c>
       <c r="H91" s="12">
-        <v>590.01</v>
+        <v>1696.85</v>
       </c>
       <c r="I91" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>10.009999999999991</v>
+        <v>0.79999999999995453</v>
       </c>
       <c r="J91" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.7258620689655158E-2</v>
+        <v>4.7168420742310342E-4</v>
       </c>
       <c r="K91" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L91" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -6988,7 +7134,7 @@
         <v>36</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C92">
         <v>2011</v>
@@ -6997,32 +7143,32 @@
         <v>28</v>
       </c>
       <c r="E92" s="3">
-        <v>40879</v>
+        <v>40893</v>
       </c>
       <c r="F92" s="20">
         <v>0</v>
       </c>
       <c r="G92" s="12">
-        <v>590.01</v>
+        <v>1696.85</v>
       </c>
       <c r="H92" s="12">
-        <v>587.96</v>
+        <v>1697.45</v>
       </c>
       <c r="I92" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-2.0499999999999545</v>
+        <v>0.60000000000013642</v>
       </c>
       <c r="J92" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.474517381061261E-3</v>
+        <v>3.535963697440177E-4</v>
       </c>
       <c r="K92" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L92" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -7030,7 +7176,7 @@
         <v>36</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C93">
         <v>2011</v>
@@ -7039,32 +7185,32 @@
         <v>28</v>
       </c>
       <c r="E93" s="3">
-        <v>40882</v>
+        <v>40896</v>
       </c>
       <c r="F93" s="20">
         <v>0</v>
       </c>
       <c r="G93" s="12">
-        <v>587.96</v>
+        <v>1697.45</v>
       </c>
       <c r="H93" s="12">
-        <v>596.89</v>
+        <v>1698.16</v>
       </c>
       <c r="I93" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>8.92999999999995</v>
+        <v>0.71000000000003638</v>
       </c>
       <c r="J93" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.5188108034560088E-2</v>
+        <v>4.1827447052934482E-4</v>
       </c>
       <c r="K93" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L93" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -7072,7 +7218,7 @@
         <v>36</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C94" s="7">
         <v>2011</v>
@@ -7081,32 +7227,32 @@
         <v>28</v>
       </c>
       <c r="E94" s="3">
-        <v>40883</v>
+        <v>40897</v>
       </c>
       <c r="F94" s="20">
         <v>0</v>
       </c>
       <c r="G94" s="12">
-        <v>596.89</v>
+        <v>1698.16</v>
       </c>
       <c r="H94" s="12">
-        <v>603.42999999999995</v>
+        <v>1698.78</v>
       </c>
       <c r="I94" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>6.5399999999999636</v>
+        <v>0.61999999999989086</v>
       </c>
       <c r="J94" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.0956792708874272E-2</v>
+        <v>3.6510105054876504E-4</v>
       </c>
       <c r="K94" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L94" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -7114,7 +7260,7 @@
         <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C95">
         <v>2011</v>
@@ -7123,32 +7269,32 @@
         <v>28</v>
       </c>
       <c r="E95" s="3">
-        <v>40884</v>
+        <v>40898</v>
       </c>
       <c r="F95" s="20">
         <v>0</v>
       </c>
       <c r="G95" s="12">
-        <v>603.42999999999995</v>
+        <v>1698.78</v>
       </c>
       <c r="H95" s="12">
-        <v>599.11</v>
+        <v>1699.46</v>
       </c>
       <c r="I95" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-4.3199999999999363</v>
+        <v>0.68000000000006366</v>
       </c>
       <c r="J95" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-7.1590739605255568E-3</v>
+        <v>4.0028726497843376E-4</v>
       </c>
       <c r="K95" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L95" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -7156,7 +7302,7 @@
         <v>36</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C96" s="7">
         <v>2011</v>
@@ -7165,32 +7311,32 @@
         <v>28</v>
       </c>
       <c r="E96" s="3">
-        <v>40885</v>
+        <v>40899</v>
       </c>
       <c r="F96" s="20">
         <v>0</v>
       </c>
       <c r="G96" s="12">
-        <v>599.11</v>
+        <v>1699.46</v>
       </c>
       <c r="H96" s="12">
-        <v>592.57000000000005</v>
+        <v>1700.17</v>
       </c>
       <c r="I96" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-6.5399999999999636</v>
+        <v>0.71000000000003638</v>
       </c>
       <c r="J96" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.0916192351988723E-2</v>
+        <v>4.1777976533724617E-4</v>
       </c>
       <c r="K96" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L96" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -7198,7 +7344,7 @@
         <v>36</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C97" s="7">
         <v>2011</v>
@@ -7207,32 +7353,32 @@
         <v>28</v>
       </c>
       <c r="E97" s="3">
-        <v>40886</v>
+        <v>40900</v>
       </c>
       <c r="F97" s="20">
         <v>0</v>
       </c>
       <c r="G97" s="12">
-        <v>592.57000000000005</v>
+        <v>1700.17</v>
       </c>
       <c r="H97" s="12">
-        <v>597.64</v>
+        <v>1700.94</v>
       </c>
       <c r="I97" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>5.0699999999999363</v>
+        <v>0.76999999999998181</v>
       </c>
       <c r="J97" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>8.5559511956392262E-3</v>
+        <v>4.5289588688188931E-4</v>
       </c>
       <c r="K97" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L97" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -7240,7 +7386,7 @@
         <v>36</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C98" s="7">
         <v>2011</v>
@@ -7249,32 +7395,32 @@
         <v>28</v>
       </c>
       <c r="E98" s="3">
-        <v>40889</v>
+        <v>40903</v>
       </c>
       <c r="F98" s="20">
         <v>0</v>
       </c>
       <c r="G98" s="12">
-        <v>597.64</v>
+        <v>1700.94</v>
       </c>
       <c r="H98" s="12">
-        <v>595.96</v>
+        <v>1701.66</v>
       </c>
       <c r="I98" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-1.67999999999995</v>
+        <v>0.72000000000002728</v>
       </c>
       <c r="J98" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.8110568235057056E-3</v>
+        <v>4.2329535433350223E-4</v>
       </c>
       <c r="K98" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L98" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -7282,7 +7428,7 @@
         <v>36</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C99" s="7">
         <v>2011</v>
@@ -7291,32 +7437,32 @@
         <v>28</v>
       </c>
       <c r="E99" s="3">
-        <v>40890</v>
+        <v>40904</v>
       </c>
       <c r="F99" s="20">
         <v>0</v>
       </c>
       <c r="G99" s="12">
-        <v>595.96</v>
+        <v>1701.66</v>
       </c>
       <c r="H99" s="12">
-        <v>601.32000000000005</v>
+        <v>1702.38</v>
       </c>
       <c r="I99" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>5.3600000000000136</v>
+        <v>0.72000000000002728</v>
       </c>
       <c r="J99" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>8.9938922075307286E-3</v>
+        <v>4.2311625119003049E-4</v>
       </c>
       <c r="K99" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>8.0770278432444886E-3</v>
       </c>
       <c r="L99" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.8913321921497639E-2</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -7330,31 +7476,31 @@
         <v>2011</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E100" s="3">
-        <v>40893</v>
-      </c>
-      <c r="F100" s="20">
-        <v>-598.13</v>
+        <v>40877</v>
+      </c>
+      <c r="F100" s="8">
+        <v>580</v>
       </c>
       <c r="G100" s="12">
-        <v>601.32000000000005</v>
+        <v>0</v>
       </c>
       <c r="H100" s="12">
         <v>0</v>
       </c>
       <c r="I100" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-3.1900000000000546</v>
+        <v>0</v>
       </c>
       <c r="J100" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-5.3049956761791629E-3</v>
+        <v>0</v>
       </c>
       <c r="K100" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>0</v>
       </c>
       <c r="L100" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -7366,41 +7512,41 @@
         <v>36</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C101" s="7">
         <v>2011</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E101" s="3">
-        <v>40848</v>
-      </c>
-      <c r="F101" s="8">
-        <v>428.37</v>
+        <v>40878</v>
+      </c>
+      <c r="F101" s="20">
+        <v>0</v>
       </c>
       <c r="G101" s="8">
-        <v>428.37</v>
-      </c>
-      <c r="H101" s="8">
-        <v>428.37</v>
-      </c>
-      <c r="I101" s="25">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="H101" s="12">
+        <v>590.01</v>
+      </c>
+      <c r="I101" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>10.009999999999991</v>
       </c>
       <c r="J101" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>1.7258620689655158E-2</v>
       </c>
       <c r="K101" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L101" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -7408,41 +7554,41 @@
         <v>36</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C102" s="7">
         <v>2011</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E102" s="3">
-        <v>40850</v>
-      </c>
-      <c r="F102" s="8">
-        <v>0</v>
-      </c>
-      <c r="G102" s="8">
-        <v>428.37</v>
+        <v>40879</v>
+      </c>
+      <c r="F102" s="20">
+        <v>0</v>
+      </c>
+      <c r="G102" s="12">
+        <v>590.01</v>
       </c>
       <c r="H102" s="12">
-        <v>428.55</v>
+        <v>587.96</v>
       </c>
       <c r="I102" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.18000000000000682</v>
+        <v>-2.0499999999999545</v>
       </c>
       <c r="J102" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2019749282164209E-4</v>
+        <v>-3.474517381061261E-3</v>
       </c>
       <c r="K102" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L102" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -7450,41 +7596,41 @@
         <v>36</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C103" s="7">
         <v>2011</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E103" s="3">
-        <v>40851</v>
-      </c>
-      <c r="F103" s="8">
-        <v>0</v>
-      </c>
-      <c r="G103" s="8">
-        <v>428.55</v>
+        <v>40882</v>
+      </c>
+      <c r="F103" s="20">
+        <v>0</v>
+      </c>
+      <c r="G103" s="12">
+        <v>587.96</v>
       </c>
       <c r="H103" s="12">
-        <v>428.72</v>
+        <v>596.89</v>
       </c>
       <c r="I103" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17000000000001592</v>
+        <v>8.92999999999995</v>
       </c>
       <c r="J103" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9668650099175339E-4</v>
+        <v>1.5188108034560088E-2</v>
       </c>
       <c r="K103" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L103" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -7492,41 +7638,41 @@
         <v>36</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C104" s="7">
         <v>2011</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E104" s="3">
-        <v>40854</v>
-      </c>
-      <c r="F104" s="8">
+        <v>40883</v>
+      </c>
+      <c r="F104" s="20">
         <v>0</v>
       </c>
       <c r="G104" s="12">
-        <v>428.72</v>
+        <v>596.89</v>
       </c>
       <c r="H104" s="12">
-        <v>428.9</v>
+        <v>603.42999999999995</v>
       </c>
       <c r="I104" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17999999999994998</v>
+        <v>6.5399999999999636</v>
       </c>
       <c r="J104" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1985445045705815E-4</v>
+        <v>1.0956792708874272E-2</v>
       </c>
       <c r="K104" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L104" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -7534,41 +7680,41 @@
         <v>36</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C105" s="7">
         <v>2011</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E105" s="3">
-        <v>40855</v>
-      </c>
-      <c r="F105" s="8">
+        <v>40884</v>
+      </c>
+      <c r="F105" s="20">
         <v>0</v>
       </c>
       <c r="G105" s="12">
-        <v>428.9</v>
+        <v>603.42999999999995</v>
       </c>
       <c r="H105" s="12">
-        <v>429.08</v>
+        <v>599.11</v>
       </c>
       <c r="I105" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.18000000000000682</v>
+        <v>-4.3199999999999363</v>
       </c>
       <c r="J105" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1967824667756313E-4</v>
+        <v>-7.1590739605255568E-3</v>
       </c>
       <c r="K105" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L105" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -7576,41 +7722,41 @@
         <v>36</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C106" s="7">
         <v>2011</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E106" s="3">
-        <v>40856</v>
-      </c>
-      <c r="F106" s="8">
+        <v>40885</v>
+      </c>
+      <c r="F106" s="20">
         <v>0</v>
       </c>
       <c r="G106" s="12">
-        <v>429.08</v>
+        <v>599.11</v>
       </c>
       <c r="H106" s="12">
-        <v>429.28</v>
+        <v>592.57000000000005</v>
       </c>
       <c r="I106" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.19999999999998863</v>
+        <v>-6.5399999999999636</v>
       </c>
       <c r="J106" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6611354525959874E-4</v>
+        <v>-1.0916192351988723E-2</v>
       </c>
       <c r="K106" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L106" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -7618,41 +7764,41 @@
         <v>36</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C107" s="7">
         <v>2011</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E107" s="3">
-        <v>40857</v>
-      </c>
-      <c r="F107" s="13">
+        <v>40886</v>
+      </c>
+      <c r="F107" s="20">
         <v>0</v>
       </c>
       <c r="G107" s="12">
-        <v>429.28</v>
+        <v>592.57000000000005</v>
       </c>
       <c r="H107" s="12">
-        <v>429.48</v>
+        <v>597.64</v>
       </c>
       <c r="I107" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.20000000000004547</v>
+        <v>5.0699999999999363</v>
       </c>
       <c r="J107" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6589638464416113E-4</v>
+        <v>8.5559511956392262E-3</v>
       </c>
       <c r="K107" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L107" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -7660,41 +7806,41 @@
         <v>36</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C108" s="7">
         <v>2011</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E108" s="3">
-        <v>40858</v>
-      </c>
-      <c r="F108" s="13">
+        <v>40889</v>
+      </c>
+      <c r="F108" s="20">
         <v>0</v>
       </c>
       <c r="G108" s="12">
-        <v>429.48</v>
+        <v>597.64</v>
       </c>
       <c r="H108" s="12">
-        <v>429.69</v>
+        <v>595.96</v>
       </c>
       <c r="I108" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.20999999999997954</v>
+        <v>-1.67999999999995</v>
       </c>
       <c r="J108" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.8896339759704646E-4</v>
+        <v>-2.8110568235057056E-3</v>
       </c>
       <c r="K108" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L108" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -7702,41 +7848,41 @@
         <v>36</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C109" s="7">
         <v>2011</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E109" s="3">
-        <v>40861</v>
-      </c>
-      <c r="F109" s="13">
+        <v>40890</v>
+      </c>
+      <c r="F109" s="20">
         <v>0</v>
       </c>
       <c r="G109" s="12">
-        <v>429.69</v>
+        <v>595.96</v>
       </c>
       <c r="H109" s="12">
-        <v>429.89</v>
+        <v>601.32000000000005</v>
       </c>
       <c r="I109" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.19999999999998863</v>
+        <v>5.3600000000000136</v>
       </c>
       <c r="J109" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6545183737110158E-4</v>
+        <v>8.9938922075307286E-3</v>
       </c>
       <c r="K109" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L109" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -7744,41 +7890,41 @@
         <v>36</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C110" s="7">
         <v>2011</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E110" s="3">
-        <v>40863</v>
-      </c>
-      <c r="F110" s="13">
-        <v>0</v>
+        <v>40893</v>
+      </c>
+      <c r="F110" s="20">
+        <v>-598.13</v>
       </c>
       <c r="G110" s="12">
-        <v>429.89</v>
+        <v>601.32000000000005</v>
       </c>
       <c r="H110" s="12">
-        <v>430.1</v>
+        <v>0</v>
       </c>
       <c r="I110" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.21000000000003638</v>
+        <v>-3.1900000000000546</v>
       </c>
       <c r="J110" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.8849705738685802E-4</v>
-      </c>
-      <c r="K110" s="15">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
-      </c>
-      <c r="L110" s="15">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>-5.3049956761791629E-3</v>
+      </c>
+      <c r="K110" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.1258620689655681E-2</v>
+      </c>
+      <c r="L110" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>3.1258620689655681E-2</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -7795,24 +7941,24 @@
         <v>16</v>
       </c>
       <c r="E111" s="3">
-        <v>40864</v>
-      </c>
-      <c r="F111" s="13">
-        <v>0</v>
-      </c>
-      <c r="G111" s="12">
-        <v>430.1</v>
-      </c>
-      <c r="H111" s="12">
-        <v>430.27</v>
-      </c>
-      <c r="I111" s="9">
-        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.16999999999995907</v>
+        <v>40848</v>
+      </c>
+      <c r="F111" s="8">
+        <v>428.37</v>
+      </c>
+      <c r="G111" s="8">
+        <v>428.37</v>
+      </c>
+      <c r="H111" s="8">
+        <v>428.37</v>
+      </c>
+      <c r="I111" s="25">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0</v>
       </c>
       <c r="J111" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9525691699595223E-4</v>
+        <v>0</v>
       </c>
       <c r="K111" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -7837,24 +7983,24 @@
         <v>16</v>
       </c>
       <c r="E112" s="3">
-        <v>40865</v>
+        <v>40850</v>
       </c>
       <c r="F112" s="8">
         <v>0</v>
       </c>
-      <c r="G112" s="12">
-        <v>430.27</v>
+      <c r="G112" s="8">
+        <v>428.37</v>
       </c>
       <c r="H112" s="12">
-        <v>430.44</v>
+        <v>428.55</v>
       </c>
       <c r="I112" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17000000000001592</v>
+        <v>0.18000000000000682</v>
       </c>
       <c r="J112" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9510075069146332E-4</v>
+        <v>4.2019749282164209E-4</v>
       </c>
       <c r="K112" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -7879,24 +8025,24 @@
         <v>16</v>
       </c>
       <c r="E113" s="3">
-        <v>40868</v>
-      </c>
-      <c r="F113" s="18">
-        <v>0</v>
-      </c>
-      <c r="G113" s="12">
-        <v>430.44</v>
+        <v>40851</v>
+      </c>
+      <c r="F113" s="8">
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
+        <v>428.55</v>
       </c>
       <c r="H113" s="12">
-        <v>430.6</v>
+        <v>428.72</v>
       </c>
       <c r="I113" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.16000000000002501</v>
+        <v>0.17000000000001592</v>
       </c>
       <c r="J113" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.717126661091558E-4</v>
+        <v>3.9668650099175339E-4</v>
       </c>
       <c r="K113" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -7921,16 +8067,16 @@
         <v>16</v>
       </c>
       <c r="E114" s="3">
-        <v>40869</v>
-      </c>
-      <c r="F114" s="18">
+        <v>40854</v>
+      </c>
+      <c r="F114" s="8">
         <v>0</v>
       </c>
       <c r="G114" s="12">
-        <v>430.6</v>
+        <v>428.72</v>
       </c>
       <c r="H114" s="12">
-        <v>430.78</v>
+        <v>428.9</v>
       </c>
       <c r="I114" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
@@ -7938,7 +8084,7 @@
       </c>
       <c r="J114" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1802136553634455E-4</v>
+        <v>4.1985445045705815E-4</v>
       </c>
       <c r="K114" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -7963,24 +8109,24 @@
         <v>16</v>
       </c>
       <c r="E115" s="3">
-        <v>40870</v>
+        <v>40855</v>
       </c>
       <c r="F115" s="8">
         <v>0</v>
       </c>
       <c r="G115" s="12">
-        <v>430.78</v>
+        <v>428.9</v>
       </c>
       <c r="H115" s="12">
-        <v>430.95</v>
+        <v>429.08</v>
       </c>
       <c r="I115" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17000000000001592</v>
+        <v>0.18000000000000682</v>
       </c>
       <c r="J115" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9463299131811116E-4</v>
+        <v>4.1967824667756313E-4</v>
       </c>
       <c r="K115" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -8005,24 +8151,24 @@
         <v>16</v>
       </c>
       <c r="E116" s="3">
-        <v>40871</v>
-      </c>
-      <c r="F116" s="19">
+        <v>40856</v>
+      </c>
+      <c r="F116" s="8">
         <v>0</v>
       </c>
       <c r="G116" s="12">
-        <v>430.95</v>
+        <v>429.08</v>
       </c>
       <c r="H116" s="12">
-        <v>431.11</v>
+        <v>429.28</v>
       </c>
       <c r="I116" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.16000000000002501</v>
+        <v>0.19999999999998863</v>
       </c>
       <c r="J116" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.7127276946287278E-4</v>
+        <v>4.6611354525959874E-4</v>
       </c>
       <c r="K116" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -8047,24 +8193,24 @@
         <v>16</v>
       </c>
       <c r="E117" s="3">
-        <v>40872</v>
-      </c>
-      <c r="F117" s="19">
+        <v>40857</v>
+      </c>
+      <c r="F117" s="13">
         <v>0</v>
       </c>
       <c r="G117" s="12">
-        <v>431.11</v>
+        <v>429.28</v>
       </c>
       <c r="H117" s="12">
-        <v>431.23</v>
+        <v>429.48</v>
       </c>
       <c r="I117" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.12000000000000455</v>
+        <v>0.20000000000004547</v>
       </c>
       <c r="J117" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.7835123286401277E-4</v>
+        <v>4.6589638464416113E-4</v>
       </c>
       <c r="K117" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -8089,24 +8235,24 @@
         <v>16</v>
       </c>
       <c r="E118" s="3">
-        <v>40875</v>
-      </c>
-      <c r="F118" s="19">
+        <v>40858</v>
+      </c>
+      <c r="F118" s="13">
         <v>0</v>
       </c>
       <c r="G118" s="12">
-        <v>431.23</v>
+        <v>429.48</v>
       </c>
       <c r="H118" s="12">
-        <v>431.4</v>
+        <v>429.69</v>
       </c>
       <c r="I118" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.16999999999995907</v>
+        <v>0.20999999999997954</v>
       </c>
       <c r="J118" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9422118127208002E-4</v>
+        <v>4.8896339759704646E-4</v>
       </c>
       <c r="K118" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -8131,89 +8277,498 @@
         <v>16</v>
       </c>
       <c r="E119" s="3">
+        <v>40861</v>
+      </c>
+      <c r="F119" s="13">
+        <v>0</v>
+      </c>
+      <c r="G119" s="12">
+        <v>429.69</v>
+      </c>
+      <c r="H119" s="12">
+        <v>429.89</v>
+      </c>
+      <c r="I119" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.19999999999998863</v>
+      </c>
+      <c r="J119" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.6545183737110158E-4</v>
+      </c>
+      <c r="K119" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L119" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="3">
+        <v>40863</v>
+      </c>
+      <c r="F120" s="13">
+        <v>0</v>
+      </c>
+      <c r="G120" s="12">
+        <v>429.89</v>
+      </c>
+      <c r="H120" s="12">
+        <v>430.1</v>
+      </c>
+      <c r="I120" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.21000000000003638</v>
+      </c>
+      <c r="J120" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.8849705738685802E-4</v>
+      </c>
+      <c r="K120" s="15">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L120" s="15">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="3">
+        <v>40864</v>
+      </c>
+      <c r="F121" s="13">
+        <v>0</v>
+      </c>
+      <c r="G121" s="12">
+        <v>430.1</v>
+      </c>
+      <c r="H121" s="12">
+        <v>430.27</v>
+      </c>
+      <c r="I121" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.16999999999995907</v>
+      </c>
+      <c r="J121" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.9525691699595223E-4</v>
+      </c>
+      <c r="K121" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L121" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="3">
+        <v>40865</v>
+      </c>
+      <c r="F122" s="8">
+        <v>0</v>
+      </c>
+      <c r="G122" s="12">
+        <v>430.27</v>
+      </c>
+      <c r="H122" s="12">
+        <v>430.44</v>
+      </c>
+      <c r="I122" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.17000000000001592</v>
+      </c>
+      <c r="J122" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.9510075069146332E-4</v>
+      </c>
+      <c r="K122" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L122" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="3">
+        <v>40868</v>
+      </c>
+      <c r="F123" s="18">
+        <v>0</v>
+      </c>
+      <c r="G123" s="12">
+        <v>430.44</v>
+      </c>
+      <c r="H123" s="12">
+        <v>430.6</v>
+      </c>
+      <c r="I123" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.16000000000002501</v>
+      </c>
+      <c r="J123" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.717126661091558E-4</v>
+      </c>
+      <c r="K123" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L123" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="3">
+        <v>40869</v>
+      </c>
+      <c r="F124" s="18">
+        <v>0</v>
+      </c>
+      <c r="G124" s="12">
+        <v>430.6</v>
+      </c>
+      <c r="H124" s="12">
+        <v>430.78</v>
+      </c>
+      <c r="I124" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.17999999999994998</v>
+      </c>
+      <c r="J124" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>4.1802136553634455E-4</v>
+      </c>
+      <c r="K124" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L124" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125" s="3">
+        <v>40870</v>
+      </c>
+      <c r="F125" s="8">
+        <v>0</v>
+      </c>
+      <c r="G125" s="12">
+        <v>430.78</v>
+      </c>
+      <c r="H125" s="12">
+        <v>430.95</v>
+      </c>
+      <c r="I125" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.17000000000001592</v>
+      </c>
+      <c r="J125" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.9463299131811116E-4</v>
+      </c>
+      <c r="K125" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L125" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="3">
+        <v>40871</v>
+      </c>
+      <c r="F126" s="19">
+        <v>0</v>
+      </c>
+      <c r="G126" s="12">
+        <v>430.95</v>
+      </c>
+      <c r="H126" s="12">
+        <v>431.11</v>
+      </c>
+      <c r="I126" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.16000000000002501</v>
+      </c>
+      <c r="J126" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.7127276946287278E-4</v>
+      </c>
+      <c r="K126" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L126" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" s="3">
+        <v>40872</v>
+      </c>
+      <c r="F127" s="19">
+        <v>0</v>
+      </c>
+      <c r="G127" s="12">
+        <v>431.11</v>
+      </c>
+      <c r="H127" s="12">
+        <v>431.23</v>
+      </c>
+      <c r="I127" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="J127" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>2.7835123286401277E-4</v>
+      </c>
+      <c r="K127" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L127" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="3">
+        <v>40875</v>
+      </c>
+      <c r="F128" s="19">
+        <v>0</v>
+      </c>
+      <c r="G128" s="12">
+        <v>431.23</v>
+      </c>
+      <c r="H128" s="12">
+        <v>431.4</v>
+      </c>
+      <c r="I128" s="9">
+        <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.16999999999995907</v>
+      </c>
+      <c r="J128" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.9422118127208002E-4</v>
+      </c>
+      <c r="K128" s="10">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L128" s="10">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="7">
+        <v>2011</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="3">
         <v>40876</v>
       </c>
-      <c r="F119" s="19">
+      <c r="F129" s="19">
         <v>-430.71</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G129" s="12">
         <v>431.4</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H129" s="12">
         <v>431.57</v>
       </c>
-      <c r="I119" s="9">
+      <c r="I129" s="9">
         <f>IF(Tabela1[[#This Row],[Aplicação/Resgate]]&lt;0,-(Tabela1[[#This Row],[Aplicação/Resgate]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>-0.68999999999999773</v>
       </c>
-      <c r="J119" s="5">
+      <c r="J129" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
         <v>-1.5994436717663369E-3</v>
       </c>
-      <c r="K119" s="10">
+      <c r="K129" s="10">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
-      <c r="L119" s="10">
+      <c r="L129" s="10">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
         <v>5.4625674066808294E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B120" s="25" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B130" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C120" s="21">
+      <c r="C130" s="21">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="D120" s="21">
+      <c r="D130" s="21">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40901</v>
-      </c>
-      <c r="E120">
+        <v>40905</v>
+      </c>
+      <c r="E130">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Ano]],Tabela1[[#Totals],[Mês]],Plan2!A2:A1048576)</f>
-        <v>46</v>
-      </c>
-      <c r="F120" s="25">
+        <v>49</v>
+      </c>
+      <c r="F130" s="26">
         <f>SUBTOTAL(109,Tabela1[Aplicação/Resgate])</f>
         <v>4357.6899999999996</v>
       </c>
-      <c r="G120" s="26">
+      <c r="G130" s="27">
         <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Valor Bruto]]</f>
-        <v>5.9351835809643365E-2</v>
-      </c>
-      <c r="H120" s="25">
+        <v>4.5713878530201223E-2</v>
+      </c>
+      <c r="H130" s="26">
         <f>Tabela1[[#Totals],[Aplicação/Resgate]]+Tabela1[[#Totals],[Rendimento]]+Tabela1[[#Totals],[Nome]]</f>
-        <v>6406.7099999999991</v>
-      </c>
-      <c r="I120" s="9">
+        <v>6315.15</v>
+      </c>
+      <c r="I130" s="9">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>380.25000000000017</v>
-      </c>
-      <c r="J120" s="26">
+        <v>288.69000000000023</v>
+      </c>
+      <c r="J130" s="27">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.2542042363621331E-3</v>
-      </c>
-      <c r="K120" s="26">
+        <v>9.1265682075025722E-4</v>
+      </c>
+      <c r="K130" s="27">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.6671263727618078E-2</v>
-      </c>
-      <c r="L120" s="26">
+        <v>1.9341726373778068E-2</v>
+      </c>
+      <c r="L130" s="27">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.37144020414207635</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D121" s="6"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
+        <v>0.25845481600047293</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F30">

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="30">
   <si>
     <t>Nome</t>
   </si>
@@ -109,7 +109,7 @@
     <t>Rend. Líquido</t>
   </si>
   <si>
-    <t xml:space="preserve"> R$ 2.235,80 </t>
+    <t xml:space="preserve"> R$ 1.059,64 </t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,10 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000%"/>
@@ -442,13 +445,10 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000%"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -2617,7 +2617,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -2815,14 +2815,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L142" totalsRowCount="1" headerRowDxfId="20">
-  <autoFilter ref="A1:L141"/>
-  <sortState ref="A2:L134">
-    <sortCondition ref="B1:B134"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L147" totalsRowCount="1" headerRowDxfId="20">
+  <autoFilter ref="A1:L146"/>
+  <sortState ref="A2:L141">
+    <sortCondition ref="C1:C141"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="12" name="ID"/>
-    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 2.235,80 " totalsRowDxfId="9"/>
+    <tableColumn id="1" name="Nome" totalsRowLabel=" R$ 1.059,64 " totalsRowDxfId="9"/>
     <tableColumn id="3" name="Data" totalsRowFunction="custom" dataDxfId="19" dataCellStyle="Moeda">
       <totalsRowFormula>NETWORKDAYS(Tabela1[[#Totals],[Mês]],Tabela1[[#Totals],[Ano]],Plan2!A2:A1048576)</totalsRowFormula>
     </tableColumn>
@@ -2833,26 +2833,26 @@
     <tableColumn id="5" name="Valor Bruto" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="6" dataCellStyle="Moeda">
       <totalsRowFormula>Tabela1[[#Totals],[Aplicação]]+Tabela1[[#Totals],[Nome]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" name="Rendimento" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="5">
+    <tableColumn id="6" name="Rendimento" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mês" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4">
+    <tableColumn id="2" name="Mês" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="4">
       <calculatedColumnFormula>MONTH(Tabela1[[#This Row],[Data]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(105,Tabela1[Data])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" name="Ano" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="3">
+    <tableColumn id="11" name="Ano" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="3">
       <calculatedColumnFormula>YEAR(Tabela1[[#This Row],[Data]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(104,Tabela1[Data])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" name="Rent. Dia" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="7" name="Rent. Dia" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" name="Rent. Mês" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="1">
+    <tableColumn id="8" name="Rent. Mês" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" name="Rent. Ano" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="0">
+    <tableColumn id="13" name="Rent. Ano" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</calculatedColumnFormula>
       <totalsRowFormula>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</totalsRowFormula>
     </tableColumn>
@@ -3360,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3421,22 +3421,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>40885</v>
-      </c>
-      <c r="D2" s="19">
-        <v>1803.1</v>
-      </c>
-      <c r="E2" s="19">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
+        <v>40835</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1670.78</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1670.78</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1670.78</v>
       </c>
       <c r="G2" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="H2" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3456,39 +3456,39 @@
       </c>
       <c r="K2" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.8267428317896313E-3</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L2" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
-        <v>40886</v>
-      </c>
-      <c r="D3" s="19">
-        <v>-1796.2</v>
-      </c>
-      <c r="E3" s="23">
-        <v>1803.1</v>
+        <v>40836</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1670.78</v>
       </c>
       <c r="F3" s="11">
-        <v>0</v>
+        <v>1671.56</v>
       </c>
       <c r="G3" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-6.8999999999998636</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="H3" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3496,43 +3496,43 @@
       </c>
       <c r="J3" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.82674283178962E-3</v>
+        <v>4.6684781958125708E-4</v>
       </c>
       <c r="K3" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.8267428317896313E-3</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L3" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>40897</v>
-      </c>
-      <c r="D4" s="19">
-        <v>-837.95</v>
-      </c>
-      <c r="E4" s="23">
-        <v>878</v>
+        <v>40837</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1671.56</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>1672.3</v>
       </c>
       <c r="G4" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-40.049999999999955</v>
+        <v>0.74000000000000909</v>
       </c>
       <c r="H4" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3540,43 +3540,43 @@
       </c>
       <c r="J4" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-4.5615034168564869E-2</v>
+        <v>4.4270023211850554E-4</v>
       </c>
       <c r="K4" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6929611650486009E-2</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L4" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
-        <v>40898</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="23">
-        <v>862</v>
+        <v>40840</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1672.3</v>
       </c>
       <c r="F5" s="11">
-        <v>878</v>
+        <v>1673.04</v>
       </c>
       <c r="G5" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>16</v>
+        <v>0.74000000000000909</v>
       </c>
       <c r="H5" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I5" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3584,43 +3584,43 @@
       </c>
       <c r="J5" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.8561484918793503E-2</v>
+        <v>4.4250433534653421E-4</v>
       </c>
       <c r="K5" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6929611650486009E-2</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L5" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>40899</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
-        <v>858</v>
-      </c>
-      <c r="F6" s="23">
-        <v>862</v>
+        <v>40841</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1673.04</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1673.87</v>
       </c>
       <c r="G6" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>4</v>
+        <v>0.82999999999992724</v>
       </c>
       <c r="H6" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3628,43 +3628,43 @@
       </c>
       <c r="J6" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.662004662004662E-3</v>
+        <v>4.9610290250079328E-4</v>
       </c>
       <c r="K6" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6929611650486009E-2</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L6" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>40900</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="23">
-        <v>850</v>
-      </c>
-      <c r="F7" s="23">
-        <v>858</v>
+        <v>40842</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1673.87</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1674.66</v>
       </c>
       <c r="G7" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>8</v>
+        <v>0.79000000000019099</v>
       </c>
       <c r="H7" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3672,43 +3672,43 @@
       </c>
       <c r="J7" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>9.4117647058823521E-3</v>
+        <v>4.7196018806728782E-4</v>
       </c>
       <c r="K7" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6929611650486009E-2</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L7" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>40903</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="23">
-        <v>862</v>
-      </c>
-      <c r="F8" s="23">
-        <v>850</v>
+        <v>40843</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1674.66</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1675.48</v>
       </c>
       <c r="G8" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-12</v>
+        <v>0.81999999999993634</v>
       </c>
       <c r="H8" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I8" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3716,43 +3716,43 @@
       </c>
       <c r="J8" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.3921113689095127E-2</v>
+        <v>4.8965163077874685E-4</v>
       </c>
       <c r="K8" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6929611650486009E-2</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L8" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>40904</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="23">
-        <v>864</v>
-      </c>
-      <c r="F9" s="23">
-        <v>862</v>
+        <v>40844</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1675.48</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1676.13</v>
       </c>
       <c r="G9" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-2</v>
+        <v>0.65000000000009095</v>
       </c>
       <c r="H9" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3760,43 +3760,43 @@
       </c>
       <c r="J9" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.3148148148148147E-3</v>
+        <v>3.8794852818302276E-4</v>
       </c>
       <c r="K9" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6929611650486009E-2</v>
+        <v>3.6390189013515428E-3</v>
       </c>
       <c r="L9" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>40905</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
-        <v>832</v>
-      </c>
-      <c r="F10" s="23">
-        <v>864</v>
+        <v>40847</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1676.13</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1676.86</v>
       </c>
       <c r="G10" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>32</v>
+        <v>0.72999999999979082</v>
       </c>
       <c r="H10" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3804,43 +3804,43 @@
       </c>
       <c r="J10" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.8461538461538464E-2</v>
+        <v>4.3552707725521932E-4</v>
       </c>
       <c r="K10" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6929611650486009E-2</v>
-      </c>
-      <c r="L10" s="9">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>3.6390189013515428E-3</v>
+      </c>
+      <c r="L10" s="5">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>40906</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23">
-        <v>824</v>
-      </c>
-      <c r="F11" s="23">
-        <v>832</v>
+        <v>40848</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1676.86</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1677.49</v>
       </c>
       <c r="G11" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>8</v>
+        <v>0.63000000000010914</v>
       </c>
       <c r="H11" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3848,83 +3848,83 @@
       </c>
       <c r="J11" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>9.7087378640776691E-3</v>
+        <v>3.7570220531237501E-4</v>
       </c>
       <c r="K11" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.6929611650486009E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L11" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
-        <v>40910</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
-        <v>896</v>
-      </c>
-      <c r="F12" s="23">
-        <v>824</v>
-      </c>
-      <c r="G12" s="8">
-        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-72</v>
+        <v>40848</v>
+      </c>
+      <c r="D12" s="7">
+        <v>428.37</v>
+      </c>
+      <c r="E12" s="7">
+        <v>428.37</v>
+      </c>
+      <c r="F12" s="7">
+        <v>428.37</v>
+      </c>
+      <c r="G12" s="24">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0</v>
       </c>
       <c r="H12" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I12" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="J12" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-8.0357142857142863E-2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.0357142857142905E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L12" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.12534819615174619</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
-        <v>40877</v>
+        <v>40850</v>
       </c>
       <c r="D13" s="7">
-        <v>1378.23</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1378.23</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1677.49</v>
       </c>
       <c r="F13" s="11">
-        <v>1350</v>
+        <v>1678.11</v>
       </c>
       <c r="G13" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-28.230000000000018</v>
+        <v>0.61999999999989086</v>
       </c>
       <c r="H13" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -3936,43 +3936,43 @@
       </c>
       <c r="J13" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.0482793147732974E-2</v>
+        <v>3.6959981877679801E-4</v>
       </c>
       <c r="K13" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-2.0482793147732936E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L13" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>40878</v>
+        <v>40850</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="11">
-        <v>1350</v>
+      <c r="E14" s="7">
+        <v>428.37</v>
       </c>
       <c r="F14" s="4">
-        <v>1425</v>
+        <v>428.55</v>
       </c>
       <c r="G14" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>75</v>
+        <v>0.18000000000000682</v>
       </c>
       <c r="H14" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -3980,43 +3980,43 @@
       </c>
       <c r="J14" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>4.2019749282164209E-4</v>
       </c>
       <c r="K14" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L14" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>40879</v>
+        <v>40851</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <v>1425</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1408</v>
+        <v>1678.11</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1678.81</v>
       </c>
       <c r="G15" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-17</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="H15" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4024,43 +4024,43 @@
       </c>
       <c r="J15" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.1929824561403509E-2</v>
+        <v>4.1713594460437368E-4</v>
       </c>
       <c r="K15" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L15" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>40882</v>
-      </c>
-      <c r="D16" s="19">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1408</v>
+        <v>40851</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>428.55</v>
       </c>
       <c r="F16" s="11">
-        <v>1468</v>
+        <v>428.72</v>
       </c>
       <c r="G16" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>60</v>
+        <v>0.17000000000001592</v>
       </c>
       <c r="H16" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4068,43 +4068,43 @@
       </c>
       <c r="J16" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.261363636363636E-2</v>
+        <v>3.9668650099175339E-4</v>
       </c>
       <c r="K16" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L16" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3">
-        <v>40883</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1468</v>
+        <v>40854</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1678.81</v>
       </c>
       <c r="F17" s="11">
-        <v>1496</v>
+        <v>1679.59</v>
       </c>
       <c r="G17" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>28</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="H17" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I17" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4112,43 +4112,43 @@
       </c>
       <c r="J17" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.9073569482288829E-2</v>
+        <v>4.6461481644734828E-4</v>
       </c>
       <c r="K17" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L17" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3">
-        <v>40884</v>
-      </c>
-      <c r="D18" s="19">
-        <v>-1583.68</v>
+        <v>40854</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
       </c>
       <c r="E18" s="11">
-        <v>1496</v>
+        <v>428.72</v>
       </c>
       <c r="F18" s="11">
-        <v>1600</v>
+        <v>428.9</v>
       </c>
       <c r="G18" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>87.680000000000064</v>
+        <v>0.17999999999994998</v>
       </c>
       <c r="H18" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4156,43 +4156,43 @@
       </c>
       <c r="J18" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.8609625668449239E-2</v>
+        <v>4.1985445045705815E-4</v>
       </c>
       <c r="K18" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.17309629629629653</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L18" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <v>40890</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1182.27</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1182.27</v>
+        <v>40855</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1679.59</v>
       </c>
       <c r="F19" s="11">
-        <v>1134</v>
+        <v>1680.42</v>
       </c>
       <c r="G19" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-48.269999999999982</v>
+        <v>0.83000000000015461</v>
       </c>
       <c r="H19" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4200,43 +4200,43 @@
       </c>
       <c r="J19" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-4.082823720469942E-2</v>
+        <v>4.9416821962511965E-4</v>
       </c>
       <c r="K19" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L19" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>40891</v>
-      </c>
-      <c r="D20" s="19">
+        <v>40855</v>
+      </c>
+      <c r="D20" s="7">
         <v>0</v>
       </c>
       <c r="E20" s="11">
-        <v>1134</v>
+        <v>428.9</v>
       </c>
       <c r="F20" s="11">
-        <v>1134</v>
+        <v>429.08</v>
       </c>
       <c r="G20" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
+        <v>0.18000000000000682</v>
       </c>
       <c r="H20" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4244,43 +4244,43 @@
       </c>
       <c r="J20" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>4.1967824667756313E-4</v>
       </c>
       <c r="K20" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L20" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3">
-        <v>40892</v>
-      </c>
-      <c r="D21" s="19">
+        <v>40856</v>
+      </c>
+      <c r="D21" s="7">
         <v>0</v>
       </c>
       <c r="E21" s="11">
-        <v>1134</v>
+        <v>1680.42</v>
       </c>
       <c r="F21" s="4">
-        <v>1108</v>
+        <v>1681.27</v>
       </c>
       <c r="G21" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-26</v>
+        <v>0.84999999999990905</v>
       </c>
       <c r="H21" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I21" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4288,43 +4288,43 @@
       </c>
       <c r="J21" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.292768959435626E-2</v>
+        <v>5.0582592447120901E-4</v>
       </c>
       <c r="K21" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L21" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3">
-        <v>40893</v>
-      </c>
-      <c r="D22" s="19">
+        <v>40856</v>
+      </c>
+      <c r="D22" s="7">
         <v>0</v>
       </c>
       <c r="E22" s="11">
-        <v>1108</v>
+        <v>429.08</v>
       </c>
       <c r="F22" s="11">
-        <v>1160</v>
+        <v>429.28</v>
       </c>
       <c r="G22" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>52</v>
+        <v>0.19999999999998863</v>
       </c>
       <c r="H22" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4332,43 +4332,43 @@
       </c>
       <c r="J22" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6931407942238268E-2</v>
+        <v>4.6611354525959874E-4</v>
       </c>
       <c r="K22" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L22" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3">
-        <v>40896</v>
-      </c>
-      <c r="D23" s="19">
+        <v>40857</v>
+      </c>
+      <c r="D23" s="12">
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <v>1160</v>
+        <v>1681.27</v>
       </c>
       <c r="F23" s="4">
-        <v>1178</v>
+        <v>1682.1</v>
       </c>
       <c r="G23" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>18</v>
+        <v>0.82999999999992724</v>
       </c>
       <c r="H23" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4376,43 +4376,43 @@
       </c>
       <c r="J23" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.5517241379310345E-2</v>
+        <v>4.9367442469081544E-4</v>
       </c>
       <c r="K23" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L23" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3">
-        <v>40897</v>
-      </c>
-      <c r="D24" s="19">
-        <v>0</v>
-      </c>
-      <c r="E24" s="23">
-        <v>1178</v>
+        <v>40857</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>429.28</v>
       </c>
       <c r="F24" s="11">
-        <v>1246</v>
+        <v>429.48</v>
       </c>
       <c r="G24" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>68</v>
+        <v>0.20000000000004547</v>
       </c>
       <c r="H24" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4420,43 +4420,43 @@
       </c>
       <c r="J24" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.7724957555178265E-2</v>
+        <v>4.6589638464416113E-4</v>
       </c>
       <c r="K24" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L24" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3">
-        <v>40898</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0</v>
-      </c>
-      <c r="E25" s="23">
-        <v>1246</v>
+        <v>40858</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1682.1</v>
       </c>
       <c r="F25" s="11">
-        <v>1262</v>
+        <v>1683.02</v>
       </c>
       <c r="G25" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>16</v>
+        <v>0.92000000000007276</v>
       </c>
       <c r="H25" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4464,43 +4464,43 @@
       </c>
       <c r="J25" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.2841091492776886E-2</v>
+        <v>5.4693537839609584E-4</v>
       </c>
       <c r="K25" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L25" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3">
-        <v>40899</v>
-      </c>
-      <c r="D26" s="19">
+        <v>40858</v>
+      </c>
+      <c r="D26" s="12">
         <v>0</v>
       </c>
       <c r="E26" s="11">
-        <v>1262</v>
+        <v>429.48</v>
       </c>
       <c r="F26" s="11">
-        <v>1298</v>
+        <v>429.69</v>
       </c>
       <c r="G26" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>36</v>
+        <v>0.20999999999997954</v>
       </c>
       <c r="H26" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4508,43 +4508,43 @@
       </c>
       <c r="J26" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.8526148969889066E-2</v>
+        <v>4.8896339759704646E-4</v>
       </c>
       <c r="K26" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L26" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
-        <v>40900</v>
-      </c>
-      <c r="D27" s="19">
+        <v>40861</v>
+      </c>
+      <c r="D27" s="12">
         <v>0</v>
       </c>
       <c r="E27" s="11">
-        <v>1298</v>
+        <v>1683.02</v>
       </c>
       <c r="F27" s="11">
-        <v>1328</v>
+        <v>1683.82</v>
       </c>
       <c r="G27" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>30</v>
+        <v>0.79999999999995453</v>
       </c>
       <c r="H27" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4552,43 +4552,43 @@
       </c>
       <c r="J27" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.3112480739599383E-2</v>
+        <v>4.7533600313719063E-4</v>
       </c>
       <c r="K27" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
-      </c>
-      <c r="L27" s="9">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>7.0846701573179516E-3</v>
+      </c>
+      <c r="L27" s="14">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3">
-        <v>40903</v>
-      </c>
-      <c r="D28" s="19">
-        <v>0</v>
-      </c>
-      <c r="E28" s="23">
-        <v>664</v>
+        <v>40861</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>429.69</v>
       </c>
       <c r="F28" s="11">
-        <v>690</v>
+        <v>429.89</v>
       </c>
       <c r="G28" s="2">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>26</v>
+        <v>0.19999999999998863</v>
       </c>
       <c r="H28" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4596,43 +4596,43 @@
       </c>
       <c r="J28" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9156626506024098E-2</v>
+        <v>4.6545183737110158E-4</v>
       </c>
       <c r="K28" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L28" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
-        <v>40903</v>
-      </c>
-      <c r="D29" s="19">
-        <v>-674.01</v>
+        <v>40863</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
       </c>
       <c r="E29" s="11">
-        <v>664</v>
+        <v>1683.82</v>
       </c>
       <c r="F29" s="11">
-        <v>0</v>
+        <v>1684.61</v>
       </c>
       <c r="G29" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>10.009999999999991</v>
+        <v>0.78999999999996362</v>
       </c>
       <c r="H29" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4640,43 +4640,43 @@
       </c>
       <c r="J29" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.5075301204819263E-2</v>
+        <v>4.6917128909263676E-4</v>
       </c>
       <c r="K29" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L29" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3">
-        <v>40904</v>
-      </c>
-      <c r="D30" s="19">
+        <v>40863</v>
+      </c>
+      <c r="D30" s="12">
         <v>0</v>
       </c>
       <c r="E30" s="11">
-        <v>690</v>
+        <v>429.89</v>
       </c>
       <c r="F30" s="11">
-        <v>695</v>
+        <v>430.1</v>
       </c>
       <c r="G30" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>5</v>
+        <v>0.21000000000003638</v>
       </c>
       <c r="H30" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4684,43 +4684,43 @@
       </c>
       <c r="J30" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>7.246376811594203E-3</v>
-      </c>
-      <c r="K30" s="9">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
-      </c>
-      <c r="L30" s="9">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>4.8849705738685802E-4</v>
+      </c>
+      <c r="K30" s="14">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.4625674066808294E-3</v>
+      </c>
+      <c r="L30" s="14">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3">
-        <v>40905</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0</v>
-      </c>
-      <c r="E31" s="23">
-        <v>695</v>
+        <v>40864</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1684.61</v>
       </c>
       <c r="F31" s="11">
-        <v>636</v>
+        <v>1685.31</v>
       </c>
       <c r="G31" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-59</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="H31" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4728,43 +4728,43 @@
       </c>
       <c r="J31" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-8.4892086330935257E-2</v>
+        <v>4.1552644232198876E-4</v>
       </c>
       <c r="K31" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L31" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3">
-        <v>40906</v>
-      </c>
-      <c r="D32" s="19">
+        <v>40864</v>
+      </c>
+      <c r="D32" s="12">
         <v>0</v>
       </c>
       <c r="E32" s="11">
-        <v>636</v>
+        <v>430.1</v>
       </c>
       <c r="F32" s="11">
-        <v>608</v>
+        <v>430.27</v>
       </c>
       <c r="G32" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-28</v>
+        <v>0.16999999999995907</v>
       </c>
       <c r="H32" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4772,87 +4772,87 @@
       </c>
       <c r="J32" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-4.40251572327044E-2</v>
+        <v>3.9525691699595223E-4</v>
       </c>
       <c r="K32" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.4035259513529823E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L32" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C33" s="3">
-        <v>40910</v>
-      </c>
-      <c r="D33" s="19">
-        <v>-567.03</v>
+        <v>40865</v>
+      </c>
+      <c r="D33" s="17">
+        <v>0</v>
       </c>
       <c r="E33" s="11">
-        <v>608</v>
+        <v>1685.31</v>
       </c>
       <c r="F33" s="11">
-        <v>0</v>
+        <v>1686.09</v>
       </c>
       <c r="G33" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-40.970000000000027</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="H33" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I33" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="J33" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-6.7384868421052679E-2</v>
+        <v>4.6282286344943825E-4</v>
       </c>
       <c r="K33" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-6.7384868421052735E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L33" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.12534819615174619</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3">
-        <v>40900</v>
-      </c>
-      <c r="D34" s="19">
-        <v>2374.5700000000002</v>
-      </c>
-      <c r="E34" s="19">
-        <v>2374.5700000000002</v>
+        <v>40865</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>430.27</v>
       </c>
       <c r="F34" s="11">
-        <v>2361</v>
+        <v>430.44</v>
       </c>
       <c r="G34" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-13.570000000000164</v>
+        <v>0.17000000000001592</v>
       </c>
       <c r="H34" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4860,43 +4860,43 @@
       </c>
       <c r="J34" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-5.7147188754175125E-3</v>
+        <v>3.9510075069146332E-4</v>
       </c>
       <c r="K34" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.0709307369334065E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L34" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
-        <v>40903</v>
-      </c>
-      <c r="D35" s="19">
+        <v>40868</v>
+      </c>
+      <c r="D35" s="17">
         <v>0</v>
       </c>
       <c r="E35" s="11">
-        <v>2361</v>
+        <v>1686.09</v>
       </c>
       <c r="F35" s="11">
-        <v>2334</v>
+        <v>1686.81</v>
       </c>
       <c r="G35" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-27</v>
+        <v>0.72000000000002728</v>
       </c>
       <c r="H35" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4904,43 +4904,43 @@
       </c>
       <c r="J35" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.1435832274459974E-2</v>
+        <v>4.2702346849813905E-4</v>
       </c>
       <c r="K35" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.0709307369334065E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L35" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3">
-        <v>40904</v>
-      </c>
-      <c r="D36" s="19">
+        <v>40868</v>
+      </c>
+      <c r="D36" s="17">
         <v>0</v>
       </c>
       <c r="E36" s="11">
-        <v>2334</v>
+        <v>430.44</v>
       </c>
       <c r="F36" s="11">
-        <v>2361</v>
+        <v>430.6</v>
       </c>
       <c r="G36" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>27</v>
+        <v>0.16000000000002501</v>
       </c>
       <c r="H36" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4948,43 +4948,43 @@
       </c>
       <c r="J36" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.1568123393316195E-2</v>
+        <v>3.717126661091558E-4</v>
       </c>
       <c r="K36" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.0709307369334065E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L36" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3">
-        <v>40905</v>
-      </c>
-      <c r="D37" s="19">
+        <v>40869</v>
+      </c>
+      <c r="D37" s="7">
         <v>0</v>
       </c>
       <c r="E37" s="11">
-        <v>2361</v>
+        <v>1686.81</v>
       </c>
       <c r="F37" s="11">
-        <v>2325</v>
+        <v>1687.6</v>
       </c>
       <c r="G37" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-36</v>
+        <v>0.78999999999996362</v>
       </c>
       <c r="H37" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I37" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -4992,43 +4992,43 @@
       </c>
       <c r="J37" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.5247776365946633E-2</v>
+        <v>4.683396470260217E-4</v>
       </c>
       <c r="K37" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.0709307369334065E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L37" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3">
-        <v>40906</v>
-      </c>
-      <c r="D38" s="19">
+        <v>40869</v>
+      </c>
+      <c r="D38" s="17">
         <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>2325</v>
+        <v>430.6</v>
       </c>
       <c r="F38" s="11">
-        <v>2400</v>
+        <v>430.78</v>
       </c>
       <c r="G38" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>75</v>
+        <v>0.17999999999994998</v>
       </c>
       <c r="H38" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5036,87 +5036,87 @@
       </c>
       <c r="J38" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.2258064516129031E-2</v>
+        <v>4.1802136553634455E-4</v>
       </c>
       <c r="K38" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.0709307369334065E-2</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L38" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C39" s="3">
-        <v>40910</v>
-      </c>
-      <c r="D39" s="19">
+        <v>40870</v>
+      </c>
+      <c r="D39" s="18">
         <v>0</v>
       </c>
       <c r="E39" s="11">
-        <v>2400</v>
+        <v>1687.6</v>
       </c>
       <c r="F39" s="11">
-        <v>2325</v>
+        <v>1688.37</v>
       </c>
       <c r="G39" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-75</v>
+        <v>0.76999999999998181</v>
       </c>
       <c r="H39" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I39" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="J39" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.125E-2</v>
+        <v>4.5626925811802671E-4</v>
       </c>
       <c r="K39" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.125E-2</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L39" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.12534819615174619</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3">
-        <v>40883</v>
-      </c>
-      <c r="D40" s="19">
-        <v>861.05</v>
-      </c>
-      <c r="E40" s="19">
-        <v>861.05</v>
+        <v>40870</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>430.78</v>
       </c>
       <c r="F40" s="11">
-        <v>851</v>
+        <v>430.95</v>
       </c>
       <c r="G40" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-10.049999999999955</v>
+        <v>0.17000000000001592</v>
       </c>
       <c r="H40" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5124,43 +5124,43 @@
       </c>
       <c r="J40" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.1671796062946351E-2</v>
+        <v>3.9463299131811116E-4</v>
       </c>
       <c r="K40" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L40" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C41" s="3">
-        <v>40884</v>
-      </c>
-      <c r="D41" s="19">
+        <v>40871</v>
+      </c>
+      <c r="D41" s="18">
         <v>0</v>
       </c>
       <c r="E41" s="11">
-        <v>851</v>
+        <v>1688.37</v>
       </c>
       <c r="F41" s="11">
-        <v>823</v>
+        <v>1689.07</v>
       </c>
       <c r="G41" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-28</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="H41" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5168,43 +5168,43 @@
       </c>
       <c r="J41" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.2902467685076382E-2</v>
+        <v>4.1460106493247662E-4</v>
       </c>
       <c r="K41" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L41" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C42" s="3">
-        <v>40885</v>
-      </c>
-      <c r="D42" s="19">
+        <v>40871</v>
+      </c>
+      <c r="D42" s="18">
         <v>0</v>
       </c>
       <c r="E42" s="11">
-        <v>823</v>
+        <v>430.95</v>
       </c>
       <c r="F42" s="11">
-        <v>849</v>
+        <v>431.11</v>
       </c>
       <c r="G42" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>26</v>
+        <v>0.16000000000002501</v>
       </c>
       <c r="H42" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5212,43 +5212,43 @@
       </c>
       <c r="J42" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.1591737545565005E-2</v>
+        <v>3.7127276946287278E-4</v>
       </c>
       <c r="K42" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L42" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C43" s="3">
-        <v>40886</v>
-      </c>
-      <c r="D43" s="19">
+        <v>40872</v>
+      </c>
+      <c r="D43" s="18">
         <v>0</v>
       </c>
       <c r="E43" s="11">
-        <v>849</v>
+        <v>431.11</v>
       </c>
       <c r="F43" s="11">
-        <v>879</v>
+        <v>431.23</v>
       </c>
       <c r="G43" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>30</v>
+        <v>0.12000000000000455</v>
       </c>
       <c r="H43" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I43" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5256,43 +5256,43 @@
       </c>
       <c r="J43" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.5335689045936397E-2</v>
+        <v>2.7835123286401277E-4</v>
       </c>
       <c r="K43" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L43" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
-        <v>40889</v>
-      </c>
-      <c r="D44" s="19">
+        <v>40873</v>
+      </c>
+      <c r="D44" s="18">
         <v>0</v>
       </c>
       <c r="E44" s="11">
-        <v>879</v>
+        <v>1689.07</v>
       </c>
       <c r="F44" s="11">
-        <v>860</v>
+        <v>1689.77</v>
       </c>
       <c r="G44" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-19</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="H44" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I44" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5300,43 +5300,43 @@
       </c>
       <c r="J44" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.1615472127417521E-2</v>
+        <v>4.1442924212735144E-4</v>
       </c>
       <c r="K44" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L44" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C45" s="3">
-        <v>40890</v>
-      </c>
-      <c r="D45" s="19">
+        <v>40875</v>
+      </c>
+      <c r="D45" s="18">
         <v>0</v>
       </c>
       <c r="E45" s="11">
-        <v>860</v>
+        <v>1689.77</v>
       </c>
       <c r="F45" s="11">
-        <v>885</v>
+        <v>1690.5</v>
       </c>
       <c r="G45" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>25</v>
+        <v>0.73000000000001819</v>
       </c>
       <c r="H45" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I45" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5344,43 +5344,43 @@
       </c>
       <c r="J45" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.9069767441860465E-2</v>
+        <v>4.3201145718057383E-4</v>
       </c>
       <c r="K45" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L45" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3">
-        <v>40891</v>
-      </c>
-      <c r="D46" s="19">
+        <v>40875</v>
+      </c>
+      <c r="D46" s="18">
         <v>0</v>
       </c>
       <c r="E46" s="11">
-        <v>885</v>
+        <v>431.23</v>
       </c>
       <c r="F46" s="11">
-        <v>900</v>
+        <v>431.4</v>
       </c>
       <c r="G46" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>15</v>
+        <v>0.16999999999995907</v>
       </c>
       <c r="H46" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I46" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5388,43 +5388,43 @@
       </c>
       <c r="J46" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.6949152542372881E-2</v>
+        <v>3.9422118127208002E-4</v>
       </c>
       <c r="K46" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L46" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3">
-        <v>40892</v>
-      </c>
-      <c r="D47" s="19">
+        <v>40876</v>
+      </c>
+      <c r="D47" s="7">
         <v>0</v>
       </c>
       <c r="E47" s="11">
-        <v>900</v>
+        <v>1690.5</v>
       </c>
       <c r="F47" s="11">
-        <v>880</v>
+        <v>1691.2</v>
       </c>
       <c r="G47" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-20</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="H47" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I47" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5432,43 +5432,43 @@
       </c>
       <c r="J47" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.2222222222222223E-2</v>
+        <v>4.1407867494826705E-4</v>
       </c>
       <c r="K47" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L47" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3">
-        <v>40893</v>
-      </c>
-      <c r="D48" s="19">
+        <v>40876</v>
+      </c>
+      <c r="D48" s="18">
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>880</v>
+        <v>431.4</v>
       </c>
       <c r="F48" s="11">
-        <v>840</v>
+        <v>431.57</v>
       </c>
       <c r="G48" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-40</v>
+        <v>0.17000000000001592</v>
       </c>
       <c r="H48" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I48" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5476,43 +5476,43 @@
       </c>
       <c r="J48" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-4.5454545454545456E-2</v>
+        <v>3.9406583217435311E-4</v>
       </c>
       <c r="K48" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L48" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C49" s="3">
-        <v>40896</v>
+        <v>40876</v>
       </c>
       <c r="D49" s="19">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11">
-        <v>840</v>
+        <v>-430.71</v>
+      </c>
+      <c r="E49" s="23">
+        <v>431.57</v>
       </c>
       <c r="F49" s="11">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="G49" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-30</v>
+        <v>-0.86000000000001364</v>
       </c>
       <c r="H49" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I49" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5520,15 +5520,15 @@
       </c>
       <c r="J49" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.5714285714285712E-2</v>
+        <v>-1.9927242394049949E-3</v>
       </c>
       <c r="K49" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>5.4625674066808294E-3</v>
       </c>
       <c r="L49" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5536,27 +5536,27 @@
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="3">
-        <v>40897</v>
-      </c>
-      <c r="D50" s="19">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11">
-        <v>810</v>
+        <v>40877</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1378.23</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1378.23</v>
       </c>
       <c r="F50" s="11">
-        <v>840</v>
+        <v>1350</v>
       </c>
       <c r="G50" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>30</v>
+        <v>-28.230000000000018</v>
       </c>
       <c r="H50" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5564,11 +5564,11 @@
       </c>
       <c r="J50" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.7037037037037035E-2</v>
+        <v>-2.0482793147732974E-2</v>
       </c>
       <c r="K50" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>-2.0482793147732936E-2</v>
       </c>
       <c r="L50" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -5577,30 +5577,30 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C51" s="3">
-        <v>40898</v>
+        <v>40877</v>
       </c>
       <c r="D51" s="19">
         <v>0</v>
       </c>
-      <c r="E51" s="23">
-        <v>840</v>
+      <c r="E51" s="11">
+        <v>1691.2</v>
       </c>
       <c r="F51" s="11">
-        <v>850</v>
+        <v>1688.04</v>
       </c>
       <c r="G51" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>10</v>
+        <v>-3.1600000000000819</v>
       </c>
       <c r="H51" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I51" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5608,43 +5608,43 @@
       </c>
       <c r="J51" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.1904761904761904E-2</v>
+        <v>-1.8684957426679763E-3</v>
       </c>
       <c r="K51" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L51" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C52" s="3">
-        <v>40899</v>
+        <v>40877</v>
       </c>
       <c r="D52" s="19">
         <v>0</v>
       </c>
       <c r="E52" s="11">
-        <v>850</v>
+        <v>1688.04</v>
       </c>
       <c r="F52" s="11">
-        <v>874</v>
+        <v>1688.74</v>
       </c>
       <c r="G52" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>24</v>
+        <v>0.70000000000004547</v>
       </c>
       <c r="H52" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I52" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5652,43 +5652,43 @@
       </c>
       <c r="J52" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.823529411764706E-2</v>
+        <v>4.1468211653754978E-4</v>
       </c>
       <c r="K52" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>7.0846701573179516E-3</v>
       </c>
       <c r="L52" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C53" s="3">
-        <v>40900</v>
-      </c>
-      <c r="D53" s="19">
-        <v>0</v>
+        <v>40877</v>
+      </c>
+      <c r="D53" s="7">
+        <v>580</v>
       </c>
       <c r="E53" s="11">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="F53" s="11">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="G53" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I53" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5696,15 +5696,15 @@
       </c>
       <c r="J53" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.1441647597254005E-3</v>
+        <v>0</v>
       </c>
       <c r="K53" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>0</v>
       </c>
       <c r="L53" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -5712,23 +5712,23 @@
         <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" s="3">
-        <v>40903</v>
-      </c>
-      <c r="D54" s="19">
+        <v>40878</v>
+      </c>
+      <c r="D54" s="7">
         <v>0</v>
       </c>
       <c r="E54" s="11">
-        <v>875</v>
+        <v>1350</v>
       </c>
       <c r="F54" s="11">
-        <v>870</v>
+        <v>1425</v>
       </c>
       <c r="G54" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-5</v>
+        <v>75</v>
       </c>
       <c r="H54" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -5740,11 +5740,11 @@
       </c>
       <c r="J54" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-5.7142857142857143E-3</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K54" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L54" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -5753,26 +5753,26 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C55" s="3">
-        <v>40904</v>
+        <v>40878</v>
       </c>
       <c r="D55" s="19">
         <v>0</v>
       </c>
       <c r="E55" s="11">
-        <v>870</v>
+        <v>1688.74</v>
       </c>
       <c r="F55" s="11">
-        <v>871</v>
+        <v>1689.49</v>
       </c>
       <c r="G55" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H55" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -5784,39 +5784,39 @@
       </c>
       <c r="J55" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.1494252873563218E-3</v>
+        <v>4.4411809988512146E-4</v>
       </c>
       <c r="K55" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L55" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C56" s="3">
-        <v>40905</v>
+        <v>40878</v>
       </c>
       <c r="D56" s="19">
         <v>0</v>
       </c>
-      <c r="E56" s="11">
-        <v>871</v>
+      <c r="E56" s="7">
+        <v>580</v>
       </c>
       <c r="F56" s="11">
-        <v>835</v>
+        <v>590.01</v>
       </c>
       <c r="G56" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-36</v>
+        <v>10.009999999999991</v>
       </c>
       <c r="H56" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -5828,15 +5828,15 @@
       </c>
       <c r="J56" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-4.1331802525832378E-2</v>
+        <v>1.7258620689655158E-2</v>
       </c>
       <c r="K56" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L56" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0.21826687591038829</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -5844,23 +5844,23 @@
         <v>24</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" s="3">
-        <v>40906</v>
-      </c>
-      <c r="D57" s="19">
+        <v>40879</v>
+      </c>
+      <c r="D57" s="7">
         <v>0</v>
       </c>
       <c r="E57" s="11">
-        <v>835</v>
+        <v>1425</v>
       </c>
       <c r="F57" s="11">
-        <v>854</v>
+        <v>1408</v>
       </c>
       <c r="G57" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>19</v>
+        <v>-17</v>
       </c>
       <c r="H57" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -5872,11 +5872,11 @@
       </c>
       <c r="J57" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.2754491017964073E-2</v>
+        <v>-1.1929824561403509E-2</v>
       </c>
       <c r="K57" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1876778352010238E-3</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L57" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -5885,46 +5885,46 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C58" s="3">
-        <v>40910</v>
+        <v>40879</v>
       </c>
       <c r="D58" s="19">
         <v>0</v>
       </c>
       <c r="E58" s="11">
-        <v>854</v>
+        <v>1689.49</v>
       </c>
       <c r="F58" s="11">
-        <v>899</v>
+        <v>1690.21</v>
       </c>
       <c r="G58" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>45</v>
+        <v>0.72000000000002728</v>
       </c>
       <c r="H58" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I58" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="J58" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.2693208430913352E-2</v>
+        <v>4.2616410869553964E-4</v>
       </c>
       <c r="K58" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.2693208430913296E-2</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L58" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.12534819615174619</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -5932,27 +5932,27 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C59" s="3">
-        <v>40835</v>
-      </c>
-      <c r="D59" s="7">
-        <v>1670.78</v>
-      </c>
-      <c r="E59" s="7">
-        <v>1670.78</v>
-      </c>
-      <c r="F59" s="7">
-        <v>1670.78</v>
+        <v>40879</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11">
+        <v>590.01</v>
+      </c>
+      <c r="F59" s="11">
+        <v>587.96</v>
       </c>
       <c r="G59" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
+        <v>-2.0499999999999545</v>
       </c>
       <c r="H59" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I59" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -5960,43 +5960,43 @@
       </c>
       <c r="J59" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>-3.474517381061261E-3</v>
       </c>
       <c r="K59" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L59" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C60" s="3">
-        <v>40836</v>
-      </c>
-      <c r="D60" s="7">
-        <v>0</v>
-      </c>
-      <c r="E60" s="7">
-        <v>1670.78</v>
+        <v>40882</v>
+      </c>
+      <c r="D60" s="19">
+        <v>0</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1408</v>
       </c>
       <c r="F60" s="11">
-        <v>1671.56</v>
+        <v>1468</v>
       </c>
       <c r="G60" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.77999999999997272</v>
+        <v>60</v>
       </c>
       <c r="H60" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I60" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6004,15 +6004,15 @@
       </c>
       <c r="J60" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6684781958125708E-4</v>
+        <v>4.261363636363636E-2</v>
       </c>
       <c r="K60" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L60" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -6023,24 +6023,24 @@
         <v>8</v>
       </c>
       <c r="C61" s="3">
-        <v>40837</v>
-      </c>
-      <c r="D61" s="7">
+        <v>40882</v>
+      </c>
+      <c r="D61" s="19">
         <v>0</v>
       </c>
       <c r="E61" s="11">
-        <v>1671.56</v>
+        <v>1690.21</v>
       </c>
       <c r="F61" s="11">
-        <v>1672.3</v>
+        <v>1690.92</v>
       </c>
       <c r="G61" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.74000000000000909</v>
+        <v>0.71000000000003638</v>
       </c>
       <c r="H61" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I61" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6048,15 +6048,15 @@
       </c>
       <c r="J61" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4270023211850554E-4</v>
+        <v>4.2006614562689626E-4</v>
       </c>
       <c r="K61" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L61" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -6064,27 +6064,27 @@
         <v>25</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C62" s="3">
-        <v>40840</v>
-      </c>
-      <c r="D62" s="7">
+        <v>40882</v>
+      </c>
+      <c r="D62" s="19">
         <v>0</v>
       </c>
       <c r="E62" s="11">
-        <v>1672.3</v>
+        <v>587.96</v>
       </c>
       <c r="F62" s="11">
-        <v>1673.04</v>
+        <v>596.89</v>
       </c>
       <c r="G62" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.74000000000000909</v>
+        <v>8.92999999999995</v>
       </c>
       <c r="H62" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I62" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6092,43 +6092,43 @@
       </c>
       <c r="J62" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4250433534653421E-4</v>
+        <v>1.5188108034560088E-2</v>
       </c>
       <c r="K62" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L62" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C63" s="3">
-        <v>40841</v>
-      </c>
-      <c r="D63" s="7">
+        <v>40883</v>
+      </c>
+      <c r="D63" s="19">
         <v>0</v>
       </c>
       <c r="E63" s="11">
-        <v>1673.04</v>
+        <v>1468</v>
       </c>
       <c r="F63" s="11">
-        <v>1673.87</v>
+        <v>1496</v>
       </c>
       <c r="G63" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.82999999999992724</v>
+        <v>28</v>
       </c>
       <c r="H63" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I63" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6136,43 +6136,43 @@
       </c>
       <c r="J63" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.9610290250079328E-4</v>
+        <v>1.9073569482288829E-2</v>
       </c>
       <c r="K63" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>0.17309629629629653</v>
       </c>
       <c r="L63" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C64" s="3">
-        <v>40842</v>
-      </c>
-      <c r="D64" s="7">
-        <v>0</v>
-      </c>
-      <c r="E64" s="11">
-        <v>1673.87</v>
+        <v>40883</v>
+      </c>
+      <c r="D64" s="19">
+        <v>861.05</v>
+      </c>
+      <c r="E64" s="19">
+        <v>861.05</v>
       </c>
       <c r="F64" s="11">
-        <v>1674.66</v>
+        <v>851</v>
       </c>
       <c r="G64" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.79000000000019099</v>
+        <v>-10.049999999999955</v>
       </c>
       <c r="H64" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I64" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6180,15 +6180,15 @@
       </c>
       <c r="J64" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.7196018806728782E-4</v>
+        <v>-1.1671796062946351E-2</v>
       </c>
       <c r="K64" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L64" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -6199,24 +6199,24 @@
         <v>8</v>
       </c>
       <c r="C65" s="3">
-        <v>40843</v>
-      </c>
-      <c r="D65" s="7">
+        <v>40883</v>
+      </c>
+      <c r="D65" s="19">
         <v>0</v>
       </c>
       <c r="E65" s="11">
-        <v>1674.66</v>
+        <v>1690.92</v>
       </c>
       <c r="F65" s="11">
-        <v>1675.48</v>
+        <v>1691.62</v>
       </c>
       <c r="G65" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.81999999999993634</v>
+        <v>0.6999999999998181</v>
       </c>
       <c r="H65" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I65" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6224,15 +6224,15 @@
       </c>
       <c r="J65" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.8965163077874685E-4</v>
+        <v>4.1397582381178178E-4</v>
       </c>
       <c r="K65" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L65" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -6240,27 +6240,27 @@
         <v>25</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C66" s="3">
-        <v>40844</v>
-      </c>
-      <c r="D66" s="7">
+        <v>40883</v>
+      </c>
+      <c r="D66" s="19">
         <v>0</v>
       </c>
       <c r="E66" s="11">
-        <v>1675.48</v>
+        <v>596.89</v>
       </c>
       <c r="F66" s="11">
-        <v>1676.13</v>
+        <v>603.42999999999995</v>
       </c>
       <c r="G66" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.65000000000009095</v>
+        <v>6.5399999999999636</v>
       </c>
       <c r="H66" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I66" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6268,43 +6268,43 @@
       </c>
       <c r="J66" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.8794852818302276E-4</v>
+        <v>1.0956792708874272E-2</v>
       </c>
       <c r="K66" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L66" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C67" s="3">
-        <v>40847</v>
-      </c>
-      <c r="D67" s="7">
-        <v>0</v>
+        <v>40884</v>
+      </c>
+      <c r="D67" s="19">
+        <v>-1583.68</v>
       </c>
       <c r="E67" s="11">
-        <v>1676.13</v>
+        <v>1496</v>
       </c>
       <c r="F67" s="11">
-        <v>1676.86</v>
+        <v>1600</v>
       </c>
       <c r="G67" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.72999999999979082</v>
+        <v>87.680000000000064</v>
       </c>
       <c r="H67" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I67" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6312,43 +6312,43 @@
       </c>
       <c r="J67" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.3552707725521932E-4</v>
+        <v>5.8609625668449239E-2</v>
       </c>
       <c r="K67" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.6390189013515428E-3</v>
-      </c>
-      <c r="L67" s="5">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.17309629629629653</v>
+      </c>
+      <c r="L67" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C68" s="3">
-        <v>40848</v>
-      </c>
-      <c r="D68" s="7">
+        <v>40884</v>
+      </c>
+      <c r="D68" s="19">
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <v>1676.86</v>
+        <v>851</v>
       </c>
       <c r="F68" s="11">
-        <v>1677.49</v>
+        <v>823</v>
       </c>
       <c r="G68" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.63000000000010914</v>
+        <v>-28</v>
       </c>
       <c r="H68" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I68" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6356,15 +6356,15 @@
       </c>
       <c r="J68" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.7570220531237501E-4</v>
+        <v>-3.2902467685076382E-2</v>
       </c>
       <c r="K68" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L68" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -6375,24 +6375,24 @@
         <v>8</v>
       </c>
       <c r="C69" s="3">
-        <v>40850</v>
-      </c>
-      <c r="D69" s="7">
+        <v>40884</v>
+      </c>
+      <c r="D69" s="19">
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <v>1677.49</v>
+        <v>1691.62</v>
       </c>
       <c r="F69" s="11">
-        <v>1678.11</v>
+        <v>1692.38</v>
       </c>
       <c r="G69" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.61999999999989086</v>
+        <v>0.76000000000021828</v>
       </c>
       <c r="H69" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I69" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6400,15 +6400,15 @@
       </c>
       <c r="J69" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.6959981877679801E-4</v>
+        <v>4.4927347749507476E-4</v>
       </c>
       <c r="K69" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L69" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -6416,27 +6416,27 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C70" s="3">
-        <v>40851</v>
-      </c>
-      <c r="D70" s="7">
+        <v>40884</v>
+      </c>
+      <c r="D70" s="19">
         <v>0</v>
       </c>
       <c r="E70" s="11">
-        <v>1678.11</v>
-      </c>
-      <c r="F70" s="7">
-        <v>1678.81</v>
+        <v>603.42999999999995</v>
+      </c>
+      <c r="F70" s="11">
+        <v>599.11</v>
       </c>
       <c r="G70" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
+        <v>-4.3199999999999363</v>
       </c>
       <c r="H70" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I70" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6444,43 +6444,43 @@
       </c>
       <c r="J70" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1713594460437368E-4</v>
+        <v>-7.1590739605255568E-3</v>
       </c>
       <c r="K70" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L70" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C71" s="3">
-        <v>40854</v>
-      </c>
-      <c r="D71" s="7">
-        <v>0</v>
-      </c>
-      <c r="E71" s="7">
-        <v>1678.81</v>
+        <v>40885</v>
+      </c>
+      <c r="D71" s="19">
+        <v>1803.1</v>
+      </c>
+      <c r="E71" s="19">
+        <v>0</v>
       </c>
       <c r="F71" s="11">
-        <v>1679.59</v>
+        <v>0</v>
       </c>
       <c r="G71" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.77999999999997272</v>
+        <v>0</v>
       </c>
       <c r="H71" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I71" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6488,43 +6488,43 @@
       </c>
       <c r="J71" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6461481644734828E-4</v>
+        <v>0</v>
       </c>
       <c r="K71" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
       <c r="L71" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C72" s="3">
-        <v>40855</v>
-      </c>
-      <c r="D72" s="7">
+        <v>40885</v>
+      </c>
+      <c r="D72" s="19">
         <v>0</v>
       </c>
       <c r="E72" s="11">
-        <v>1679.59</v>
+        <v>823</v>
       </c>
       <c r="F72" s="11">
-        <v>1680.42</v>
+        <v>849</v>
       </c>
       <c r="G72" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.83000000000015461</v>
+        <v>26</v>
       </c>
       <c r="H72" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I72" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6532,15 +6532,15 @@
       </c>
       <c r="J72" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.9416821962511965E-4</v>
+        <v>3.1591737545565005E-2</v>
       </c>
       <c r="K72" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L72" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -6551,24 +6551,24 @@
         <v>8</v>
       </c>
       <c r="C73" s="3">
-        <v>40856</v>
-      </c>
-      <c r="D73" s="7">
+        <v>40885</v>
+      </c>
+      <c r="D73" s="19">
         <v>0</v>
       </c>
       <c r="E73" s="11">
-        <v>1680.42</v>
+        <v>1692.38</v>
       </c>
       <c r="F73" s="11">
-        <v>1681.27</v>
+        <v>1693.16</v>
       </c>
       <c r="G73" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.84999999999990905</v>
+        <v>0.77999999999997272</v>
       </c>
       <c r="H73" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I73" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6576,15 +6576,15 @@
       </c>
       <c r="J73" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.0582592447120901E-4</v>
+        <v>4.6088939836205382E-4</v>
       </c>
       <c r="K73" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L73" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6592,27 +6592,27 @@
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C74" s="3">
-        <v>40857</v>
-      </c>
-      <c r="D74" s="12">
+        <v>40885</v>
+      </c>
+      <c r="D74" s="19">
         <v>0</v>
       </c>
       <c r="E74" s="11">
-        <v>1681.27</v>
+        <v>599.11</v>
       </c>
       <c r="F74" s="11">
-        <v>1682.1</v>
+        <v>592.57000000000005</v>
       </c>
       <c r="G74" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.82999999999992724</v>
+        <v>-6.5399999999999636</v>
       </c>
       <c r="H74" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I74" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6620,43 +6620,43 @@
       </c>
       <c r="J74" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.9367442469081544E-4</v>
+        <v>-1.0916192351988723E-2</v>
       </c>
       <c r="K74" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L74" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C75" s="3">
-        <v>40858</v>
-      </c>
-      <c r="D75" s="12">
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <v>1682.1</v>
+        <v>40886</v>
+      </c>
+      <c r="D75" s="19">
+        <v>-1796.2</v>
+      </c>
+      <c r="E75" s="23">
+        <v>1803.1</v>
       </c>
       <c r="F75" s="11">
-        <v>1683.02</v>
+        <v>0</v>
       </c>
       <c r="G75" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.92000000000007276</v>
+        <v>-6.8999999999998636</v>
       </c>
       <c r="H75" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I75" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6664,43 +6664,43 @@
       </c>
       <c r="J75" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.4693537839609584E-4</v>
+        <v>-3.82674283178962E-3</v>
       </c>
       <c r="K75" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
       <c r="L75" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C76" s="3">
-        <v>40861</v>
-      </c>
-      <c r="D76" s="12">
+        <v>40886</v>
+      </c>
+      <c r="D76" s="19">
         <v>0</v>
       </c>
       <c r="E76" s="11">
-        <v>1683.02</v>
+        <v>849</v>
       </c>
       <c r="F76" s="11">
-        <v>1683.82</v>
+        <v>879</v>
       </c>
       <c r="G76" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.79999999999995453</v>
+        <v>30</v>
       </c>
       <c r="H76" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I76" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6708,15 +6708,15 @@
       </c>
       <c r="J76" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.7533600313719063E-4</v>
+        <v>3.5335689045936397E-2</v>
       </c>
       <c r="K76" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
-      </c>
-      <c r="L76" s="14">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>-8.1876778352010238E-3</v>
+      </c>
+      <c r="L76" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6727,24 +6727,24 @@
         <v>8</v>
       </c>
       <c r="C77" s="3">
-        <v>40863</v>
-      </c>
-      <c r="D77" s="12">
+        <v>40886</v>
+      </c>
+      <c r="D77" s="19">
         <v>0</v>
       </c>
       <c r="E77" s="11">
-        <v>1683.82</v>
+        <v>1693.16</v>
       </c>
       <c r="F77" s="11">
-        <v>1684.61</v>
+        <v>1693.92</v>
       </c>
       <c r="G77" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.78999999999996362</v>
+        <v>0.75999999999999091</v>
       </c>
       <c r="H77" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I77" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6752,15 +6752,15 @@
       </c>
       <c r="J77" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6917128909263676E-4</v>
+        <v>4.4886484443288933E-4</v>
       </c>
       <c r="K77" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L77" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6768,27 +6768,27 @@
         <v>25</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C78" s="3">
-        <v>40864</v>
-      </c>
-      <c r="D78" s="7">
+        <v>40886</v>
+      </c>
+      <c r="D78" s="19">
         <v>0</v>
       </c>
       <c r="E78" s="11">
-        <v>1684.61</v>
+        <v>592.57000000000005</v>
       </c>
       <c r="F78" s="11">
-        <v>1685.31</v>
+        <v>597.64</v>
       </c>
       <c r="G78" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
+        <v>5.0699999999999363</v>
       </c>
       <c r="H78" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I78" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6796,43 +6796,43 @@
       </c>
       <c r="J78" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1552644232198876E-4</v>
+        <v>8.5559511956392262E-3</v>
       </c>
       <c r="K78" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L78" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C79" s="3">
-        <v>40865</v>
-      </c>
-      <c r="D79" s="17">
+        <v>40889</v>
+      </c>
+      <c r="D79" s="19">
         <v>0</v>
       </c>
       <c r="E79" s="11">
-        <v>1685.31</v>
+        <v>879</v>
       </c>
       <c r="F79" s="11">
-        <v>1686.09</v>
+        <v>860</v>
       </c>
       <c r="G79" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.77999999999997272</v>
+        <v>-19</v>
       </c>
       <c r="H79" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I79" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6840,15 +6840,15 @@
       </c>
       <c r="J79" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6282286344943825E-4</v>
+        <v>-2.1615472127417521E-2</v>
       </c>
       <c r="K79" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L79" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -6859,24 +6859,24 @@
         <v>8</v>
       </c>
       <c r="C80" s="3">
-        <v>40868</v>
-      </c>
-      <c r="D80" s="17">
+        <v>40889</v>
+      </c>
+      <c r="D80" s="19">
         <v>0</v>
       </c>
       <c r="E80" s="11">
-        <v>1686.09</v>
+        <v>1693.92</v>
       </c>
       <c r="F80" s="11">
-        <v>1686.81</v>
+        <v>1694.66</v>
       </c>
       <c r="G80" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.72000000000002728</v>
+        <v>0.74000000000000909</v>
       </c>
       <c r="H80" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I80" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6884,15 +6884,15 @@
       </c>
       <c r="J80" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2702346849813905E-4</v>
+        <v>4.3685652214981173E-4</v>
       </c>
       <c r="K80" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L80" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -6900,27 +6900,27 @@
         <v>25</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C81" s="3">
-        <v>40869</v>
-      </c>
-      <c r="D81" s="7">
+        <v>40889</v>
+      </c>
+      <c r="D81" s="19">
         <v>0</v>
       </c>
       <c r="E81" s="11">
-        <v>1686.81</v>
+        <v>597.64</v>
       </c>
       <c r="F81" s="11">
-        <v>1687.6</v>
+        <v>595.96</v>
       </c>
       <c r="G81" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.78999999999996362</v>
+        <v>-1.67999999999995</v>
       </c>
       <c r="H81" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I81" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6928,43 +6928,43 @@
       </c>
       <c r="J81" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.683396470260217E-4</v>
+        <v>-2.8110568235057056E-3</v>
       </c>
       <c r="K81" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L81" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C82" s="3">
-        <v>40870</v>
-      </c>
-      <c r="D82" s="18">
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <v>1687.6</v>
+        <v>40890</v>
+      </c>
+      <c r="D82" s="19">
+        <v>1182.27</v>
+      </c>
+      <c r="E82" s="19">
+        <v>1182.27</v>
       </c>
       <c r="F82" s="11">
-        <v>1688.37</v>
+        <v>1134</v>
       </c>
       <c r="G82" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.76999999999998181</v>
+        <v>-48.269999999999982</v>
       </c>
       <c r="H82" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I82" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -6972,43 +6972,43 @@
       </c>
       <c r="J82" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.5626925811802671E-4</v>
+        <v>-4.082823720469942E-2</v>
       </c>
       <c r="K82" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L82" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="3">
+        <v>40890</v>
+      </c>
+      <c r="D83" s="19">
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <v>860</v>
+      </c>
+      <c r="F83" s="11">
+        <v>885</v>
+      </c>
+      <c r="G83" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
         <v>25</v>
       </c>
-      <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="3">
-        <v>40871</v>
-      </c>
-      <c r="D83" s="18">
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <v>1688.37</v>
-      </c>
-      <c r="F83" s="11">
-        <v>1689.07</v>
-      </c>
-      <c r="G83" s="8">
-        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
-      </c>
       <c r="H83" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I83" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -7016,15 +7016,15 @@
       </c>
       <c r="J83" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1460106493247662E-4</v>
+        <v>2.9069767441860465E-2</v>
       </c>
       <c r="K83" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L83" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -7035,24 +7035,24 @@
         <v>8</v>
       </c>
       <c r="C84" s="3">
-        <v>40873</v>
-      </c>
-      <c r="D84" s="18">
+        <v>40890</v>
+      </c>
+      <c r="D84" s="19">
         <v>0</v>
       </c>
       <c r="E84" s="11">
-        <v>1689.07</v>
+        <v>1694.66</v>
       </c>
       <c r="F84" s="11">
-        <v>1689.77</v>
+        <v>1695.42</v>
       </c>
       <c r="G84" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
+        <v>0.75999999999999091</v>
       </c>
       <c r="H84" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I84" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -7060,15 +7060,15 @@
       </c>
       <c r="J84" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1442924212735144E-4</v>
+        <v>4.4846753921139984E-4</v>
       </c>
       <c r="K84" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L84" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -7076,27 +7076,27 @@
         <v>25</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C85" s="3">
-        <v>40875</v>
-      </c>
-      <c r="D85" s="18">
+        <v>40890</v>
+      </c>
+      <c r="D85" s="19">
         <v>0</v>
       </c>
       <c r="E85" s="11">
-        <v>1689.77</v>
+        <v>595.96</v>
       </c>
       <c r="F85" s="11">
-        <v>1690.5</v>
+        <v>601.32000000000005</v>
       </c>
       <c r="G85" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.73000000000001819</v>
+        <v>5.3600000000000136</v>
       </c>
       <c r="H85" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I85" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -7104,43 +7104,43 @@
       </c>
       <c r="J85" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.3201145718057383E-4</v>
+        <v>8.9938922075307286E-3</v>
       </c>
       <c r="K85" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L85" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C86" s="3">
-        <v>40876</v>
-      </c>
-      <c r="D86" s="7">
+        <v>40891</v>
+      </c>
+      <c r="D86" s="19">
         <v>0</v>
       </c>
       <c r="E86" s="11">
-        <v>1690.5</v>
+        <v>1134</v>
       </c>
       <c r="F86" s="11">
-        <v>1691.2</v>
+        <v>1134</v>
       </c>
       <c r="G86" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
+        <v>0</v>
       </c>
       <c r="H86" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I86" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -7148,43 +7148,43 @@
       </c>
       <c r="J86" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1407867494826705E-4</v>
+        <v>0</v>
       </c>
       <c r="K86" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L86" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C87" s="3">
-        <v>40877</v>
+        <v>40891</v>
       </c>
       <c r="D87" s="19">
         <v>0</v>
       </c>
       <c r="E87" s="11">
-        <v>1691.2</v>
+        <v>885</v>
       </c>
       <c r="F87" s="11">
-        <v>1688.04</v>
+        <v>900</v>
       </c>
       <c r="G87" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-3.1600000000000819</v>
+        <v>15</v>
       </c>
       <c r="H87" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I87" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -7192,15 +7192,15 @@
       </c>
       <c r="J87" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.8684957426679763E-3</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="K87" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L87" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -7211,24 +7211,24 @@
         <v>8</v>
       </c>
       <c r="C88" s="3">
-        <v>40877</v>
+        <v>40891</v>
       </c>
       <c r="D88" s="19">
         <v>0</v>
       </c>
       <c r="E88" s="11">
-        <v>1688.04</v>
+        <v>1695.42</v>
       </c>
       <c r="F88" s="11">
-        <v>1688.74</v>
+        <v>1696.05</v>
       </c>
       <c r="G88" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.70000000000004547</v>
+        <v>0.62999999999988177</v>
       </c>
       <c r="H88" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I88" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -7236,39 +7236,39 @@
       </c>
       <c r="J88" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1468211653754978E-4</v>
+        <v>3.7158934069427148E-4</v>
       </c>
       <c r="K88" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>7.0846701573179516E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L88" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C89" s="3">
-        <v>40878</v>
+        <v>40892</v>
       </c>
       <c r="D89" s="19">
         <v>0</v>
       </c>
       <c r="E89" s="11">
-        <v>1688.74</v>
+        <v>1134</v>
       </c>
       <c r="F89" s="11">
-        <v>1689.49</v>
+        <v>1108</v>
       </c>
       <c r="G89" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75</v>
+        <v>-26</v>
       </c>
       <c r="H89" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7280,39 +7280,39 @@
       </c>
       <c r="J89" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4411809988512146E-4</v>
+        <v>-2.292768959435626E-2</v>
       </c>
       <c r="K89" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L89" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C90" s="3">
-        <v>40879</v>
+        <v>40892</v>
       </c>
       <c r="D90" s="19">
         <v>0</v>
       </c>
       <c r="E90" s="11">
-        <v>1689.49</v>
+        <v>900</v>
       </c>
       <c r="F90" s="11">
-        <v>1690.21</v>
+        <v>880</v>
       </c>
       <c r="G90" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.72000000000002728</v>
+        <v>-20</v>
       </c>
       <c r="H90" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7324,15 +7324,15 @@
       </c>
       <c r="J90" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2616410869553964E-4</v>
+        <v>-2.2222222222222223E-2</v>
       </c>
       <c r="K90" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L90" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -7343,20 +7343,20 @@
         <v>8</v>
       </c>
       <c r="C91" s="3">
-        <v>40882</v>
+        <v>40892</v>
       </c>
       <c r="D91" s="19">
         <v>0</v>
       </c>
       <c r="E91" s="11">
-        <v>1690.21</v>
+        <v>1696.05</v>
       </c>
       <c r="F91" s="11">
-        <v>1690.92</v>
+        <v>1696.85</v>
       </c>
       <c r="G91" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.71000000000003638</v>
+        <v>0.79999999999995453</v>
       </c>
       <c r="H91" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="J91" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2006614562689626E-4</v>
+        <v>4.7168420742310342E-4</v>
       </c>
       <c r="K91" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -7376,31 +7376,31 @@
       </c>
       <c r="L91" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C92" s="3">
-        <v>40883</v>
+        <v>40893</v>
       </c>
       <c r="D92" s="19">
         <v>0</v>
       </c>
       <c r="E92" s="11">
-        <v>1690.92</v>
+        <v>1108</v>
       </c>
       <c r="F92" s="11">
-        <v>1691.62</v>
+        <v>1160</v>
       </c>
       <c r="G92" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.6999999999998181</v>
+        <v>52</v>
       </c>
       <c r="H92" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7412,39 +7412,39 @@
       </c>
       <c r="J92" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1397582381178178E-4</v>
+        <v>4.6931407942238268E-2</v>
       </c>
       <c r="K92" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L92" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C93" s="3">
-        <v>40884</v>
+        <v>40893</v>
       </c>
       <c r="D93" s="19">
         <v>0</v>
       </c>
       <c r="E93" s="11">
-        <v>1691.62</v>
+        <v>880</v>
       </c>
       <c r="F93" s="11">
-        <v>1692.38</v>
+        <v>840</v>
       </c>
       <c r="G93" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.76000000000021828</v>
+        <v>-40</v>
       </c>
       <c r="H93" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7456,15 +7456,15 @@
       </c>
       <c r="J93" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4927347749507476E-4</v>
+        <v>-4.5454545454545456E-2</v>
       </c>
       <c r="K93" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L93" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -7475,20 +7475,20 @@
         <v>8</v>
       </c>
       <c r="C94" s="3">
-        <v>40885</v>
+        <v>40893</v>
       </c>
       <c r="D94" s="19">
         <v>0</v>
       </c>
       <c r="E94" s="11">
-        <v>1692.38</v>
+        <v>1696.85</v>
       </c>
       <c r="F94" s="11">
-        <v>1693.16</v>
+        <v>1697.45</v>
       </c>
       <c r="G94" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.77999999999997272</v>
+        <v>0.60000000000013642</v>
       </c>
       <c r="H94" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7500,7 +7500,7 @@
       </c>
       <c r="J94" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6088939836205382E-4</v>
+        <v>3.535963697440177E-4</v>
       </c>
       <c r="K94" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="L94" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -7516,23 +7516,23 @@
         <v>25</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C95" s="3">
-        <v>40886</v>
+        <v>40893</v>
       </c>
       <c r="D95" s="19">
-        <v>0</v>
+        <v>-598.13</v>
       </c>
       <c r="E95" s="11">
-        <v>1693.16</v>
+        <v>601.32000000000005</v>
       </c>
       <c r="F95" s="11">
-        <v>1693.92</v>
+        <v>0</v>
       </c>
       <c r="G95" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75999999999999091</v>
+        <v>-3.1900000000000546</v>
       </c>
       <c r="H95" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7544,39 +7544,39 @@
       </c>
       <c r="J95" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4886484443288933E-4</v>
+        <v>-5.3049956761791629E-3</v>
       </c>
       <c r="K95" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>3.1258620689655681E-2</v>
       </c>
       <c r="L95" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C96" s="3">
-        <v>40889</v>
+        <v>40896</v>
       </c>
       <c r="D96" s="19">
         <v>0</v>
       </c>
       <c r="E96" s="11">
-        <v>1693.92</v>
+        <v>1160</v>
       </c>
       <c r="F96" s="11">
-        <v>1694.66</v>
+        <v>1178</v>
       </c>
       <c r="G96" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.74000000000000909</v>
+        <v>18</v>
       </c>
       <c r="H96" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7588,39 +7588,39 @@
       </c>
       <c r="J96" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.3685652214981173E-4</v>
+        <v>1.5517241379310345E-2</v>
       </c>
       <c r="K96" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L96" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C97" s="3">
-        <v>40890</v>
+        <v>40896</v>
       </c>
       <c r="D97" s="19">
         <v>0</v>
       </c>
       <c r="E97" s="11">
-        <v>1694.66</v>
+        <v>840</v>
       </c>
       <c r="F97" s="11">
-        <v>1695.42</v>
+        <v>810</v>
       </c>
       <c r="G97" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.75999999999999091</v>
+        <v>-30</v>
       </c>
       <c r="H97" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7632,15 +7632,15 @@
       </c>
       <c r="J97" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.4846753921139984E-4</v>
+        <v>-3.5714285714285712E-2</v>
       </c>
       <c r="K97" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L97" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -7651,20 +7651,20 @@
         <v>8</v>
       </c>
       <c r="C98" s="3">
-        <v>40891</v>
+        <v>40896</v>
       </c>
       <c r="D98" s="19">
         <v>0</v>
       </c>
       <c r="E98" s="11">
-        <v>1695.42</v>
+        <v>1697.45</v>
       </c>
       <c r="F98" s="11">
-        <v>1696.05</v>
+        <v>1698.16</v>
       </c>
       <c r="G98" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.62999999999988177</v>
+        <v>0.71000000000003638</v>
       </c>
       <c r="H98" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="J98" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.7158934069427148E-4</v>
+        <v>4.1827447052934482E-4</v>
       </c>
       <c r="K98" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -7684,31 +7684,31 @@
       </c>
       <c r="L98" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C99" s="3">
-        <v>40892</v>
+        <v>40897</v>
       </c>
       <c r="D99" s="19">
-        <v>0</v>
-      </c>
-      <c r="E99" s="11">
-        <v>1696.05</v>
+        <v>-837.95</v>
+      </c>
+      <c r="E99" s="23">
+        <v>878</v>
       </c>
       <c r="F99" s="11">
-        <v>1696.85</v>
+        <v>0</v>
       </c>
       <c r="G99" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.79999999999995453</v>
+        <v>-40.049999999999955</v>
       </c>
       <c r="H99" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7720,39 +7720,39 @@
       </c>
       <c r="J99" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.7168420742310342E-4</v>
+        <v>-4.5615034168564869E-2</v>
       </c>
       <c r="K99" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>1.6929611650486009E-2</v>
       </c>
       <c r="L99" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C100" s="3">
-        <v>40893</v>
+        <v>40897</v>
       </c>
       <c r="D100" s="19">
         <v>0</v>
       </c>
-      <c r="E100" s="11">
-        <v>1696.85</v>
+      <c r="E100" s="23">
+        <v>1178</v>
       </c>
       <c r="F100" s="11">
-        <v>1697.45</v>
+        <v>1246</v>
       </c>
       <c r="G100" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.60000000000013642</v>
+        <v>68</v>
       </c>
       <c r="H100" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7764,39 +7764,39 @@
       </c>
       <c r="J100" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.535963697440177E-4</v>
+        <v>5.7724957555178265E-2</v>
       </c>
       <c r="K100" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L100" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C101" s="3">
-        <v>40896</v>
+        <v>40897</v>
       </c>
       <c r="D101" s="19">
         <v>0</v>
       </c>
       <c r="E101" s="11">
-        <v>1697.45</v>
+        <v>810</v>
       </c>
       <c r="F101" s="11">
-        <v>1698.16</v>
+        <v>840</v>
       </c>
       <c r="G101" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.71000000000003638</v>
+        <v>30</v>
       </c>
       <c r="H101" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7808,15 +7808,15 @@
       </c>
       <c r="J101" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1827447052934482E-4</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="K101" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L101" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -7860,15 +7860,15 @@
       </c>
       <c r="L102" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C103" s="3">
         <v>40898</v>
@@ -7876,15 +7876,15 @@
       <c r="D103" s="19">
         <v>0</v>
       </c>
-      <c r="E103" s="11">
-        <v>1698.78</v>
+      <c r="E103" s="23">
+        <v>862</v>
       </c>
       <c r="F103" s="11">
-        <v>1699.46</v>
+        <v>878</v>
       </c>
       <c r="G103" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.68000000000006366</v>
+        <v>16</v>
       </c>
       <c r="H103" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7896,39 +7896,39 @@
       </c>
       <c r="J103" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.0028726497843376E-4</v>
+        <v>1.8561484918793503E-2</v>
       </c>
       <c r="K103" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>1.6929611650486009E-2</v>
       </c>
       <c r="L103" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C104" s="3">
-        <v>40899</v>
+        <v>40898</v>
       </c>
       <c r="D104" s="19">
         <v>0</v>
       </c>
-      <c r="E104" s="11">
-        <v>1699.46</v>
+      <c r="E104" s="23">
+        <v>1246</v>
       </c>
       <c r="F104" s="11">
-        <v>1700.17</v>
+        <v>1262</v>
       </c>
       <c r="G104" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.71000000000003638</v>
+        <v>16</v>
       </c>
       <c r="H104" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7940,39 +7940,39 @@
       </c>
       <c r="J104" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1777976533724617E-4</v>
+        <v>1.2841091492776886E-2</v>
       </c>
       <c r="K104" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L104" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C105" s="3">
-        <v>40900</v>
+        <v>40898</v>
       </c>
       <c r="D105" s="19">
         <v>0</v>
       </c>
-      <c r="E105" s="11">
-        <v>1700.17</v>
+      <c r="E105" s="23">
+        <v>840</v>
       </c>
       <c r="F105" s="11">
-        <v>1700.94</v>
+        <v>850</v>
       </c>
       <c r="G105" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.76999999999998181</v>
+        <v>10</v>
       </c>
       <c r="H105" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -7984,15 +7984,15 @@
       </c>
       <c r="J105" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.5289588688188931E-4</v>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="K105" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L105" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -8003,20 +8003,20 @@
         <v>8</v>
       </c>
       <c r="C106" s="3">
-        <v>40903</v>
+        <v>40898</v>
       </c>
       <c r="D106" s="19">
         <v>0</v>
       </c>
       <c r="E106" s="11">
-        <v>1700.94</v>
+        <v>1698.78</v>
       </c>
       <c r="F106" s="11">
-        <v>1701.66</v>
+        <v>1699.46</v>
       </c>
       <c r="G106" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.72000000000002728</v>
+        <v>0.68000000000006366</v>
       </c>
       <c r="H106" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="J106" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2329535433350223E-4</v>
+        <v>4.0028726497843376E-4</v>
       </c>
       <c r="K106" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -8036,31 +8036,31 @@
       </c>
       <c r="L106" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C107" s="3">
-        <v>40904</v>
+        <v>40899</v>
       </c>
       <c r="D107" s="19">
         <v>0</v>
       </c>
-      <c r="E107" s="11">
-        <v>1701.66</v>
-      </c>
-      <c r="F107" s="11">
-        <v>1702.38</v>
+      <c r="E107" s="23">
+        <v>858</v>
+      </c>
+      <c r="F107" s="23">
+        <v>862</v>
       </c>
       <c r="G107" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.72000000000002728</v>
+        <v>4</v>
       </c>
       <c r="H107" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8072,39 +8072,39 @@
       </c>
       <c r="J107" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2311625119003049E-4</v>
+        <v>4.662004662004662E-3</v>
       </c>
       <c r="K107" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>1.6929611650486009E-2</v>
       </c>
       <c r="L107" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C108" s="3">
-        <v>40905</v>
+        <v>40899</v>
       </c>
       <c r="D108" s="19">
         <v>0</v>
       </c>
       <c r="E108" s="11">
-        <v>1702.38</v>
+        <v>1262</v>
       </c>
       <c r="F108" s="11">
-        <v>1703.03</v>
+        <v>1298</v>
       </c>
       <c r="G108" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.64999999999986358</v>
+        <v>36</v>
       </c>
       <c r="H108" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8116,39 +8116,39 @@
       </c>
       <c r="J108" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.8181839542279842E-4</v>
+        <v>2.8526148969889066E-2</v>
       </c>
       <c r="K108" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L108" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C109" s="3">
-        <v>40906</v>
+        <v>40899</v>
       </c>
       <c r="D109" s="19">
         <v>0</v>
       </c>
       <c r="E109" s="11">
-        <v>1703.03</v>
+        <v>850</v>
       </c>
       <c r="F109" s="11">
-        <v>1703.89</v>
+        <v>874</v>
       </c>
       <c r="G109" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.86000000000012733</v>
+        <v>24</v>
       </c>
       <c r="H109" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8160,15 +8160,15 @@
       </c>
       <c r="J109" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>5.0498229626026985E-4</v>
+        <v>2.823529411764706E-2</v>
       </c>
       <c r="K109" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>9.4093821428995472E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L109" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -8179,20 +8179,20 @@
         <v>8</v>
       </c>
       <c r="C110" s="3">
-        <v>40907</v>
+        <v>40899</v>
       </c>
       <c r="D110" s="19">
         <v>0</v>
       </c>
       <c r="E110" s="11">
-        <v>1703.89</v>
+        <v>1699.46</v>
       </c>
       <c r="F110" s="11">
-        <v>1704.63</v>
+        <v>1700.17</v>
       </c>
       <c r="G110" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.74000000000000909</v>
+        <v>0.71000000000003638</v>
       </c>
       <c r="H110" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="J110" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.3430033628931978E-4</v>
+        <v>4.1777976533724617E-4</v>
       </c>
       <c r="K110" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
@@ -8212,35 +8212,35 @@
       </c>
       <c r="L110" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C111" s="3">
-        <v>40877</v>
-      </c>
-      <c r="D111" s="7">
-        <v>580</v>
-      </c>
-      <c r="E111" s="11">
-        <v>0</v>
-      </c>
-      <c r="F111" s="11">
-        <v>0</v>
+        <v>40900</v>
+      </c>
+      <c r="D111" s="19">
+        <v>0</v>
+      </c>
+      <c r="E111" s="23">
+        <v>850</v>
+      </c>
+      <c r="F111" s="23">
+        <v>858</v>
       </c>
       <c r="G111" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H111" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I111" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -8248,39 +8248,39 @@
       </c>
       <c r="J111" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>9.4117647058823521E-3</v>
       </c>
       <c r="K111" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>0</v>
+        <v>1.6929611650486009E-2</v>
       </c>
       <c r="L111" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C112" s="3">
-        <v>40878</v>
+        <v>40900</v>
       </c>
       <c r="D112" s="19">
         <v>0</v>
       </c>
-      <c r="E112" s="7">
-        <v>580</v>
+      <c r="E112" s="11">
+        <v>1298</v>
       </c>
       <c r="F112" s="11">
-        <v>590.01</v>
+        <v>1328</v>
       </c>
       <c r="G112" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>10.009999999999991</v>
+        <v>30</v>
       </c>
       <c r="H112" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8292,39 +8292,39 @@
       </c>
       <c r="J112" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.7258620689655158E-2</v>
+        <v>2.3112480739599383E-2</v>
       </c>
       <c r="K112" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L112" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C113" s="3">
-        <v>40879</v>
+        <v>40900</v>
       </c>
       <c r="D113" s="19">
-        <v>0</v>
-      </c>
-      <c r="E113" s="11">
-        <v>590.01</v>
+        <v>2374.5700000000002</v>
+      </c>
+      <c r="E113" s="19">
+        <v>2374.5700000000002</v>
       </c>
       <c r="F113" s="11">
-        <v>587.96</v>
+        <v>2361</v>
       </c>
       <c r="G113" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-2.0499999999999545</v>
+        <v>-13.570000000000164</v>
       </c>
       <c r="H113" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8336,39 +8336,39 @@
       </c>
       <c r="J113" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-3.474517381061261E-3</v>
+        <v>-5.7147188754175125E-3</v>
       </c>
       <c r="K113" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.0709307369334065E-2</v>
       </c>
       <c r="L113" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C114" s="3">
-        <v>40882</v>
+        <v>40900</v>
       </c>
       <c r="D114" s="19">
         <v>0</v>
       </c>
       <c r="E114" s="11">
-        <v>587.96</v>
+        <v>874</v>
       </c>
       <c r="F114" s="11">
-        <v>596.89</v>
+        <v>875</v>
       </c>
       <c r="G114" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>8.92999999999995</v>
+        <v>1</v>
       </c>
       <c r="H114" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8380,15 +8380,15 @@
       </c>
       <c r="J114" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.5188108034560088E-2</v>
+        <v>1.1441647597254005E-3</v>
       </c>
       <c r="K114" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L114" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -8396,23 +8396,23 @@
         <v>25</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C115" s="3">
-        <v>40883</v>
+        <v>40900</v>
       </c>
       <c r="D115" s="19">
         <v>0</v>
       </c>
       <c r="E115" s="11">
-        <v>596.89</v>
+        <v>1700.17</v>
       </c>
       <c r="F115" s="11">
-        <v>603.42999999999995</v>
+        <v>1700.94</v>
       </c>
       <c r="G115" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>6.5399999999999636</v>
+        <v>0.76999999999998181</v>
       </c>
       <c r="H115" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8424,39 +8424,39 @@
       </c>
       <c r="J115" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>1.0956792708874272E-2</v>
+        <v>4.5289588688188931E-4</v>
       </c>
       <c r="K115" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L115" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C116" s="3">
-        <v>40884</v>
+        <v>40903</v>
       </c>
       <c r="D116" s="19">
         <v>0</v>
       </c>
-      <c r="E116" s="11">
-        <v>603.42999999999995</v>
-      </c>
-      <c r="F116" s="11">
-        <v>599.11</v>
+      <c r="E116" s="23">
+        <v>862</v>
+      </c>
+      <c r="F116" s="23">
+        <v>850</v>
       </c>
       <c r="G116" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-4.3199999999999363</v>
+        <v>-12</v>
       </c>
       <c r="H116" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8468,39 +8468,39 @@
       </c>
       <c r="J116" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-7.1590739605255568E-3</v>
+        <v>-1.3921113689095127E-2</v>
       </c>
       <c r="K116" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.6929611650486009E-2</v>
       </c>
       <c r="L116" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C117" s="3">
-        <v>40885</v>
+        <v>40903</v>
       </c>
       <c r="D117" s="19">
         <v>0</v>
       </c>
-      <c r="E117" s="11">
-        <v>599.11</v>
+      <c r="E117" s="23">
+        <v>664</v>
       </c>
       <c r="F117" s="11">
-        <v>592.57000000000005</v>
+        <v>690</v>
       </c>
       <c r="G117" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-6.5399999999999636</v>
+        <v>26</v>
       </c>
       <c r="H117" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8512,39 +8512,39 @@
       </c>
       <c r="J117" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.0916192351988723E-2</v>
+        <v>3.9156626506024098E-2</v>
       </c>
       <c r="K117" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L117" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C118" s="3">
-        <v>40886</v>
+        <v>40903</v>
       </c>
       <c r="D118" s="19">
-        <v>0</v>
+        <v>-674.01</v>
       </c>
       <c r="E118" s="11">
-        <v>592.57000000000005</v>
+        <v>664</v>
       </c>
       <c r="F118" s="11">
-        <v>597.64</v>
+        <v>0</v>
       </c>
       <c r="G118" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>5.0699999999999363</v>
+        <v>10.009999999999991</v>
       </c>
       <c r="H118" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8556,39 +8556,39 @@
       </c>
       <c r="J118" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>8.5559511956392262E-3</v>
+        <v>1.5075301204819263E-2</v>
       </c>
       <c r="K118" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L118" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C119" s="3">
-        <v>40889</v>
+        <v>40903</v>
       </c>
       <c r="D119" s="19">
         <v>0</v>
       </c>
       <c r="E119" s="11">
-        <v>597.64</v>
+        <v>2361</v>
       </c>
       <c r="F119" s="11">
-        <v>595.96</v>
+        <v>2334</v>
       </c>
       <c r="G119" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-1.67999999999995</v>
+        <v>-27</v>
       </c>
       <c r="H119" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8600,39 +8600,39 @@
       </c>
       <c r="J119" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-2.8110568235057056E-3</v>
+        <v>-1.1435832274459974E-2</v>
       </c>
       <c r="K119" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>1.0709307369334065E-2</v>
       </c>
       <c r="L119" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C120" s="3">
-        <v>40890</v>
+        <v>40903</v>
       </c>
       <c r="D120" s="19">
         <v>0</v>
       </c>
       <c r="E120" s="11">
-        <v>595.96</v>
+        <v>875</v>
       </c>
       <c r="F120" s="11">
-        <v>601.32000000000005</v>
+        <v>870</v>
       </c>
       <c r="G120" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>5.3600000000000136</v>
+        <v>-5</v>
       </c>
       <c r="H120" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8644,15 +8644,15 @@
       </c>
       <c r="J120" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>8.9938922075307286E-3</v>
+        <v>-5.7142857142857143E-3</v>
       </c>
       <c r="K120" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L120" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -8660,23 +8660,23 @@
         <v>25</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C121" s="3">
-        <v>40893</v>
+        <v>40903</v>
       </c>
       <c r="D121" s="19">
-        <v>-598.13</v>
+        <v>0</v>
       </c>
       <c r="E121" s="11">
-        <v>601.32000000000005</v>
+        <v>1700.94</v>
       </c>
       <c r="F121" s="11">
-        <v>0</v>
+        <v>1701.66</v>
       </c>
       <c r="G121" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-3.1900000000000546</v>
+        <v>0.72000000000002728</v>
       </c>
       <c r="H121" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
@@ -8688,43 +8688,43 @@
       </c>
       <c r="J121" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-5.3049956761791629E-3</v>
+        <v>4.2329535433350223E-4</v>
       </c>
       <c r="K121" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>3.1258620689655681E-2</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L121" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C122" s="3">
-        <v>40848</v>
-      </c>
-      <c r="D122" s="7">
-        <v>428.37</v>
-      </c>
-      <c r="E122" s="7">
-        <v>428.37</v>
-      </c>
-      <c r="F122" s="7">
-        <v>428.37</v>
-      </c>
-      <c r="G122" s="24">
-        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0</v>
+        <v>40904</v>
+      </c>
+      <c r="D122" s="19">
+        <v>0</v>
+      </c>
+      <c r="E122" s="23">
+        <v>864</v>
+      </c>
+      <c r="F122" s="23">
+        <v>862</v>
+      </c>
+      <c r="G122" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-2</v>
       </c>
       <c r="H122" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I122" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -8732,43 +8732,43 @@
       </c>
       <c r="J122" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>0</v>
+        <v>-2.3148148148148147E-3</v>
       </c>
       <c r="K122" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>1.6929611650486009E-2</v>
       </c>
       <c r="L122" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C123" s="3">
-        <v>40850</v>
-      </c>
-      <c r="D123" s="7">
-        <v>0</v>
-      </c>
-      <c r="E123" s="7">
-        <v>428.37</v>
+        <v>40904</v>
+      </c>
+      <c r="D123" s="19">
+        <v>0</v>
+      </c>
+      <c r="E123" s="11">
+        <v>690</v>
       </c>
       <c r="F123" s="11">
-        <v>428.55</v>
+        <v>695</v>
       </c>
       <c r="G123" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.18000000000000682</v>
+        <v>5</v>
       </c>
       <c r="H123" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I123" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -8776,43 +8776,43 @@
       </c>
       <c r="J123" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.2019749282164209E-4</v>
+        <v>7.246376811594203E-3</v>
       </c>
       <c r="K123" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L123" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C124" s="3">
-        <v>40851</v>
-      </c>
-      <c r="D124" s="7">
-        <v>0</v>
-      </c>
-      <c r="E124" s="7">
-        <v>428.55</v>
+        <v>40904</v>
+      </c>
+      <c r="D124" s="19">
+        <v>0</v>
+      </c>
+      <c r="E124" s="11">
+        <v>2334</v>
       </c>
       <c r="F124" s="11">
-        <v>428.72</v>
+        <v>2361</v>
       </c>
       <c r="G124" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17000000000001592</v>
+        <v>27</v>
       </c>
       <c r="H124" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I124" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -8820,43 +8820,43 @@
       </c>
       <c r="J124" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9668650099175339E-4</v>
+        <v>1.1568123393316195E-2</v>
       </c>
       <c r="K124" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>1.0709307369334065E-2</v>
       </c>
       <c r="L124" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C125" s="3">
-        <v>40854</v>
-      </c>
-      <c r="D125" s="7">
+        <v>40904</v>
+      </c>
+      <c r="D125" s="19">
         <v>0</v>
       </c>
       <c r="E125" s="11">
-        <v>428.72</v>
+        <v>870</v>
       </c>
       <c r="F125" s="11">
-        <v>428.9</v>
+        <v>871</v>
       </c>
       <c r="G125" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17999999999994998</v>
+        <v>1</v>
       </c>
       <c r="H125" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I125" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -8864,15 +8864,15 @@
       </c>
       <c r="J125" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1985445045705815E-4</v>
+        <v>1.1494252873563218E-3</v>
       </c>
       <c r="K125" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L125" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -8880,27 +8880,27 @@
         <v>25</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C126" s="3">
-        <v>40855</v>
-      </c>
-      <c r="D126" s="7">
+        <v>40904</v>
+      </c>
+      <c r="D126" s="19">
         <v>0</v>
       </c>
       <c r="E126" s="11">
-        <v>428.9</v>
+        <v>1701.66</v>
       </c>
       <c r="F126" s="11">
-        <v>429.08</v>
+        <v>1702.38</v>
       </c>
       <c r="G126" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.18000000000000682</v>
+        <v>0.72000000000002728</v>
       </c>
       <c r="H126" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I126" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -8908,43 +8908,43 @@
       </c>
       <c r="J126" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1967824667756313E-4</v>
+        <v>4.2311625119003049E-4</v>
       </c>
       <c r="K126" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L126" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C127" s="3">
-        <v>40856</v>
-      </c>
-      <c r="D127" s="7">
-        <v>0</v>
-      </c>
-      <c r="E127" s="11">
-        <v>429.08</v>
-      </c>
-      <c r="F127" s="11">
-        <v>429.28</v>
+        <v>40905</v>
+      </c>
+      <c r="D127" s="19">
+        <v>0</v>
+      </c>
+      <c r="E127" s="23">
+        <v>832</v>
+      </c>
+      <c r="F127" s="23">
+        <v>864</v>
       </c>
       <c r="G127" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.19999999999998863</v>
+        <v>32</v>
       </c>
       <c r="H127" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I127" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -8952,43 +8952,43 @@
       </c>
       <c r="J127" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6611354525959874E-4</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="K127" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>1.6929611650486009E-2</v>
       </c>
       <c r="L127" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C128" s="3">
-        <v>40857</v>
-      </c>
-      <c r="D128" s="12">
-        <v>0</v>
-      </c>
-      <c r="E128" s="11">
-        <v>429.28</v>
+        <v>40905</v>
+      </c>
+      <c r="D128" s="19">
+        <v>0</v>
+      </c>
+      <c r="E128" s="23">
+        <v>695</v>
       </c>
       <c r="F128" s="11">
-        <v>429.48</v>
+        <v>636</v>
       </c>
       <c r="G128" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.20000000000004547</v>
+        <v>-59</v>
       </c>
       <c r="H128" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I128" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -8996,43 +8996,43 @@
       </c>
       <c r="J128" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6589638464416113E-4</v>
+        <v>-8.4892086330935257E-2</v>
       </c>
       <c r="K128" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L128" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C129" s="3">
-        <v>40858</v>
-      </c>
-      <c r="D129" s="12">
+        <v>40905</v>
+      </c>
+      <c r="D129" s="19">
         <v>0</v>
       </c>
       <c r="E129" s="11">
-        <v>429.48</v>
+        <v>2361</v>
       </c>
       <c r="F129" s="11">
-        <v>429.69</v>
+        <v>2325</v>
       </c>
       <c r="G129" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.20999999999997954</v>
+        <v>-36</v>
       </c>
       <c r="H129" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I129" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -9040,43 +9040,43 @@
       </c>
       <c r="J129" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.8896339759704646E-4</v>
+        <v>-1.5247776365946633E-2</v>
       </c>
       <c r="K129" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>1.0709307369334065E-2</v>
       </c>
       <c r="L129" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C130" s="3">
-        <v>40861</v>
-      </c>
-      <c r="D130" s="12">
+        <v>40905</v>
+      </c>
+      <c r="D130" s="19">
         <v>0</v>
       </c>
       <c r="E130" s="11">
-        <v>429.69</v>
+        <v>871</v>
       </c>
       <c r="F130" s="11">
-        <v>429.89</v>
+        <v>835</v>
       </c>
       <c r="G130" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.19999999999998863</v>
+        <v>-36</v>
       </c>
       <c r="H130" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I130" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -9084,15 +9084,15 @@
       </c>
       <c r="J130" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.6545183737110158E-4</v>
+        <v>-4.1331802525832378E-2</v>
       </c>
       <c r="K130" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L130" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -9100,27 +9100,27 @@
         <v>25</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C131" s="3">
-        <v>40863</v>
-      </c>
-      <c r="D131" s="12">
+        <v>40905</v>
+      </c>
+      <c r="D131" s="19">
         <v>0</v>
       </c>
       <c r="E131" s="11">
-        <v>429.89</v>
+        <v>1702.38</v>
       </c>
       <c r="F131" s="11">
-        <v>430.1</v>
+        <v>1703.03</v>
       </c>
       <c r="G131" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.21000000000003638</v>
+        <v>0.64999999999986358</v>
       </c>
       <c r="H131" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I131" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -9128,43 +9128,43 @@
       </c>
       <c r="J131" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.8849705738685802E-4</v>
-      </c>
-      <c r="K131" s="14">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
-      </c>
-      <c r="L131" s="14">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>3.8181839542279842E-4</v>
+      </c>
+      <c r="K131" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>9.4093821428995472E-3</v>
+      </c>
+      <c r="L131" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C132" s="3">
-        <v>40864</v>
-      </c>
-      <c r="D132" s="12">
-        <v>0</v>
-      </c>
-      <c r="E132" s="11">
-        <v>430.1</v>
-      </c>
-      <c r="F132" s="11">
-        <v>430.27</v>
+        <v>40906</v>
+      </c>
+      <c r="D132" s="19">
+        <v>0</v>
+      </c>
+      <c r="E132" s="23">
+        <v>824</v>
+      </c>
+      <c r="F132" s="23">
+        <v>832</v>
       </c>
       <c r="G132" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.16999999999995907</v>
+        <v>8</v>
       </c>
       <c r="H132" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I132" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -9172,43 +9172,43 @@
       </c>
       <c r="J132" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9525691699595223E-4</v>
+        <v>9.7087378640776691E-3</v>
       </c>
       <c r="K132" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>1.6929611650486009E-2</v>
       </c>
       <c r="L132" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C133" s="3">
-        <v>40865</v>
-      </c>
-      <c r="D133" s="7">
+        <v>40906</v>
+      </c>
+      <c r="D133" s="19">
         <v>0</v>
       </c>
       <c r="E133" s="11">
-        <v>430.27</v>
+        <v>636</v>
       </c>
       <c r="F133" s="11">
-        <v>430.44</v>
+        <v>608</v>
       </c>
       <c r="G133" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17000000000001592</v>
+        <v>-28</v>
       </c>
       <c r="H133" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I133" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -9216,43 +9216,43 @@
       </c>
       <c r="J133" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9510075069146332E-4</v>
+        <v>-4.40251572327044E-2</v>
       </c>
       <c r="K133" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>4.4035259513529823E-2</v>
       </c>
       <c r="L133" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C134" s="3">
-        <v>40868</v>
-      </c>
-      <c r="D134" s="17">
+        <v>40906</v>
+      </c>
+      <c r="D134" s="19">
         <v>0</v>
       </c>
       <c r="E134" s="11">
-        <v>430.44</v>
+        <v>2325</v>
       </c>
       <c r="F134" s="11">
-        <v>430.6</v>
+        <v>2400</v>
       </c>
       <c r="G134" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.16000000000002501</v>
+        <v>75</v>
       </c>
       <c r="H134" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I134" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -9260,43 +9260,43 @@
       </c>
       <c r="J134" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.717126661091558E-4</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="K134" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>1.0709307369334065E-2</v>
       </c>
       <c r="L134" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C135" s="3">
-        <v>40869</v>
-      </c>
-      <c r="D135" s="17">
+        <v>40906</v>
+      </c>
+      <c r="D135" s="19">
         <v>0</v>
       </c>
       <c r="E135" s="11">
-        <v>430.6</v>
+        <v>835</v>
       </c>
       <c r="F135" s="11">
-        <v>430.78</v>
+        <v>854</v>
       </c>
       <c r="G135" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17999999999994998</v>
+        <v>19</v>
       </c>
       <c r="H135" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I135" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -9304,15 +9304,15 @@
       </c>
       <c r="J135" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>4.1802136553634455E-4</v>
+        <v>2.2754491017964073E-2</v>
       </c>
       <c r="K135" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>-8.1876778352010238E-3</v>
       </c>
       <c r="L135" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>0.21826687591038829</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -9320,27 +9320,27 @@
         <v>25</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136" s="3">
-        <v>40870</v>
-      </c>
-      <c r="D136" s="7">
+        <v>40906</v>
+      </c>
+      <c r="D136" s="19">
         <v>0</v>
       </c>
       <c r="E136" s="11">
-        <v>430.78</v>
+        <v>1703.03</v>
       </c>
       <c r="F136" s="11">
-        <v>430.95</v>
+        <v>1703.89</v>
       </c>
       <c r="G136" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17000000000001592</v>
+        <v>0.86000000000012733</v>
       </c>
       <c r="H136" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I136" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -9348,15 +9348,15 @@
       </c>
       <c r="J136" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9463299131811116E-4</v>
+        <v>5.0498229626026985E-4</v>
       </c>
       <c r="K136" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L136" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -9364,27 +9364,27 @@
         <v>25</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C137" s="3">
-        <v>40871</v>
-      </c>
-      <c r="D137" s="18">
+        <v>40907</v>
+      </c>
+      <c r="D137" s="19">
         <v>0</v>
       </c>
       <c r="E137" s="11">
-        <v>430.95</v>
+        <v>1703.89</v>
       </c>
       <c r="F137" s="11">
-        <v>431.11</v>
+        <v>1704.63</v>
       </c>
       <c r="G137" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.16000000000002501</v>
+        <v>0.74000000000000909</v>
       </c>
       <c r="H137" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I137" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
@@ -9392,237 +9392,460 @@
       </c>
       <c r="J137" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.7127276946287278E-4</v>
+        <v>4.3430033628931978E-4</v>
       </c>
       <c r="K137" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>9.4093821428995472E-3</v>
       </c>
       <c r="L137" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>5.789936939409035E-2</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C138" s="3">
-        <v>40872</v>
-      </c>
-      <c r="D138" s="18">
-        <v>0</v>
-      </c>
-      <c r="E138" s="11">
-        <v>431.11</v>
-      </c>
-      <c r="F138" s="11">
-        <v>431.23</v>
+        <v>40910</v>
+      </c>
+      <c r="D138" s="19">
+        <v>0</v>
+      </c>
+      <c r="E138" s="23">
+        <v>896</v>
+      </c>
+      <c r="F138" s="23">
+        <v>824</v>
       </c>
       <c r="G138" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.12000000000000455</v>
+        <v>-72</v>
       </c>
       <c r="H138" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I138" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="J138" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>2.7835123286401277E-4</v>
+        <v>-8.0357142857142863E-2</v>
       </c>
       <c r="K138" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>-0.11587982832618027</v>
       </c>
       <c r="L138" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>-0.14803855733987803</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C139" s="3">
-        <v>40875</v>
-      </c>
-      <c r="D139" s="18">
-        <v>0</v>
+        <v>40910</v>
+      </c>
+      <c r="D139" s="19">
+        <v>-567.03</v>
       </c>
       <c r="E139" s="11">
-        <v>431.23</v>
+        <v>608</v>
       </c>
       <c r="F139" s="11">
-        <v>431.4</v>
+        <v>0</v>
       </c>
       <c r="G139" s="8">
         <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.16999999999995907</v>
+        <v>-40.970000000000027</v>
       </c>
       <c r="H139" s="30">
         <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I139" s="30">
         <f>YEAR(Tabela1[[#This Row],[Data]])</f>
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="J139" s="5">
         <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9422118127208002E-4</v>
+        <v>-6.7384868421052679E-2</v>
       </c>
       <c r="K139" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
+        <v>-8.1784517099356524E-2</v>
       </c>
       <c r="L139" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
+        <v>-0.14803855733987803</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="3">
+        <v>40910</v>
+      </c>
+      <c r="D140" s="19">
+        <v>0</v>
+      </c>
+      <c r="E140" s="11">
+        <v>2400</v>
+      </c>
+      <c r="F140" s="11">
+        <v>2325</v>
+      </c>
+      <c r="G140" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-75</v>
+      </c>
+      <c r="H140" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I140" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J140" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="K140" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.5000000000001688E-3</v>
+      </c>
+      <c r="L140" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.14803855733987803</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="3">
+        <v>40910</v>
+      </c>
+      <c r="D141" s="19">
+        <v>0</v>
+      </c>
+      <c r="E141" s="11">
+        <v>854</v>
+      </c>
+      <c r="F141" s="11">
+        <v>899</v>
+      </c>
+      <c r="G141" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>45</v>
+      </c>
+      <c r="H141" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I141" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J141" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>5.2693208430913352E-2</v>
+      </c>
+      <c r="K141" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>4.6838407494145029E-2</v>
+      </c>
+      <c r="L141" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.14803855733987803</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="3">
-        <v>40876</v>
-      </c>
-      <c r="D140" s="18">
-        <v>0</v>
-      </c>
-      <c r="E140" s="11">
-        <v>431.4</v>
-      </c>
-      <c r="F140" s="11">
-        <v>431.57</v>
-      </c>
-      <c r="G140" s="8">
-        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>0.17000000000001592</v>
-      </c>
-      <c r="H140" s="30">
-        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
-      </c>
-      <c r="I140" s="30">
-        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
-        <v>2011</v>
-      </c>
-      <c r="J140" s="5">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>3.9406583217435311E-4</v>
-      </c>
-      <c r="K140" s="9">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
-      </c>
-      <c r="L140" s="9">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="3">
-        <v>40876</v>
-      </c>
-      <c r="D141" s="19">
-        <v>-430.71</v>
-      </c>
-      <c r="E141" s="23">
-        <v>431.57</v>
-      </c>
-      <c r="F141" s="11">
-        <v>0</v>
-      </c>
-      <c r="G141" s="8">
-        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
-        <v>-0.86000000000001364</v>
-      </c>
-      <c r="H141" s="30">
-        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
-        <v>11</v>
-      </c>
-      <c r="I141" s="30">
-        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
-        <v>2011</v>
-      </c>
-      <c r="J141" s="5">
-        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
-        <v>-1.9927242394049949E-3</v>
-      </c>
-      <c r="K141" s="9">
-        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.4625674066808294E-3</v>
-      </c>
-      <c r="L141" s="9">
-        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.7899369394090128E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="25" t="s">
+      <c r="B142" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="3">
+        <v>40910</v>
+      </c>
+      <c r="D142" s="19">
+        <v>0</v>
+      </c>
+      <c r="E142" s="11">
+        <v>1704.63</v>
+      </c>
+      <c r="F142" s="11">
+        <v>1705.55</v>
+      </c>
+      <c r="G142" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.91999999999984539</v>
+      </c>
+      <c r="H142" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I142" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J142" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>5.3970656388767379E-4</v>
+      </c>
+      <c r="K142" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.3970656388768745E-4</v>
+      </c>
+      <c r="L142" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.3970656388768745E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="3">
+        <v>40911</v>
+      </c>
+      <c r="D143" s="19">
+        <v>0</v>
+      </c>
+      <c r="E143" s="23">
+        <v>932</v>
+      </c>
+      <c r="F143" s="23">
+        <v>896</v>
+      </c>
+      <c r="G143" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-36</v>
+      </c>
+      <c r="H143" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I143" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J143" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-3.8626609442060089E-2</v>
+      </c>
+      <c r="K143" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.11587982832618027</v>
+      </c>
+      <c r="L143" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.14803855733987803</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="3">
+        <v>40911</v>
+      </c>
+      <c r="D144" s="19">
+        <v>1176.1600000000001</v>
+      </c>
+      <c r="E144" s="19">
+        <v>1176.1600000000001</v>
+      </c>
+      <c r="F144" s="11">
+        <v>1158</v>
+      </c>
+      <c r="G144" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-18.160000000000082</v>
+      </c>
+      <c r="H144" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I144" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J144" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-1.5440076180111619E-2</v>
+      </c>
+      <c r="K144" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-8.1784517099356524E-2</v>
+      </c>
+      <c r="L144" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.14803855733987803</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="3">
+        <v>40911</v>
+      </c>
+      <c r="D145" s="19">
+        <v>0</v>
+      </c>
+      <c r="E145" s="11">
+        <v>2325</v>
+      </c>
+      <c r="F145" s="11">
+        <v>2406</v>
+      </c>
+      <c r="G145" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>81</v>
+      </c>
+      <c r="H145" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I145" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J145" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.4838709677419352E-2</v>
+      </c>
+      <c r="K145" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>2.5000000000001688E-3</v>
+      </c>
+      <c r="L145" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.14803855733987803</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="3">
+        <v>40911</v>
+      </c>
+      <c r="D146" s="19">
+        <v>0</v>
+      </c>
+      <c r="E146" s="11">
+        <v>899</v>
+      </c>
+      <c r="F146" s="11">
+        <v>894</v>
+      </c>
+      <c r="G146" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-5</v>
+      </c>
+      <c r="H146" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I146" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J146" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-5.5617352614015575E-3</v>
+      </c>
+      <c r="K146" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>4.6838407494145029E-2</v>
+      </c>
+      <c r="L146" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.14803855733987803</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C142">
+      <c r="C147">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Mês]],Tabela1[[#Totals],[Ano]],Plan2!A2:A1048576)</f>
-        <v>51</v>
-      </c>
-      <c r="D142" s="25">
+        <v>52</v>
+      </c>
+      <c r="D147" s="25">
         <f>SUBTOTAL(109,Tabela1[Aplicação])</f>
-        <v>3790.66</v>
-      </c>
-      <c r="E142" s="26">
+        <v>4966.8199999999988</v>
+      </c>
+      <c r="E147" s="26">
         <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Valor Bruto]]</f>
-        <v>4.0151266249174505E-2</v>
-      </c>
-      <c r="F142" s="25">
+        <v>4.3927944431722772E-2</v>
+      </c>
+      <c r="F147" s="25">
         <f>Tabela1[[#Totals],[Aplicação]]+Tabela1[[#Totals],[Nome]]</f>
-        <v>6026.46</v>
-      </c>
-      <c r="G142" s="8">
+        <v>6026.4599999999991</v>
+      </c>
+      <c r="G147" s="8">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>241.9700000000002</v>
-      </c>
-      <c r="H142" s="20">
+        <v>264.72999999999996</v>
+      </c>
+      <c r="H147" s="20">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="I142" s="28">
+      <c r="I147" s="28">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40910</v>
-      </c>
-      <c r="J142" s="26">
+        <v>40911</v>
+      </c>
+      <c r="J147" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>7.7218329176265144E-4</v>
-      </c>
-      <c r="K142" s="26">
+        <v>8.2708161919975431E-4</v>
+      </c>
+      <c r="K147" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.6341679706563195E-2</v>
-      </c>
-      <c r="L142" s="26">
+        <v>1.7513122735840492E-2</v>
+      </c>
+      <c r="L147" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.21472182326190681</v>
-      </c>
+        <v>0.23162991149509393</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B149" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D31">

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="30">
   <si>
     <t>Nome</t>
   </si>
@@ -519,59 +519,36 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40910.85294409722" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="139">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40912.810109375001" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="150">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
   <cacheFields count="12">
     <cacheField name="ID" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
+        <s v="Fundos"/>
         <s v="Ações"/>
-        <s v="Fundos"/>
         <m u="1"/>
         <s v="Taxas" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Nome" numFmtId="0">
       <sharedItems containsBlank="1" count="11">
+        <s v="XP INV FIRF CRED PRI"/>
+        <s v="XP Referenciado FIRD"/>
+        <s v="GOLL4"/>
+        <s v="XP MULT-INV FIC FIA"/>
+        <s v="MRFG3"/>
         <s v="Custódia"/>
+        <s v="JBSS3"/>
         <s v="GFSA3"/>
-        <s v="GOLL4"/>
-        <s v="JBSS3"/>
         <s v="KLBN4"/>
-        <s v="MRFG3"/>
-        <s v="XP INV FIRF CRED PRI"/>
-        <s v="XP MULT-INV FIC FIA"/>
-        <s v="XP Referenciado FIRD"/>
         <m u="1"/>
         <s v="CRED" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="56">
-        <d v="2011-12-08T00:00:00"/>
-        <d v="2011-12-20T00:00:00"/>
-        <d v="2011-12-21T00:00:00"/>
-        <d v="2011-12-22T00:00:00"/>
-        <d v="2011-12-23T00:00:00"/>
-        <d v="2011-12-26T00:00:00"/>
-        <d v="2011-12-27T00:00:00"/>
-        <d v="2011-12-28T00:00:00"/>
-        <d v="2011-12-29T00:00:00"/>
-        <d v="2012-01-02T00:00:00"/>
-        <d v="2011-11-30T00:00:00"/>
-        <d v="2011-12-01T00:00:00"/>
-        <d v="2011-12-02T00:00:00"/>
-        <d v="2011-12-05T00:00:00"/>
-        <d v="2011-12-06T00:00:00"/>
-        <d v="2011-12-07T00:00:00"/>
-        <d v="2011-12-13T00:00:00"/>
-        <d v="2011-12-14T00:00:00"/>
-        <d v="2011-12-15T00:00:00"/>
-        <d v="2011-12-16T00:00:00"/>
-        <d v="2011-12-19T00:00:00"/>
-        <d v="2011-12-09T00:00:00"/>
-        <d v="2011-12-12T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="58">
         <d v="2011-10-19T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
         <d v="2011-10-21T00:00:00"/>
@@ -597,34 +574,59 @@
         <d v="2011-11-22T00:00:00"/>
         <d v="2011-11-23T00:00:00"/>
         <d v="2011-11-24T00:00:00"/>
+        <d v="2011-11-25T00:00:00"/>
         <d v="2011-11-26T00:00:00"/>
         <d v="2011-11-28T00:00:00"/>
         <d v="2011-11-29T00:00:00"/>
+        <d v="2011-11-30T00:00:00"/>
+        <d v="2011-12-01T00:00:00"/>
+        <d v="2011-12-02T00:00:00"/>
+        <d v="2011-12-05T00:00:00"/>
+        <d v="2011-12-06T00:00:00"/>
+        <d v="2011-12-07T00:00:00"/>
+        <d v="2011-12-08T00:00:00"/>
+        <d v="2011-12-09T00:00:00"/>
+        <d v="2011-12-12T00:00:00"/>
+        <d v="2011-12-13T00:00:00"/>
+        <d v="2011-12-14T00:00:00"/>
+        <d v="2011-12-15T00:00:00"/>
+        <d v="2011-12-16T00:00:00"/>
+        <d v="2011-12-19T00:00:00"/>
+        <d v="2011-12-20T00:00:00"/>
+        <d v="2011-12-21T00:00:00"/>
+        <d v="2011-12-22T00:00:00"/>
+        <d v="2011-12-23T00:00:00"/>
+        <d v="2011-12-26T00:00:00"/>
+        <d v="2011-12-27T00:00:00"/>
+        <d v="2011-12-28T00:00:00"/>
+        <d v="2011-12-29T00:00:00"/>
         <d v="2011-12-30T00:00:00"/>
-        <d v="2011-11-25T00:00:00"/>
+        <d v="2012-01-02T00:00:00"/>
+        <d v="2012-01-03T00:00:00"/>
+        <d v="2012-01-04T00:00:00"/>
+        <d v="2012-12-01T00:00:00" u="1"/>
         <d v="2011-12-24T00:00:00" u="1"/>
         <d v="2011-12-03T00:00:00" u="1"/>
-        <d v="2012-12-01T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Aplicação" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1583.68" maxValue="2374.5700000000002"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1796.2" maxValue="2374.5700000000002"/>
     </cacheField>
     <cacheField name="Valor Base" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2400"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2406"/>
     </cacheField>
     <cacheField name="Valor Bruto" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2400"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2406"/>
     </cacheField>
     <cacheField name="Rendimento" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-75" maxValue="87.680000000000064"/>
     </cacheField>
     <cacheField name="Mês" numFmtId="1">
       <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="1899-12-31T04:01:03" maxDate="2011-11-08T00:00:00" count="18">
+        <n v="10"/>
+        <n v="11"/>
         <n v="12"/>
         <n v="1"/>
-        <n v="11"/>
-        <n v="10"/>
         <m u="1"/>
         <d v="2011-11-02T00:00:00" u="1"/>
         <d v="2011-11-07T00:00:00" u="1"/>
@@ -648,13 +650,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Rent. Dia" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.5" maxValue="5.8609625668449239E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.4892086330935257E-2" maxValue="5.8609625668449239E-2"/>
     </cacheField>
     <cacheField name="Rent. Mês" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.5" maxValue="0.17309629629629653"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-9.0507726269315802E-2" maxValue="0.17309629629629653"/>
     </cacheField>
     <cacheField name="Rent. Ano" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.38852661063522376" maxValue="5.7899369394090128E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.10158681614669418" maxValue="0.21826687591038829"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -666,1964 +668,2118 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="139">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-6.9"/>
-    <n v="13.8"/>
-    <n v="0"/>
-    <n v="-6.9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-0.5"/>
-    <n v="-0.5"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="-837.95"/>
-    <n v="878"/>
-    <n v="0"/>
-    <n v="-40.049999999999955"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-4.5615034168564869E-2"/>
-    <n v="1.6929611650486009E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="150">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1670.78"/>
+    <n v="1670.78"/>
+    <n v="1670.78"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="1670.78"/>
+    <n v="1671.56"/>
+    <n v="0.77999999999997272"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.6684781958125708E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="862"/>
-    <n v="878"/>
-    <n v="16"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.8561484918793503E-2"/>
-    <n v="1.6929611650486009E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="1671.56"/>
+    <n v="1672.3"/>
+    <n v="0.74000000000000909"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.4270023211850554E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <n v="0"/>
-    <n v="858"/>
-    <n v="862"/>
-    <n v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.662004662004662E-3"/>
-    <n v="1.6929611650486009E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="1672.3"/>
+    <n v="1673.04"/>
+    <n v="0.74000000000000909"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.4250433534653421E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="850"/>
-    <n v="858"/>
-    <n v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="9.4117647058823521E-3"/>
-    <n v="1.6929611650486009E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="1673.04"/>
+    <n v="1673.87"/>
+    <n v="0.82999999999992724"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.9610290250079328E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <n v="0"/>
-    <n v="862"/>
-    <n v="850"/>
-    <n v="-12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-1.3921113689095127E-2"/>
-    <n v="1.6929611650486009E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="1673.87"/>
+    <n v="1674.66"/>
+    <n v="0.79000000000019099"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.7196018806728782E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <n v="0"/>
-    <n v="864"/>
-    <n v="862"/>
-    <n v="-2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-2.3148148148148147E-3"/>
-    <n v="1.6929611650486009E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="1674.66"/>
+    <n v="1675.48"/>
+    <n v="0.81999999999993634"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.8965163077874685E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="7"/>
     <n v="0"/>
-    <n v="832"/>
-    <n v="864"/>
-    <n v="32"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3.8461538461538464E-2"/>
-    <n v="1.6929611650486009E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="1675.48"/>
+    <n v="1676.13"/>
+    <n v="0.65000000000009095"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.8794852818302276E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="8"/>
     <n v="0"/>
-    <n v="824"/>
-    <n v="832"/>
-    <n v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="9.7087378640776691E-3"/>
-    <n v="1.6929611650486009E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="1676.13"/>
+    <n v="1676.86"/>
+    <n v="0.72999999999979082"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.3552707725521932E-4"/>
+    <n v="3.6390189013515428E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
     <x v="9"/>
     <n v="0"/>
-    <n v="896"/>
-    <n v="824"/>
-    <n v="-72"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="-8.0357142857142863E-2"/>
-    <n v="-8.0357142857142905E-2"/>
-    <n v="-0.12534819615174619"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="1676.86"/>
+    <n v="1677.49"/>
+    <n v="0.63000000000010914"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.7570220531237501E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="428.37"/>
+    <n v="428.37"/>
+    <n v="428.37"/>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="1677.49"/>
+    <n v="1678.11"/>
+    <n v="0.61999999999989086"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.6959981877679801E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0"/>
+    <n v="428.37"/>
+    <n v="428.55"/>
+    <n v="0.18000000000000682"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.2019749282164209E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="1678.11"/>
+    <n v="1678.81"/>
+    <n v="0.70000000000004547"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.1713594460437368E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="0"/>
+    <n v="428.55"/>
+    <n v="428.72"/>
+    <n v="0.17000000000001592"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.9668650099175339E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="1678.81"/>
+    <n v="1679.59"/>
+    <n v="0.77999999999997272"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.6461481644734828E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="0"/>
+    <n v="428.72"/>
+    <n v="428.9"/>
+    <n v="0.17999999999994998"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.1985445045705815E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="1679.59"/>
+    <n v="1680.42"/>
+    <n v="0.83000000000015461"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.9416821962511965E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="0"/>
+    <n v="428.9"/>
+    <n v="429.08"/>
+    <n v="0.18000000000000682"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.1967824667756313E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="1680.42"/>
+    <n v="1681.27"/>
+    <n v="0.84999999999990905"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5.0582592447120901E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="14"/>
+    <n v="0"/>
+    <n v="429.08"/>
+    <n v="429.28"/>
+    <n v="0.19999999999998863"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.6611354525959874E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="1681.27"/>
+    <n v="1682.1"/>
+    <n v="0.82999999999992724"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.9367442469081544E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="0"/>
+    <n v="429.28"/>
+    <n v="429.48"/>
+    <n v="0.20000000000004547"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.6589638464416113E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="1682.1"/>
+    <n v="1683.02"/>
+    <n v="0.92000000000007276"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5.4693537839609584E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="0"/>
+    <n v="429.48"/>
+    <n v="429.69"/>
+    <n v="0.20999999999997954"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.8896339759704646E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="1683.02"/>
+    <n v="1683.82"/>
+    <n v="0.79999999999995453"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.7533600313719063E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="0"/>
+    <n v="429.69"/>
+    <n v="429.89"/>
+    <n v="0.19999999999998863"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.6545183737110158E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="1683.82"/>
+    <n v="1684.61"/>
+    <n v="0.78999999999996362"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.6917128909263676E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="0"/>
+    <n v="429.89"/>
+    <n v="430.1"/>
+    <n v="0.21000000000003638"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.8849705738685802E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="1684.61"/>
+    <n v="1685.31"/>
+    <n v="0.70000000000004547"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.1552644232198876E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="0"/>
+    <n v="430.1"/>
+    <n v="430.27"/>
+    <n v="0.16999999999995907"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.9525691699595223E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="1685.31"/>
+    <n v="1686.09"/>
+    <n v="0.77999999999997272"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.6282286344943825E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="0"/>
+    <n v="430.27"/>
+    <n v="430.44"/>
+    <n v="0.17000000000001592"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.9510075069146332E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="1686.09"/>
+    <n v="1686.81"/>
+    <n v="0.72000000000002728"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.2702346849813905E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="0"/>
+    <n v="430.44"/>
+    <n v="430.6"/>
+    <n v="0.16000000000002501"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.717126661091558E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="1686.81"/>
+    <n v="1687.6"/>
+    <n v="0.78999999999996362"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.683396470260217E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="0"/>
+    <n v="430.6"/>
+    <n v="430.78"/>
+    <n v="0.17999999999994998"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.1802136553634455E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="23"/>
+    <n v="0"/>
+    <n v="1687.6"/>
+    <n v="1688.37"/>
+    <n v="0.76999999999998181"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.5626925811802671E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="23"/>
+    <n v="0"/>
+    <n v="430.78"/>
+    <n v="430.95"/>
+    <n v="0.17000000000001592"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.9463299131811116E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="24"/>
+    <n v="0"/>
+    <n v="1688.37"/>
+    <n v="1689.07"/>
+    <n v="0.70000000000004547"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.1460106493247662E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="24"/>
+    <n v="0"/>
+    <n v="430.95"/>
+    <n v="431.11"/>
+    <n v="0.16000000000002501"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.7127276946287278E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="25"/>
+    <n v="0"/>
+    <n v="431.11"/>
+    <n v="431.23"/>
+    <n v="0.12000000000000455"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2.7835123286401277E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="1689.07"/>
+    <n v="1689.77"/>
+    <n v="0.70000000000004547"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.1442924212735144E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="1689.77"/>
+    <n v="1690.5"/>
+    <n v="0.73000000000001819"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.3201145718057383E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="27"/>
+    <n v="0"/>
+    <n v="431.23"/>
+    <n v="431.4"/>
+    <n v="0.16999999999995907"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.9422118127208002E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="1690.5"/>
+    <n v="1691.2"/>
+    <n v="0.70000000000004547"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.1407867494826705E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="28"/>
+    <n v="0"/>
+    <n v="431.4"/>
+    <n v="431.57"/>
+    <n v="0.17000000000001592"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3.9406583217435311E-4"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="28"/>
+    <n v="-430.71"/>
+    <n v="431.57"/>
+    <n v="0"/>
+    <n v="-0.86000000000001364"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="-1.9927242394049949E-3"/>
+    <n v="5.4625674066808294E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="2"/>
-    <x v="10"/>
+    <x v="29"/>
     <n v="1378.23"/>
     <n v="1378.23"/>
     <n v="1350"/>
     <n v="-28.230000000000018"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="-2.0482793147732974E-2"/>
     <n v="-2.0482793147732936E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="1691.2"/>
+    <n v="1688.04"/>
+    <n v="-3.1600000000000819"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="-1.8684957426679763E-3"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <n v="0"/>
+    <n v="1688.04"/>
+    <n v="1688.74"/>
+    <n v="0.70000000000004547"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4.1468211653754978E-4"/>
+    <n v="7.0846701573179516E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="29"/>
+    <n v="580"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="2"/>
-    <x v="11"/>
+    <x v="30"/>
     <n v="0"/>
     <n v="1350"/>
     <n v="1425"/>
     <n v="75"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="5.5555555555555552E-2"/>
     <n v="0.17309629629629653"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="1688.74"/>
+    <n v="1689.49"/>
+    <n v="0.75"/>
     <x v="2"/>
-    <x v="12"/>
+    <x v="0"/>
+    <n v="4.4411809988512146E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="30"/>
+    <n v="0"/>
+    <n v="580"/>
+    <n v="590.01"/>
+    <n v="10.009999999999991"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.7258620689655158E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="31"/>
     <n v="0"/>
     <n v="1425"/>
     <n v="1408"/>
     <n v="-17"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="-1.1929824561403509E-2"/>
     <n v="0.17309629629629653"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="31"/>
+    <n v="0"/>
+    <n v="1689.49"/>
+    <n v="1690.21"/>
+    <n v="0.72000000000002728"/>
     <x v="2"/>
-    <x v="13"/>
+    <x v="0"/>
+    <n v="4.2616410869553964E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="31"/>
+    <n v="0"/>
+    <n v="590.01"/>
+    <n v="587.96"/>
+    <n v="-2.0499999999999545"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-3.474517381061261E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="32"/>
     <n v="0"/>
     <n v="1408"/>
     <n v="1468"/>
     <n v="60"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="4.261363636363636E-2"/>
     <n v="0.17309629629629653"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="32"/>
+    <n v="0"/>
+    <n v="1690.21"/>
+    <n v="1690.92"/>
+    <n v="0.71000000000003638"/>
     <x v="2"/>
-    <x v="14"/>
+    <x v="0"/>
+    <n v="4.2006614562689626E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="32"/>
+    <n v="0"/>
+    <n v="587.96"/>
+    <n v="596.89"/>
+    <n v="8.92999999999995"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.5188108034560088E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="33"/>
     <n v="0"/>
     <n v="1468"/>
     <n v="1496"/>
     <n v="28"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="1.9073569482288829E-2"/>
     <n v="0.17309629629629653"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="33"/>
+    <n v="861.05"/>
+    <n v="861.05"/>
+    <n v="851"/>
+    <n v="-10.049999999999955"/>
     <x v="2"/>
-    <x v="15"/>
+    <x v="0"/>
+    <n v="-1.1671796062946351E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="33"/>
+    <n v="0"/>
+    <n v="1690.92"/>
+    <n v="1691.62"/>
+    <n v="0.6999999999998181"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.1397582381178178E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="33"/>
+    <n v="0"/>
+    <n v="596.89"/>
+    <n v="603.42999999999995"/>
+    <n v="6.5399999999999636"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.0956792708874272E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="34"/>
     <n v="-1583.68"/>
     <n v="1496"/>
     <n v="1600"/>
     <n v="87.680000000000064"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="5.8609625668449239E-2"/>
     <n v="0.17309629629629653"/>
-    <n v="-0.38852661063522376"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="851"/>
+    <n v="823"/>
+    <n v="-28"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-3.2902467685076382E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="1691.62"/>
+    <n v="1692.38"/>
+    <n v="0.76000000000021828"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.4927347749507476E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="16"/>
+    <x v="34"/>
+    <n v="0"/>
+    <n v="603.42999999999995"/>
+    <n v="599.11"/>
+    <n v="-4.3199999999999363"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-7.1590739605255568E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="35"/>
+    <n v="1803.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="-3.8267428317896313E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="823"/>
+    <n v="849"/>
+    <n v="26"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.1591737545565005E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="1692.38"/>
+    <n v="1693.16"/>
+    <n v="0.77999999999997272"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.6088939836205382E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="35"/>
+    <n v="0"/>
+    <n v="599.11"/>
+    <n v="592.57000000000005"/>
+    <n v="-6.5399999999999636"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-1.0916192351988723E-2"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="36"/>
+    <n v="-1796.2"/>
+    <n v="1803.1"/>
+    <n v="0"/>
+    <n v="-6.8999999999998636"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-3.82674283178962E-3"/>
+    <n v="-3.8267428317896313E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="849"/>
+    <n v="879"/>
+    <n v="30"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.5335689045936397E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="1693.16"/>
+    <n v="1693.92"/>
+    <n v="0.75999999999999091"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.4886484443288933E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="36"/>
+    <n v="0"/>
+    <n v="592.57000000000005"/>
+    <n v="597.64"/>
+    <n v="5.0699999999999363"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.5559511956392262E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="879"/>
+    <n v="860"/>
+    <n v="-19"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-2.1615472127417521E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="1693.92"/>
+    <n v="1694.66"/>
+    <n v="0.74000000000000909"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.3685652214981173E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="37"/>
+    <n v="0"/>
+    <n v="597.64"/>
+    <n v="595.96"/>
+    <n v="-1.67999999999995"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-2.8110568235057056E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="38"/>
     <n v="1182.27"/>
     <n v="1182.27"/>
     <n v="1134"/>
     <n v="-48.269999999999982"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="-4.082823720469942E-2"/>
     <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="860"/>
+    <n v="885"/>
+    <n v="25"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2.9069767441860465E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="1694.66"/>
+    <n v="1695.42"/>
+    <n v="0.75999999999999091"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.4846753921139984E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="17"/>
+    <x v="38"/>
+    <n v="0"/>
+    <n v="595.96"/>
+    <n v="601.32000000000005"/>
+    <n v="5.3600000000000136"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.9938922075307286E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="39"/>
     <n v="0"/>
     <n v="1134"/>
     <n v="1134"/>
     <n v="0"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="0"/>
     <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="18"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="885"/>
+    <n v="900"/>
+    <n v="15"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.6949152542372881E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="1695.42"/>
+    <n v="1696.05"/>
+    <n v="0.62999999999988177"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.7158934069427148E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="40"/>
     <n v="0"/>
     <n v="1134"/>
     <n v="1108"/>
     <n v="-26"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="-2.292768959435626E-2"/>
     <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="19"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="40"/>
+    <n v="0"/>
+    <n v="900"/>
+    <n v="880"/>
+    <n v="-20"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-2.2222222222222223E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="40"/>
+    <n v="0"/>
+    <n v="1696.05"/>
+    <n v="1696.85"/>
+    <n v="0.79999999999995453"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.7168420742310342E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="41"/>
     <n v="0"/>
     <n v="1108"/>
     <n v="1160"/>
     <n v="52"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="4.6931407942238268E-2"/>
     <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="41"/>
+    <n v="0"/>
+    <n v="880"/>
+    <n v="840"/>
+    <n v="-40"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-4.5454545454545456E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="41"/>
+    <n v="0"/>
+    <n v="1696.85"/>
+    <n v="1697.45"/>
+    <n v="0.60000000000013642"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.535963697440177E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="20"/>
+    <x v="41"/>
+    <n v="-598.13"/>
+    <n v="601.32000000000005"/>
+    <n v="0"/>
+    <n v="-3.1900000000000546"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-5.3049956761791629E-3"/>
+    <n v="3.1258620689655681E-2"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="42"/>
     <n v="0"/>
     <n v="1160"/>
     <n v="1178"/>
     <n v="18"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="1.5517241379310345E-2"/>
     <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="42"/>
+    <n v="0"/>
+    <n v="840"/>
+    <n v="810"/>
+    <n v="-30"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-3.5714285714285712E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="42"/>
+    <n v="0"/>
+    <n v="1697.45"/>
+    <n v="1698.16"/>
+    <n v="0.71000000000003638"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.1827447052934482E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="43"/>
+    <n v="-837.95"/>
+    <n v="878"/>
+    <n v="0"/>
+    <n v="-40.049999999999955"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-4.5615034168564869E-2"/>
+    <n v="1.6929611650486009E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="43"/>
     <n v="0"/>
     <n v="1178"/>
     <n v="1246"/>
     <n v="68"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="5.7724957555178265E-2"/>
     <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="43"/>
+    <n v="0"/>
+    <n v="810"/>
+    <n v="840"/>
+    <n v="30"/>
     <x v="2"/>
+    <x v="0"/>
+    <n v="3.7037037037037035E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="43"/>
+    <n v="0"/>
+    <n v="1698.16"/>
+    <n v="1698.78"/>
+    <n v="0.61999999999989086"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.6510105054876504E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="862"/>
+    <n v="878"/>
+    <n v="16"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.8561484918793503E-2"/>
+    <n v="1.6929611650486009E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="44"/>
     <n v="0"/>
     <n v="1246"/>
     <n v="1262"/>
     <n v="16"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="1.2841091492776886E-2"/>
     <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="840"/>
+    <n v="850"/>
+    <n v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.1904761904761904E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="44"/>
+    <n v="0"/>
+    <n v="1698.78"/>
+    <n v="1699.46"/>
+    <n v="0.68000000000006366"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.0028726497843376E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="45"/>
+    <n v="0"/>
+    <n v="858"/>
+    <n v="862"/>
+    <n v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.662004662004662E-3"/>
+    <n v="1.6929611650486009E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="45"/>
     <n v="0"/>
     <n v="1262"/>
     <n v="1298"/>
     <n v="36"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="2.8526148969889066E-2"/>
     <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="4"/>
+    <x v="45"/>
+    <n v="0"/>
+    <n v="850"/>
+    <n v="874"/>
+    <n v="24"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2.823529411764706E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="45"/>
+    <n v="0"/>
+    <n v="1699.46"/>
+    <n v="1700.17"/>
+    <n v="0.71000000000003638"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.1777976533724617E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="46"/>
+    <n v="0"/>
+    <n v="850"/>
+    <n v="858"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="9.4117647058823521E-3"/>
+    <n v="1.6929611650486009E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="46"/>
     <n v="0"/>
     <n v="1298"/>
     <n v="1328"/>
     <n v="30"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="2.3112480739599383E-2"/>
     <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="664"/>
-    <n v="690"/>
-    <n v="26"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3.9156626506024098E-2"/>
-    <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="5"/>
-    <n v="-674.01"/>
-    <n v="664"/>
-    <n v="0"/>
-    <n v="10.009999999999991"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.5075301204819263E-2"/>
-    <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="690"/>
-    <n v="695"/>
-    <n v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="7.246376811594203E-3"/>
-    <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="695"/>
-    <n v="636"/>
-    <n v="-59"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-8.4892086330935257E-2"/>
-    <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="8"/>
-    <n v="0"/>
-    <n v="636"/>
-    <n v="608"/>
-    <n v="-28"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-4.40251572327044E-2"/>
-    <n v="4.4035259513529823E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="9"/>
-    <n v="-567.03"/>
-    <n v="608"/>
-    <n v="0"/>
-    <n v="-40.970000000000027"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="-6.7384868421052679E-2"/>
-    <n v="-6.7384868421052735E-2"/>
-    <n v="-0.12534819615174619"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="4"/>
+    <x v="46"/>
     <n v="2374.5700000000002"/>
     <n v="2374.5700000000002"/>
     <n v="2361"/>
     <n v="-13.570000000000164"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="-5.7147188754175125E-3"/>
     <n v="1.0709307369334065E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="4"/>
-    <x v="5"/>
+    <x v="46"/>
+    <n v="0"/>
+    <n v="874"/>
+    <n v="875"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.1441647597254005E-3"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="46"/>
+    <n v="0"/>
+    <n v="1700.17"/>
+    <n v="1700.94"/>
+    <n v="0.76999999999998181"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.5289588688188931E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="47"/>
+    <n v="0"/>
+    <n v="862"/>
+    <n v="850"/>
+    <n v="-12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-1.3921113689095127E-2"/>
+    <n v="1.6929611650486009E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="47"/>
+    <n v="0"/>
+    <n v="664"/>
+    <n v="690"/>
+    <n v="26"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.9156626506024098E-2"/>
+    <n v="4.4035259513529823E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="47"/>
+    <n v="-674.01"/>
+    <n v="664"/>
+    <n v="0"/>
+    <n v="10.009999999999991"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.5075301204819263E-2"/>
+    <n v="4.4035259513529823E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="47"/>
     <n v="0"/>
     <n v="2361"/>
     <n v="2334"/>
     <n v="-27"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="-1.1435832274459974E-2"/>
     <n v="1.0709307369334065E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="4"/>
+    <x v="47"/>
+    <n v="0"/>
+    <n v="875"/>
+    <n v="870"/>
+    <n v="-5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-5.7142857142857143E-3"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="47"/>
+    <n v="0"/>
+    <n v="1700.94"/>
+    <n v="1701.66"/>
+    <n v="0.72000000000002728"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.2329535433350223E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="48"/>
+    <n v="0"/>
+    <n v="864"/>
+    <n v="862"/>
+    <n v="-2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-2.3148148148148147E-3"/>
+    <n v="1.6929611650486009E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="6"/>
+    <x v="48"/>
+    <n v="0"/>
+    <n v="690"/>
+    <n v="695"/>
+    <n v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7.246376811594203E-3"/>
+    <n v="4.4035259513529823E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="48"/>
     <n v="0"/>
     <n v="2334"/>
     <n v="2361"/>
     <n v="27"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="1.1568123393316195E-2"/>
     <n v="1.0709307369334065E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="4"/>
+    <x v="48"/>
+    <n v="0"/>
+    <n v="870"/>
+    <n v="871"/>
+    <n v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="1.1494252873563218E-3"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="48"/>
+    <n v="0"/>
+    <n v="1701.66"/>
+    <n v="1702.38"/>
+    <n v="0.72000000000002728"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.2311625119003049E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="7"/>
+    <x v="49"/>
+    <n v="0"/>
+    <n v="832"/>
+    <n v="864"/>
+    <n v="32"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.8461538461538464E-2"/>
+    <n v="1.6929611650486009E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="49"/>
+    <n v="0"/>
+    <n v="695"/>
+    <n v="636"/>
+    <n v="-59"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-8.4892086330935257E-2"/>
+    <n v="4.4035259513529823E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="49"/>
     <n v="0"/>
     <n v="2361"/>
     <n v="2325"/>
     <n v="-36"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="-1.5247776365946633E-2"/>
     <n v="1.0709307369334065E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="4"/>
+    <x v="49"/>
+    <n v="0"/>
+    <n v="871"/>
+    <n v="835"/>
+    <n v="-36"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-4.1331802525832378E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="49"/>
+    <n v="0"/>
+    <n v="1702.38"/>
+    <n v="1703.03"/>
+    <n v="0.64999999999986358"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3.8181839542279842E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="50"/>
+    <n v="0"/>
+    <n v="824"/>
+    <n v="832"/>
+    <n v="8"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="9.7087378640776691E-3"/>
+    <n v="1.6929611650486009E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="50"/>
+    <n v="0"/>
+    <n v="636"/>
+    <n v="608"/>
+    <n v="-28"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="-4.40251572327044E-2"/>
+    <n v="4.4035259513529823E-2"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="8"/>
+    <x v="50"/>
     <n v="0"/>
     <n v="2325"/>
     <n v="2400"/>
     <n v="75"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
     <n v="3.2258064516129031E-2"/>
     <n v="1.0709307369334065E-2"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="4"/>
-    <x v="9"/>
+    <x v="50"/>
+    <n v="0"/>
+    <n v="835"/>
+    <n v="854"/>
+    <n v="19"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="2.2754491017964073E-2"/>
+    <n v="-8.1876778352010238E-3"/>
+    <n v="0.21826687591038829"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="50"/>
+    <n v="0"/>
+    <n v="1703.03"/>
+    <n v="1703.89"/>
+    <n v="0.86000000000012733"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5.0498229626026985E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="51"/>
+    <n v="0"/>
+    <n v="1703.89"/>
+    <n v="1704.63"/>
+    <n v="0.74000000000000909"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4.3430033628931978E-4"/>
+    <n v="9.4093821428995472E-3"/>
+    <n v="5.789936939409035E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="896"/>
+    <n v="824"/>
+    <n v="-72"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="-8.0357142857142863E-2"/>
+    <n v="-9.0507726269315802E-2"/>
+    <n v="-0.10158681614669418"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="52"/>
+    <n v="-567.03"/>
+    <n v="608"/>
+    <n v="0"/>
+    <n v="-40.970000000000027"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="-6.7384868421052679E-2"/>
+    <n v="-6.4340008788636216E-2"/>
+    <n v="-0.10158681614669418"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="52"/>
     <n v="0"/>
     <n v="2400"/>
     <n v="2325"/>
     <n v="-75"/>
-    <x v="1"/>
+    <x v="3"/>
     <x v="1"/>
     <n v="-3.125E-2"/>
-    <n v="-3.125E-2"/>
-    <n v="-0.12534819615174619"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="14"/>
-    <n v="861.05"/>
-    <n v="861.05"/>
-    <n v="851"/>
-    <n v="-10.049999999999955"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-1.1671796062946351E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="851"/>
-    <n v="823"/>
-    <n v="-28"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-3.2902467685076382E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="823"/>
-    <n v="849"/>
-    <n v="26"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3.1591737545565005E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="21"/>
-    <n v="0"/>
-    <n v="849"/>
-    <n v="879"/>
-    <n v="30"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3.5335689045936397E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="22"/>
-    <n v="0"/>
-    <n v="879"/>
-    <n v="860"/>
-    <n v="-19"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-2.1615472127417521E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="860"/>
-    <n v="885"/>
-    <n v="25"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2.9069767441860465E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="17"/>
-    <n v="0"/>
-    <n v="885"/>
-    <n v="900"/>
-    <n v="15"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.6949152542372881E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="18"/>
-    <n v="0"/>
-    <n v="900"/>
-    <n v="880"/>
-    <n v="-20"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-2.2222222222222223E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="19"/>
-    <n v="0"/>
-    <n v="880"/>
-    <n v="840"/>
-    <n v="-40"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-4.5454545454545456E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="20"/>
-    <n v="0"/>
-    <n v="840"/>
-    <n v="810"/>
-    <n v="-30"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-3.5714285714285712E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="810"/>
-    <n v="840"/>
-    <n v="30"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3.7037037037037035E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="840"/>
-    <n v="850"/>
-    <n v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.1904761904761904E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="850"/>
-    <n v="874"/>
-    <n v="24"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2.823529411764706E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
+    <n v="-3.749999999999809E-3"/>
+    <n v="-0.10158681614669418"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="4"/>
-    <n v="0"/>
-    <n v="874"/>
-    <n v="875"/>
-    <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.1441647597254005E-3"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="875"/>
-    <n v="870"/>
-    <n v="-5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-5.7142857142857143E-3"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="870"/>
-    <n v="871"/>
-    <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.1494252873563218E-3"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="871"/>
-    <n v="835"/>
-    <n v="-36"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-4.1331802525832378E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="835"/>
-    <n v="854"/>
-    <n v="19"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="2.2754491017964073E-2"/>
-    <n v="-8.1876778352010238E-3"/>
-    <n v="-0.38852661063522376"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="9"/>
+    <x v="52"/>
     <n v="0"/>
     <n v="854"/>
     <n v="899"/>
     <n v="45"/>
-    <x v="1"/>
+    <x v="3"/>
     <x v="1"/>
     <n v="5.2693208430913352E-2"/>
-    <n v="5.2693208430913296E-2"/>
-    <n v="-0.12534819615174619"/>
+    <n v="5.9718969555034862E-2"/>
+    <n v="-0.10158681614669418"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="52"/>
+    <n v="0"/>
+    <n v="1704.63"/>
+    <n v="1705.55"/>
+    <n v="0.91999999999984539"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="5.3970656388767379E-4"/>
+    <n v="1.1498096361086674E-3"/>
+    <n v="1.1498096361086674E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="53"/>
+    <n v="0"/>
+    <n v="932"/>
+    <n v="896"/>
+    <n v="-36"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="-3.8626609442060089E-2"/>
+    <n v="-9.0507726269315802E-2"/>
+    <n v="-0.10158681614669418"/>
   </r>
   <r>
     <x v="1"/>
     <x v="6"/>
-    <x v="23"/>
-    <n v="1670.78"/>
-    <n v="1670.78"/>
-    <n v="1670.78"/>
-    <n v="0"/>
+    <x v="53"/>
+    <n v="1176.1600000000001"/>
+    <n v="1176.1600000000001"/>
+    <n v="1158"/>
+    <n v="-18.160000000000082"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="5.7899369394090128E-2"/>
+    <x v="1"/>
+    <n v="-1.5440076180111619E-2"/>
+    <n v="-6.4340008788636216E-2"/>
+    <n v="-0.10158681614669418"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="53"/>
+    <n v="0"/>
+    <n v="2325"/>
+    <n v="2406"/>
+    <n v="81"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3.4838709677419352E-2"/>
+    <n v="-3.749999999999809E-3"/>
+    <n v="-0.10158681614669418"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="53"/>
+    <n v="0"/>
+    <n v="899"/>
+    <n v="894"/>
+    <n v="-5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="-5.5617352614015575E-3"/>
+    <n v="5.9718969555034862E-2"/>
+    <n v="-0.10158681614669418"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="53"/>
+    <n v="0"/>
+    <n v="1705.55"/>
+    <n v="1706.59"/>
+    <n v="1.0399999999999636"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="6.0977397320510318E-4"/>
+    <n v="1.1498096361086674E-3"/>
+    <n v="1.1498096361086674E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="54"/>
+    <n v="0"/>
+    <n v="906"/>
+    <n v="932"/>
+    <n v="26"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="2.8697571743929361E-2"/>
+    <n v="-9.0507726269315802E-2"/>
+    <n v="-0.10158681614669418"/>
   </r>
   <r>
     <x v="1"/>
     <x v="6"/>
-    <x v="24"/>
-    <n v="0"/>
-    <n v="1670.78"/>
-    <n v="1671.56"/>
-    <n v="0.77999999999997272"/>
+    <x v="54"/>
+    <n v="0"/>
+    <n v="1158"/>
+    <n v="1180"/>
+    <n v="22"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="4.6684781958125708E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="25"/>
-    <n v="0"/>
-    <n v="1671.56"/>
-    <n v="1672.3"/>
-    <n v="0.74000000000000909"/>
+    <x v="1"/>
+    <n v="1.8998272884283247E-2"/>
+    <n v="-6.4340008788636216E-2"/>
+    <n v="-0.10158681614669418"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="54"/>
+    <n v="0"/>
+    <n v="2406"/>
+    <n v="2391"/>
+    <n v="-15"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="4.4270023211850554E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="26"/>
-    <n v="0"/>
-    <n v="1672.3"/>
-    <n v="1673.04"/>
-    <n v="0.74000000000000909"/>
+    <x v="1"/>
+    <n v="-6.2344139650872821E-3"/>
+    <n v="-3.749999999999809E-3"/>
+    <n v="-0.10158681614669418"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="54"/>
+    <n v="0"/>
+    <n v="894"/>
+    <n v="905"/>
+    <n v="11"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="4.4250433534653421E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="27"/>
-    <n v="0"/>
-    <n v="1673.04"/>
-    <n v="1673.87"/>
-    <n v="0.82999999999992724"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="4.9610290250079328E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="28"/>
-    <n v="0"/>
-    <n v="1673.87"/>
-    <n v="1674.66"/>
-    <n v="0.79000000000019099"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="4.7196018806728782E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="29"/>
-    <n v="0"/>
-    <n v="1674.66"/>
-    <n v="1675.48"/>
-    <n v="0.81999999999993634"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="4.8965163077874685E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="30"/>
-    <n v="0"/>
-    <n v="1675.48"/>
-    <n v="1676.13"/>
-    <n v="0.65000000000009095"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="3.8794852818302276E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="31"/>
-    <n v="0"/>
-    <n v="1676.13"/>
-    <n v="1676.86"/>
-    <n v="0.72999999999979082"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="4.3552707725521932E-4"/>
-    <n v="3.6390189013515428E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="32"/>
-    <n v="0"/>
-    <n v="1676.86"/>
-    <n v="1677.49"/>
-    <n v="0.63000000000010914"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3.7570220531237501E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="33"/>
-    <n v="0"/>
-    <n v="1677.49"/>
-    <n v="1678.11"/>
-    <n v="0.61999999999989086"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3.6959981877679801E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="34"/>
-    <n v="0"/>
-    <n v="1678.11"/>
-    <n v="1678.81"/>
-    <n v="0.70000000000004547"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.1713594460437368E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="35"/>
-    <n v="0"/>
-    <n v="1678.81"/>
-    <n v="1679.59"/>
-    <n v="0.77999999999997272"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.6461481644734828E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="36"/>
-    <n v="0"/>
-    <n v="1679.59"/>
-    <n v="1680.42"/>
-    <n v="0.83000000000015461"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.9416821962511965E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="1680.42"/>
-    <n v="1681.27"/>
-    <n v="0.84999999999990905"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="5.0582592447120901E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="38"/>
-    <n v="0"/>
-    <n v="1681.27"/>
-    <n v="1682.1"/>
-    <n v="0.82999999999992724"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.9367442469081544E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="39"/>
-    <n v="0"/>
-    <n v="1682.1"/>
-    <n v="1683.02"/>
-    <n v="0.92000000000007276"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="5.4693537839609584E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="40"/>
-    <n v="0"/>
-    <n v="1683.02"/>
-    <n v="1683.82"/>
-    <n v="0.79999999999995453"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.7533600313719063E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="41"/>
-    <n v="0"/>
-    <n v="1683.82"/>
-    <n v="1684.61"/>
-    <n v="0.78999999999996362"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.6917128909263676E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="42"/>
-    <n v="0"/>
-    <n v="1684.61"/>
-    <n v="1685.31"/>
-    <n v="0.70000000000004547"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.1552644232198876E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="43"/>
-    <n v="0"/>
-    <n v="1685.31"/>
-    <n v="1686.09"/>
-    <n v="0.77999999999997272"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.6282286344943825E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="44"/>
-    <n v="0"/>
-    <n v="1686.09"/>
-    <n v="1686.81"/>
-    <n v="0.72000000000002728"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.2702346849813905E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="45"/>
-    <n v="0"/>
-    <n v="1686.81"/>
-    <n v="1687.6"/>
-    <n v="0.78999999999996362"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.683396470260217E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="46"/>
-    <n v="0"/>
-    <n v="1687.6"/>
-    <n v="1688.37"/>
-    <n v="0.76999999999998181"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.5626925811802671E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="47"/>
-    <n v="0"/>
-    <n v="1688.37"/>
-    <n v="1689.07"/>
-    <n v="0.70000000000004547"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.1460106493247662E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="48"/>
-    <n v="0"/>
-    <n v="1689.07"/>
-    <n v="1689.77"/>
-    <n v="0.70000000000004547"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.1442924212735144E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="49"/>
-    <n v="0"/>
-    <n v="1689.77"/>
-    <n v="1690.5"/>
-    <n v="0.73000000000001819"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.3201145718057383E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="50"/>
-    <n v="0"/>
-    <n v="1690.5"/>
-    <n v="1691.2"/>
-    <n v="0.70000000000004547"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.1407867494826705E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="10"/>
-    <n v="0"/>
-    <n v="1691.2"/>
-    <n v="1688.04"/>
-    <n v="-3.1600000000000819"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="-1.8684957426679763E-3"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="10"/>
-    <n v="0"/>
-    <n v="1688.04"/>
-    <n v="1688.74"/>
-    <n v="0.70000000000004547"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.1468211653754978E-4"/>
-    <n v="7.0846701573179516E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="1688.74"/>
-    <n v="1689.49"/>
-    <n v="0.75"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.4411809988512146E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="1689.49"/>
-    <n v="1690.21"/>
-    <n v="0.72000000000002728"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.2616410869553964E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="13"/>
-    <n v="0"/>
-    <n v="1690.21"/>
-    <n v="1690.92"/>
-    <n v="0.71000000000003638"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.2006614562689626E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="1690.92"/>
-    <n v="1691.62"/>
-    <n v="0.6999999999998181"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.1397582381178178E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="1691.62"/>
-    <n v="1692.38"/>
-    <n v="0.76000000000021828"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.4927347749507476E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="1692.38"/>
-    <n v="1693.16"/>
-    <n v="0.77999999999997272"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.6088939836205382E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="21"/>
-    <n v="0"/>
-    <n v="1693.16"/>
-    <n v="1693.92"/>
-    <n v="0.75999999999999091"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.4886484443288933E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="22"/>
-    <n v="0"/>
-    <n v="1693.92"/>
-    <n v="1694.66"/>
-    <n v="0.74000000000000909"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.3685652214981173E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="1694.66"/>
-    <n v="1695.42"/>
-    <n v="0.75999999999999091"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.4846753921139984E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="17"/>
-    <n v="0"/>
-    <n v="1695.42"/>
-    <n v="1696.05"/>
-    <n v="0.62999999999988177"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3.7158934069427148E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="18"/>
-    <n v="0"/>
-    <n v="1696.05"/>
-    <n v="1696.85"/>
-    <n v="0.79999999999995453"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.7168420742310342E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="19"/>
-    <n v="0"/>
-    <n v="1696.85"/>
-    <n v="1697.45"/>
-    <n v="0.60000000000013642"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3.535963697440177E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="20"/>
-    <n v="0"/>
-    <n v="1697.45"/>
-    <n v="1698.16"/>
-    <n v="0.71000000000003638"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.1827447052934482E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
-    <n v="0"/>
-    <n v="1698.16"/>
-    <n v="1698.78"/>
-    <n v="0.61999999999989086"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3.6510105054876504E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="2"/>
-    <n v="0"/>
-    <n v="1698.78"/>
-    <n v="1699.46"/>
-    <n v="0.68000000000006366"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.0028726497843376E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="3"/>
-    <n v="0"/>
-    <n v="1699.46"/>
-    <n v="1700.17"/>
-    <n v="0.71000000000003638"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.1777976533724617E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="4"/>
-    <n v="0"/>
-    <n v="1700.17"/>
-    <n v="1700.94"/>
-    <n v="0.76999999999998181"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.5289588688188931E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="5"/>
-    <n v="0"/>
-    <n v="1700.94"/>
-    <n v="1701.66"/>
-    <n v="0.72000000000002728"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.2329535433350223E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="6"/>
-    <n v="0"/>
-    <n v="1701.66"/>
-    <n v="1702.38"/>
-    <n v="0.72000000000002728"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.2311625119003049E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="1702.38"/>
-    <n v="1703.03"/>
-    <n v="0.64999999999986358"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="3.8181839542279842E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="8"/>
-    <n v="0"/>
-    <n v="1703.03"/>
-    <n v="1703.89"/>
-    <n v="0.86000000000012733"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="5.0498229626026985E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="51"/>
-    <n v="0"/>
-    <n v="1703.89"/>
-    <n v="1704.63"/>
-    <n v="0.74000000000000909"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="4.3430033628931978E-4"/>
-    <n v="9.4093821428995472E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="10"/>
-    <n v="580"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="11"/>
-    <n v="0"/>
-    <n v="580"/>
-    <n v="590.01"/>
-    <n v="10.009999999999991"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.7258620689655158E-2"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="12"/>
-    <n v="0"/>
-    <n v="590.01"/>
-    <n v="587.96"/>
-    <n v="-2.0499999999999545"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-3.474517381061261E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="13"/>
-    <n v="0"/>
-    <n v="587.96"/>
-    <n v="596.89"/>
-    <n v="8.92999999999995"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.5188108034560088E-2"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="14"/>
-    <n v="0"/>
-    <n v="596.89"/>
-    <n v="603.42999999999995"/>
-    <n v="6.5399999999999636"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1.0956792708874272E-2"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="15"/>
-    <n v="0"/>
-    <n v="603.42999999999995"/>
-    <n v="599.11"/>
-    <n v="-4.3199999999999363"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-7.1590739605255568E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="599.11"/>
-    <n v="592.57000000000005"/>
-    <n v="-6.5399999999999636"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-1.0916192351988723E-2"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="21"/>
-    <n v="0"/>
-    <n v="592.57000000000005"/>
-    <n v="597.64"/>
-    <n v="5.0699999999999363"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="8.5559511956392262E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="22"/>
-    <n v="0"/>
-    <n v="597.64"/>
-    <n v="595.96"/>
-    <n v="-1.67999999999995"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-2.8110568235057056E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="16"/>
-    <n v="0"/>
-    <n v="595.96"/>
-    <n v="601.32000000000005"/>
-    <n v="5.3600000000000136"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="8.9938922075307286E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="19"/>
-    <n v="-598.13"/>
-    <n v="601.32000000000005"/>
-    <n v="0"/>
-    <n v="-3.1900000000000546"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-5.3049956761791629E-3"/>
-    <n v="3.1258620689655681E-2"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="32"/>
-    <n v="428.37"/>
-    <n v="428.37"/>
-    <n v="428.37"/>
-    <n v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="33"/>
-    <n v="0"/>
-    <n v="428.37"/>
-    <n v="428.55"/>
-    <n v="0.18000000000000682"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.2019749282164209E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="34"/>
-    <n v="0"/>
-    <n v="428.55"/>
-    <n v="428.72"/>
-    <n v="0.17000000000001592"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3.9668650099175339E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="35"/>
-    <n v="0"/>
-    <n v="428.72"/>
-    <n v="428.9"/>
-    <n v="0.17999999999994998"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.1985445045705815E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="36"/>
-    <n v="0"/>
-    <n v="428.9"/>
-    <n v="429.08"/>
-    <n v="0.18000000000000682"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.1967824667756313E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="37"/>
-    <n v="0"/>
-    <n v="429.08"/>
-    <n v="429.28"/>
-    <n v="0.19999999999998863"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.6611354525959874E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="38"/>
-    <n v="0"/>
-    <n v="429.28"/>
-    <n v="429.48"/>
-    <n v="0.20000000000004547"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.6589638464416113E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="39"/>
-    <n v="0"/>
-    <n v="429.48"/>
-    <n v="429.69"/>
-    <n v="0.20999999999997954"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.8896339759704646E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="40"/>
-    <n v="0"/>
-    <n v="429.69"/>
-    <n v="429.89"/>
-    <n v="0.19999999999998863"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.6545183737110158E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="41"/>
-    <n v="0"/>
-    <n v="429.89"/>
-    <n v="430.1"/>
-    <n v="0.21000000000003638"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.8849705738685802E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="42"/>
-    <n v="0"/>
-    <n v="430.1"/>
-    <n v="430.27"/>
-    <n v="0.16999999999995907"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3.9525691699595223E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="43"/>
-    <n v="0"/>
-    <n v="430.27"/>
-    <n v="430.44"/>
-    <n v="0.17000000000001592"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3.9510075069146332E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="44"/>
-    <n v="0"/>
-    <n v="430.44"/>
-    <n v="430.6"/>
-    <n v="0.16000000000002501"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3.717126661091558E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="45"/>
-    <n v="0"/>
-    <n v="430.6"/>
-    <n v="430.78"/>
-    <n v="0.17999999999994998"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="4.1802136553634455E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="46"/>
-    <n v="0"/>
-    <n v="430.78"/>
-    <n v="430.95"/>
-    <n v="0.17000000000001592"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3.9463299131811116E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="47"/>
-    <n v="0"/>
-    <n v="430.95"/>
-    <n v="431.11"/>
-    <n v="0.16000000000002501"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3.7127276946287278E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="52"/>
-    <n v="0"/>
-    <n v="431.11"/>
-    <n v="431.23"/>
-    <n v="0.12000000000000455"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="2.7835123286401277E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="49"/>
-    <n v="0"/>
-    <n v="431.23"/>
-    <n v="431.4"/>
-    <n v="0.16999999999995907"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3.9422118127208002E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="50"/>
-    <n v="0"/>
-    <n v="431.4"/>
-    <n v="431.57"/>
-    <n v="0.17000000000001592"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="3.9406583217435311E-4"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="50"/>
-    <n v="-430.71"/>
-    <n v="431.57"/>
-    <n v="0"/>
-    <n v="-0.86000000000001364"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="-1.9927242394049949E-3"/>
-    <n v="5.4625674066808294E-3"/>
-    <n v="5.7899369394090128E-2"/>
+    <x v="1"/>
+    <n v="1.2304250559284116E-2"/>
+    <n v="5.9718969555034862E-2"/>
+    <n v="-0.10158681614669418"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="4">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
         <item m="1" x="3"/>
         <item m="1" x="2"/>
       </items>
@@ -2631,21 +2787,44 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="12">
         <item m="1" x="10"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="8"/>
-        <item m="1" x="9"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="3"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
+        <item m="1" x="9"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="2"/>
         <item sd="0" x="4"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="57">
+      <items count="59">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
@@ -2655,6 +2834,8 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item m="1" x="57"/>
+        <item m="1" x="55"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
@@ -2670,38 +2851,15 @@
         <item x="44"/>
         <item x="45"/>
         <item x="46"/>
+        <item m="1" x="56"/>
         <item x="47"/>
-        <item x="52"/>
         <item x="48"/>
         <item x="49"/>
         <item x="50"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="0"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="53"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
+        <item x="52"/>
         <item x="51"/>
+        <item x="53"/>
+        <item x="54"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2725,10 +2883,10 @@
         <item sd="0" m="1" x="10"/>
         <item sd="0" m="1" x="13"/>
         <item sd="0" m="1" x="9"/>
-        <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -2815,8 +2973,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L147" totalsRowCount="1" headerRowDxfId="20">
-  <autoFilter ref="A1:L146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L152" totalsRowCount="1" headerRowDxfId="20">
+  <autoFilter ref="A1:L151"/>
   <sortState ref="A2:L141">
     <sortCondition ref="C1:C141"/>
   </sortState>
@@ -3151,7 +3309,7 @@
   <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,7 +3317,7 @@
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
@@ -3226,10 +3384,10 @@
         <v>861.05</v>
       </c>
       <c r="C6" s="8">
-        <v>37.950000000000045</v>
+        <v>43.950000000000045</v>
       </c>
       <c r="D6" s="9">
-        <v>-4.9834206633002703E-3</v>
+        <v>1.5132717919755314E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3237,13 +3395,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="27">
-        <v>-58.769999999999982</v>
+        <v>1117.3900000000001</v>
       </c>
       <c r="C7" s="8">
-        <v>58.769999999999982</v>
+        <v>62.6099999999999</v>
       </c>
       <c r="D7" s="9">
-        <v>3.6607250984557652E-2</v>
+        <v>2.4910212166088758E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3251,13 +3409,13 @@
         <v>21</v>
       </c>
       <c r="B8" s="27">
-        <v>-6.9</v>
+        <v>6.8999999999998636</v>
       </c>
       <c r="C8" s="8">
-        <v>-6.9</v>
+        <v>-6.8999999999998636</v>
       </c>
       <c r="D8" s="9">
-        <v>-0.5</v>
+        <v>-3.8267428317896313E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3268,10 +3426,10 @@
         <v>-837.95</v>
       </c>
       <c r="C9" s="8">
-        <v>-58.049999999999955</v>
+        <v>-68.049999999999955</v>
       </c>
       <c r="D9" s="9">
-        <v>6.1199722607494633E-3</v>
+        <v>-1.2371480509459938E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3282,10 +3440,10 @@
         <v>2374.5700000000002</v>
       </c>
       <c r="C10" s="8">
-        <v>-49.570000000000164</v>
+        <v>16.429999999999836</v>
       </c>
       <c r="D10" s="9">
-        <v>3.7160894744450537E-3</v>
+        <v>5.287067105833862E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3304,10 +3462,10 @@
         <v>1670.78</v>
       </c>
       <c r="C12" s="8">
-        <v>33.850000000000136</v>
+        <v>35.809999999999945</v>
       </c>
       <c r="D12" s="9">
-        <v>7.4718394338390559E-3</v>
+        <v>7.2376901820712641E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3343,13 +3501,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="27">
-        <v>3776.8599999999997</v>
+        <v>4966.82</v>
       </c>
       <c r="C15" s="8">
-        <v>241.97000000000008</v>
+        <v>309.76999999999992</v>
       </c>
       <c r="D15" s="9">
-        <v>1.2137927721457763E-2</v>
+        <v>1.3409870621531995E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3360,10 +3518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A129" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9440,11 +9598,11 @@
       </c>
       <c r="K138" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.11587982832618027</v>
+        <v>-9.0507726269315802E-2</v>
       </c>
       <c r="L138" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.14803855733987803</v>
+        <v>-0.10158681614669418</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -9484,11 +9642,11 @@
       </c>
       <c r="K139" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1784517099356524E-2</v>
+        <v>-6.4340008788636216E-2</v>
       </c>
       <c r="L139" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.14803855733987803</v>
+        <v>-0.10158681614669418</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -9528,11 +9686,11 @@
       </c>
       <c r="K140" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.5000000000001688E-3</v>
+        <v>-3.749999999999809E-3</v>
       </c>
       <c r="L140" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.14803855733987803</v>
+        <v>-0.10158681614669418</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -9572,11 +9730,11 @@
       </c>
       <c r="K141" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.6838407494145029E-2</v>
+        <v>5.9718969555034862E-2</v>
       </c>
       <c r="L141" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.14803855733987803</v>
+        <v>-0.10158681614669418</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -9616,11 +9774,11 @@
       </c>
       <c r="K142" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.3970656388768745E-4</v>
+        <v>1.1498096361086674E-3</v>
       </c>
       <c r="L142" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.3970656388768745E-4</v>
+        <v>1.1498096361086674E-3</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -9660,11 +9818,11 @@
       </c>
       <c r="K143" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.11587982832618027</v>
+        <v>-9.0507726269315802E-2</v>
       </c>
       <c r="L143" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.14803855733987803</v>
+        <v>-0.10158681614669418</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -9704,11 +9862,11 @@
       </c>
       <c r="K144" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-8.1784517099356524E-2</v>
+        <v>-6.4340008788636216E-2</v>
       </c>
       <c r="L144" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.14803855733987803</v>
+        <v>-0.10158681614669418</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -9748,14 +9906,14 @@
       </c>
       <c r="K145" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>2.5000000000001688E-3</v>
+        <v>-3.749999999999809E-3</v>
       </c>
       <c r="L145" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.14803855733987803</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.10158681614669418</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>24</v>
       </c>
@@ -9792,60 +9950,277 @@
       </c>
       <c r="K146" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>4.6838407494145029E-2</v>
+        <v>5.9718969555034862E-2</v>
       </c>
       <c r="L146" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.14803855733987803</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="25" t="s">
+        <v>-0.10158681614669418</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="3">
+        <v>40911</v>
+      </c>
+      <c r="D147" s="19">
+        <v>0</v>
+      </c>
+      <c r="E147" s="11">
+        <v>1705.55</v>
+      </c>
+      <c r="F147" s="11">
+        <v>1706.59</v>
+      </c>
+      <c r="G147" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>1.0399999999999636</v>
+      </c>
+      <c r="H147" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I147" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J147" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>6.0977397320510318E-4</v>
+      </c>
+      <c r="K147" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.1498096361086674E-3</v>
+      </c>
+      <c r="L147" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.1498096361086674E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="3">
+        <v>40912</v>
+      </c>
+      <c r="D148" s="19">
+        <v>0</v>
+      </c>
+      <c r="E148" s="23">
+        <v>906</v>
+      </c>
+      <c r="F148" s="23">
+        <v>932</v>
+      </c>
+      <c r="G148" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>26</v>
+      </c>
+      <c r="H148" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I148" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J148" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>2.8697571743929361E-2</v>
+      </c>
+      <c r="K148" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-9.0507726269315802E-2</v>
+      </c>
+      <c r="L148" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.10158681614669418</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C149" s="3">
+        <v>40912</v>
+      </c>
+      <c r="D149" s="19">
+        <v>0</v>
+      </c>
+      <c r="E149" s="11">
+        <v>1158</v>
+      </c>
+      <c r="F149" s="11">
+        <v>1180</v>
+      </c>
+      <c r="G149" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>22</v>
+      </c>
+      <c r="H149" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I149" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J149" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>1.8998272884283247E-2</v>
+      </c>
+      <c r="K149" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-6.4340008788636216E-2</v>
+      </c>
+      <c r="L149" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.10158681614669418</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="3">
+        <v>40912</v>
+      </c>
+      <c r="D150" s="19">
+        <v>0</v>
+      </c>
+      <c r="E150" s="11">
+        <v>2406</v>
+      </c>
+      <c r="F150" s="11">
+        <v>2391</v>
+      </c>
+      <c r="G150" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-15</v>
+      </c>
+      <c r="H150" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I150" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J150" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-6.2344139650872821E-3</v>
+      </c>
+      <c r="K150" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-3.749999999999809E-3</v>
+      </c>
+      <c r="L150" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.10158681614669418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="3">
+        <v>40912</v>
+      </c>
+      <c r="D151" s="19">
+        <v>0</v>
+      </c>
+      <c r="E151" s="11">
+        <v>894</v>
+      </c>
+      <c r="F151" s="11">
+        <v>905</v>
+      </c>
+      <c r="G151" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>11</v>
+      </c>
+      <c r="H151" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I151" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J151" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>1.2304250559284116E-2</v>
+      </c>
+      <c r="K151" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>5.9718969555034862E-2</v>
+      </c>
+      <c r="L151" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-0.10158681614669418</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C147">
+      <c r="C152">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Mês]],Tabela1[[#Totals],[Ano]],Plan2!A2:A1048576)</f>
-        <v>52</v>
-      </c>
-      <c r="D147" s="25">
+        <v>53</v>
+      </c>
+      <c r="D152" s="25">
         <f>SUBTOTAL(109,Tabela1[Aplicação])</f>
         <v>4966.8199999999988</v>
       </c>
-      <c r="E147" s="26">
+      <c r="E152" s="26">
         <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Valor Bruto]]</f>
-        <v>4.3927944431722772E-2</v>
-      </c>
-      <c r="F147" s="25">
+        <v>5.1401652047802518E-2</v>
+      </c>
+      <c r="F152" s="25">
         <f>Tabela1[[#Totals],[Aplicação]]+Tabela1[[#Totals],[Nome]]</f>
         <v>6026.4599999999991</v>
       </c>
-      <c r="G147" s="8">
+      <c r="G152" s="8">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>264.72999999999996</v>
-      </c>
-      <c r="H147" s="20">
+        <v>309.76999999999992</v>
+      </c>
+      <c r="H152" s="20">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="I147" s="28">
+      <c r="I152" s="28">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40911</v>
-      </c>
-      <c r="J147" s="26">
+        <v>40912</v>
+      </c>
+      <c r="J152" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>8.2708161919975431E-4</v>
-      </c>
-      <c r="K147" s="26">
+        <v>9.46186610609967E-4</v>
+      </c>
+      <c r="K152" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>1.7513122735840492E-2</v>
-      </c>
-      <c r="L147" s="26">
+        <v>2.0059056778614304E-2</v>
+      </c>
+      <c r="L152" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.23162991149509393</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B149" s="8"/>
+        <v>0.26912323139027361</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D31">

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="30">
   <si>
     <t>Nome</t>
   </si>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40912.810109375001" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="150">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bruno" refreshedDate="40913.757486805553" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="155">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -548,7 +548,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="58">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-10-19T00:00:00" maxDate="2012-12-02T00:00:00" count="59">
         <d v="2011-10-19T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
         <d v="2011-10-21T00:00:00"/>
@@ -604,6 +604,7 @@
         <d v="2012-01-02T00:00:00"/>
         <d v="2012-01-03T00:00:00"/>
         <d v="2012-01-04T00:00:00"/>
+        <d v="2012-01-05T00:00:00"/>
         <d v="2012-12-01T00:00:00" u="1"/>
         <d v="2011-12-24T00:00:00" u="1"/>
         <d v="2011-12-03T00:00:00" u="1"/>
@@ -653,10 +654,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-8.4892086330935257E-2" maxValue="5.8609625668449239E-2"/>
     </cacheField>
     <cacheField name="Rent. Mês" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-9.0507726269315802E-2" maxValue="0.17309629629629653"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-5.9360730593607469E-2" maxValue="0.17309629629629653"/>
     </cacheField>
     <cacheField name="Rent. Ano" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.10158681614669418" maxValue="0.21826687591038829"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-6.7856640564886384E-2" maxValue="0.21826687591038829"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -668,7 +669,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="150">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="155">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -2584,8 +2585,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="-8.0357142857142863E-2"/>
-    <n v="-9.0507726269315802E-2"/>
-    <n v="-0.10158681614669418"/>
+    <n v="-5.9360730593607469E-2"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -2598,8 +2599,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="-6.7384868421052679E-2"/>
-    <n v="-6.4340008788636216E-2"/>
-    <n v="-0.10158681614669418"/>
+    <n v="-4.8481364869799592E-2"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -2612,8 +2613,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="-3.125E-2"/>
-    <n v="-3.749999999999809E-3"/>
-    <n v="-0.10158681614669418"/>
+    <n v="-6.2499999999998668E-3"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -2626,8 +2627,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="5.2693208430913352E-2"/>
-    <n v="5.9718969555034862E-2"/>
-    <n v="-0.10158681614669418"/>
+    <n v="4.8009367681498549E-2"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -2640,8 +2641,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="5.3970656388767379E-4"/>
-    <n v="1.1498096361086674E-3"/>
-    <n v="1.1498096361086674E-3"/>
+    <n v="1.4313956694413932E-3"/>
+    <n v="1.4313956694413932E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -2654,8 +2655,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="-3.8626609442060089E-2"/>
-    <n v="-9.0507726269315802E-2"/>
-    <n v="-0.10158681614669418"/>
+    <n v="-5.9360730593607469E-2"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -2668,8 +2669,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="-1.5440076180111619E-2"/>
-    <n v="-6.4340008788636216E-2"/>
-    <n v="-0.10158681614669418"/>
+    <n v="-4.8481364869799592E-2"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -2682,8 +2683,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="3.4838709677419352E-2"/>
-    <n v="-3.749999999999809E-3"/>
-    <n v="-0.10158681614669418"/>
+    <n v="-6.2499999999998668E-3"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -2696,8 +2697,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="-5.5617352614015575E-3"/>
-    <n v="5.9718969555034862E-2"/>
-    <n v="-0.10158681614669418"/>
+    <n v="4.8009367681498549E-2"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -2710,8 +2711,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="6.0977397320510318E-4"/>
-    <n v="1.1498096361086674E-3"/>
-    <n v="1.1498096361086674E-3"/>
+    <n v="1.4313956694413932E-3"/>
+    <n v="1.4313956694413932E-3"/>
   </r>
   <r>
     <x v="1"/>
@@ -2724,8 +2725,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="2.8697571743929361E-2"/>
-    <n v="-9.0507726269315802E-2"/>
-    <n v="-0.10158681614669418"/>
+    <n v="-5.9360730593607469E-2"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -2738,8 +2739,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="1.8998272884283247E-2"/>
-    <n v="-6.4340008788636216E-2"/>
-    <n v="-0.10158681614669418"/>
+    <n v="-4.8481364869799592E-2"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -2752,8 +2753,8 @@
     <x v="3"/>
     <x v="1"/>
     <n v="-6.2344139650872821E-3"/>
-    <n v="-3.749999999999809E-3"/>
-    <n v="-0.10158681614669418"/>
+    <n v="-6.2499999999998668E-3"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -2766,8 +2767,78 @@
     <x v="3"/>
     <x v="1"/>
     <n v="1.2304250559284116E-2"/>
-    <n v="5.9718969555034862E-2"/>
-    <n v="-0.10158681614669418"/>
+    <n v="4.8009367681498549E-2"/>
+    <n v="-6.7856640564886384E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="54"/>
+    <n v="0"/>
+    <n v="1706.59"/>
+    <n v="1707.07"/>
+    <n v="0.48000000000001819"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="2.8126263484493536E-4"/>
+    <n v="1.4313956694413932E-3"/>
+    <n v="1.4313956694413932E-3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="55"/>
+    <n v="0"/>
+    <n v="876"/>
+    <n v="906"/>
+    <n v="30"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="3.4246575342465752E-2"/>
+    <n v="-5.9360730593607469E-2"/>
+    <n v="-6.7856640564886384E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="55"/>
+    <n v="0"/>
+    <n v="1180"/>
+    <n v="1200"/>
+    <n v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1.6949152542372881E-2"/>
+    <n v="-4.8481364869799592E-2"/>
+    <n v="-6.7856640564886384E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="55"/>
+    <n v="0"/>
+    <n v="2391"/>
+    <n v="2385"/>
+    <n v="-6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="-2.509410288582183E-3"/>
+    <n v="-6.2499999999998668E-3"/>
+    <n v="-6.7856640564886384E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="55"/>
+    <n v="0"/>
+    <n v="905"/>
+    <n v="895"/>
+    <n v="-10"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="-1.1049723756906077E-2"/>
+    <n v="4.8009367681498549E-2"/>
+    <n v="-6.7856640564886384E-2"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -2801,7 +2872,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="59">
+      <items count="60">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2834,8 +2905,8 @@
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
-        <item m="1" x="57"/>
-        <item m="1" x="55"/>
+        <item m="1" x="58"/>
+        <item m="1" x="56"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
@@ -2851,7 +2922,7 @@
         <item x="44"/>
         <item x="45"/>
         <item x="46"/>
-        <item m="1" x="56"/>
+        <item m="1" x="57"/>
         <item x="47"/>
         <item x="48"/>
         <item x="49"/>
@@ -2860,6 +2931,7 @@
         <item x="51"/>
         <item x="53"/>
         <item x="54"/>
+        <item x="55"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2973,8 +3045,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L152" totalsRowCount="1" headerRowDxfId="20">
-  <autoFilter ref="A1:L151"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L157" totalsRowCount="1" headerRowDxfId="20">
+  <autoFilter ref="A1:L156"/>
   <sortState ref="A2:L141">
     <sortCondition ref="C1:C141"/>
   </sortState>
@@ -3309,7 +3381,7 @@
   <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,10 +3456,10 @@
         <v>861.05</v>
       </c>
       <c r="C6" s="8">
-        <v>43.950000000000045</v>
+        <v>33.950000000000045</v>
       </c>
       <c r="D6" s="9">
-        <v>1.5132717919755314E-3</v>
+        <v>2.0299668041988987E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3398,10 +3470,10 @@
         <v>1117.3900000000001</v>
       </c>
       <c r="C7" s="8">
-        <v>62.6099999999999</v>
+        <v>82.6099999999999</v>
       </c>
       <c r="D7" s="9">
-        <v>2.4910212166088758E-2</v>
+        <v>2.3476009650567731E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,10 +3498,10 @@
         <v>-837.95</v>
       </c>
       <c r="C9" s="8">
-        <v>-68.049999999999955</v>
+        <v>-38.049999999999955</v>
       </c>
       <c r="D9" s="9">
-        <v>-1.2371480509459938E-2</v>
+        <v>-8.500502430878484E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3440,10 +3512,10 @@
         <v>2374.5700000000002</v>
       </c>
       <c r="C10" s="8">
-        <v>16.429999999999836</v>
+        <v>10.429999999999836</v>
       </c>
       <c r="D10" s="9">
-        <v>5.287067105833862E-3</v>
+        <v>3.1718374274078728E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3462,10 +3534,10 @@
         <v>1670.78</v>
       </c>
       <c r="C12" s="8">
-        <v>35.809999999999945</v>
+        <v>36.289999999999964</v>
       </c>
       <c r="D12" s="9">
-        <v>7.2376901820712641E-3</v>
+        <v>7.1423606830537285E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3504,10 +3576,10 @@
         <v>4966.82</v>
       </c>
       <c r="C15" s="8">
-        <v>309.76999999999992</v>
+        <v>344.24999999999994</v>
       </c>
       <c r="D15" s="9">
-        <v>1.3409870621531995E-2</v>
+        <v>1.3198584169980796E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3518,10 +3590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9598,11 +9670,11 @@
       </c>
       <c r="K138" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-9.0507726269315802E-2</v>
+        <v>-5.9360730593607469E-2</v>
       </c>
       <c r="L138" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
+        <v>-6.7856640564886384E-2</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -9642,11 +9714,11 @@
       </c>
       <c r="K139" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-6.4340008788636216E-2</v>
+        <v>-4.8481364869799592E-2</v>
       </c>
       <c r="L139" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
+        <v>-6.7856640564886384E-2</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -9686,11 +9758,11 @@
       </c>
       <c r="K140" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.749999999999809E-3</v>
+        <v>-6.2499999999998668E-3</v>
       </c>
       <c r="L140" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
+        <v>-6.7856640564886384E-2</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -9730,11 +9802,11 @@
       </c>
       <c r="K141" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.9718969555034862E-2</v>
+        <v>4.8009367681498549E-2</v>
       </c>
       <c r="L141" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
+        <v>-6.7856640564886384E-2</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -9774,11 +9846,11 @@
       </c>
       <c r="K142" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.1498096361086674E-3</v>
+        <v>1.4313956694413932E-3</v>
       </c>
       <c r="L142" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.1498096361086674E-3</v>
+        <v>1.4313956694413932E-3</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -9818,11 +9890,11 @@
       </c>
       <c r="K143" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-9.0507726269315802E-2</v>
+        <v>-5.9360730593607469E-2</v>
       </c>
       <c r="L143" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
+        <v>-6.7856640564886384E-2</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -9862,11 +9934,11 @@
       </c>
       <c r="K144" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-6.4340008788636216E-2</v>
+        <v>-4.8481364869799592E-2</v>
       </c>
       <c r="L144" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
+        <v>-6.7856640564886384E-2</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -9906,11 +9978,11 @@
       </c>
       <c r="K145" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.749999999999809E-3</v>
+        <v>-6.2499999999998668E-3</v>
       </c>
       <c r="L145" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
+        <v>-6.7856640564886384E-2</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
@@ -9950,11 +10022,11 @@
       </c>
       <c r="K146" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.9718969555034862E-2</v>
+        <v>4.8009367681498549E-2</v>
       </c>
       <c r="L146" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
+        <v>-6.7856640564886384E-2</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -9994,11 +10066,11 @@
       </c>
       <c r="K147" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.1498096361086674E-3</v>
+        <v>1.4313956694413932E-3</v>
       </c>
       <c r="L147" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>1.1498096361086674E-3</v>
+        <v>1.4313956694413932E-3</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -10038,11 +10110,11 @@
       </c>
       <c r="K148" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-9.0507726269315802E-2</v>
+        <v>-5.9360730593607469E-2</v>
       </c>
       <c r="L148" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
+        <v>-6.7856640564886384E-2</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -10082,11 +10154,11 @@
       </c>
       <c r="K149" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-6.4340008788636216E-2</v>
+        <v>-4.8481364869799592E-2</v>
       </c>
       <c r="L149" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
+        <v>-6.7856640564886384E-2</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -10126,14 +10198,14 @@
       </c>
       <c r="K150" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-3.749999999999809E-3</v>
+        <v>-6.2499999999998668E-3</v>
       </c>
       <c r="L150" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-6.7856640564886384E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>24</v>
       </c>
@@ -10170,56 +10242,276 @@
       </c>
       <c r="K151" s="9">
         <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>5.9718969555034862E-2</v>
+        <v>4.8009367681498549E-2</v>
       </c>
       <c r="L151" s="9">
         <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
-        <v>-0.10158681614669418</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="25" t="s">
+        <v>-6.7856640564886384E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="3">
+        <v>40912</v>
+      </c>
+      <c r="D152" s="19">
+        <v>0</v>
+      </c>
+      <c r="E152" s="11">
+        <v>1706.59</v>
+      </c>
+      <c r="F152" s="11">
+        <v>1707.07</v>
+      </c>
+      <c r="G152" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>0.48000000000001819</v>
+      </c>
+      <c r="H152" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I152" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J152" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>2.8126263484493536E-4</v>
+      </c>
+      <c r="K152" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.4313956694413932E-3</v>
+      </c>
+      <c r="L152" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>1.4313956694413932E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153" s="3">
+        <v>40913</v>
+      </c>
+      <c r="D153" s="19">
+        <v>0</v>
+      </c>
+      <c r="E153" s="23">
+        <v>876</v>
+      </c>
+      <c r="F153" s="23">
+        <v>906</v>
+      </c>
+      <c r="G153" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>30</v>
+      </c>
+      <c r="H153" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I153" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J153" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>3.4246575342465752E-2</v>
+      </c>
+      <c r="K153" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-5.9360730593607469E-2</v>
+      </c>
+      <c r="L153" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-6.7856640564886384E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="3">
+        <v>40913</v>
+      </c>
+      <c r="D154" s="19">
+        <v>0</v>
+      </c>
+      <c r="E154" s="11">
+        <v>1180</v>
+      </c>
+      <c r="F154" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G154" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>20</v>
+      </c>
+      <c r="H154" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I154" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J154" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="K154" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-4.8481364869799592E-2</v>
+      </c>
+      <c r="L154" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-6.7856640564886384E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="3">
+        <v>40913</v>
+      </c>
+      <c r="D155" s="19">
+        <v>0</v>
+      </c>
+      <c r="E155" s="11">
+        <v>2391</v>
+      </c>
+      <c r="F155" s="11">
+        <v>2385</v>
+      </c>
+      <c r="G155" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-6</v>
+      </c>
+      <c r="H155" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I155" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J155" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-2.509410288582183E-3</v>
+      </c>
+      <c r="K155" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-6.2499999999998668E-3</v>
+      </c>
+      <c r="L155" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-6.7856640564886384E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="3">
+        <v>40913</v>
+      </c>
+      <c r="D156" s="19">
+        <v>0</v>
+      </c>
+      <c r="E156" s="11">
+        <v>905</v>
+      </c>
+      <c r="F156" s="11">
+        <v>895</v>
+      </c>
+      <c r="G156" s="8">
+        <f>IF(Tabela1[[#This Row],[Aplicação]]&lt;0,-(Tabela1[[#This Row],[Aplicação]]+Tabela1[[#This Row],[Valor Base]]),Tabela1[[#This Row],[Valor Bruto]]-Tabela1[[#This Row],[Valor Base]])</f>
+        <v>-10</v>
+      </c>
+      <c r="H156" s="30">
+        <f>MONTH(Tabela1[[#This Row],[Data]])</f>
+        <v>1</v>
+      </c>
+      <c r="I156" s="30">
+        <f>YEAR(Tabela1[[#This Row],[Data]])</f>
+        <v>2012</v>
+      </c>
+      <c r="J156" s="5">
+        <f>IF(Tabela1[[#This Row],[Valor Base]]&gt;0,Tabela1[[#This Row],[Rendimento]]/Tabela1[[#This Row],[Valor Base]],0)</f>
+        <v>-1.1049723756906077E-2</v>
+      </c>
+      <c r="K156" s="9">
+        <f>IF(Tabela1[[#This Row],[ID]]="i",0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Nome]=Tabela1[[#This Row],[Nome]]))*(--(Tabela1[Mês]=Tabela1[[#This Row],[Mês]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>4.8009367681498549E-2</v>
+      </c>
+      <c r="L156" s="9">
+        <f>IF(OR(Tabela1[[#This Row],[ID]]="a",Tabela1[[#This Row],[ID]]="i"),0,SUMPRODUCT(PRODUCT((--(Tabela1[ID]=Tabela1[[#This Row],[ID]]))*(--(Tabela1[Ano]=Tabela1[[#This Row],[Ano]]))*Tabela1[Rent. Dia]+1)-1))</f>
+        <v>-6.7856640564886384E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C152">
+      <c r="C157">
         <f>NETWORKDAYS(Tabela1[[#Totals],[Mês]],Tabela1[[#Totals],[Ano]],Plan2!A2:A1048576)</f>
-        <v>53</v>
-      </c>
-      <c r="D152" s="25">
+        <v>54</v>
+      </c>
+      <c r="D157" s="25">
         <f>SUBTOTAL(109,Tabela1[Aplicação])</f>
         <v>4966.8199999999988</v>
       </c>
-      <c r="E152" s="26">
+      <c r="E157" s="26">
         <f>Tabela1[[#Totals],[Rendimento]]/Tabela1[[#Totals],[Valor Bruto]]</f>
-        <v>5.1401652047802518E-2</v>
-      </c>
-      <c r="F152" s="25">
+        <v>5.7123087185511894E-2</v>
+      </c>
+      <c r="F157" s="25">
         <f>Tabela1[[#Totals],[Aplicação]]+Tabela1[[#Totals],[Nome]]</f>
         <v>6026.4599999999991</v>
       </c>
-      <c r="G152" s="8">
+      <c r="G157" s="8">
         <f>SUBTOTAL(109,Tabela1[Rendimento])</f>
-        <v>309.76999999999992</v>
-      </c>
-      <c r="H152" s="20">
+        <v>344.24999999999994</v>
+      </c>
+      <c r="H157" s="20">
         <f>SUBTOTAL(105,Tabela1[Data])</f>
         <v>40835</v>
       </c>
-      <c r="I152" s="28">
+      <c r="I157" s="28">
         <f>SUBTOTAL(104,Tabela1[Data])</f>
-        <v>40912</v>
-      </c>
-      <c r="J152" s="26">
+        <v>40913</v>
+      </c>
+      <c r="J157" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(1/Tabela1[[#Totals],[Data]])-1</f>
-        <v>9.46186610609967E-4</v>
-      </c>
-      <c r="K152" s="26">
+        <v>1.0292543129180043E-3</v>
+      </c>
+      <c r="K157" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(21/Tabela1[[#Totals],[Data]])-1</f>
-        <v>2.0059056778614304E-2</v>
-      </c>
-      <c r="L152" s="26">
+        <v>2.1838264016779574E-2</v>
+      </c>
+      <c r="L157" s="26">
         <f>(1+Tabela1[[#Totals],[Valor Base]])^(252/Tabela1[[#Totals],[Data]])-1</f>
-        <v>0.26912323139027361</v>
+        <v>0.29594310752912656</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -15,13 +15,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="104" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
   <si>
     <t>Mês</t>
   </si>
@@ -181,6 +181,12 @@
   <si>
     <t>Total * IRFF</t>
   </si>
+  <si>
+    <t>VALEC30</t>
+  </si>
+  <si>
+    <t>% Rent</t>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +220,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -232,12 +244,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -269,13 +282,94 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -469,20 +563,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -498,24 +578,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2001,7 +2063,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:M15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -2228,7 +2290,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="104" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
@@ -2360,8 +2422,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:T37" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A1:T37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:U40" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:U40">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -2380,50 +2442,54 @@
     <filterColumn colId="17"/>
     <filterColumn colId="18"/>
     <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
   </autoFilter>
-  <tableColumns count="20">
-    <tableColumn id="11" name="Trade" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="8" name="ID" dataDxfId="37" totalsRowDxfId="36">
+  <tableColumns count="21">
+    <tableColumn id="11" name="Trade" totalsRowLabel="Total" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="8" name="ID" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Data" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="1" name="Data Liquidação" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="18" name="Data" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="1" name="Data Liquidação" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Dia" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="9" name="Dia" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>DAY(Tabela1[[#This Row],[Data Liquidação]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Mês" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="2" name="Mês" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>MONTH([Data Liquidação])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Ano" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Moeda">
+    <tableColumn id="19" name="Ano" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Moeda">
       <calculatedColumnFormula>YEAR(Tabela1[[#This Row],[Data Liquidação]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Tipo" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="3" name="Papel" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="15" name="C/V" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" name="Quantidade" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" name="Líquido" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="PM Operação" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="7" name="Tipo" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="Papel" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="15" name="C/V" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="4" name="Quantidade" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" name="Líquido" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="6" name="PM Operação" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="PM Papel" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Separador de milhares">
+    <tableColumn id="12" name="PM Papel" dataDxfId="2" totalsRowDxfId="15" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Resultado" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="21" name="% Rent" dataDxfId="0" totalsRowDxfId="3" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Resultado" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="14">
       <calculatedColumnFormula>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="IRFF" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="17" name="IRFF" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>Tabela1[[#Totals],[Resultado]]/ABS(Tabela1[[#Totals],[Líquido]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="Outras Bovespa" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="16" name="Base IR" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="14" name="Outras Bovespa" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="16" name="Base IR" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="N/D" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="13" name="N/D" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF([Quantidade]=0,"D","N")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Volume Ação" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="20" name="Volume Ação" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2716,10 +2782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2738,16 +2804,17 @@
     <col min="12" max="12" width="11.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="7.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -2790,26 +2857,29 @@
       <c r="N1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="7">
         <v>201301</v>
       </c>
@@ -2859,26 +2929,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
-      <c r="R2" s="11">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S2" s="7" t="str">
+      <c r="T2" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T2" s="11">
+      <c r="U2" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="7">
         <v>201301</v>
       </c>
@@ -2928,26 +3002,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.30320000000000003</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-0.84449208443271773</v>
+      </c>
+      <c r="P3" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-51.21</v>
       </c>
-      <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
-      <c r="R3" s="11">
+      <c r="R3" s="11"/>
+      <c r="S3" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-51.21</v>
       </c>
-      <c r="S3" s="7" t="str">
+      <c r="T3" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T3" s="11">
+      <c r="U3" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" s="10">
         <v>201302</v>
       </c>
@@ -2997,26 +3075,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="12">
+      <c r="R4" s="12"/>
+      <c r="S4" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S4" s="7" t="str">
+      <c r="T4" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T4" s="11">
+      <c r="U4" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="10">
         <v>201302</v>
       </c>
@@ -3066,26 +3148,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.34764166666666668</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>1.0150538149914903</v>
+      </c>
+      <c r="P5" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>423.45</v>
       </c>
-      <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="12">
+      <c r="R5" s="12"/>
+      <c r="S5" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>423.45</v>
       </c>
-      <c r="S5" s="7" t="str">
+      <c r="T5" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T5" s="11">
+      <c r="U5" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" s="10">
         <v>201303</v>
       </c>
@@ -3135,28 +3221,32 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-179.74</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12">
         <v>3.48</v>
       </c>
-      <c r="R6" s="12">
+      <c r="S6" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-176.26000000000002</v>
       </c>
-      <c r="S6" s="7" t="str">
+      <c r="T6" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>D</v>
       </c>
-      <c r="T6" s="11">
+      <c r="U6" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="10">
         <v>201304</v>
       </c>
@@ -3206,30 +3296,34 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>662.77</v>
       </c>
-      <c r="P7" s="12">
+      <c r="Q7" s="12">
         <v>6.7</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="R7" s="12">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R7" s="12">
+      <c r="S7" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>670.63</v>
       </c>
-      <c r="S7" s="10" t="str">
+      <c r="T7" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>D</v>
       </c>
-      <c r="T7" s="11">
+      <c r="U7" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" s="10">
         <v>201305</v>
       </c>
@@ -3279,28 +3373,32 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-200.22</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R8" s="12">
+      <c r="S8" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-199.06</v>
       </c>
-      <c r="S8" s="10" t="str">
+      <c r="T8" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>D</v>
       </c>
-      <c r="T8" s="11">
+      <c r="U8" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" s="10">
         <v>201306</v>
       </c>
@@ -3350,26 +3448,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="12">
+      <c r="R9" s="12"/>
+      <c r="S9" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S9" s="10" t="str">
+      <c r="T9" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T9" s="11">
+      <c r="U9" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" s="10">
         <v>201306</v>
       </c>
@@ -3419,26 +3521,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.64834444444444439</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0.15903754862812991</v>
+      </c>
+      <c r="P10" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>92.80000000000004</v>
       </c>
-      <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
-      <c r="R10" s="12">
+      <c r="R10" s="12"/>
+      <c r="S10" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>92.80000000000004</v>
       </c>
-      <c r="S10" s="10" t="str">
+      <c r="T10" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T10" s="11">
+      <c r="U10" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" s="10">
         <v>7</v>
       </c>
@@ -3488,26 +3594,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="12">
+      <c r="R11" s="12"/>
+      <c r="S11" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S11" s="10" t="str">
+      <c r="T11" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T11" s="11">
+      <c r="U11" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" s="10">
         <v>7</v>
       </c>
@@ -3557,26 +3667,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>2.1891500000000002</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0.17865381540780656</v>
+      </c>
+      <c r="P12" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>234.65999999999985</v>
       </c>
-      <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="12">
+      <c r="R12" s="12"/>
+      <c r="S12" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>234.65999999999985</v>
       </c>
-      <c r="S12" s="10" t="str">
+      <c r="T12" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T12" s="11">
+      <c r="U12" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" s="10">
         <v>8</v>
       </c>
@@ -3626,28 +3740,32 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-305.10000000000002</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R13" s="12">
+      <c r="S13" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-303.94</v>
       </c>
-      <c r="S13" s="10" t="str">
+      <c r="T13" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>D</v>
       </c>
-      <c r="T13" s="11">
+      <c r="U13" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" s="10">
         <v>9</v>
       </c>
@@ -3697,28 +3815,32 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-122.33</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R14" s="12">
+      <c r="S14" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-121.17</v>
       </c>
-      <c r="S14" s="10" t="str">
+      <c r="T14" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>D</v>
       </c>
-      <c r="T14" s="11">
+      <c r="U14" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" s="10">
         <v>10</v>
       </c>
@@ -3768,26 +3890,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="12">
+      <c r="R15" s="12"/>
+      <c r="S15" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S15" s="10" t="str">
+      <c r="T15" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T15" s="11">
+      <c r="U15" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" s="10">
         <v>10</v>
       </c>
@@ -3837,26 +3963,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.99562727272727281</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-4.4421515901350461E-2</v>
+      </c>
+      <c r="P16" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="12">
+      <c r="R16" s="12"/>
+      <c r="S16" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S16" s="10" t="str">
+      <c r="T16" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T16" s="11">
+      <c r="U16" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" s="10">
         <v>10</v>
       </c>
@@ -3906,28 +4036,32 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.99562727272727281</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="P17" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-84.39</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R17" s="12">
+      <c r="S17" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-83.23</v>
       </c>
-      <c r="S17" s="10" t="str">
+      <c r="T17" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>D</v>
       </c>
-      <c r="T17" s="11">
+      <c r="U17" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" s="10">
         <v>10</v>
       </c>
@@ -3977,26 +4111,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.98615000000000008</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-5.9488197246144958E-2</v>
+      </c>
+      <c r="P18" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-82.130000000000166</v>
       </c>
-      <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="12">
+      <c r="R18" s="12"/>
+      <c r="S18" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-82.130000000000166</v>
       </c>
-      <c r="S18" s="10" t="str">
+      <c r="T18" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T18" s="11">
+      <c r="U18" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -4046,26 +4184,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
-      <c r="R19" s="11">
+      <c r="R19" s="11"/>
+      <c r="S19" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S19" s="7" t="str">
+      <c r="T19" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T19" s="11">
+      <c r="U19" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -4115,26 +4257,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
-      <c r="R20" s="11">
+      <c r="R20" s="11"/>
+      <c r="S20" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S20" s="7" t="str">
+      <c r="T20" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T20" s="11">
+      <c r="U20" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" s="7">
         <v>12</v>
       </c>
@@ -4184,26 +4330,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.27641923076923081</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-0.29936412083095632</v>
+      </c>
+      <c r="P21" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-215.15000000000003</v>
       </c>
-      <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="11">
+      <c r="R21" s="11"/>
+      <c r="S21" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-215.15000000000003</v>
       </c>
-      <c r="S21" s="7" t="str">
+      <c r="T21" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T21" s="11">
+      <c r="U21" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" s="7">
         <v>13</v>
       </c>
@@ -4253,26 +4403,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="11">
+      <c r="R22" s="11"/>
+      <c r="S22" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S22" s="7" t="str">
+      <c r="T22" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T22" s="11">
+      <c r="U22" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" s="7">
         <v>11</v>
       </c>
@@ -4322,26 +4476,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.86865555555555551</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-0.47955333273641254</v>
+      </c>
+      <c r="P23" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-374.90999999999997</v>
       </c>
-      <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
-      <c r="R23" s="11">
+      <c r="R23" s="11"/>
+      <c r="S23" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-374.90999999999997</v>
       </c>
-      <c r="S23" s="7" t="str">
+      <c r="T23" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T23" s="11">
+      <c r="U23" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" s="10">
         <v>13</v>
       </c>
@@ -4391,26 +4549,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.82733333333333325</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-0.83908138597904913</v>
+      </c>
+      <c r="P24" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-416.52</v>
       </c>
-      <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
-      <c r="R24" s="12">
+      <c r="R24" s="12"/>
+      <c r="S24" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-416.52</v>
       </c>
-      <c r="S24" s="10" t="str">
+      <c r="T24" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T24" s="11">
+      <c r="U24" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" s="7">
         <v>14</v>
       </c>
@@ -4460,26 +4622,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
-      <c r="R25" s="11">
+      <c r="R25" s="11"/>
+      <c r="S25" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S25" s="7" t="str">
+      <c r="T25" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T25" s="11">
+      <c r="U25" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26" s="10">
         <v>14</v>
       </c>
@@ -4529,26 +4695,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.44370833333333337</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-0.44439853507371585</v>
+      </c>
+      <c r="P26" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-236.62000000000006</v>
       </c>
-      <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
-      <c r="R26" s="12">
+      <c r="R26" s="12"/>
+      <c r="S26" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-236.62000000000006</v>
       </c>
-      <c r="S26" s="10" t="str">
+      <c r="T26" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T26" s="11">
+      <c r="U26" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27" s="7">
         <v>15</v>
       </c>
@@ -4598,26 +4768,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
-      <c r="R27" s="11">
+      <c r="R27" s="11"/>
+      <c r="S27" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S27" s="7" t="str">
+      <c r="T27" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T27" s="11">
+      <c r="U27" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28" s="10">
         <v>15</v>
       </c>
@@ -4667,26 +4841,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.30613999999999997</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-3.2468805121839694E-2</v>
+      </c>
+      <c r="P28" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-9.9400000000000048</v>
       </c>
-      <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
-      <c r="R28" s="12">
+      <c r="R28" s="12"/>
+      <c r="S28" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-9.9400000000000048</v>
       </c>
-      <c r="S28" s="10" t="str">
+      <c r="T28" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T28" s="11">
+      <c r="U28" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29" s="10">
         <v>15</v>
       </c>
@@ -4736,28 +4914,32 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.30613999999999997</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="P29" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-94.07</v>
       </c>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12">
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12">
         <v>1.1599999999999999</v>
       </c>
-      <c r="R29" s="12">
+      <c r="S29" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-92.91</v>
       </c>
-      <c r="S29" s="10" t="str">
+      <c r="T29" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>D</v>
       </c>
-      <c r="T29" s="11">
+      <c r="U29" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30" s="7">
         <v>16</v>
       </c>
@@ -4807,26 +4989,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
-      <c r="R30" s="11">
+      <c r="R30" s="11"/>
+      <c r="S30" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S30" s="7" t="str">
+      <c r="T30" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T30" s="11">
+      <c r="U30" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31" s="10">
         <v>17</v>
       </c>
@@ -4876,26 +5062,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
-      <c r="R31" s="12">
+      <c r="R31" s="12"/>
+      <c r="S31" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S31" s="10" t="str">
+      <c r="T31" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T31" s="11">
+      <c r="U31" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" s="7">
         <v>17</v>
       </c>
@@ -4945,26 +5135,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.91270000000000007</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-1.6894927139257221E-2</v>
+      </c>
+      <c r="P32" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-7.7100000000000506</v>
       </c>
-      <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
-      <c r="R32" s="11">
+      <c r="R32" s="11"/>
+      <c r="S32" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-7.7100000000000506</v>
       </c>
-      <c r="S32" s="7" t="str">
+      <c r="T32" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T32" s="11">
+      <c r="U32" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:23">
       <c r="A33" s="10">
         <v>18</v>
       </c>
@@ -5014,26 +5208,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O33" s="12">
+      <c r="O33" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
-      <c r="R33" s="12">
+      <c r="R33" s="12"/>
+      <c r="S33" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S33" s="10" t="str">
+      <c r="T33" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T33" s="11">
+      <c r="U33" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:23">
       <c r="A34" s="10">
         <v>16</v>
       </c>
@@ -5083,27 +5281,31 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.5</v>
       </c>
-      <c r="O34" s="12">
+      <c r="O34" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="P34" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-200</v>
       </c>
-      <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
-      <c r="R34" s="12">
+      <c r="R34" s="12"/>
+      <c r="S34" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-200</v>
       </c>
-      <c r="S34" s="10" t="str">
+      <c r="T34" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T34" s="11">
+      <c r="U34" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
-      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:23">
       <c r="A35" s="10">
         <v>18</v>
       </c>
@@ -5153,26 +5355,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.36363333333333336</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="P35" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>-436.36</v>
       </c>
-      <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
-      <c r="R35" s="12">
+      <c r="R35" s="12"/>
+      <c r="S35" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>-436.36</v>
       </c>
-      <c r="S35" s="10" t="str">
+      <c r="T35" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T35" s="11">
+      <c r="U35" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:23">
       <c r="A36" s="7">
         <v>201401</v>
       </c>
@@ -5222,26 +5428,30 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="11">
+      <c r="R36" s="11"/>
+      <c r="S36" s="11">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S36" s="7" t="str">
+      <c r="T36" s="7" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T36" s="11">
+      <c r="U36" s="11">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:23">
       <c r="A37" s="10">
         <v>201402</v>
       </c>
@@ -5291,21 +5501,244 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="12">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
-      <c r="R37" s="12">
+      <c r="R37" s="12"/>
+      <c r="S37" s="12">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="S37" s="10" t="str">
+      <c r="T37" s="10" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="T37" s="11">
+      <c r="U37" s="11">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="25">
+        <v>201403</v>
+      </c>
+      <c r="B38" s="25" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>VALEC30_201403</v>
+      </c>
+      <c r="C38" s="26">
+        <v>41704</v>
+      </c>
+      <c r="D38" s="26">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>41705</v>
+      </c>
+      <c r="E38" s="27">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>7</v>
+      </c>
+      <c r="F38" s="28">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G38" s="27">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2014</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="25">
+        <v>2900</v>
+      </c>
+      <c r="L38" s="31">
+        <v>-886.92</v>
+      </c>
+      <c r="M38" s="29">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.30583448275862068</v>
+      </c>
+      <c r="N38" s="32">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="36">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="33">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="25" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U38" s="33">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="25">
+        <v>201403</v>
+      </c>
+      <c r="B39" s="25" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>VALEC30_201403</v>
+      </c>
+      <c r="C39" s="26">
+        <v>41705</v>
+      </c>
+      <c r="D39" s="26">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>41708</v>
+      </c>
+      <c r="E39" s="27">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>10</v>
+      </c>
+      <c r="F39" s="28">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G39" s="27">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2014</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="25">
+        <v>-1500</v>
+      </c>
+      <c r="L39" s="31">
+        <v>898.02</v>
+      </c>
+      <c r="M39" s="29">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.59867999999999999</v>
+      </c>
+      <c r="N39" s="32">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.30583448275862068</v>
+      </c>
+      <c r="O39" s="36">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>0.9575294276823163</v>
+      </c>
+      <c r="P39" s="33">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>439.26827586206895</v>
+      </c>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>439.26827586206895</v>
+      </c>
+      <c r="T39" s="25" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U39" s="33">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="25">
+        <v>201403</v>
+      </c>
+      <c r="B40" s="25" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>VALEC30_201403</v>
+      </c>
+      <c r="C40" s="26">
+        <v>41708</v>
+      </c>
+      <c r="D40" s="26">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>41709</v>
+      </c>
+      <c r="E40" s="27">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>11</v>
+      </c>
+      <c r="F40" s="28">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G40" s="27">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2014</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" s="25">
+        <v>-1400</v>
+      </c>
+      <c r="L40" s="31">
+        <v>1382.37</v>
+      </c>
+      <c r="M40" s="29">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.98740714285714282</v>
+      </c>
+      <c r="N40" s="32">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.30583448275862068</v>
+      </c>
+      <c r="O40" s="36">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+        <v>2.2285670796528594</v>
+      </c>
+      <c r="P40" s="33">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>954.20172413793102</v>
+      </c>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>954.20172413793102</v>
+      </c>
+      <c r="T40" s="25" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U40" s="33">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="7245"/>
   </bookViews>
@@ -15,13 +15,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
   <si>
     <t>Mês</t>
   </si>
@@ -182,10 +182,10 @@
     <t>Total * IRFF</t>
   </si>
   <si>
-    <t>VALEC30</t>
+    <t>% Rent</t>
   </si>
   <si>
-    <t>% Rent</t>
+    <t>PETRC13</t>
   </si>
 </sst>
 </file>
@@ -282,6 +282,8 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -290,10 +292,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -302,74 +302,6 @@
     <cellStyle name="Separador de milhares" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="44">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -563,6 +495,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -578,6 +524,60 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1036,22 +1036,22 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Engelbert" refreshedDate="41697.554729282405" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="39">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Engelbert" refreshedDate="41710.442661805559" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
-  <cacheFields count="20">
+  <cacheFields count="21">
     <cacheField name="Trade" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="21"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="201403"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2013-01-15T00:00:00" maxDate="2014-03-02T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2013-01-15T00:00:00" maxDate="2014-03-13T00:00:00"/>
     </cacheField>
     <cacheField name="Data Liquidação" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2013-01-16T00:00:00" maxDate="2014-03-04T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2013-01-16T00:00:00" maxDate="2014-03-14T00:00:00"/>
     </cacheField>
     <cacheField name="Dia" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="31"/>
@@ -1088,7 +1088,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Papel" numFmtId="0">
-      <sharedItems containsBlank="1" count="68">
+      <sharedItems containsBlank="1" count="71">
         <s v="PETRA20"/>
         <s v="VALEI34"/>
         <s v="PETRI18"/>
@@ -1105,12 +1105,13 @@
         <s v="VALEL35"/>
         <s v="AELP3"/>
         <s v="UNIP6"/>
-        <s v="PETRC14"/>
+        <s v="PETRC13"/>
         <m u="1"/>
         <s v="BEEF3" u="1"/>
         <s v="PETRF21" u="1"/>
         <s v="VALEC40" u="1"/>
         <s v="VALED43" u="1"/>
+        <s v="JBS" u="1"/>
         <s v="BBAS3" u="1"/>
         <s v="FJTA4" u="1"/>
         <s v="BVMF3" u="1"/>
@@ -1140,6 +1141,7 @@
         <s v="MNDL4" u="1"/>
         <s v="PETRE19" u="1"/>
         <s v="VALEH37" u="1"/>
+        <s v="PETRC14" u="1"/>
         <s v="PETRC24" u="1"/>
         <s v="PETRH20" u="1"/>
         <s v="OGXPC17" u="1"/>
@@ -1156,6 +1158,7 @@
         <s v="OGXPF12" u="1"/>
         <s v="PETRF20" u="1"/>
         <s v="VALEF38" u="1"/>
+        <s v="VALEC30" u="1"/>
         <s v="VALED42" u="1"/>
       </sharedItems>
     </cacheField>
@@ -1163,7 +1166,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Quantidade" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-2600" maxValue="2600"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-2600" maxValue="2700"/>
     </cacheField>
     <cacheField name="Líquido" numFmtId="44">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1313.49" maxValue="1548.15"/>
@@ -1174,8 +1177,11 @@
     <cacheField name="PM Papel" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2.1891500000000002"/>
     </cacheField>
+    <cacheField name="% Rent" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="1.0150538149914903"/>
+    </cacheField>
     <cacheField name="Resultado" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-436.36" maxValue="664.36666666666656"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-436.36" maxValue="662.77"/>
     </cacheField>
     <cacheField name="IRFF" numFmtId="44">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.7" maxValue="6.7"/>
@@ -1200,10 +1206,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="39">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
   <r>
-    <n v="1"/>
-    <s v="PETRA20_1"/>
+    <n v="201301"/>
+    <s v="PETRA20_201301"/>
     <d v="2013-01-15T00:00:00"/>
     <d v="2013-01-16T00:00:00"/>
     <n v="16"/>
@@ -1217,6 +1223,7 @@
     <n v="0.30320000000000003"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1224,8 +1231,8 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="1"/>
-    <s v="PETRA20_1"/>
+    <n v="201301"/>
+    <s v="PETRA20_201301"/>
     <d v="2013-01-20T00:00:00"/>
     <d v="2013-01-21T00:00:00"/>
     <n v="21"/>
@@ -1238,6 +1245,7 @@
     <n v="9.43"/>
     <n v="4.7149999999999997E-2"/>
     <n v="0.30320000000000003"/>
+    <n v="-0.84449208443271773"/>
     <n v="-51.21"/>
     <m/>
     <m/>
@@ -1246,8 +1254,8 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="2"/>
-    <s v="VALEI34_2"/>
+    <n v="201302"/>
+    <s v="VALEI34_201302"/>
     <d v="2013-09-09T00:00:00"/>
     <d v="2013-09-10T00:00:00"/>
     <n v="10"/>
@@ -1261,6 +1269,7 @@
     <n v="0.34764166666666668"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1268,8 +1277,8 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="2"/>
-    <s v="VALEI34_2"/>
+    <n v="201302"/>
+    <s v="VALEI34_201302"/>
     <d v="2013-09-10T00:00:00"/>
     <d v="2013-09-11T00:00:00"/>
     <n v="11"/>
@@ -1282,6 +1291,7 @@
     <n v="840.62"/>
     <n v="0.70051666666666668"/>
     <n v="0.34764166666666668"/>
+    <n v="1.0150538149914903"/>
     <n v="423.45"/>
     <m/>
     <m/>
@@ -1290,8 +1300,8 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="3"/>
-    <s v="PETRI18_3"/>
+    <n v="201303"/>
+    <s v="PETRI18_201303"/>
     <d v="2013-09-15T00:00:00"/>
     <d v="2013-09-16T00:00:00"/>
     <n v="16"/>
@@ -1304,6 +1314,7 @@
     <n v="-179.74"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <n v="-179.74"/>
     <m/>
     <n v="3.48"/>
@@ -1312,8 +1323,8 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="4"/>
-    <s v="VALEJ31_4"/>
+    <n v="201304"/>
+    <s v="VALEJ31_201304"/>
     <d v="2013-10-14T00:00:00"/>
     <d v="2013-10-15T00:00:00"/>
     <n v="15"/>
@@ -1324,6 +1335,7 @@
     <s v="C"/>
     <n v="0"/>
     <n v="662.77"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="662.77"/>
@@ -1334,8 +1346,8 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="5"/>
-    <s v="VALEJ33_5"/>
+    <n v="201305"/>
+    <s v="VALEJ33_201305"/>
     <d v="2013-10-15T00:00:00"/>
     <d v="2013-10-16T00:00:00"/>
     <n v="16"/>
@@ -1348,6 +1360,7 @@
     <n v="-200.22"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <n v="-200.22"/>
     <m/>
     <n v="1.1599999999999999"/>
@@ -1356,8 +1369,8 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="6"/>
-    <s v="VALEJ32_6"/>
+    <n v="201306"/>
+    <s v="VALEJ32_201306"/>
     <d v="2013-10-16T00:00:00"/>
     <d v="2013-10-17T00:00:00"/>
     <n v="17"/>
@@ -1371,6 +1384,7 @@
     <n v="0.64834444444444439"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1378,8 +1392,8 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="6"/>
-    <s v="VALEJ32_6"/>
+    <n v="201306"/>
+    <s v="VALEJ32_201306"/>
     <d v="2013-10-18T00:00:00"/>
     <d v="2013-10-21T00:00:00"/>
     <n v="21"/>
@@ -1392,6 +1406,7 @@
     <n v="676.31"/>
     <n v="0.75145555555555554"/>
     <n v="0.64834444444444439"/>
+    <n v="0.15903754862812991"/>
     <n v="92.80000000000004"/>
     <m/>
     <m/>
@@ -1415,6 +1430,7 @@
     <n v="2.1891500000000002"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1436,6 +1452,7 @@
     <n v="1548.15"/>
     <n v="2.5802499999999999"/>
     <n v="2.1891500000000002"/>
+    <n v="0.17865381540780656"/>
     <n v="234.65999999999985"/>
     <m/>
     <m/>
@@ -1458,6 +1475,7 @@
     <n v="-305.10000000000002"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <n v="-305.10000000000002"/>
     <m/>
     <n v="1.1599999999999999"/>
@@ -1480,6 +1498,7 @@
     <n v="-122.33"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <n v="-122.33"/>
     <m/>
     <n v="1.1599999999999999"/>
@@ -1503,6 +1522,7 @@
     <n v="0.99562727272727281"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1524,6 +1544,7 @@
     <n v="-285.42"/>
     <n v="0.95140000000000002"/>
     <n v="0.99562727272727281"/>
+    <n v="-4.4421515901350461E-2"/>
     <n v="0"/>
     <m/>
     <m/>
@@ -1546,6 +1567,7 @@
     <n v="-84.39"/>
     <n v="0"/>
     <n v="0.99562727272727281"/>
+    <n v="-1"/>
     <n v="-84.39"/>
     <m/>
     <n v="1.1599999999999999"/>
@@ -1568,6 +1590,7 @@
     <n v="1298.48"/>
     <n v="0.92748571428571425"/>
     <n v="0.98615000000000008"/>
+    <n v="-5.9488197246144958E-2"/>
     <n v="-82.130000000000166"/>
     <m/>
     <m/>
@@ -1591,6 +1614,7 @@
     <n v="0.86865555555555551"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1613,6 +1637,7 @@
     <n v="0.27641923076923081"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1634,6 +1659,7 @@
     <n v="503.54"/>
     <n v="0.19366923076923079"/>
     <n v="0.27641923076923081"/>
+    <n v="-0.29936412083095632"/>
     <n v="-215.15000000000003"/>
     <m/>
     <m/>
@@ -1657,6 +1683,7 @@
     <n v="0.82733333333333325"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1678,6 +1705,7 @@
     <n v="406.88"/>
     <n v="0.45208888888888887"/>
     <n v="0.86865555555555551"/>
+    <n v="-0.47955333273641254"/>
     <n v="-374.90999999999997"/>
     <m/>
     <m/>
@@ -1700,6 +1728,7 @@
     <n v="79.88"/>
     <n v="0.13313333333333333"/>
     <n v="0.82733333333333325"/>
+    <n v="-0.83908138597904913"/>
     <n v="-416.52"/>
     <m/>
     <m/>
@@ -1723,6 +1752,7 @@
     <n v="0.44370833333333337"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1744,6 +1774,7 @@
     <n v="295.83"/>
     <n v="0.24652499999999999"/>
     <n v="0.44370833333333337"/>
+    <n v="-0.44439853507371585"/>
     <n v="-236.62000000000006"/>
     <m/>
     <m/>
@@ -1767,6 +1798,7 @@
     <n v="0.30613999999999997"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1788,6 +1820,7 @@
     <n v="296.2"/>
     <n v="0.29619999999999996"/>
     <n v="0.30613999999999997"/>
+    <n v="-3.2468805121839694E-2"/>
     <n v="-9.9400000000000048"/>
     <m/>
     <m/>
@@ -1810,6 +1843,7 @@
     <n v="-94.07"/>
     <n v="0"/>
     <n v="0.30613999999999997"/>
+    <n v="-1"/>
     <n v="-94.07"/>
     <m/>
     <n v="1.1599999999999999"/>
@@ -1833,6 +1867,7 @@
     <n v="0.5"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1855,6 +1890,7 @@
     <n v="0.91270000000000007"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1876,6 +1912,7 @@
     <n v="448.64"/>
     <n v="0.89727999999999997"/>
     <n v="0.91270000000000007"/>
+    <n v="-1.6894927139257221E-2"/>
     <n v="-7.7100000000000506"/>
     <m/>
     <m/>
@@ -1899,6 +1936,7 @@
     <n v="0.36363333333333336"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1920,6 +1958,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0.5"/>
+    <n v="-1"/>
     <n v="-200"/>
     <m/>
     <m/>
@@ -1942,6 +1981,7 @@
     <n v="0"/>
     <n v="0"/>
     <n v="0.36363333333333336"/>
+    <n v="-1"/>
     <n v="-436.36"/>
     <m/>
     <m/>
@@ -1950,8 +1990,8 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="19"/>
-    <s v="AELP3_19"/>
+    <n v="201401"/>
+    <s v="AELP3_201401"/>
     <d v="2013-12-30T00:00:00"/>
     <d v="2014-01-02T00:00:00"/>
     <n v="2"/>
@@ -1965,6 +2005,7 @@
     <n v="9.400599999999999"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1972,8 +2013,8 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="20"/>
-    <s v="UNIP6_20"/>
+    <n v="201402"/>
+    <s v="UNIP6_201402"/>
     <d v="2014-01-29T00:00:00"/>
     <d v="2014-02-03T00:00:00"/>
     <n v="3"/>
@@ -1987,6 +2028,7 @@
     <n v="0.52643333333333331"/>
     <n v="0"/>
     <n v="0"/>
+    <n v="0"/>
     <m/>
     <m/>
     <n v="0"/>
@@ -1994,68 +2036,25 @@
     <n v="0"/>
   </r>
   <r>
-    <n v="21"/>
-    <s v="PETRC14_21"/>
-    <d v="2014-02-27T00:00:00"/>
-    <d v="2014-02-28T00:00:00"/>
-    <n v="28"/>
-    <x v="5"/>
+    <n v="201403"/>
+    <s v="PETRC13_201403"/>
+    <d v="2014-03-12T00:00:00"/>
+    <d v="2014-03-13T00:00:00"/>
+    <n v="13"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="0"/>
     <x v="16"/>
     <s v="C"/>
-    <n v="1500"/>
-    <n v="-496.4"/>
-    <n v="0.3309333333333333"/>
-    <n v="0"/>
-    <n v="0"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <s v="PETRC14_21"/>
-    <d v="2014-02-28T00:00:00"/>
-    <d v="2014-03-03T00:00:00"/>
-    <n v="3"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="16"/>
-    <s v="C"/>
-    <n v="-800"/>
-    <n v="511.54"/>
-    <n v="0.63942500000000002"/>
-    <n v="0.3309333333333333"/>
-    <n v="246.79333333333338"/>
-    <m/>
-    <m/>
-    <n v="246.79333333333338"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <s v="PETRC14_21"/>
-    <d v="2014-03-01T00:00:00"/>
-    <d v="2014-03-03T00:00:00"/>
-    <n v="3"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="16"/>
-    <s v="C"/>
-    <n v="-700"/>
-    <n v="896.02"/>
-    <n v="1.2800285714285713"/>
-    <n v="0.3309333333333333"/>
-    <n v="664.36666666666656"/>
-    <m/>
-    <m/>
-    <n v="664.36666666666656"/>
+    <n v="2700"/>
+    <n v="-907.94"/>
+    <n v="0.33627407407407411"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
     <x v="0"/>
     <n v="0"/>
   </r>
@@ -2063,9 +2062,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:M15" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:M14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="21">
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -2105,7 +2104,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="69">
+      <items count="72">
         <item x="14"/>
         <item x="0"/>
         <item x="2"/>
@@ -2122,57 +2121,60 @@
         <item x="12"/>
         <item x="13"/>
         <item x="11"/>
-        <item m="1" x="56"/>
-        <item m="1" x="37"/>
+        <item m="1" x="58"/>
+        <item m="1" x="38"/>
+        <item m="1" x="64"/>
+        <item m="1" x="46"/>
+        <item m="1" x="41"/>
+        <item m="1" x="39"/>
+        <item m="1" x="49"/>
         <item m="1" x="62"/>
         <item m="1" x="45"/>
-        <item m="1" x="40"/>
-        <item m="1" x="38"/>
-        <item m="1" x="48"/>
-        <item m="1" x="60"/>
+        <item m="1" x="35"/>
+        <item m="1" x="24"/>
+        <item m="1" x="18"/>
+        <item m="1" x="53"/>
+        <item m="1" x="20"/>
         <item m="1" x="44"/>
-        <item m="1" x="34"/>
-        <item m="1" x="23"/>
-        <item m="1" x="18"/>
-        <item m="1" x="51"/>
-        <item m="1" x="20"/>
-        <item m="1" x="43"/>
-        <item m="1" x="53"/>
-        <item m="1" x="30"/>
-        <item m="1" x="54"/>
+        <item m="1" x="55"/>
+        <item m="1" x="31"/>
+        <item m="1" x="56"/>
         <item m="1" x="21"/>
         <item m="1" x="17"/>
-        <item m="1" x="47"/>
+        <item m="1" x="48"/>
+        <item m="1" x="34"/>
+        <item m="1" x="43"/>
+        <item m="1" x="70"/>
+        <item m="1" x="57"/>
+        <item m="1" x="61"/>
         <item m="1" x="33"/>
-        <item m="1" x="42"/>
-        <item m="1" x="67"/>
-        <item m="1" x="55"/>
-        <item m="1" x="59"/>
-        <item m="1" x="32"/>
-        <item m="1" x="36"/>
-        <item m="1" x="49"/>
-        <item m="1" x="28"/>
-        <item m="1" x="26"/>
+        <item m="1" x="37"/>
+        <item m="1" x="50"/>
         <item m="1" x="29"/>
-        <item m="1" x="61"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="19"/>
-        <item m="1" x="35"/>
-        <item m="1" x="22"/>
+        <item m="1" x="27"/>
+        <item m="1" x="30"/>
         <item m="1" x="63"/>
         <item m="1" x="66"/>
-        <item m="1" x="27"/>
-        <item m="1" x="31"/>
-        <item m="1" x="24"/>
-        <item m="1" x="58"/>
+        <item m="1" x="67"/>
+        <item m="1" x="19"/>
+        <item m="1" x="36"/>
+        <item m="1" x="23"/>
+        <item m="1" x="65"/>
+        <item m="1" x="68"/>
+        <item m="1" x="28"/>
+        <item m="1" x="32"/>
         <item m="1" x="25"/>
-        <item m="1" x="41"/>
-        <item m="1" x="57"/>
-        <item m="1" x="39"/>
-        <item m="1" x="46"/>
-        <item m="1" x="50"/>
+        <item m="1" x="60"/>
+        <item m="1" x="26"/>
+        <item m="1" x="42"/>
+        <item m="1" x="59"/>
+        <item m="1" x="40"/>
+        <item m="1" x="47"/>
+        <item m="1" x="51"/>
+        <item m="1" x="54"/>
         <item m="1" x="52"/>
+        <item m="1" x="69"/>
+        <item m="1" x="22"/>
         <item x="16"/>
         <item t="default"/>
       </items>
@@ -2182,6 +2184,7 @@
     <pivotField dataField="1" numFmtId="44" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -2201,7 +2204,7 @@
     <field x="5"/>
     <field x="8"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -2224,9 +2227,6 @@
       <x v="3"/>
     </i>
     <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
       <x v="6"/>
     </i>
     <i t="grand">
@@ -2235,7 +2235,7 @@
   </rowItems>
   <colFields count="2">
     <field x="-2"/>
-    <field x="18"/>
+    <field x="19"/>
   </colFields>
   <colItems count="12">
     <i>
@@ -2280,19 +2280,19 @@
     </i>
   </colItems>
   <dataFields count="4">
-    <dataField name="* Base IR" fld="17" baseField="0" baseItem="0" numFmtId="44"/>
-    <dataField name="* IRFF" fld="15" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="* Base IR" fld="18" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="* IRFF" fld="16" baseField="0" baseItem="0" numFmtId="44"/>
     <dataField name="* Líquido" fld="11" baseField="0" baseItem="0" numFmtId="44"/>
-    <dataField name="* Volume Ação" fld="19" subtotal="max" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="* Volume Ação" fld="20" subtotal="max" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -2302,56 +2302,56 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="69">
+      <items count="72">
         <item x="14"/>
+        <item m="1" x="62"/>
         <item m="1" x="60"/>
+        <item m="1" x="23"/>
+        <item m="1" x="18"/>
+        <item m="1" x="65"/>
+        <item m="1" x="25"/>
+        <item m="1" x="34"/>
+        <item m="1" x="24"/>
+        <item m="1" x="46"/>
         <item m="1" x="58"/>
-        <item m="1" x="22"/>
-        <item m="1" x="18"/>
+        <item m="1" x="45"/>
+        <item m="1" x="35"/>
+        <item m="1" x="64"/>
+        <item m="1" x="41"/>
+        <item m="1" x="49"/>
+        <item m="1" x="38"/>
+        <item m="1" x="26"/>
+        <item m="1" x="55"/>
+        <item m="1" x="43"/>
+        <item m="1" x="48"/>
         <item m="1" x="63"/>
-        <item m="1" x="24"/>
-        <item m="1" x="33"/>
-        <item m="1" x="23"/>
-        <item m="1" x="45"/>
+        <item m="1" x="66"/>
+        <item m="1" x="36"/>
+        <item x="0"/>
+        <item m="1" x="53"/>
         <item m="1" x="56"/>
         <item m="1" x="44"/>
-        <item m="1" x="34"/>
-        <item m="1" x="62"/>
-        <item m="1" x="40"/>
-        <item m="1" x="48"/>
+        <item m="1" x="50"/>
+        <item m="1" x="29"/>
+        <item m="1" x="33"/>
         <item m="1" x="37"/>
-        <item m="1" x="25"/>
-        <item m="1" x="53"/>
-        <item m="1" x="42"/>
-        <item m="1" x="47"/>
-        <item m="1" x="61"/>
-        <item m="1" x="64"/>
-        <item m="1" x="35"/>
-        <item x="0"/>
-        <item m="1" x="51"/>
-        <item m="1" x="54"/>
-        <item m="1" x="43"/>
-        <item m="1" x="49"/>
+        <item m="1" x="67"/>
+        <item m="1" x="19"/>
         <item m="1" x="28"/>
         <item m="1" x="32"/>
-        <item m="1" x="36"/>
-        <item m="1" x="65"/>
-        <item m="1" x="19"/>
-        <item m="1" x="27"/>
-        <item m="1" x="31"/>
         <item x="2"/>
         <item x="9"/>
-        <item m="1" x="38"/>
+        <item m="1" x="39"/>
         <item x="15"/>
         <item m="1" x="20"/>
+        <item m="1" x="31"/>
+        <item m="1" x="70"/>
+        <item m="1" x="21"/>
+        <item m="1" x="27"/>
         <item m="1" x="30"/>
-        <item m="1" x="67"/>
-        <item m="1" x="21"/>
-        <item m="1" x="26"/>
-        <item m="1" x="29"/>
-        <item m="1" x="55"/>
-        <item m="1" x="59"/>
-        <item m="1" x="66"/>
+        <item m="1" x="57"/>
+        <item m="1" x="61"/>
+        <item m="1" x="68"/>
         <item x="1"/>
         <item x="3"/>
         <item x="5"/>
@@ -2364,12 +2364,15 @@
         <item x="13"/>
         <item x="11"/>
         <item m="1" x="17"/>
-        <item m="1" x="41"/>
-        <item m="1" x="57"/>
-        <item m="1" x="39"/>
-        <item m="1" x="46"/>
-        <item m="1" x="50"/>
+        <item m="1" x="42"/>
+        <item m="1" x="59"/>
+        <item m="1" x="40"/>
+        <item m="1" x="47"/>
+        <item m="1" x="51"/>
+        <item m="1" x="54"/>
         <item m="1" x="52"/>
+        <item m="1" x="69"/>
+        <item m="1" x="22"/>
         <item x="16"/>
         <item t="default"/>
       </items>
@@ -2379,6 +2382,7 @@
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="10" showAll="0" defaultSubtotal="0"/>
     <pivotField numFmtId="44" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2389,12 +2393,15 @@
   <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="39"/>
+    </i>
+    <i>
+      <x v="70"/>
     </i>
     <i t="grand">
       <x/>
@@ -2422,8 +2429,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:U40" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:U40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:U38" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:U38">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -2470,26 +2477,26 @@
     <tableColumn id="6" name="PM Operação" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="PM Papel" dataDxfId="2" totalsRowDxfId="15" dataCellStyle="Separador de milhares">
+    <tableColumn id="12" name="PM Papel" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Separador de milhares">
       <calculatedColumnFormula>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="% Rent" dataDxfId="0" totalsRowDxfId="3" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</calculatedColumnFormula>
+    <tableColumn id="21" name="% Rent" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Resultado" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="14">
+    <tableColumn id="10" name="Resultado" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="IRFF" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="17" name="IRFF" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>Tabela1[[#Totals],[Resultado]]/ABS(Tabela1[[#Totals],[Líquido]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" name="Outras Bovespa" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="16" name="Base IR" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="14" name="Outras Bovespa" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="16" name="Base IR" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="N/D" totalsRowFunction="count" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="13" name="N/D" totalsRowFunction="count" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>IF([Quantidade]=0,"D","N")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Volume Ação" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="20" name="Volume Ação" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2782,10 +2789,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W40"/>
+  <sheetPr codeName="Plan1"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2804,7 +2812,7 @@
     <col min="12" max="12" width="11.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -2857,8 +2865,8 @@
       <c r="N1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="34" t="s">
-        <v>54</v>
+      <c r="O1" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>9</v>
@@ -2929,8 +2937,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O2" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O2" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P2" s="11">
@@ -3002,8 +3010,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.30320000000000003</v>
       </c>
-      <c r="O3" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O3" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-0.84449208443271773</v>
       </c>
       <c r="P3" s="11">
@@ -3075,8 +3083,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O4" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O4" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P4" s="12">
@@ -3148,8 +3156,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.34764166666666668</v>
       </c>
-      <c r="O5" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O5" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>1.0150538149914903</v>
       </c>
       <c r="P5" s="12">
@@ -3221,8 +3229,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O6" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O6" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P6" s="12">
@@ -3296,8 +3304,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O7" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P7" s="12">
@@ -3373,8 +3381,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O8" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P8" s="12">
@@ -3448,8 +3456,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O9" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P9" s="12">
@@ -3521,8 +3529,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.64834444444444439</v>
       </c>
-      <c r="O10" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O10" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0.15903754862812991</v>
       </c>
       <c r="P10" s="12">
@@ -3594,8 +3602,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O11" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P11" s="12">
@@ -3667,8 +3675,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>2.1891500000000002</v>
       </c>
-      <c r="O12" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O12" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0.17865381540780656</v>
       </c>
       <c r="P12" s="12">
@@ -3740,8 +3748,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O13" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O13" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P13" s="12">
@@ -3815,8 +3823,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O14" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P14" s="12">
@@ -3890,8 +3898,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O15" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P15" s="12">
@@ -3963,8 +3971,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.99562727272727281</v>
       </c>
-      <c r="O16" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O16" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-4.4421515901350461E-2</v>
       </c>
       <c r="P16" s="12">
@@ -4036,8 +4044,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.99562727272727281</v>
       </c>
-      <c r="O17" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O17" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-1</v>
       </c>
       <c r="P17" s="12">
@@ -4111,8 +4119,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.98615000000000008</v>
       </c>
-      <c r="O18" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O18" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-5.9488197246144958E-2</v>
       </c>
       <c r="P18" s="12">
@@ -4184,8 +4192,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O19" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O19" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P19" s="11">
@@ -4257,8 +4265,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O20" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O20" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P20" s="11">
@@ -4330,8 +4338,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.27641923076923081</v>
       </c>
-      <c r="O21" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O21" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-0.29936412083095632</v>
       </c>
       <c r="P21" s="11">
@@ -4403,8 +4411,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O22" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O22" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P22" s="11">
@@ -4476,8 +4484,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.86865555555555551</v>
       </c>
-      <c r="O23" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O23" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-0.47955333273641254</v>
       </c>
       <c r="P23" s="11">
@@ -4549,8 +4557,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.82733333333333325</v>
       </c>
-      <c r="O24" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O24" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-0.83908138597904913</v>
       </c>
       <c r="P24" s="12">
@@ -4622,8 +4630,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O25" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O25" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P25" s="11">
@@ -4695,8 +4703,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.44370833333333337</v>
       </c>
-      <c r="O26" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O26" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-0.44439853507371585</v>
       </c>
       <c r="P26" s="12">
@@ -4768,8 +4776,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O27" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O27" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P27" s="11">
@@ -4841,8 +4849,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.30613999999999997</v>
       </c>
-      <c r="O28" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O28" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-3.2468805121839694E-2</v>
       </c>
       <c r="P28" s="12">
@@ -4914,8 +4922,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.30613999999999997</v>
       </c>
-      <c r="O29" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O29" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-1</v>
       </c>
       <c r="P29" s="12">
@@ -4989,8 +4997,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O30" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O30" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P30" s="11">
@@ -5062,8 +5070,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O31" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O31" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P31" s="12">
@@ -5135,8 +5143,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.91270000000000007</v>
       </c>
-      <c r="O32" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O32" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-1.6894927139257221E-2</v>
       </c>
       <c r="P32" s="11">
@@ -5208,8 +5216,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O33" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O33" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P33" s="12">
@@ -5281,8 +5289,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.5</v>
       </c>
-      <c r="O34" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O34" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-1</v>
       </c>
       <c r="P34" s="12">
@@ -5355,8 +5363,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.36363333333333336</v>
       </c>
-      <c r="O35" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O35" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-1</v>
       </c>
       <c r="P35" s="12">
@@ -5428,8 +5436,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O36" s="34">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O36" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P36" s="11">
@@ -5501,8 +5509,8 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O37" s="35">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
+      <c r="O37" s="26">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
       <c r="P37" s="12">
@@ -5525,220 +5533,74 @@
       </c>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="25">
+      <c r="A38" s="27">
         <v>201403</v>
       </c>
-      <c r="B38" s="25" t="str">
+      <c r="B38" s="27" t="str">
         <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
-        <v>VALEC30_201403</v>
-      </c>
-      <c r="C38" s="26">
-        <v>41704</v>
-      </c>
-      <c r="D38" s="26">
+        <v>PETRC13_201403</v>
+      </c>
+      <c r="C38" s="28">
+        <v>41710</v>
+      </c>
+      <c r="D38" s="28">
         <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
-        <v>41705</v>
-      </c>
-      <c r="E38" s="27">
+        <v>41711</v>
+      </c>
+      <c r="E38" s="29">
         <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
-        <v>7</v>
-      </c>
-      <c r="F38" s="28">
+        <v>13</v>
+      </c>
+      <c r="F38" s="30">
         <f>MONTH([Data Liquidação])</f>
         <v>3</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="29">
         <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
         <v>2014</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38" s="30" t="s">
+      <c r="I38" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="25">
-        <v>2900</v>
-      </c>
-      <c r="L38" s="31">
-        <v>-886.92</v>
-      </c>
-      <c r="M38" s="29">
+      <c r="K38" s="27">
+        <v>2700</v>
+      </c>
+      <c r="L38" s="33">
+        <v>-907.94</v>
+      </c>
+      <c r="M38" s="31">
         <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
-        <v>0.30583448275862068</v>
-      </c>
-      <c r="N38" s="32">
+        <v>0.33627407407407411</v>
+      </c>
+      <c r="N38" s="34">
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O38" s="36">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="33">
+      <c r="O38" s="35">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="36">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33">
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="T38" s="25" t="str">
+      <c r="T38" s="27" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="U38" s="33">
-        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="A39" s="25">
-        <v>201403</v>
-      </c>
-      <c r="B39" s="25" t="str">
-        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
-        <v>VALEC30_201403</v>
-      </c>
-      <c r="C39" s="26">
-        <v>41705</v>
-      </c>
-      <c r="D39" s="26">
-        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
-        <v>41708</v>
-      </c>
-      <c r="E39" s="27">
-        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
-        <v>10</v>
-      </c>
-      <c r="F39" s="28">
-        <f>MONTH([Data Liquidação])</f>
-        <v>3</v>
-      </c>
-      <c r="G39" s="27">
-        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
-        <v>2014</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K39" s="25">
-        <v>-1500</v>
-      </c>
-      <c r="L39" s="31">
-        <v>898.02</v>
-      </c>
-      <c r="M39" s="29">
-        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
-        <v>0.59867999999999999</v>
-      </c>
-      <c r="N39" s="32">
-        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
-        <v>0.30583448275862068</v>
-      </c>
-      <c r="O39" s="36">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
-        <v>0.9575294276823163</v>
-      </c>
-      <c r="P39" s="33">
-        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
-        <v>439.26827586206895</v>
-      </c>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33">
-        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
-        <v>439.26827586206895</v>
-      </c>
-      <c r="T39" s="25" t="str">
-        <f>IF([Quantidade]=0,"D","N")</f>
-        <v>N</v>
-      </c>
-      <c r="U39" s="33">
-        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" s="25">
-        <v>201403</v>
-      </c>
-      <c r="B40" s="25" t="str">
-        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
-        <v>VALEC30_201403</v>
-      </c>
-      <c r="C40" s="26">
-        <v>41708</v>
-      </c>
-      <c r="D40" s="26">
-        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
-        <v>41709</v>
-      </c>
-      <c r="E40" s="27">
-        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
-        <v>11</v>
-      </c>
-      <c r="F40" s="28">
-        <f>MONTH([Data Liquidação])</f>
-        <v>3</v>
-      </c>
-      <c r="G40" s="27">
-        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
-        <v>2014</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="J40" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K40" s="25">
-        <v>-1400</v>
-      </c>
-      <c r="L40" s="31">
-        <v>1382.37</v>
-      </c>
-      <c r="M40" s="29">
-        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
-        <v>0.98740714285714282</v>
-      </c>
-      <c r="N40" s="32">
-        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
-        <v>0.30583448275862068</v>
-      </c>
-      <c r="O40" s="36">
-        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,Tabela1[[#This Row],[PM Operação]]/Tabela1[[#This Row],[PM Papel]]-1,0)</f>
-        <v>2.2285670796528594</v>
-      </c>
-      <c r="P40" s="33">
-        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
-        <v>954.20172413793102</v>
-      </c>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33">
-        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
-        <v>954.20172413793102</v>
-      </c>
-      <c r="T40" s="25" t="str">
-        <f>IF([Quantidade]=0,"D","N")</f>
-        <v>N</v>
-      </c>
-      <c r="U40" s="33">
+      <c r="U38" s="36">
         <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
         <v>0</v>
       </c>
@@ -5754,10 +5616,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:M15"/>
+  <sheetPr codeName="Plan2"/>
+  <dimension ref="A3:M14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5949,7 +5812,7 @@
         <v>-305.94000000000005</v>
       </c>
       <c r="C10" s="19">
-        <v>-368.48000000000047</v>
+        <v>-1279.6400000000003</v>
       </c>
       <c r="D10" s="19">
         <v>6.7</v>
@@ -5959,7 +5822,7 @@
         <v>-323.08000000000004</v>
       </c>
       <c r="G10" s="19">
-        <v>-368.48</v>
+        <v>-2187.58</v>
       </c>
       <c r="H10" s="19">
         <v>0</v>
@@ -5968,11 +5831,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="19">
-        <v>-674.42000000000041</v>
+        <v>-1585.5800000000004</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="19">
-        <v>-691.56000000000085</v>
+        <v>-2510.6600000000008</v>
       </c>
       <c r="M10" s="19">
         <v>0</v>
@@ -6036,7 +5899,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19">
@@ -6046,7 +5909,7 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19">
-        <v>-496.4</v>
+        <v>-907.94</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="19">
@@ -6057,75 +5920,46 @@
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19">
-        <v>-496.4</v>
+        <v>-907.94</v>
       </c>
       <c r="M13" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="23">
-        <v>3</v>
-      </c>
-      <c r="B14" s="19"/>
+      <c r="A14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="19">
+        <v>-305.94000000000005</v>
+      </c>
       <c r="C14" s="19">
-        <v>911.16</v>
-      </c>
-      <c r="D14" s="19"/>
+        <v>-1279.6400000000003</v>
+      </c>
+      <c r="D14" s="19">
+        <v>6.7</v>
+      </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="19">
+        <v>-323.08000000000004</v>
+      </c>
       <c r="G14" s="19">
-        <v>1407.56</v>
-      </c>
-      <c r="H14" s="19"/>
+        <v>-3443.5</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
       <c r="I14" s="19">
         <v>0</v>
       </c>
       <c r="J14" s="19">
-        <v>911.16</v>
+        <v>-1585.5800000000004</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19">
-        <v>1407.56</v>
+        <v>-3766.5800000000008</v>
       </c>
       <c r="M14" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="19">
-        <v>-305.94000000000005</v>
-      </c>
-      <c r="C15" s="19">
-        <v>-368.48000000000047</v>
-      </c>
-      <c r="D15" s="19">
-        <v>6.7</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19">
-        <v>-323.08000000000004</v>
-      </c>
-      <c r="G15" s="19">
-        <v>-1624.4</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19">
-        <v>-674.42000000000041</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19">
-        <v>-1947.4800000000009</v>
-      </c>
-      <c r="M15" s="19">
         <v>0</v>
       </c>
     </row>
@@ -6137,10 +5971,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B6"/>
+  <sheetPr codeName="Plan3"/>
+  <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6176,10 +6011,18 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="24">
-        <v>700</v>
+      <c r="B7" s="24">
+        <v>3400</v>
       </c>
     </row>
   </sheetData>
@@ -6189,6 +6032,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6201,6 +6045,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/stocks/xpi.xlsx
+++ b/stocks/xpi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="7245"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="9510" windowHeight="3900"/>
   </bookViews>
   <sheets>
     <sheet name="Operações" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="64" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="79">
   <si>
     <t>Mês</t>
   </si>
@@ -161,12 +161,6 @@
     <t>Total * Volume Ação</t>
   </si>
   <si>
-    <t>* Líquido</t>
-  </si>
-  <si>
-    <t>Total * Líquido</t>
-  </si>
-  <si>
     <t>* Base IR</t>
   </si>
   <si>
@@ -186,6 +180,84 @@
   </si>
   <si>
     <t>PETRC13</t>
+  </si>
+  <si>
+    <t>GOLL4</t>
+  </si>
+  <si>
+    <t>MRFG3</t>
+  </si>
+  <si>
+    <t>JBSS3</t>
+  </si>
+  <si>
+    <t>GFSA3</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>KLBN4</t>
+  </si>
+  <si>
+    <t>RSID3</t>
+  </si>
+  <si>
+    <t>MNDL4</t>
+  </si>
+  <si>
+    <t>AGEN11</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>Máx de Trade</t>
+  </si>
+  <si>
+    <t>INEP4</t>
+  </si>
+  <si>
+    <t>INET3</t>
+  </si>
+  <si>
+    <t>* Resultado</t>
+  </si>
+  <si>
+    <t>Total * Resultado</t>
+  </si>
+  <si>
+    <t>FJTA4</t>
+  </si>
+  <si>
+    <t>BEEF3</t>
+  </si>
+  <si>
+    <t>PETRC24</t>
+  </si>
+  <si>
+    <t>VALEC40</t>
+  </si>
+  <si>
+    <t>OGXPC17</t>
+  </si>
+  <si>
+    <t>PETRD24</t>
+  </si>
+  <si>
+    <t>PETRC25</t>
+  </si>
+  <si>
+    <t>VALEC43</t>
+  </si>
+  <si>
+    <t>VALED43</t>
+  </si>
+  <si>
+    <t>OGXPD17</t>
+  </si>
+  <si>
+    <t>BVMFD12</t>
   </si>
 </sst>
 </file>
@@ -250,7 +322,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -277,9 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
@@ -1036,7 +1105,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Engelbert" refreshedDate="41710.442661805559" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="37">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Engelbert" refreshedDate="41711.788971759262" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="82">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -1048,10 +1117,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2013-01-15T00:00:00" maxDate="2014-03-13T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-11-30T00:00:00" maxDate="2014-03-13T00:00:00"/>
     </cacheField>
     <cacheField name="Data Liquidação" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2013-01-16T00:00:00" maxDate="2014-03-14T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-12-05T00:00:00" maxDate="2014-03-14T00:00:00"/>
     </cacheField>
     <cacheField name="Dia" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="31"/>
@@ -1076,8 +1145,8 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2011" maxValue="2014" count="4">
         <n v="2013"/>
         <n v="2014"/>
-        <n v="2011" u="1"/>
-        <n v="2012" u="1"/>
+        <n v="2011"/>
+        <n v="2012"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Tipo" numFmtId="0">
@@ -1106,54 +1175,54 @@
         <s v="AELP3"/>
         <s v="UNIP6"/>
         <s v="PETRC13"/>
+        <s v="GOLL4"/>
+        <s v="MRFG3"/>
+        <s v="JBSS3"/>
+        <s v="GFSA3"/>
+        <s v="KLBN4"/>
+        <s v="RSID3"/>
+        <s v="MNDL4"/>
+        <s v="AGEN11"/>
+        <s v="INEP4"/>
+        <s v="INET3"/>
+        <s v="FJTA4"/>
+        <s v="BEEF3"/>
+        <s v="PETRC24"/>
+        <s v="VALEC40"/>
+        <s v="OGXPC17"/>
+        <s v="PETRD24"/>
+        <s v="PETRC25"/>
+        <s v="VALEC43"/>
+        <s v="VALED43"/>
         <m u="1"/>
-        <s v="BEEF3" u="1"/>
         <s v="PETRF21" u="1"/>
-        <s v="VALEC40" u="1"/>
-        <s v="VALED43" u="1"/>
         <s v="JBS" u="1"/>
         <s v="BBAS3" u="1"/>
-        <s v="FJTA4" u="1"/>
         <s v="BVMF3" u="1"/>
         <s v="OGXP3" u="1"/>
         <s v="VALEE38" u="1"/>
         <s v="PETRG17" u="1"/>
         <s v="PETRE21" u="1"/>
         <s v="VALEE39" u="1"/>
-        <s v="VALEC43" u="1"/>
         <s v="PETRG18" u="1"/>
         <s v="PETRE22" u="1"/>
         <s v="BVMFD12" u="1"/>
-        <s v="INET3" u="1"/>
         <s v="PDGR3" u="1"/>
         <s v="PETRE23" u="1"/>
-        <s v="MRFG3" u="1"/>
-        <s v="RSID3" u="1"/>
         <s v="VALEG40" u="1"/>
-        <s v="KLBN4" u="1"/>
         <s v="VALEG41" u="1"/>
         <s v="OGXPD16" u="1"/>
-        <s v="PETRD24" u="1"/>
-        <s v="INEP4" u="1"/>
-        <s v="GFSA3" u="1"/>
         <s v="VALEH36" u="1"/>
         <s v="OGXPD17" u="1"/>
-        <s v="MNDL4" u="1"/>
         <s v="PETRE19" u="1"/>
         <s v="VALEH37" u="1"/>
         <s v="PETRC14" u="1"/>
-        <s v="PETRC24" u="1"/>
         <s v="PETRH20" u="1"/>
-        <s v="OGXPC17" u="1"/>
-        <s v="PETRC25" u="1"/>
         <s v="VALEE41" u="1"/>
-        <s v="GOLL4" u="1"/>
         <s v="PETRG20" u="1"/>
         <s v="ALLL3" u="1"/>
         <s v="VALEE43" u="1"/>
-        <s v="AGEN11" u="1"/>
         <s v="OGXPF11" u="1"/>
-        <s v="JBSS3" u="1"/>
         <s v="BRKM5" u="1"/>
         <s v="OGXPF12" u="1"/>
         <s v="PETRF20" u="1"/>
@@ -1166,31 +1235,31 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Quantidade" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-2600" maxValue="2700"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-3000" maxValue="3700"/>
     </cacheField>
     <cacheField name="Líquido" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1313.49" maxValue="1548.15"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-2845.43" maxValue="2695.57"/>
     </cacheField>
     <cacheField name="PM Operação" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="9.400599999999999"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="15.8368"/>
     </cacheField>
     <cacheField name="PM Papel" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2.1891500000000002"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13.782299999999999"/>
     </cacheField>
     <cacheField name="% Rent" numFmtId="10">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="1.0150538149914903"/>
     </cacheField>
     <cacheField name="Resultado" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-436.36" maxValue="662.77"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-461.39500000000004" maxValue="662.77"/>
     </cacheField>
     <cacheField name="IRFF" numFmtId="44">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="6.7" maxValue="6.7"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.97" maxValue="6.7"/>
     </cacheField>
     <cacheField name="Outras Bovespa" numFmtId="44">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.1599999999999999" maxValue="3.48"/>
     </cacheField>
     <cacheField name="Base IR" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-436.36" maxValue="670.63"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-461.39500000000004" maxValue="670.63"/>
     </cacheField>
     <cacheField name="N/D" numFmtId="0">
       <sharedItems count="2">
@@ -1199,14 +1268,14 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Volume Ação" numFmtId="44">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="5541.46"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="82">
   <r>
     <n v="201301"/>
     <s v="PETRA20_201301"/>
@@ -2058,11 +2127,1046 @@
     <x v="0"/>
     <n v="0"/>
   </r>
+  <r>
+    <n v="201101"/>
+    <s v="GOLL4_201101"/>
+    <d v="2011-11-30T00:00:00"/>
+    <d v="2011-12-05T00:00:00"/>
+    <n v="5"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="C"/>
+    <n v="100"/>
+    <n v="-1378.23"/>
+    <n v="13.782299999999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="3095.6400000000003"/>
+  </r>
+  <r>
+    <n v="201102"/>
+    <s v="MRFG3_201102"/>
+    <d v="2011-12-06T00:00:00"/>
+    <d v="2011-12-09T00:00:00"/>
+    <n v="9"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="C"/>
+    <n v="100"/>
+    <n v="-861.05"/>
+    <n v="8.6105"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="3095.6400000000003"/>
+  </r>
+  <r>
+    <n v="201101"/>
+    <s v="GOLL4_201101"/>
+    <d v="2011-12-07T00:00:00"/>
+    <d v="2011-12-12T00:00:00"/>
+    <n v="12"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="C"/>
+    <n v="-100"/>
+    <n v="1583.68"/>
+    <n v="15.8368"/>
+    <n v="13.782299999999999"/>
+    <n v="0.14906800751688776"/>
+    <n v="205.4500000000001"/>
+    <m/>
+    <m/>
+    <n v="205.4500000000001"/>
+    <x v="0"/>
+    <n v="3095.6400000000003"/>
+  </r>
+  <r>
+    <n v="201103"/>
+    <s v="JBSS3_201103"/>
+    <d v="2011-12-13T00:00:00"/>
+    <d v="2011-12-16T00:00:00"/>
+    <n v="16"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="C"/>
+    <n v="0"/>
+    <n v="-36.1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="-36.1"/>
+    <m/>
+    <n v="1.1599999999999999"/>
+    <n v="-34.940000000000005"/>
+    <x v="1"/>
+    <n v="3095.6400000000003"/>
+  </r>
+  <r>
+    <n v="201103"/>
+    <s v="JBSS3_201103"/>
+    <d v="2011-12-13T00:00:00"/>
+    <d v="2011-12-16T00:00:00"/>
+    <n v="16"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="C"/>
+    <n v="200"/>
+    <n v="-1146.17"/>
+    <n v="5.7308500000000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="3095.6400000000003"/>
+  </r>
+  <r>
+    <n v="201104"/>
+    <s v="GFSA3_201104"/>
+    <d v="2011-12-20T00:00:00"/>
+    <d v="2011-12-23T00:00:00"/>
+    <n v="23"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="V"/>
+    <n v="-200"/>
+    <n v="837.95"/>
+    <n v="4.1897500000000001"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="3095.6400000000003"/>
+  </r>
+  <r>
+    <n v="201105"/>
+    <s v="KLBN4_201105"/>
+    <d v="2011-12-23T00:00:00"/>
+    <d v="2011-12-28T00:00:00"/>
+    <n v="28"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="C"/>
+    <n v="300"/>
+    <n v="-2374.5700000000002"/>
+    <n v="7.915233333333334"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="3095.6400000000003"/>
+  </r>
+  <r>
+    <n v="201103"/>
+    <s v="JBSS3_201103"/>
+    <d v="2011-12-26T00:00:00"/>
+    <d v="2011-12-29T00:00:00"/>
+    <n v="29"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="C"/>
+    <n v="-100"/>
+    <n v="674.01"/>
+    <n v="6.7401"/>
+    <n v="5.7308500000000002"/>
+    <n v="0.17610825619236237"/>
+    <n v="100.92499999999998"/>
+    <m/>
+    <m/>
+    <n v="100.92499999999998"/>
+    <x v="0"/>
+    <n v="3095.6400000000003"/>
+  </r>
+  <r>
+    <n v="201103"/>
+    <s v="JBSS3_201103"/>
+    <d v="2012-01-02T00:00:00"/>
+    <d v="2012-01-05T00:00:00"/>
+    <n v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="C"/>
+    <n v="-100"/>
+    <n v="567.03"/>
+    <n v="5.6703000000000001"/>
+    <n v="5.7308500000000002"/>
+    <n v="-1.05656229006168E-2"/>
+    <n v="-6.0550000000000104"/>
+    <m/>
+    <m/>
+    <n v="-6.0550000000000104"/>
+    <x v="0"/>
+    <n v="5131.1400000000003"/>
+  </r>
+  <r>
+    <n v="201201"/>
+    <s v="JBSS3_201201"/>
+    <d v="2012-01-03T00:00:00"/>
+    <d v="2012-01-06T00:00:00"/>
+    <n v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="C"/>
+    <n v="200"/>
+    <n v="-1176.1600000000001"/>
+    <n v="5.8808000000000007"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="5131.1400000000003"/>
+  </r>
+  <r>
+    <n v="201201"/>
+    <s v="JBSS3_201201"/>
+    <d v="2012-01-12T00:00:00"/>
+    <d v="2012-01-17T00:00:00"/>
+    <n v="17"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="C"/>
+    <n v="-200"/>
+    <n v="1095.57"/>
+    <n v="5.4778500000000001"/>
+    <n v="5.8808000000000007"/>
+    <n v="-6.8519589171541329E-2"/>
+    <n v="-80.590000000000117"/>
+    <m/>
+    <m/>
+    <n v="-80.590000000000117"/>
+    <x v="0"/>
+    <n v="5131.1400000000003"/>
+  </r>
+  <r>
+    <n v="201202"/>
+    <s v="RSID3_201202"/>
+    <d v="2012-01-12T00:00:00"/>
+    <d v="2012-01-17T00:00:00"/>
+    <n v="17"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="22"/>
+    <s v="V"/>
+    <n v="-300"/>
+    <n v="2695.57"/>
+    <n v="8.9852333333333334"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="5131.1400000000003"/>
+  </r>
+  <r>
+    <n v="201203"/>
+    <s v="MNDL4_201203"/>
+    <d v="2012-01-19T00:00:00"/>
+    <d v="2012-01-24T00:00:00"/>
+    <n v="24"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="23"/>
+    <s v="C"/>
+    <n v="2000"/>
+    <n v="1016.11"/>
+    <n v="0.50805500000000003"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="5131.1400000000003"/>
+  </r>
+  <r>
+    <n v="201102"/>
+    <s v="MRFG3_201102"/>
+    <d v="2012-01-24T00:00:00"/>
+    <d v="2012-01-27T00:00:00"/>
+    <n v="27"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="C"/>
+    <n v="-100"/>
+    <n v="772.97"/>
+    <n v="7.7297000000000002"/>
+    <n v="8.6105"/>
+    <n v="-0.10229371116659891"/>
+    <n v="-88.079999999999984"/>
+    <m/>
+    <m/>
+    <n v="-88.079999999999984"/>
+    <x v="0"/>
+    <n v="5131.1400000000003"/>
+  </r>
+  <r>
+    <n v="201204"/>
+    <s v="AGEN11_201204"/>
+    <d v="2012-01-26T00:00:00"/>
+    <d v="2012-01-31T00:00:00"/>
+    <n v="31"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="C"/>
+    <n v="2300"/>
+    <n v="-1005.42"/>
+    <n v="0.43713913043478259"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="5131.1400000000003"/>
+  </r>
+  <r>
+    <n v="201202"/>
+    <s v="RSID3_201202"/>
+    <d v="2012-01-26T00:00:00"/>
+    <d v="2012-01-31T00:00:00"/>
+    <n v="31"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="22"/>
+    <s v="V"/>
+    <n v="300"/>
+    <n v="-2845.43"/>
+    <n v="9.4847666666666655"/>
+    <n v="8.9852333333333334"/>
+    <n v="-5.266690798930207E-2"/>
+    <n v="-149.85999999999962"/>
+    <m/>
+    <m/>
+    <n v="-149.85999999999962"/>
+    <x v="0"/>
+    <n v="5131.1400000000003"/>
+  </r>
+  <r>
+    <n v="201104"/>
+    <s v="GFSA3_201104"/>
+    <d v="2012-01-31T00:00:00"/>
+    <d v="2012-02-03T00:00:00"/>
+    <n v="3"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="V"/>
+    <n v="200"/>
+    <n v="-968.09"/>
+    <n v="4.8404500000000006"/>
+    <n v="4.1897500000000001"/>
+    <n v="-0.13442965013583452"/>
+    <n v="-130.1400000000001"/>
+    <m/>
+    <m/>
+    <n v="-130.1400000000001"/>
+    <x v="0"/>
+    <n v="3053.8599999999997"/>
+  </r>
+  <r>
+    <n v="201204"/>
+    <s v="AGEN11_201204"/>
+    <d v="2012-02-06T00:00:00"/>
+    <d v="2012-02-09T00:00:00"/>
+    <n v="9"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="C"/>
+    <n v="3700"/>
+    <n v="-1385.33"/>
+    <n v="0.37441351351351349"/>
+    <n v="0.43713913043478259"/>
+    <n v="-0.14349119663316712"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="3053.8599999999997"/>
+  </r>
+  <r>
+    <n v="201205"/>
+    <s v="INEP4_201205"/>
+    <d v="2012-02-06T00:00:00"/>
+    <d v="2012-02-09T00:00:00"/>
+    <n v="9"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="25"/>
+    <s v="C"/>
+    <n v="500"/>
+    <n v="-1201.33"/>
+    <n v="2.40266"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="3053.8599999999997"/>
+  </r>
+  <r>
+    <n v="201105"/>
+    <s v="KLBN4_201105"/>
+    <d v="2012-02-06T00:00:00"/>
+    <d v="2012-02-09T00:00:00"/>
+    <n v="9"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="21"/>
+    <s v="C"/>
+    <n v="-300"/>
+    <n v="2293.66"/>
+    <n v="7.6455333333333328"/>
+    <n v="7.915233333333334"/>
+    <n v="-3.4073537524688779E-2"/>
+    <n v="-80.910000000000352"/>
+    <m/>
+    <m/>
+    <n v="-80.910000000000352"/>
+    <x v="0"/>
+    <n v="3053.8599999999997"/>
+  </r>
+  <r>
+    <n v="201206"/>
+    <s v="INET3_201206"/>
+    <d v="2012-02-09T00:00:00"/>
+    <d v="2012-02-14T00:00:00"/>
+    <n v="14"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="C"/>
+    <n v="3000"/>
+    <n v="-615.99"/>
+    <n v="0.20533000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="3053.8599999999997"/>
+  </r>
+  <r>
+    <n v="201203"/>
+    <s v="MNDL4_201203"/>
+    <d v="2012-02-09T00:00:00"/>
+    <d v="2012-02-14T00:00:00"/>
+    <n v="14"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="23"/>
+    <s v="C"/>
+    <n v="-1600"/>
+    <n v="624.02"/>
+    <n v="0.39001249999999998"/>
+    <n v="0.50805500000000003"/>
+    <n v="-0.23234197084961283"/>
+    <n v="-188.86800000000008"/>
+    <m/>
+    <m/>
+    <n v="-188.86800000000008"/>
+    <x v="0"/>
+    <n v="3053.8599999999997"/>
+  </r>
+  <r>
+    <n v="201203"/>
+    <s v="MNDL4_201203"/>
+    <d v="2012-02-23T00:00:00"/>
+    <d v="2012-02-28T00:00:00"/>
+    <n v="28"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="23"/>
+    <s v="C"/>
+    <n v="-400"/>
+    <n v="136.18"/>
+    <n v="0.34045000000000003"/>
+    <n v="0.50805500000000003"/>
+    <n v="-0.32989538534213814"/>
+    <n v="-67.042000000000002"/>
+    <m/>
+    <m/>
+    <n v="-67.042000000000002"/>
+    <x v="0"/>
+    <n v="3053.8599999999997"/>
+  </r>
+  <r>
+    <n v="201204"/>
+    <s v="AGEN11_201204"/>
+    <d v="2012-02-28T00:00:00"/>
+    <d v="2012-03-02T00:00:00"/>
+    <n v="2"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="C"/>
+    <n v="-3000"/>
+    <n v="794"/>
+    <n v="0.26466666666666666"/>
+    <n v="0.39845833333333336"/>
+    <n v="-0.33577329289971769"/>
+    <n v="-401.37500000000011"/>
+    <m/>
+    <m/>
+    <n v="-401.37500000000011"/>
+    <x v="0"/>
+    <n v="5541.46"/>
+  </r>
+  <r>
+    <n v="201206"/>
+    <s v="INET3_201206"/>
+    <d v="2012-02-28T00:00:00"/>
+    <d v="2012-03-02T00:00:00"/>
+    <n v="2"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="26"/>
+    <s v="C"/>
+    <n v="-3000"/>
+    <n v="494"/>
+    <n v="0.16466666666666666"/>
+    <n v="0.20533000000000001"/>
+    <n v="-0.19803892920339627"/>
+    <n v="-121.99000000000007"/>
+    <m/>
+    <m/>
+    <n v="-121.99000000000007"/>
+    <x v="0"/>
+    <n v="5541.46"/>
+  </r>
+  <r>
+    <n v="201204"/>
+    <s v="AGEN11_201204"/>
+    <d v="2012-02-29T00:00:00"/>
+    <d v="2012-03-05T00:00:00"/>
+    <n v="5"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="24"/>
+    <s v="C"/>
+    <n v="-3000"/>
+    <n v="733.98"/>
+    <n v="0.24466000000000002"/>
+    <n v="0.39845833333333336"/>
+    <n v="-0.38598347798807908"/>
+    <n v="-461.39500000000004"/>
+    <m/>
+    <m/>
+    <n v="-461.39500000000004"/>
+    <x v="0"/>
+    <n v="5541.46"/>
+  </r>
+  <r>
+    <n v="201207"/>
+    <s v="FJTA4_201207"/>
+    <d v="2012-03-02T00:00:00"/>
+    <d v="2012-03-07T00:00:00"/>
+    <n v="7"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="C"/>
+    <n v="500"/>
+    <n v="-1076.1300000000001"/>
+    <n v="2.1522600000000001"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="5541.46"/>
+  </r>
+  <r>
+    <n v="201208"/>
+    <s v="GFSA3_201208"/>
+    <d v="2012-03-02T00:00:00"/>
+    <d v="2012-03-07T00:00:00"/>
+    <n v="7"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="C"/>
+    <n v="200"/>
+    <n v="-1006.12"/>
+    <n v="5.0305999999999997"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="5541.46"/>
+  </r>
+  <r>
+    <n v="201207"/>
+    <s v="FJTA4_201207"/>
+    <d v="2012-03-06T00:00:00"/>
+    <d v="2012-03-09T00:00:00"/>
+    <n v="9"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="27"/>
+    <s v="C"/>
+    <n v="-500"/>
+    <n v="1003.88"/>
+    <n v="2.0077600000000002"/>
+    <n v="2.1522600000000001"/>
+    <n v="-6.7138728592270325E-2"/>
+    <n v="-72.249999999999929"/>
+    <m/>
+    <m/>
+    <n v="-72.249999999999929"/>
+    <x v="0"/>
+    <n v="5541.46"/>
+  </r>
+  <r>
+    <n v="201209"/>
+    <s v="BEEF3_201209"/>
+    <d v="2012-03-08T00:00:00"/>
+    <d v="2012-03-13T00:00:00"/>
+    <n v="13"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="V"/>
+    <n v="-200"/>
+    <n v="1257.8"/>
+    <n v="6.2889999999999997"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="5541.46"/>
+  </r>
+  <r>
+    <n v="201210"/>
+    <s v="PETRC24_201210"/>
+    <d v="2012-03-12T00:00:00"/>
+    <d v="2012-03-13T00:00:00"/>
+    <n v="13"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="C"/>
+    <n v="600"/>
+    <n v="-183.99"/>
+    <n v="0.30665000000000003"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201211"/>
+    <s v="VALEC40_201211"/>
+    <d v="2012-03-12T00:00:00"/>
+    <d v="2012-03-13T00:00:00"/>
+    <n v="13"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="C"/>
+    <n v="400"/>
+    <n v="-175.99"/>
+    <n v="0.439975"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201212"/>
+    <s v="OGXPC17_201212"/>
+    <d v="2012-03-13T00:00:00"/>
+    <d v="2012-03-14T00:00:00"/>
+    <n v="14"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="31"/>
+    <s v="C"/>
+    <n v="0"/>
+    <n v="194.18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="194.18"/>
+    <n v="1.97"/>
+    <n v="1.1599999999999999"/>
+    <n v="197.31"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201210"/>
+    <s v="PETRC24_201210"/>
+    <d v="2012-03-13T00:00:00"/>
+    <d v="2012-03-14T00:00:00"/>
+    <n v="14"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="C"/>
+    <n v="-600"/>
+    <n v="319.85000000000002"/>
+    <n v="0.53308333333333335"/>
+    <n v="0.30665000000000003"/>
+    <n v="0.73840969617913998"/>
+    <n v="135.85999999999999"/>
+    <m/>
+    <m/>
+    <n v="135.85999999999999"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201213"/>
+    <s v="PETRD24_201213"/>
+    <d v="2012-03-13T00:00:00"/>
+    <d v="2012-03-14T00:00:00"/>
+    <n v="14"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="C"/>
+    <n v="200"/>
+    <n v="-176.14"/>
+    <n v="0.88069999999999993"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201211"/>
+    <s v="VALEC40_201211"/>
+    <d v="2012-03-13T00:00:00"/>
+    <d v="2012-03-14T00:00:00"/>
+    <n v="14"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="30"/>
+    <s v="C"/>
+    <n v="-400"/>
+    <n v="303.86"/>
+    <n v="0.75965000000000005"/>
+    <n v="0.439975"/>
+    <n v="0.72657537360077296"/>
+    <n v="127.87000000000002"/>
+    <m/>
+    <m/>
+    <n v="127.87000000000002"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201214"/>
+    <s v="PETRC25_201214"/>
+    <d v="2012-03-14T00:00:00"/>
+    <d v="2012-03-15T00:00:00"/>
+    <n v="15"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="33"/>
+    <s v="C"/>
+    <n v="0"/>
+    <n v="277.23"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="277.23"/>
+    <n v="2.81"/>
+    <n v="1.1599999999999999"/>
+    <n v="281.20000000000005"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201215"/>
+    <s v="VALEC43_201215"/>
+    <d v="2012-03-14T00:00:00"/>
+    <d v="2012-03-15T00:00:00"/>
+    <n v="15"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="34"/>
+    <s v="C"/>
+    <n v="800"/>
+    <n v="-328.19"/>
+    <n v="0.41023749999999998"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201209"/>
+    <s v="BEEF3_201209"/>
+    <d v="2012-03-13T00:00:00"/>
+    <d v="2012-03-16T00:00:00"/>
+    <n v="16"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="V"/>
+    <n v="200"/>
+    <n v="-1326.22"/>
+    <n v="6.6311"/>
+    <n v="6.2889999999999997"/>
+    <n v="-5.1590233897845006E-2"/>
+    <n v="-68.420000000000059"/>
+    <m/>
+    <m/>
+    <n v="-68.420000000000059"/>
+    <x v="0"/>
+    <n v="5541.46"/>
+  </r>
+  <r>
+    <n v="201216"/>
+    <s v="VALED43_201216"/>
+    <d v="2012-03-15T00:00:00"/>
+    <d v="2012-03-16T00:00:00"/>
+    <n v="16"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="35"/>
+    <s v="C"/>
+    <n v="500"/>
+    <n v="-376.24"/>
+    <n v="0.75248000000000004"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201213"/>
+    <s v="PETRD24_201213"/>
+    <d v="2012-03-16T00:00:00"/>
+    <d v="2012-03-19T00:00:00"/>
+    <n v="19"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="32"/>
+    <s v="C"/>
+    <n v="-100"/>
+    <n v="89.97"/>
+    <n v="0.89969999999999994"/>
+    <n v="0.88069999999999993"/>
+    <n v="2.1573748154876782E-2"/>
+    <n v="1.9000000000000017"/>
+    <m/>
+    <m/>
+    <n v="1.9000000000000017"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201215"/>
+    <s v="VALEC43_201215"/>
+    <d v="2012-03-16T00:00:00"/>
+    <d v="2012-03-19T00:00:00"/>
+    <n v="19"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="34"/>
+    <s v="C"/>
+    <n v="-800"/>
+    <n v="151.96"/>
+    <n v="0.18995000000000001"/>
+    <n v="0.41023749999999998"/>
+    <n v="-0.53697553246594953"/>
+    <n v="-176.22999999999996"/>
+    <m/>
+    <m/>
+    <n v="-176.22999999999996"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201216"/>
+    <s v="VALED43_201216"/>
+    <d v="2012-03-16T00:00:00"/>
+    <d v="2012-03-19T00:00:00"/>
+    <n v="19"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="35"/>
+    <s v="C"/>
+    <n v="-500"/>
+    <n v="303.95999999999998"/>
+    <n v="0.6079199999999999"/>
+    <n v="0.75248000000000004"/>
+    <n v="-0.19211141824367439"/>
+    <n v="-72.280000000000072"/>
+    <m/>
+    <m/>
+    <n v="-72.280000000000072"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="201217"/>
+    <s v="BEEF3_201217"/>
+    <d v="2012-03-19T00:00:00"/>
+    <d v="2012-03-22T00:00:00"/>
+    <n v="22"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="V"/>
+    <n v="200"/>
+    <n v="-1406.24"/>
+    <n v="7.0312000000000001"/>
+    <n v="6.2889999999999997"/>
+    <n v="-0.10555808396859712"/>
+    <n v="-148.44000000000008"/>
+    <m/>
+    <m/>
+    <n v="-148.44000000000008"/>
+    <x v="0"/>
+    <n v="5541.46"/>
+  </r>
+  <r>
+    <n v="201217"/>
+    <s v="BEEF3_201217"/>
+    <d v="2012-03-15T00:00:00"/>
+    <d v="2012-03-20T00:00:00"/>
+    <n v="20"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="28"/>
+    <s v="V"/>
+    <n v="-200"/>
+    <n v="1257.8"/>
+    <n v="6.2889999999999997"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="5541.46"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:M14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -2074,9 +3178,9 @@
       <items count="13">
         <item sd="0" x="0"/>
         <item sd="0" x="5"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item sd="0" x="4"/>
         <item sd="0" x="6"/>
         <item sd="0" m="1" x="11"/>
@@ -2089,10 +3193,10 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="4">
-        <item sd="0" m="1" x="2"/>
-        <item sd="0" m="1" x="3"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
         <item sd="0" x="0"/>
-        <item x="1"/>
+        <item sd="0" x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
@@ -2121,71 +3225,71 @@
         <item x="12"/>
         <item x="13"/>
         <item x="11"/>
-        <item m="1" x="58"/>
-        <item m="1" x="38"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="55"/>
+        <item m="1" x="48"/>
+        <item m="1" x="53"/>
+        <item m="1" x="70"/>
+        <item m="1" x="60"/>
+        <item m="1" x="63"/>
+        <item m="1" x="47"/>
+        <item m="1" x="50"/>
+        <item m="1" x="56"/>
+        <item m="1" x="44"/>
+        <item m="1" x="42"/>
+        <item m="1" x="45"/>
         <item m="1" x="64"/>
-        <item m="1" x="46"/>
-        <item m="1" x="41"/>
-        <item m="1" x="39"/>
-        <item m="1" x="49"/>
-        <item m="1" x="62"/>
-        <item m="1" x="45"/>
-        <item m="1" x="35"/>
-        <item m="1" x="24"/>
-        <item m="1" x="18"/>
-        <item m="1" x="53"/>
-        <item m="1" x="20"/>
-        <item m="1" x="44"/>
-        <item m="1" x="55"/>
-        <item m="1" x="31"/>
-        <item m="1" x="56"/>
-        <item m="1" x="21"/>
-        <item m="1" x="17"/>
-        <item m="1" x="48"/>
-        <item m="1" x="34"/>
-        <item m="1" x="43"/>
-        <item m="1" x="70"/>
-        <item m="1" x="57"/>
-        <item m="1" x="61"/>
-        <item m="1" x="33"/>
-        <item m="1" x="37"/>
-        <item m="1" x="50"/>
-        <item m="1" x="29"/>
-        <item m="1" x="27"/>
-        <item m="1" x="30"/>
-        <item m="1" x="63"/>
         <item m="1" x="66"/>
         <item m="1" x="67"/>
-        <item m="1" x="19"/>
-        <item m="1" x="36"/>
-        <item m="1" x="23"/>
+        <item m="1" x="37"/>
+        <item m="1" x="49"/>
+        <item m="1" x="39"/>
         <item m="1" x="65"/>
         <item m="1" x="68"/>
-        <item m="1" x="28"/>
-        <item m="1" x="32"/>
-        <item m="1" x="25"/>
-        <item m="1" x="60"/>
-        <item m="1" x="26"/>
-        <item m="1" x="42"/>
-        <item m="1" x="59"/>
+        <item m="1" x="43"/>
+        <item m="1" x="46"/>
         <item m="1" x="40"/>
-        <item m="1" x="47"/>
+        <item m="1" x="62"/>
+        <item m="1" x="41"/>
+        <item m="1" x="52"/>
+        <item m="1" x="61"/>
         <item m="1" x="51"/>
         <item m="1" x="54"/>
-        <item m="1" x="52"/>
+        <item m="1" x="57"/>
+        <item m="1" x="59"/>
+        <item m="1" x="58"/>
         <item m="1" x="69"/>
-        <item m="1" x="22"/>
+        <item m="1" x="38"/>
         <item x="16"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="165" showAll="0"/>
     <pivotField numFmtId="10" showAll="0" defaultSubtotal="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="44" showAll="0"/>
@@ -2209,15 +3313,18 @@
       <x/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
+    <i>
       <x v="1"/>
     </i>
-    <i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -2225,9 +3332,6 @@
     </i>
     <i r="1">
       <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -2282,7 +3386,7 @@
   <dataFields count="4">
     <dataField name="* Base IR" fld="18" baseField="0" baseItem="0" numFmtId="44"/>
     <dataField name="* IRFF" fld="16" baseField="0" baseItem="0" numFmtId="44"/>
-    <dataField name="* Líquido" fld="11" baseField="0" baseItem="0" numFmtId="44"/>
+    <dataField name="* Resultado" fld="15" baseField="0" baseItem="0" numFmtId="44"/>
     <dataField name="* Volume Ação" fld="20" subtotal="max" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2290,10 +3394,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="21">
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
@@ -2304,53 +3408,53 @@
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="72">
         <item x="14"/>
+        <item x="24"/>
         <item m="1" x="62"/>
-        <item m="1" x="60"/>
-        <item m="1" x="23"/>
-        <item m="1" x="18"/>
+        <item m="1" x="39"/>
+        <item x="28"/>
         <item m="1" x="65"/>
-        <item m="1" x="25"/>
-        <item m="1" x="34"/>
-        <item m="1" x="24"/>
-        <item m="1" x="46"/>
-        <item m="1" x="58"/>
-        <item m="1" x="45"/>
-        <item m="1" x="35"/>
+        <item m="1" x="40"/>
+        <item m="1" x="48"/>
+        <item x="27"/>
+        <item x="20"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item m="1" x="41"/>
+        <item x="31"/>
+        <item m="1" x="53"/>
+        <item m="1" x="55"/>
         <item m="1" x="64"/>
-        <item m="1" x="41"/>
+        <item m="1" x="66"/>
         <item m="1" x="49"/>
-        <item m="1" x="38"/>
-        <item m="1" x="26"/>
-        <item m="1" x="55"/>
-        <item m="1" x="43"/>
-        <item m="1" x="48"/>
-        <item m="1" x="63"/>
-        <item m="1" x="66"/>
-        <item m="1" x="36"/>
         <item x="0"/>
-        <item m="1" x="53"/>
+        <item x="29"/>
+        <item x="33"/>
+        <item x="32"/>
         <item m="1" x="56"/>
         <item m="1" x="44"/>
+        <item m="1" x="47"/>
         <item m="1" x="50"/>
-        <item m="1" x="29"/>
-        <item m="1" x="33"/>
+        <item m="1" x="67"/>
         <item m="1" x="37"/>
-        <item m="1" x="67"/>
-        <item m="1" x="19"/>
-        <item m="1" x="28"/>
-        <item m="1" x="32"/>
+        <item m="1" x="43"/>
+        <item m="1" x="46"/>
         <item x="2"/>
         <item x="9"/>
-        <item m="1" x="39"/>
+        <item x="22"/>
         <item x="15"/>
-        <item m="1" x="20"/>
-        <item m="1" x="31"/>
+        <item x="30"/>
+        <item x="34"/>
         <item m="1" x="70"/>
-        <item m="1" x="21"/>
-        <item m="1" x="27"/>
-        <item m="1" x="30"/>
-        <item m="1" x="57"/>
-        <item m="1" x="61"/>
+        <item x="35"/>
+        <item m="1" x="42"/>
+        <item m="1" x="45"/>
+        <item m="1" x="60"/>
+        <item m="1" x="63"/>
         <item m="1" x="68"/>
         <item x="1"/>
         <item x="3"/>
@@ -2363,16 +3467,16 @@
         <item x="12"/>
         <item x="13"/>
         <item x="11"/>
-        <item m="1" x="17"/>
-        <item m="1" x="42"/>
-        <item m="1" x="59"/>
-        <item m="1" x="40"/>
-        <item m="1" x="47"/>
+        <item m="1" x="36"/>
+        <item m="1" x="52"/>
+        <item m="1" x="61"/>
         <item m="1" x="51"/>
         <item m="1" x="54"/>
-        <item m="1" x="52"/>
+        <item m="1" x="57"/>
+        <item m="1" x="59"/>
+        <item m="1" x="58"/>
         <item m="1" x="69"/>
-        <item m="1" x="22"/>
+        <item m="1" x="38"/>
         <item x="16"/>
         <item t="default"/>
       </items>
@@ -2393,9 +3497,18 @@
   <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="7">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="27"/>
     </i>
     <i>
       <x v="39"/>
@@ -2407,11 +3520,20 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
+  <dataFields count="2">
     <dataField name="Soma de Quantidade" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Máx de Trade" fld="0" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
@@ -2429,8 +3551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:U38" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:U38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:U86" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:U86">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -2790,16 +3912,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="9" hidden="1" customWidth="1"/>
@@ -2812,11 +3934,11 @@
     <col min="12" max="12" width="11.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="1"/>
@@ -2865,8 +3987,8 @@
       <c r="N1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="25" t="s">
-        <v>53</v>
+      <c r="O1" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
         <v>9</v>
@@ -2937,7 +4059,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -3010,7 +4132,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.30320000000000003</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-0.84449208443271773</v>
       </c>
@@ -3083,7 +4205,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -3156,7 +4278,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.34764166666666668</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>1.0150538149914903</v>
       </c>
@@ -3229,7 +4351,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -3304,7 +4426,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -3381,7 +4503,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -3456,7 +4578,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -3529,7 +4651,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.64834444444444439</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0.15903754862812991</v>
       </c>
@@ -3602,7 +4724,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -3675,7 +4797,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>2.1891500000000002</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0.17865381540780656</v>
       </c>
@@ -3748,7 +4870,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -3823,7 +4945,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -3898,7 +5020,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -3971,7 +5093,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.99562727272727281</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-4.4421515901350461E-2</v>
       </c>
@@ -4044,7 +5166,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.99562727272727281</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-1</v>
       </c>
@@ -4119,7 +5241,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.98615000000000008</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-5.9488197246144958E-2</v>
       </c>
@@ -4192,7 +5314,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -4265,7 +5387,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -4338,7 +5460,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.27641923076923081</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-0.29936412083095632</v>
       </c>
@@ -4411,7 +5533,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -4484,7 +5606,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.86865555555555551</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-0.47955333273641254</v>
       </c>
@@ -4557,7 +5679,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.82733333333333325</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-0.83908138597904913</v>
       </c>
@@ -4630,7 +5752,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -4703,7 +5825,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.44370833333333337</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-0.44439853507371585</v>
       </c>
@@ -4776,7 +5898,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -4849,7 +5971,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.30613999999999997</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-3.2468805121839694E-2</v>
       </c>
@@ -4922,7 +6044,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.30613999999999997</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-1</v>
       </c>
@@ -4997,7 +6119,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -5070,7 +6192,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -5143,7 +6265,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.91270000000000007</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-1.6894927139257221E-2</v>
       </c>
@@ -5216,7 +6338,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O33" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -5289,7 +6411,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.5</v>
       </c>
-      <c r="O34" s="26">
+      <c r="O34" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-1</v>
       </c>
@@ -5363,7 +6485,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0.36363333333333336</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>-1</v>
       </c>
@@ -5436,7 +6558,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O36" s="25">
+      <c r="O36" s="24">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -5509,7 +6631,7 @@
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37" s="25">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
@@ -5533,74 +6655,3589 @@
       </c>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="27">
+      <c r="A38" s="26">
         <v>201403</v>
       </c>
-      <c r="B38" s="27" t="str">
+      <c r="B38" s="26" t="str">
         <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
         <v>PETRC13_201403</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="27">
         <v>41710</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="27">
         <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
         <v>41711</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="28">
         <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
         <v>13</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="29">
         <f>MONTH([Data Liquidação])</f>
         <v>3</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="28">
         <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
         <v>2014</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="32" t="s">
+      <c r="I38" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J38" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="26">
         <v>2700</v>
       </c>
-      <c r="L38" s="33">
+      <c r="L38" s="32">
         <v>-907.94</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="30">
         <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
         <v>0.33627407407407411</v>
       </c>
-      <c r="N38" s="34">
+      <c r="N38" s="33">
         <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
         <v>0</v>
       </c>
-      <c r="O38" s="35">
+      <c r="O38" s="34">
         <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
         <v>0</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="35">
         <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36">
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35">
         <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
         <v>0</v>
       </c>
-      <c r="T38" s="27" t="str">
+      <c r="T38" s="26" t="str">
         <f>IF([Quantidade]=0,"D","N")</f>
         <v>N</v>
       </c>
-      <c r="U38" s="36">
+      <c r="U38" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="26">
+        <v>201101</v>
+      </c>
+      <c r="B39" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>GOLL4_201101</v>
+      </c>
+      <c r="C39" s="27">
+        <v>40877</v>
+      </c>
+      <c r="D39" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40882</v>
+      </c>
+      <c r="E39" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>5</v>
+      </c>
+      <c r="F39" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>12</v>
+      </c>
+      <c r="G39" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2011</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="26">
+        <v>100</v>
+      </c>
+      <c r="L39" s="32">
+        <v>-1378.23</v>
+      </c>
+      <c r="M39" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>13.782299999999999</v>
+      </c>
+      <c r="N39" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U39" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3095.6400000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="26">
+        <v>201102</v>
+      </c>
+      <c r="B40" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>MRFG3_201102</v>
+      </c>
+      <c r="C40" s="27">
+        <v>40883</v>
+      </c>
+      <c r="D40" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40886</v>
+      </c>
+      <c r="E40" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>9</v>
+      </c>
+      <c r="F40" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>12</v>
+      </c>
+      <c r="G40" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2011</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" s="26">
+        <v>100</v>
+      </c>
+      <c r="L40" s="32">
+        <v>-861.05</v>
+      </c>
+      <c r="M40" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>8.6105</v>
+      </c>
+      <c r="N40" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U40" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3095.6400000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="26">
+        <v>201101</v>
+      </c>
+      <c r="B41" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>GOLL4_201101</v>
+      </c>
+      <c r="C41" s="27">
+        <v>40884</v>
+      </c>
+      <c r="D41" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40889</v>
+      </c>
+      <c r="E41" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>12</v>
+      </c>
+      <c r="F41" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>12</v>
+      </c>
+      <c r="G41" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2011</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="26">
+        <v>-100</v>
+      </c>
+      <c r="L41" s="32">
+        <v>1583.68</v>
+      </c>
+      <c r="M41" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>15.8368</v>
+      </c>
+      <c r="N41" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>13.782299999999999</v>
+      </c>
+      <c r="O41" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0.14906800751688776</v>
+      </c>
+      <c r="P41" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>205.4500000000001</v>
+      </c>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>205.4500000000001</v>
+      </c>
+      <c r="T41" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U41" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3095.6400000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="26">
+        <v>201103</v>
+      </c>
+      <c r="B42" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>JBSS3_201103</v>
+      </c>
+      <c r="C42" s="27">
+        <v>40890</v>
+      </c>
+      <c r="D42" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40893</v>
+      </c>
+      <c r="E42" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>16</v>
+      </c>
+      <c r="F42" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>12</v>
+      </c>
+      <c r="G42" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2011</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="26">
+        <v>0</v>
+      </c>
+      <c r="L42" s="32">
+        <v>-36.1</v>
+      </c>
+      <c r="M42" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-36.1</v>
+      </c>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S42" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-34.940000000000005</v>
+      </c>
+      <c r="T42" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>D</v>
+      </c>
+      <c r="U42" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3095.6400000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="26">
+        <v>201103</v>
+      </c>
+      <c r="B43" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>JBSS3_201103</v>
+      </c>
+      <c r="C43" s="27">
+        <v>40890</v>
+      </c>
+      <c r="D43" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40893</v>
+      </c>
+      <c r="E43" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>16</v>
+      </c>
+      <c r="F43" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>12</v>
+      </c>
+      <c r="G43" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2011</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="26">
+        <v>200</v>
+      </c>
+      <c r="L43" s="32">
+        <v>-1146.17</v>
+      </c>
+      <c r="M43" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>5.7308500000000002</v>
+      </c>
+      <c r="N43" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U43" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3095.6400000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="26">
+        <v>201104</v>
+      </c>
+      <c r="B44" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>GFSA3_201104</v>
+      </c>
+      <c r="C44" s="27">
+        <v>40897</v>
+      </c>
+      <c r="D44" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40900</v>
+      </c>
+      <c r="E44" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>23</v>
+      </c>
+      <c r="F44" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>12</v>
+      </c>
+      <c r="G44" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2011</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="26">
+        <v>-200</v>
+      </c>
+      <c r="L44" s="32">
+        <v>837.95</v>
+      </c>
+      <c r="M44" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>4.1897500000000001</v>
+      </c>
+      <c r="N44" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U44" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3095.6400000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="26">
+        <v>201105</v>
+      </c>
+      <c r="B45" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>KLBN4_201105</v>
+      </c>
+      <c r="C45" s="27">
+        <v>40900</v>
+      </c>
+      <c r="D45" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40905</v>
+      </c>
+      <c r="E45" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>28</v>
+      </c>
+      <c r="F45" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>12</v>
+      </c>
+      <c r="G45" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2011</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="26">
+        <v>300</v>
+      </c>
+      <c r="L45" s="32">
+        <v>-2374.5700000000002</v>
+      </c>
+      <c r="M45" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>7.915233333333334</v>
+      </c>
+      <c r="N45" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U45" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3095.6400000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="26">
+        <v>201103</v>
+      </c>
+      <c r="B46" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>JBSS3_201103</v>
+      </c>
+      <c r="C46" s="27">
+        <v>40903</v>
+      </c>
+      <c r="D46" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40906</v>
+      </c>
+      <c r="E46" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>29</v>
+      </c>
+      <c r="F46" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>12</v>
+      </c>
+      <c r="G46" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2011</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="26">
+        <v>-100</v>
+      </c>
+      <c r="L46" s="32">
+        <v>674.01</v>
+      </c>
+      <c r="M46" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>6.7401</v>
+      </c>
+      <c r="N46" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>5.7308500000000002</v>
+      </c>
+      <c r="O46" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0.17610825619236237</v>
+      </c>
+      <c r="P46" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>100.92499999999998</v>
+      </c>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>100.92499999999998</v>
+      </c>
+      <c r="T46" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U46" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3095.6400000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="26">
+        <v>201103</v>
+      </c>
+      <c r="B47" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>JBSS3_201103</v>
+      </c>
+      <c r="C47" s="27">
+        <v>40910</v>
+      </c>
+      <c r="D47" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40913</v>
+      </c>
+      <c r="E47" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>5</v>
+      </c>
+      <c r="F47" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>1</v>
+      </c>
+      <c r="G47" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="26">
+        <v>-100</v>
+      </c>
+      <c r="L47" s="32">
+        <v>567.03</v>
+      </c>
+      <c r="M47" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>5.6703000000000001</v>
+      </c>
+      <c r="N47" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>5.7308500000000002</v>
+      </c>
+      <c r="O47" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-1.05656229006168E-2</v>
+      </c>
+      <c r="P47" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-6.0550000000000104</v>
+      </c>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-6.0550000000000104</v>
+      </c>
+      <c r="T47" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U47" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>5131.1400000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="26">
+        <v>201201</v>
+      </c>
+      <c r="B48" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>JBSS3_201201</v>
+      </c>
+      <c r="C48" s="27">
+        <v>40911</v>
+      </c>
+      <c r="D48" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40914</v>
+      </c>
+      <c r="E48" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>6</v>
+      </c>
+      <c r="F48" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="26">
+        <v>200</v>
+      </c>
+      <c r="L48" s="32">
+        <v>-1176.1600000000001</v>
+      </c>
+      <c r="M48" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>5.8808000000000007</v>
+      </c>
+      <c r="N48" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U48" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>5131.1400000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="26">
+        <v>201201</v>
+      </c>
+      <c r="B49" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>JBSS3_201201</v>
+      </c>
+      <c r="C49" s="27">
+        <v>40920</v>
+      </c>
+      <c r="D49" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40925</v>
+      </c>
+      <c r="E49" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>17</v>
+      </c>
+      <c r="F49" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="26">
+        <v>-200</v>
+      </c>
+      <c r="L49" s="32">
+        <v>1095.57</v>
+      </c>
+      <c r="M49" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>5.4778500000000001</v>
+      </c>
+      <c r="N49" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>5.8808000000000007</v>
+      </c>
+      <c r="O49" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-6.8519589171541329E-2</v>
+      </c>
+      <c r="P49" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-80.590000000000117</v>
+      </c>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-80.590000000000117</v>
+      </c>
+      <c r="T49" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U49" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>5131.1400000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="26">
+        <v>201202</v>
+      </c>
+      <c r="B50" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>RSID3_201202</v>
+      </c>
+      <c r="C50" s="27">
+        <v>40920</v>
+      </c>
+      <c r="D50" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40925</v>
+      </c>
+      <c r="E50" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>17</v>
+      </c>
+      <c r="F50" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="26">
+        <v>-300</v>
+      </c>
+      <c r="L50" s="32">
+        <v>2695.57</v>
+      </c>
+      <c r="M50" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>8.9852333333333334</v>
+      </c>
+      <c r="N50" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U50" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>5131.1400000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="26">
+        <v>201203</v>
+      </c>
+      <c r="B51" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>MNDL4_201203</v>
+      </c>
+      <c r="C51" s="27">
+        <v>40927</v>
+      </c>
+      <c r="D51" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40932</v>
+      </c>
+      <c r="E51" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>24</v>
+      </c>
+      <c r="F51" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="26">
+        <v>2000</v>
+      </c>
+      <c r="L51" s="32">
+        <v>1016.11</v>
+      </c>
+      <c r="M51" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.50805500000000003</v>
+      </c>
+      <c r="N51" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U51" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>5131.1400000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="26">
+        <v>201102</v>
+      </c>
+      <c r="B52" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>MRFG3_201102</v>
+      </c>
+      <c r="C52" s="27">
+        <v>40932</v>
+      </c>
+      <c r="D52" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40935</v>
+      </c>
+      <c r="E52" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>27</v>
+      </c>
+      <c r="F52" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52" s="26">
+        <v>-100</v>
+      </c>
+      <c r="L52" s="32">
+        <v>772.97</v>
+      </c>
+      <c r="M52" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>7.7297000000000002</v>
+      </c>
+      <c r="N52" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>8.6105</v>
+      </c>
+      <c r="O52" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-0.10229371116659891</v>
+      </c>
+      <c r="P52" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-88.079999999999984</v>
+      </c>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-88.079999999999984</v>
+      </c>
+      <c r="T52" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U52" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>5131.1400000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="26">
+        <v>201204</v>
+      </c>
+      <c r="B53" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>AGEN11_201204</v>
+      </c>
+      <c r="C53" s="27">
+        <v>40934</v>
+      </c>
+      <c r="D53" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40939</v>
+      </c>
+      <c r="E53" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>31</v>
+      </c>
+      <c r="F53" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="26">
+        <v>2300</v>
+      </c>
+      <c r="L53" s="32">
+        <v>-1005.42</v>
+      </c>
+      <c r="M53" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.43713913043478259</v>
+      </c>
+      <c r="N53" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U53" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>5131.1400000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="26">
+        <v>201202</v>
+      </c>
+      <c r="B54" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>RSID3_201202</v>
+      </c>
+      <c r="C54" s="27">
+        <v>40934</v>
+      </c>
+      <c r="D54" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40939</v>
+      </c>
+      <c r="E54" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>31</v>
+      </c>
+      <c r="F54" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="26">
+        <v>300</v>
+      </c>
+      <c r="L54" s="32">
+        <v>-2845.43</v>
+      </c>
+      <c r="M54" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>9.4847666666666655</v>
+      </c>
+      <c r="N54" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>8.9852333333333334</v>
+      </c>
+      <c r="O54" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-5.266690798930207E-2</v>
+      </c>
+      <c r="P54" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-149.85999999999962</v>
+      </c>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-149.85999999999962</v>
+      </c>
+      <c r="T54" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U54" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>5131.1400000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="26">
+        <v>201104</v>
+      </c>
+      <c r="B55" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>GFSA3_201104</v>
+      </c>
+      <c r="C55" s="27">
+        <v>40939</v>
+      </c>
+      <c r="D55" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40942</v>
+      </c>
+      <c r="E55" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>3</v>
+      </c>
+      <c r="F55" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>2</v>
+      </c>
+      <c r="G55" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="26">
+        <v>200</v>
+      </c>
+      <c r="L55" s="32">
+        <v>-968.09</v>
+      </c>
+      <c r="M55" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>4.8404500000000006</v>
+      </c>
+      <c r="N55" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>4.1897500000000001</v>
+      </c>
+      <c r="O55" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-0.13442965013583452</v>
+      </c>
+      <c r="P55" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-130.1400000000001</v>
+      </c>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-130.1400000000001</v>
+      </c>
+      <c r="T55" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U55" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3053.8599999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="26">
+        <v>201204</v>
+      </c>
+      <c r="B56" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>AGEN11_201204</v>
+      </c>
+      <c r="C56" s="27">
+        <v>40945</v>
+      </c>
+      <c r="D56" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40948</v>
+      </c>
+      <c r="E56" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>9</v>
+      </c>
+      <c r="F56" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>2</v>
+      </c>
+      <c r="G56" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" s="26">
+        <v>3700</v>
+      </c>
+      <c r="L56" s="32">
+        <v>-1385.33</v>
+      </c>
+      <c r="M56" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.37441351351351349</v>
+      </c>
+      <c r="N56" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.43713913043478259</v>
+      </c>
+      <c r="O56" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-0.14349119663316712</v>
+      </c>
+      <c r="P56" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T56" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U56" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3053.8599999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="26">
+        <v>201205</v>
+      </c>
+      <c r="B57" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>INEP4_201205</v>
+      </c>
+      <c r="C57" s="27">
+        <v>40945</v>
+      </c>
+      <c r="D57" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40948</v>
+      </c>
+      <c r="E57" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>9</v>
+      </c>
+      <c r="F57" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>2</v>
+      </c>
+      <c r="G57" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J57" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" s="26">
+        <v>500</v>
+      </c>
+      <c r="L57" s="32">
+        <v>-1201.33</v>
+      </c>
+      <c r="M57" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>2.40266</v>
+      </c>
+      <c r="N57" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T57" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U57" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3053.8599999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="26">
+        <v>201105</v>
+      </c>
+      <c r="B58" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>KLBN4_201105</v>
+      </c>
+      <c r="C58" s="27">
+        <v>40945</v>
+      </c>
+      <c r="D58" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40948</v>
+      </c>
+      <c r="E58" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>9</v>
+      </c>
+      <c r="F58" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>2</v>
+      </c>
+      <c r="G58" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" s="26">
+        <v>-300</v>
+      </c>
+      <c r="L58" s="32">
+        <v>2293.66</v>
+      </c>
+      <c r="M58" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>7.6455333333333328</v>
+      </c>
+      <c r="N58" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>7.915233333333334</v>
+      </c>
+      <c r="O58" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-3.4073537524688779E-2</v>
+      </c>
+      <c r="P58" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-80.910000000000352</v>
+      </c>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-80.910000000000352</v>
+      </c>
+      <c r="T58" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U58" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3053.8599999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="26">
+        <v>201206</v>
+      </c>
+      <c r="B59" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>INET3_201206</v>
+      </c>
+      <c r="C59" s="27">
+        <v>40948</v>
+      </c>
+      <c r="D59" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40953</v>
+      </c>
+      <c r="E59" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>14</v>
+      </c>
+      <c r="F59" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>2</v>
+      </c>
+      <c r="G59" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J59" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" s="26">
+        <v>3000</v>
+      </c>
+      <c r="L59" s="32">
+        <v>-615.99</v>
+      </c>
+      <c r="M59" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.20533000000000001</v>
+      </c>
+      <c r="N59" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U59" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3053.8599999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="26">
+        <v>201203</v>
+      </c>
+      <c r="B60" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>MNDL4_201203</v>
+      </c>
+      <c r="C60" s="27">
+        <v>40948</v>
+      </c>
+      <c r="D60" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40953</v>
+      </c>
+      <c r="E60" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>14</v>
+      </c>
+      <c r="F60" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>2</v>
+      </c>
+      <c r="G60" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" s="26">
+        <v>-1600</v>
+      </c>
+      <c r="L60" s="32">
+        <v>624.02</v>
+      </c>
+      <c r="M60" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.39001249999999998</v>
+      </c>
+      <c r="N60" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.50805500000000003</v>
+      </c>
+      <c r="O60" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-0.23234197084961283</v>
+      </c>
+      <c r="P60" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-188.86800000000008</v>
+      </c>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-188.86800000000008</v>
+      </c>
+      <c r="T60" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U60" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3053.8599999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="26">
+        <v>201203</v>
+      </c>
+      <c r="B61" s="26" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>MNDL4_201203</v>
+      </c>
+      <c r="C61" s="27">
+        <v>40962</v>
+      </c>
+      <c r="D61" s="27">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40967</v>
+      </c>
+      <c r="E61" s="28">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>28</v>
+      </c>
+      <c r="F61" s="29">
+        <f>MONTH([Data Liquidação])</f>
+        <v>2</v>
+      </c>
+      <c r="G61" s="28">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61" s="26">
+        <v>-400</v>
+      </c>
+      <c r="L61" s="32">
+        <v>136.18</v>
+      </c>
+      <c r="M61" s="30">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.34045000000000003</v>
+      </c>
+      <c r="N61" s="33">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.50805500000000003</v>
+      </c>
+      <c r="O61" s="34">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-0.32989538534213814</v>
+      </c>
+      <c r="P61" s="35">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-67.042000000000002</v>
+      </c>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-67.042000000000002</v>
+      </c>
+      <c r="T61" s="26" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U61" s="35">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>3053.8599999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="10">
+        <v>201204</v>
+      </c>
+      <c r="B62" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>AGEN11_201204</v>
+      </c>
+      <c r="C62" s="4">
+        <v>40967</v>
+      </c>
+      <c r="D62" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40970</v>
+      </c>
+      <c r="E62" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2</v>
+      </c>
+      <c r="F62" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G62" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K62" s="10">
+        <v>-3000</v>
+      </c>
+      <c r="L62" s="6">
+        <v>794</v>
+      </c>
+      <c r="M62" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.26466666666666666</v>
+      </c>
+      <c r="N62" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.39845833333333336</v>
+      </c>
+      <c r="O62" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-0.33577329289971769</v>
+      </c>
+      <c r="P62" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-401.37500000000011</v>
+      </c>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-401.37500000000011</v>
+      </c>
+      <c r="T62" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U62" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>6473.37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="10">
+        <v>201206</v>
+      </c>
+      <c r="B63" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>INET3_201206</v>
+      </c>
+      <c r="C63" s="4">
+        <v>40967</v>
+      </c>
+      <c r="D63" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40970</v>
+      </c>
+      <c r="E63" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2</v>
+      </c>
+      <c r="F63" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G63" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K63" s="10">
+        <v>-3000</v>
+      </c>
+      <c r="L63" s="6">
+        <v>494</v>
+      </c>
+      <c r="M63" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.16466666666666666</v>
+      </c>
+      <c r="N63" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.20533000000000001</v>
+      </c>
+      <c r="O63" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-0.19803892920339627</v>
+      </c>
+      <c r="P63" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-121.99000000000007</v>
+      </c>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-121.99000000000007</v>
+      </c>
+      <c r="T63" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U63" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>6473.37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="10">
+        <v>201204</v>
+      </c>
+      <c r="B64" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>AGEN11_201204</v>
+      </c>
+      <c r="C64" s="4">
+        <v>40968</v>
+      </c>
+      <c r="D64" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40973</v>
+      </c>
+      <c r="E64" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>5</v>
+      </c>
+      <c r="F64" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G64" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J64" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K64" s="10">
+        <v>-3000</v>
+      </c>
+      <c r="L64" s="6">
+        <v>733.98</v>
+      </c>
+      <c r="M64" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.24466000000000002</v>
+      </c>
+      <c r="N64" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.39845833333333336</v>
+      </c>
+      <c r="O64" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-0.38598347798807908</v>
+      </c>
+      <c r="P64" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-461.39500000000004</v>
+      </c>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-461.39500000000004</v>
+      </c>
+      <c r="T64" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U64" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>6473.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="10">
+        <v>201207</v>
+      </c>
+      <c r="B65" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>FJTA4_201207</v>
+      </c>
+      <c r="C65" s="4">
+        <v>40970</v>
+      </c>
+      <c r="D65" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40975</v>
+      </c>
+      <c r="E65" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>7</v>
+      </c>
+      <c r="F65" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G65" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65" s="10">
+        <v>500</v>
+      </c>
+      <c r="L65" s="6">
+        <v>-1076.1300000000001</v>
+      </c>
+      <c r="M65" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>2.1522600000000001</v>
+      </c>
+      <c r="N65" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T65" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U65" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>6473.37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" s="10">
+        <v>201208</v>
+      </c>
+      <c r="B66" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>GFSA3_201208</v>
+      </c>
+      <c r="C66" s="4">
+        <v>40970</v>
+      </c>
+      <c r="D66" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40975</v>
+      </c>
+      <c r="E66" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>7</v>
+      </c>
+      <c r="F66" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G66" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66" s="10">
+        <v>200</v>
+      </c>
+      <c r="L66" s="6">
+        <v>-1006.12</v>
+      </c>
+      <c r="M66" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>5.0305999999999997</v>
+      </c>
+      <c r="N66" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T66" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U66" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>6473.37</v>
+      </c>
+      <c r="W66" s="11"/>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="10">
+        <v>201207</v>
+      </c>
+      <c r="B67" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>FJTA4_201207</v>
+      </c>
+      <c r="C67" s="4">
+        <v>40974</v>
+      </c>
+      <c r="D67" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40977</v>
+      </c>
+      <c r="E67" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>9</v>
+      </c>
+      <c r="F67" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G67" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67" s="10">
+        <v>-500</v>
+      </c>
+      <c r="L67" s="6">
+        <v>1003.88</v>
+      </c>
+      <c r="M67" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>2.0077600000000002</v>
+      </c>
+      <c r="N67" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>2.1522600000000001</v>
+      </c>
+      <c r="O67" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-6.7138728592270325E-2</v>
+      </c>
+      <c r="P67" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-72.249999999999929</v>
+      </c>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-72.249999999999929</v>
+      </c>
+      <c r="T67" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U67" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>6473.37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" s="10">
+        <v>201209</v>
+      </c>
+      <c r="B68" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>BEEF3_201209</v>
+      </c>
+      <c r="C68" s="4">
+        <v>40976</v>
+      </c>
+      <c r="D68" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40981</v>
+      </c>
+      <c r="E68" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>13</v>
+      </c>
+      <c r="F68" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G68" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" s="10">
+        <v>-200</v>
+      </c>
+      <c r="L68" s="6">
+        <v>1257.8</v>
+      </c>
+      <c r="M68" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>6.2889999999999997</v>
+      </c>
+      <c r="N68" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U68" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>6473.37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" s="10">
+        <v>201210</v>
+      </c>
+      <c r="B69" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>PETRC24_201210</v>
+      </c>
+      <c r="C69" s="4">
+        <v>40980</v>
+      </c>
+      <c r="D69" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40981</v>
+      </c>
+      <c r="E69" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>13</v>
+      </c>
+      <c r="F69" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G69" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" s="10">
+        <v>600</v>
+      </c>
+      <c r="L69" s="6">
+        <v>-183.99</v>
+      </c>
+      <c r="M69" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.30665000000000003</v>
+      </c>
+      <c r="N69" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T69" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U69" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" s="10">
+        <v>201211</v>
+      </c>
+      <c r="B70" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>VALEC40_201211</v>
+      </c>
+      <c r="C70" s="4">
+        <v>40980</v>
+      </c>
+      <c r="D70" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40981</v>
+      </c>
+      <c r="E70" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>13</v>
+      </c>
+      <c r="F70" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G70" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" s="10">
+        <v>400</v>
+      </c>
+      <c r="L70" s="6">
+        <v>-175.99</v>
+      </c>
+      <c r="M70" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.439975</v>
+      </c>
+      <c r="N70" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U70" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="10">
+        <v>201212</v>
+      </c>
+      <c r="B71" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>OGXPC17_201212</v>
+      </c>
+      <c r="C71" s="4">
+        <v>40981</v>
+      </c>
+      <c r="D71" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40982</v>
+      </c>
+      <c r="E71" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>14</v>
+      </c>
+      <c r="F71" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G71" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="10">
+        <v>0</v>
+      </c>
+      <c r="L71" s="6">
+        <v>194.18</v>
+      </c>
+      <c r="M71" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>194.18</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>1.97</v>
+      </c>
+      <c r="R71" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S71" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>197.31</v>
+      </c>
+      <c r="T71" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>D</v>
+      </c>
+      <c r="U71" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="10">
+        <v>201210</v>
+      </c>
+      <c r="B72" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>PETRC24_201210</v>
+      </c>
+      <c r="C72" s="4">
+        <v>40981</v>
+      </c>
+      <c r="D72" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40982</v>
+      </c>
+      <c r="E72" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>14</v>
+      </c>
+      <c r="F72" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G72" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" s="10">
+        <v>-600</v>
+      </c>
+      <c r="L72" s="6">
+        <v>319.85000000000002</v>
+      </c>
+      <c r="M72" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.53308333333333335</v>
+      </c>
+      <c r="N72" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.30665000000000003</v>
+      </c>
+      <c r="O72" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0.73840969617913998</v>
+      </c>
+      <c r="P72" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>135.85999999999999</v>
+      </c>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>135.85999999999999</v>
+      </c>
+      <c r="T72" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U72" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" s="10">
+        <v>201213</v>
+      </c>
+      <c r="B73" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>PETRD24_201213</v>
+      </c>
+      <c r="C73" s="4">
+        <v>40981</v>
+      </c>
+      <c r="D73" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40982</v>
+      </c>
+      <c r="E73" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>14</v>
+      </c>
+      <c r="F73" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G73" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K73" s="10">
+        <v>200</v>
+      </c>
+      <c r="L73" s="6">
+        <v>-176.14</v>
+      </c>
+      <c r="M73" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.88069999999999993</v>
+      </c>
+      <c r="N73" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T73" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U73" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" s="10">
+        <v>201211</v>
+      </c>
+      <c r="B74" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>VALEC40_201211</v>
+      </c>
+      <c r="C74" s="4">
+        <v>40981</v>
+      </c>
+      <c r="D74" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40982</v>
+      </c>
+      <c r="E74" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>14</v>
+      </c>
+      <c r="F74" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G74" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74" s="10">
+        <v>-400</v>
+      </c>
+      <c r="L74" s="6">
+        <v>303.86</v>
+      </c>
+      <c r="M74" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.75965000000000005</v>
+      </c>
+      <c r="N74" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.439975</v>
+      </c>
+      <c r="O74" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0.72657537360077296</v>
+      </c>
+      <c r="P74" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>127.87000000000002</v>
+      </c>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>127.87000000000002</v>
+      </c>
+      <c r="T74" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U74" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" s="10">
+        <v>201214</v>
+      </c>
+      <c r="B75" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>PETRC25_201214</v>
+      </c>
+      <c r="C75" s="4">
+        <v>40982</v>
+      </c>
+      <c r="D75" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40983</v>
+      </c>
+      <c r="E75" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>15</v>
+      </c>
+      <c r="F75" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G75" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75" s="10">
+        <v>0</v>
+      </c>
+      <c r="L75" s="6">
+        <v>277.23</v>
+      </c>
+      <c r="M75" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>277.23</v>
+      </c>
+      <c r="Q75" s="12">
+        <v>2.81</v>
+      </c>
+      <c r="R75" s="12">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S75" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>281.20000000000005</v>
+      </c>
+      <c r="T75" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>D</v>
+      </c>
+      <c r="U75" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" s="10">
+        <v>201215</v>
+      </c>
+      <c r="B76" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>VALEC43_201215</v>
+      </c>
+      <c r="C76" s="4">
+        <v>40982</v>
+      </c>
+      <c r="D76" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40983</v>
+      </c>
+      <c r="E76" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>15</v>
+      </c>
+      <c r="F76" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G76" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K76" s="10">
+        <v>800</v>
+      </c>
+      <c r="L76" s="6">
+        <v>-328.19</v>
+      </c>
+      <c r="M76" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.41023749999999998</v>
+      </c>
+      <c r="N76" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T76" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U76" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="10">
+        <v>201209</v>
+      </c>
+      <c r="B77" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>BEEF3_201209</v>
+      </c>
+      <c r="C77" s="4">
+        <v>40981</v>
+      </c>
+      <c r="D77" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40984</v>
+      </c>
+      <c r="E77" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>16</v>
+      </c>
+      <c r="F77" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G77" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" s="10">
+        <v>200</v>
+      </c>
+      <c r="L77" s="6">
+        <v>-1326.22</v>
+      </c>
+      <c r="M77" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>6.6311</v>
+      </c>
+      <c r="N77" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>6.2889999999999997</v>
+      </c>
+      <c r="O77" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-5.1590233897845006E-2</v>
+      </c>
+      <c r="P77" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-68.420000000000059</v>
+      </c>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-68.420000000000059</v>
+      </c>
+      <c r="T77" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U77" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>6473.37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="10">
+        <v>201216</v>
+      </c>
+      <c r="B78" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>VALED43_201216</v>
+      </c>
+      <c r="C78" s="4">
+        <v>40983</v>
+      </c>
+      <c r="D78" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40984</v>
+      </c>
+      <c r="E78" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>16</v>
+      </c>
+      <c r="F78" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G78" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78" s="10">
+        <v>500</v>
+      </c>
+      <c r="L78" s="6">
+        <v>-376.24</v>
+      </c>
+      <c r="M78" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.75248000000000004</v>
+      </c>
+      <c r="N78" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>0</v>
+      </c>
+      <c r="T78" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U78" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="10">
+        <v>201213</v>
+      </c>
+      <c r="B79" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>PETRD24_201213</v>
+      </c>
+      <c r="C79" s="4">
+        <v>40984</v>
+      </c>
+      <c r="D79" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40987</v>
+      </c>
+      <c r="E79" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>19</v>
+      </c>
+      <c r="F79" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G79" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79" s="10">
+        <v>-100</v>
+      </c>
+      <c r="L79" s="6">
+        <v>89.97</v>
+      </c>
+      <c r="M79" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.89969999999999994</v>
+      </c>
+      <c r="N79" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.88069999999999993</v>
+      </c>
+      <c r="O79" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>2.1573748154876782E-2</v>
+      </c>
+      <c r="P79" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>1.9000000000000017</v>
+      </c>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>1.9000000000000017</v>
+      </c>
+      <c r="T79" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U79" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="10">
+        <v>201215</v>
+      </c>
+      <c r="B80" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>VALEC43_201215</v>
+      </c>
+      <c r="C80" s="4">
+        <v>40984</v>
+      </c>
+      <c r="D80" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40987</v>
+      </c>
+      <c r="E80" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>19</v>
+      </c>
+      <c r="F80" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G80" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80" s="10">
+        <v>-800</v>
+      </c>
+      <c r="L80" s="6">
+        <v>151.96</v>
+      </c>
+      <c r="M80" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.18995000000000001</v>
+      </c>
+      <c r="N80" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.41023749999999998</v>
+      </c>
+      <c r="O80" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-0.53697553246594953</v>
+      </c>
+      <c r="P80" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-176.22999999999996</v>
+      </c>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-176.22999999999996</v>
+      </c>
+      <c r="T80" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U80" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="10">
+        <v>201216</v>
+      </c>
+      <c r="B81" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>VALED43_201216</v>
+      </c>
+      <c r="C81" s="4">
+        <v>40984</v>
+      </c>
+      <c r="D81" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40987</v>
+      </c>
+      <c r="E81" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>19</v>
+      </c>
+      <c r="F81" s="5">
+        <f>MONTH([Data Liquidação])</f>
+        <v>3</v>
+      </c>
+      <c r="G81" s="8">
+        <f>YEAR(Tabela1[[#This Row],[Data Liquidação]])</f>
+        <v>2012</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81" s="10">
+        <v>-500</v>
+      </c>
+      <c r="L81" s="6">
+        <v>303.95999999999998</v>
+      </c>
+      <c r="M81" s="14">
+        <f>IF([Quantidade]&lt;&gt;0,ABS([Líquido])/ABS([Quantidade]),0)</f>
+        <v>0.6079199999999999</v>
+      </c>
+      <c r="N81" s="16">
+        <f>IF([C/V]="C",IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&gt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&gt;0),[Quantidade]),0),     IF(SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),[Quantidade])&lt;0,SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Líquido]))/SUMPRODUCT(N([ID]=Tabela1[[#This Row],[ID]]),N([Data]&lt;Tabela1[[#This Row],[Data]]),N([Quantidade]&lt;0),ABS([Quantidade])),0))</f>
+        <v>0.75248000000000004</v>
+      </c>
+      <c r="O81" s="25">
+        <f>IF(Tabela1[[#This Row],[PM Papel]]&gt;0,IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Operação]],Tabela1[[#This Row],[PM Papel]])/IF(Tabela1[[#This Row],[C/V]]="C",Tabela1[[#This Row],[PM Papel]],Tabela1[[#This Row],[PM Operação]])-1,0)</f>
+        <v>-0.19211141824367439</v>
+      </c>
+      <c r="P81" s="12">
+        <f>IF([C/V]="C",IF([Quantidade]&lt;0,(Tabela1[[#This Row],[PM Operação]]-Tabela1[[#This Row],[PM Papel]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)),    IF([Quantidade]&gt;0,(Tabela1[[#This Row],[PM Papel]]-Tabela1[[#This Row],[PM Operação]])*ABS([Quantidade]),IF([Quantidade]=0,[Líquido],0)))</f>
+        <v>-72.280000000000072</v>
+      </c>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12">
+        <f>Tabela1[[#This Row],[Resultado]]+Tabela1[[#This Row],[IRFF]]+Tabela1[[#This Row],[Outras Bovespa]]</f>
+        <v>-72.280000000000072</v>
+      </c>
+      <c r="T81" s="10" t="str">
+        <f>IF([Quantidade]=0,"D","N")</f>
+        <v>N</v>
+      </c>
+      <c r="U81" s="12">
+        <f>IF([Tipo]="Ação",SUMPRODUCT(N([Ano]=Tabela1[[#This Row],[Ano]]),N([Mês]=Tabela1[[#This Row],[Mês]]),N([Quantidade]&lt;0),N([Tipo]="Ação"),ABS([Líquido])),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="10">
+        <v>201217</v>
+      </c>
+      <c r="B82" s="10" t="str">
+        <f>CONCATENATE(Tabela1[[#This Row],[Papel]],"_",Tabela1[[#This Row],[Trade]])</f>
+        <v>BEEF3_201217</v>
+      </c>
+      <c r="C82" s="4">
+        <v>40989</v>
+      </c>
+      <c r="D82" s="4">
+        <f>WORKDAY(Tabela1[[#This Row],[Data]],IF(Tabela1[[#This Row],[Tipo]]="Opção",1,3))</f>
+        <v>40994</v>
+      </c>
+      <c r="E82" s="8">
+        <f>DAY(Tabela1[[#This Row],[Data Liqui